--- a/refreshed_daily_deaths_trust.xlsx
+++ b/refreshed_daily_deaths_trust.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NHS CB\Analytical Services (Outcomes Analysis Team)\COVID-19 deaths\Daily reports\24 May\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NHS CB\Analytical Services (Outcomes Analysis Team)\COVID-19 deaths\Daily reports\25 May\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6607A1-CF78-4738-BEDC-5C7658224054}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7CBD853-6493-4527-8535-D1BAED773849}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D50E4640-1E74-485D-A21B-E3C1AF2965F6}"/>
+    <workbookView xWindow="-28920" yWindow="-1905" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{8BEB2997-66E4-4B38-A415-05FC96273E7A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Contents" sheetId="2" r:id="rId1"/>
-    <sheet name="Fig1 All deaths" sheetId="3" r:id="rId2"/>
-    <sheet name="Tab1 Deaths by region" sheetId="4" r:id="rId3"/>
-    <sheet name="Tab2 Deaths - no post test" sheetId="5" r:id="rId4"/>
-    <sheet name="Tab3 Deaths by age" sheetId="6" r:id="rId5"/>
-    <sheet name="Tab4 Deaths by trust" sheetId="7" r:id="rId6"/>
+    <sheet name="Contents" sheetId="1" r:id="rId1"/>
+    <sheet name="Fig1 All deaths" sheetId="2" r:id="rId2"/>
+    <sheet name="Tab1 Deaths by region" sheetId="3" r:id="rId3"/>
+    <sheet name="Tab2 Deaths - no post test" sheetId="4" r:id="rId4"/>
+    <sheet name="Tab3 Deaths by age" sheetId="5" r:id="rId5"/>
+    <sheet name="Tab4 Deaths by trust" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="501">
   <si>
     <t>Title:</t>
   </si>
@@ -1546,10 +1546,10 @@
     <t>YEOVIL DISTRICT HOSPITAL NHS FOUNDATION TRUST</t>
   </si>
   <si>
-    <t>All data up to 5pm 23 May 2020</t>
+    <t>All data up to 5pm 24 May 2020</t>
   </si>
   <si>
-    <t>24 May 2020</t>
+    <t>25 May 2020</t>
   </si>
 </sst>
 </file>
@@ -2393,43 +2393,60 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>231323</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:colOff>1006928</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>227774</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>39835</xdr:rowOff>
+      <xdr:rowOff>105047</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E086B9D-BAE0-45EA-B71E-287F599A68D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94BFFDF-042F-44E2-AABB-5B1B99D2989D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="364673" y="2637064"/>
-          <a:ext cx="9217477" cy="6013371"/>
+          <a:off x="1144088" y="2705100"/>
+          <a:ext cx="9589761" cy="5717177"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2441,7 +2458,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Sheet1"/>
       <sheetName val="Clean case list"/>
       <sheetName val="Dates"/>
       <sheetName val="Contents"/>
@@ -2452,15 +2468,14 @@
       <sheetName val="Tab4 Deaths by trust"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2762,35 +2777,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63987B3-C330-4E4D-93B2-187D7F5C2836}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AB7D27-5137-459B-A25C-EEEF8131EFEA}">
   <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="11" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" style="27" customWidth="1"/>
-    <col min="4" max="9" width="15.28515625" style="27" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="27" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" style="27" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="27" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="27" customWidth="1"/>
-    <col min="14" max="14" width="16.85546875" style="27" customWidth="1"/>
-    <col min="15" max="16" width="15.28515625" style="27" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="27" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" style="27" customWidth="1"/>
-    <col min="19" max="21" width="15.28515625" style="27" customWidth="1"/>
-    <col min="22" max="53" width="15.42578125" style="27" customWidth="1"/>
-    <col min="54" max="54" width="2.5703125" style="27" customWidth="1"/>
-    <col min="55" max="55" width="15.28515625" style="27" customWidth="1"/>
-    <col min="56" max="56" width="2.5703125" style="27" customWidth="1"/>
-    <col min="57" max="64" width="15.28515625" style="27" customWidth="1"/>
-    <col min="65" max="16384" width="9.140625" style="27"/>
+    <col min="2" max="2" width="17.88671875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="41.5546875" style="27" customWidth="1"/>
+    <col min="4" max="9" width="15.33203125" style="27" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="27" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" style="27" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" style="27" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" style="27" customWidth="1"/>
+    <col min="15" max="16" width="15.33203125" style="27" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" style="27" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" style="27" customWidth="1"/>
+    <col min="19" max="21" width="15.33203125" style="27" customWidth="1"/>
+    <col min="22" max="53" width="15.44140625" style="27" customWidth="1"/>
+    <col min="54" max="54" width="2.5546875" style="27" customWidth="1"/>
+    <col min="55" max="55" width="15.33203125" style="27" customWidth="1"/>
+    <col min="56" max="56" width="2.5546875" style="27" customWidth="1"/>
+    <col min="57" max="64" width="15.33203125" style="27" customWidth="1"/>
+    <col min="65" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
@@ -2801,7 +2818,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:57" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -2868,7 +2885,7 @@
       <c r="BD2" s="10"/>
       <c r="BE2" s="10"/>
     </row>
-    <row r="3" spans="1:57" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" s="11" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -2931,7 +2948,7 @@
       <c r="BD3" s="10"/>
       <c r="BE3" s="10"/>
     </row>
-    <row r="4" spans="1:57" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:57" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -2994,7 +3011,7 @@
       <c r="BD4" s="10"/>
       <c r="BE4" s="10"/>
     </row>
-    <row r="5" spans="1:57" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:57" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -3057,7 +3074,7 @@
       <c r="BD5" s="10"/>
       <c r="BE5" s="10"/>
     </row>
-    <row r="6" spans="1:57" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:57" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>8</v>
@@ -3120,7 +3137,7 @@
       <c r="BD6" s="10"/>
       <c r="BE6" s="10"/>
     </row>
-    <row r="7" spans="1:57" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:57" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -3183,7 +3200,7 @@
       <c r="BD7" s="10"/>
       <c r="BE7" s="10"/>
     </row>
-    <row r="8" spans="1:57" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:57" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -3246,7 +3263,7 @@
       <c r="BD8" s="10"/>
       <c r="BE8" s="10"/>
     </row>
-    <row r="9" spans="1:57" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:57" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="15" t="s">
         <v>13</v>
@@ -3309,7 +3326,7 @@
       <c r="BD9" s="10"/>
       <c r="BE9" s="10"/>
     </row>
-    <row r="10" spans="1:57" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="15" t="s">
         <v>15</v>
@@ -3372,7 +3389,7 @@
       <c r="BD10" s="10"/>
       <c r="BE10" s="10"/>
     </row>
-    <row r="11" spans="1:57" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:57" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3431,7 +3448,7 @@
       <c r="BD11" s="10"/>
       <c r="BE11" s="10"/>
     </row>
-    <row r="12" spans="1:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="24" t="s">
         <v>17</v>
@@ -3492,7 +3509,7 @@
       <c r="BD12" s="26"/>
       <c r="BE12" s="26"/>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3551,27 +3568,27 @@
       <c r="BD13" s="28"/>
       <c r="BE13" s="28"/>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B15" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.3">
       <c r="B16" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="29" t="s">
         <v>22</v>
       </c>
@@ -3582,11 +3599,11 @@
     <mergeCell ref="B12:E12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B14" location="'Fig1 All deaths'!A1" display="Fig 1: All deaths by date of death" xr:uid="{4142A0E1-FD9B-498D-A563-8ECBE8FF305E}"/>
-    <hyperlink ref="B15" location="'Tab1 Deaths by region'!A1" display="Table 1: COVID-19 deaths by region and date of death" xr:uid="{0BBE059E-2B9C-4501-805C-A5D5A7976D52}"/>
-    <hyperlink ref="B16" location="'Tab2 Deaths - no post test'!A1" display="Table 2: COVID-19 deaths by region and date of death and where a positive test result for COVID-19 was not received but COVID-19 is mentioned on their death certificate" xr:uid="{859994CA-88CB-42DE-ACE2-6F81FB467D22}"/>
-    <hyperlink ref="B17" location="'Tab3 Deaths by age'!A1" display="Table 3: COVID-19 deaths by age band and date of death" xr:uid="{179D5F6C-F322-4A2D-B1A4-161B932F718D}"/>
-    <hyperlink ref="B18" location="'Tab4 Deaths by trust'!A1" display="Table 4: COVID-19 deaths by trust" xr:uid="{D2F08238-F352-4B66-8A92-D23A836D8D82}"/>
+    <hyperlink ref="B14" location="'Fig1 All deaths'!A1" display="Fig 1: All deaths by date of death" xr:uid="{4CF1B563-3F88-4AFD-8666-DA7035E8C25D}"/>
+    <hyperlink ref="B15" location="'Tab1 Deaths by region'!A1" display="Table 1: COVID-19 deaths by region and date of death" xr:uid="{2A657305-8CA3-4279-BB58-A932ED92B1B7}"/>
+    <hyperlink ref="B16" location="'Tab2 Deaths - no post test'!A1" display="Table 2: COVID-19 deaths by region and date of death and where a positive test result for COVID-19 was not received but COVID-19 is mentioned on their death certificate" xr:uid="{66B1A4B2-F474-4581-BBCF-835B436C8388}"/>
+    <hyperlink ref="B17" location="'Tab3 Deaths by age'!A1" display="Table 3: COVID-19 deaths by age band and date of death" xr:uid="{BE6A1AC3-1403-455D-9B40-A662E0168C60}"/>
+    <hyperlink ref="B18" location="'Tab4 Deaths by trust'!A1" display="Table 4: COVID-19 deaths by trust" xr:uid="{C41B0C93-FC84-4BAE-8E46-F834CD016628}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -3594,47 +3611,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0426B4B9-FB3B-4488-BD4D-2D7601982CD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4929A5-D55C-4C60-BACF-B335661A6473}">
   <dimension ref="A1:CT13"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="27" customWidth="1"/>
-    <col min="5" max="10" width="15.28515625" style="27" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="27" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="27" customWidth="1"/>
-    <col min="13" max="13" width="15.28515625" style="27" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="27" customWidth="1"/>
-    <col min="15" max="15" width="16.85546875" style="27" customWidth="1"/>
-    <col min="16" max="17" width="15.28515625" style="27" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="27" customWidth="1"/>
-    <col min="19" max="19" width="16.85546875" style="27" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="27" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="27" customWidth="1"/>
-    <col min="22" max="22" width="16.85546875" style="27" customWidth="1"/>
-    <col min="23" max="24" width="15.28515625" style="27" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" style="27" customWidth="1"/>
-    <col min="26" max="26" width="16.85546875" style="27" customWidth="1"/>
-    <col min="27" max="27" width="15.28515625" style="27" customWidth="1"/>
-    <col min="28" max="28" width="15.42578125" style="27" customWidth="1"/>
-    <col min="29" max="29" width="16.85546875" style="27" customWidth="1"/>
-    <col min="30" max="31" width="15.28515625" style="27" customWidth="1"/>
-    <col min="32" max="32" width="15.42578125" style="27" customWidth="1"/>
-    <col min="33" max="94" width="16.85546875" style="27" customWidth="1"/>
-    <col min="95" max="95" width="2.5703125" style="27" customWidth="1"/>
-    <col min="96" max="96" width="15.28515625" style="27" customWidth="1"/>
-    <col min="97" max="97" width="2.5703125" style="27" customWidth="1"/>
-    <col min="98" max="105" width="15.28515625" style="27" customWidth="1"/>
-    <col min="106" max="16384" width="9.140625" style="27"/>
+    <col min="2" max="2" width="14.6640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="41.5546875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="27" customWidth="1"/>
+    <col min="5" max="10" width="15.33203125" style="27" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="27" customWidth="1"/>
+    <col min="12" max="12" width="16.88671875" style="27" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="27" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" style="27" customWidth="1"/>
+    <col min="15" max="15" width="16.88671875" style="27" customWidth="1"/>
+    <col min="16" max="17" width="15.33203125" style="27" customWidth="1"/>
+    <col min="18" max="18" width="15.44140625" style="27" customWidth="1"/>
+    <col min="19" max="19" width="16.88671875" style="27" customWidth="1"/>
+    <col min="20" max="20" width="15.33203125" style="27" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="27" customWidth="1"/>
+    <col min="22" max="22" width="16.88671875" style="27" customWidth="1"/>
+    <col min="23" max="24" width="15.33203125" style="27" customWidth="1"/>
+    <col min="25" max="25" width="15.44140625" style="27" customWidth="1"/>
+    <col min="26" max="26" width="16.88671875" style="27" customWidth="1"/>
+    <col min="27" max="27" width="15.33203125" style="27" customWidth="1"/>
+    <col min="28" max="28" width="15.44140625" style="27" customWidth="1"/>
+    <col min="29" max="29" width="16.88671875" style="27" customWidth="1"/>
+    <col min="30" max="31" width="15.33203125" style="27" customWidth="1"/>
+    <col min="32" max="32" width="15.44140625" style="27" customWidth="1"/>
+    <col min="33" max="94" width="16.88671875" style="27" customWidth="1"/>
+    <col min="95" max="95" width="2.5546875" style="27" customWidth="1"/>
+    <col min="96" max="96" width="15.33203125" style="27" customWidth="1"/>
+    <col min="97" max="97" width="2.5546875" style="27" customWidth="1"/>
+    <col min="98" max="105" width="15.33203125" style="27" customWidth="1"/>
+    <col min="106" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:98" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:98" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:98" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -3743,7 +3760,7 @@
       <c r="CR2" s="10"/>
       <c r="CT2" s="10"/>
     </row>
-    <row r="3" spans="1:98" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:98" s="11" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -3846,7 +3863,7 @@
       <c r="CR3" s="10"/>
       <c r="CT3" s="10"/>
     </row>
-    <row r="4" spans="1:98" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:98" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -3949,7 +3966,7 @@
       <c r="CR4" s="10"/>
       <c r="CT4" s="10"/>
     </row>
-    <row r="5" spans="1:98" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:98" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -4052,7 +4069,7 @@
       <c r="CR5" s="10"/>
       <c r="CT5" s="10"/>
     </row>
-    <row r="6" spans="1:98" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:98" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>8</v>
@@ -4155,7 +4172,7 @@
       <c r="CR6" s="10"/>
       <c r="CT6" s="10"/>
     </row>
-    <row r="7" spans="1:98" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:98" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -4258,7 +4275,7 @@
       <c r="CR7" s="10"/>
       <c r="CT7" s="10"/>
     </row>
-    <row r="8" spans="1:98" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:98" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -4361,7 +4378,7 @@
       <c r="CR8" s="10"/>
       <c r="CT8" s="10"/>
     </row>
-    <row r="9" spans="1:98" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:98" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="15" t="s">
         <v>13</v>
@@ -4464,7 +4481,7 @@
       <c r="CR9" s="10"/>
       <c r="CT9" s="10"/>
     </row>
-    <row r="10" spans="1:98" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:98" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="15" t="s">
         <v>15</v>
@@ -4567,7 +4584,7 @@
       <c r="CR10" s="10"/>
       <c r="CT10" s="10"/>
     </row>
-    <row r="11" spans="1:98" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:98" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -4666,7 +4683,7 @@
       <c r="CR11" s="35"/>
       <c r="CT11" s="35"/>
     </row>
-    <row r="12" spans="1:98" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:98" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="24" t="s">
         <v>25</v>
@@ -4767,7 +4784,7 @@
       <c r="CR12" s="26"/>
       <c r="CT12" s="26"/>
     </row>
-    <row r="13" spans="1:98" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:98" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -4878,28 +4895,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE37683-DBB8-4A48-BDBE-F35015FB3A36}">
-  <dimension ref="A1:DC25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B781B317-EE21-4892-A3E2-0774FF984A3D}">
+  <dimension ref="A1:DD25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="27" customWidth="1"/>
-    <col min="5" max="88" width="15.42578125" style="27" customWidth="1"/>
-    <col min="89" max="89" width="2.5703125" style="27" customWidth="1"/>
-    <col min="90" max="90" width="15.28515625" style="27" customWidth="1"/>
-    <col min="91" max="91" width="2.5703125" style="27" customWidth="1"/>
-    <col min="92" max="92" width="15.42578125" style="27" customWidth="1"/>
-    <col min="93" max="99" width="15.28515625" style="27" customWidth="1"/>
-    <col min="100" max="16384" width="9.140625" style="27"/>
+    <col min="2" max="2" width="14.6640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="41.5546875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="27" customWidth="1"/>
+    <col min="5" max="89" width="15.44140625" style="27" customWidth="1"/>
+    <col min="90" max="90" width="2.5546875" style="27" customWidth="1"/>
+    <col min="91" max="91" width="15.33203125" style="27" customWidth="1"/>
+    <col min="92" max="92" width="2.5546875" style="27" customWidth="1"/>
+    <col min="93" max="93" width="15.44140625" style="27" customWidth="1"/>
+    <col min="94" max="100" width="15.33203125" style="27" customWidth="1"/>
+    <col min="101" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:92" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:93" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -4998,12 +5017,13 @@
       <c r="CH2" s="3"/>
       <c r="CI2" s="3"/>
       <c r="CJ2" s="3"/>
-      <c r="CK2" s="10"/>
+      <c r="CK2" s="3"/>
       <c r="CL2" s="10"/>
       <c r="CM2" s="10"/>
       <c r="CN2" s="10"/>
+      <c r="CO2" s="10"/>
     </row>
-    <row r="3" spans="1:92" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:93" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -5096,12 +5116,13 @@
       <c r="CH3" s="3"/>
       <c r="CI3" s="3"/>
       <c r="CJ3" s="3"/>
-      <c r="CK3" s="10"/>
+      <c r="CK3" s="3"/>
       <c r="CL3" s="10"/>
       <c r="CM3" s="10"/>
       <c r="CN3" s="10"/>
+      <c r="CO3" s="10"/>
     </row>
-    <row r="4" spans="1:92" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:93" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -5194,12 +5215,13 @@
       <c r="CH4" s="3"/>
       <c r="CI4" s="3"/>
       <c r="CJ4" s="3"/>
-      <c r="CK4" s="10"/>
+      <c r="CK4" s="3"/>
       <c r="CL4" s="10"/>
       <c r="CM4" s="10"/>
       <c r="CN4" s="10"/>
+      <c r="CO4" s="10"/>
     </row>
-    <row r="5" spans="1:92" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -5292,12 +5314,13 @@
       <c r="CH5" s="3"/>
       <c r="CI5" s="3"/>
       <c r="CJ5" s="3"/>
-      <c r="CK5" s="10"/>
+      <c r="CK5" s="3"/>
       <c r="CL5" s="10"/>
       <c r="CM5" s="10"/>
       <c r="CN5" s="10"/>
+      <c r="CO5" s="10"/>
     </row>
-    <row r="6" spans="1:92" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>8</v>
@@ -5390,12 +5413,13 @@
       <c r="CH6" s="3"/>
       <c r="CI6" s="3"/>
       <c r="CJ6" s="3"/>
-      <c r="CK6" s="10"/>
+      <c r="CK6" s="3"/>
       <c r="CL6" s="10"/>
       <c r="CM6" s="10"/>
       <c r="CN6" s="10"/>
+      <c r="CO6" s="10"/>
     </row>
-    <row r="7" spans="1:92" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -5488,12 +5512,13 @@
       <c r="CH7" s="3"/>
       <c r="CI7" s="3"/>
       <c r="CJ7" s="3"/>
-      <c r="CK7" s="10"/>
+      <c r="CK7" s="3"/>
       <c r="CL7" s="10"/>
       <c r="CM7" s="10"/>
       <c r="CN7" s="10"/>
+      <c r="CO7" s="10"/>
     </row>
-    <row r="8" spans="1:92" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -5586,12 +5611,13 @@
       <c r="CH8" s="3"/>
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
-      <c r="CK8" s="10"/>
+      <c r="CK8" s="3"/>
       <c r="CL8" s="10"/>
       <c r="CM8" s="10"/>
       <c r="CN8" s="10"/>
+      <c r="CO8" s="10"/>
     </row>
-    <row r="9" spans="1:92" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="15" t="s">
         <v>13</v>
@@ -5684,12 +5710,13 @@
       <c r="CH9" s="3"/>
       <c r="CI9" s="3"/>
       <c r="CJ9" s="3"/>
-      <c r="CK9" s="10"/>
+      <c r="CK9" s="3"/>
       <c r="CL9" s="10"/>
       <c r="CM9" s="10"/>
       <c r="CN9" s="10"/>
+      <c r="CO9" s="10"/>
     </row>
-    <row r="10" spans="1:92" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="15" t="s">
         <v>15</v>
@@ -5782,12 +5809,13 @@
       <c r="CH10" s="3"/>
       <c r="CI10" s="3"/>
       <c r="CJ10" s="3"/>
-      <c r="CK10" s="10"/>
+      <c r="CK10" s="3"/>
       <c r="CL10" s="10"/>
       <c r="CM10" s="10"/>
       <c r="CN10" s="10"/>
+      <c r="CO10" s="10"/>
     </row>
-    <row r="11" spans="1:92" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5876,12 +5904,13 @@
       <c r="CH11" s="3"/>
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
-      <c r="CK11" s="10"/>
+      <c r="CK11" s="3"/>
       <c r="CL11" s="10"/>
       <c r="CM11" s="10"/>
       <c r="CN11" s="10"/>
+      <c r="CO11" s="10"/>
     </row>
-    <row r="12" spans="1:92" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:93" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="24" t="s">
         <v>28</v>
@@ -5972,12 +6001,13 @@
       <c r="CH12" s="25"/>
       <c r="CI12" s="25"/>
       <c r="CJ12" s="25"/>
-      <c r="CK12" s="26"/>
+      <c r="CK12" s="25"/>
       <c r="CL12" s="26"/>
       <c r="CM12" s="26"/>
       <c r="CN12" s="26"/>
+      <c r="CO12" s="26"/>
     </row>
-    <row r="13" spans="1:92" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:93" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -6066,12 +6096,13 @@
       <c r="CH13" s="25"/>
       <c r="CI13" s="25"/>
       <c r="CJ13" s="25"/>
-      <c r="CK13" s="26"/>
+      <c r="CK13" s="25"/>
       <c r="CL13" s="26"/>
       <c r="CM13" s="26"/>
       <c r="CN13" s="26"/>
+      <c r="CO13" s="26"/>
     </row>
-    <row r="14" spans="1:92" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:93" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="36" t="s">
         <v>29</v>
@@ -6162,12 +6193,13 @@
       <c r="CH14" s="25"/>
       <c r="CI14" s="25"/>
       <c r="CJ14" s="25"/>
-      <c r="CK14" s="26"/>
+      <c r="CK14" s="25"/>
       <c r="CL14" s="26"/>
       <c r="CM14" s="26"/>
       <c r="CN14" s="26"/>
+      <c r="CO14" s="26"/>
     </row>
-    <row r="15" spans="1:92" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:93" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6397,15 +6429,18 @@
         <v>30</v>
       </c>
       <c r="CC15" s="40"/>
-      <c r="CF15" s="40" t="s">
+      <c r="CG15" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="CK15" s="28"/>
+      <c r="CK15" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="CL15" s="28"/>
       <c r="CM15" s="28"/>
       <c r="CN15" s="28"/>
+      <c r="CO15" s="28"/>
     </row>
-    <row r="16" spans="1:92" s="44" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:93" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="41" t="s">
         <v>32</v>
@@ -6666,14 +6701,17 @@
       <c r="CJ16" s="43">
         <v>43974</v>
       </c>
-      <c r="CL16" s="43" t="s">
+      <c r="CK16" s="43">
+        <v>43975</v>
+      </c>
+      <c r="CM16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="CN16" s="43" t="s">
+      <c r="CO16" s="43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:108" x14ac:dyDescent="0.3">
       <c r="B17" s="45" t="s">
         <v>36</v>
       </c>
@@ -6910,7 +6948,7 @@
         <v>162</v>
       </c>
       <c r="CC17" s="47">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="CD17" s="47">
         <v>131</v>
@@ -6919,30 +6957,33 @@
         <v>131</v>
       </c>
       <c r="CF17" s="47">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="CG17" s="47">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="CH17" s="47">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="CI17" s="47">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="CJ17" s="47">
-        <v>28</v>
-      </c>
-      <c r="CK17" s="40"/>
-      <c r="CL17" s="48">
-        <v>0</v>
-      </c>
-      <c r="CM17" s="40"/>
-      <c r="CN17" s="48">
-        <v>25692</v>
+        <v>56</v>
+      </c>
+      <c r="CK17" s="47">
+        <v>19</v>
+      </c>
+      <c r="CL17" s="40"/>
+      <c r="CM17" s="48">
+        <v>0</v>
+      </c>
+      <c r="CN17" s="40"/>
+      <c r="CO17" s="48">
+        <v>25751</v>
       </c>
     </row>
-    <row r="18" spans="1:107" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:108" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="49"/>
@@ -7046,8 +7087,9 @@
       <c r="DA18" s="49"/>
       <c r="DB18" s="49"/>
       <c r="DC18" s="49"/>
+      <c r="DD18" s="49"/>
     </row>
-    <row r="19" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="50" t="s">
         <v>37</v>
@@ -7285,7 +7327,7 @@
         <v>18</v>
       </c>
       <c r="CC19" s="53">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CD19" s="53">
         <v>15</v>
@@ -7300,22 +7342,25 @@
         <v>21</v>
       </c>
       <c r="CH19" s="53">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CI19" s="53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CJ19" s="53">
-        <v>2</v>
-      </c>
-      <c r="CL19" s="53">
-        <v>0</v>
-      </c>
-      <c r="CN19" s="53">
-        <v>2982</v>
+        <v>5</v>
+      </c>
+      <c r="CK19" s="53">
+        <v>4</v>
+      </c>
+      <c r="CM19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CO19" s="53">
+        <v>2992</v>
       </c>
     </row>
-    <row r="20" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="54" t="s">
         <v>38</v>
@@ -7568,22 +7613,25 @@
         <v>18</v>
       </c>
       <c r="CH20" s="58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CI20" s="58">
         <v>5</v>
       </c>
       <c r="CJ20" s="58">
-        <v>2</v>
-      </c>
-      <c r="CL20" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN20" s="57">
-        <v>5878</v>
+        <v>4</v>
+      </c>
+      <c r="CK20" s="58">
+        <v>1</v>
+      </c>
+      <c r="CM20" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO20" s="57">
+        <v>5882</v>
       </c>
     </row>
-    <row r="21" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="54" t="s">
         <v>39</v>
@@ -7833,25 +7881,28 @@
         <v>31</v>
       </c>
       <c r="CG21" s="58">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="CH21" s="58">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CI21" s="58">
+        <v>16</v>
+      </c>
+      <c r="CJ21" s="58">
         <v>14</v>
       </c>
-      <c r="CJ21" s="58">
-        <v>7</v>
-      </c>
-      <c r="CL21" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN21" s="57">
-        <v>5052</v>
+      <c r="CK21" s="58">
+        <v>3</v>
+      </c>
+      <c r="CM21" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO21" s="57">
+        <v>5067</v>
       </c>
     </row>
-    <row r="22" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="54" t="s">
         <v>40</v>
@@ -8110,16 +8161,19 @@
         <v>19</v>
       </c>
       <c r="CJ22" s="58">
-        <v>8</v>
-      </c>
-      <c r="CL22" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN22" s="57">
-        <v>3678</v>
+        <v>14</v>
+      </c>
+      <c r="CK22" s="58">
+        <v>7</v>
+      </c>
+      <c r="CM22" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO22" s="57">
+        <v>3691</v>
       </c>
     </row>
-    <row r="23" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="54" t="s">
         <v>41</v>
@@ -8375,19 +8429,22 @@
         <v>20</v>
       </c>
       <c r="CI23" s="58">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CJ23" s="58">
-        <v>7</v>
-      </c>
-      <c r="CL23" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN23" s="57">
-        <v>3968</v>
+        <v>12</v>
+      </c>
+      <c r="CK23" s="58">
+        <v>2</v>
+      </c>
+      <c r="CM23" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO23" s="57">
+        <v>3976</v>
       </c>
     </row>
-    <row r="24" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="54" t="s">
         <v>42</v>
@@ -8643,19 +8700,22 @@
         <v>10</v>
       </c>
       <c r="CI24" s="58">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CJ24" s="58">
-        <v>1</v>
-      </c>
-      <c r="CL24" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN24" s="57">
-        <v>2977</v>
+        <v>3</v>
+      </c>
+      <c r="CK24" s="58">
+        <v>2</v>
+      </c>
+      <c r="CM24" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO24" s="57">
+        <v>2982</v>
       </c>
     </row>
-    <row r="25" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="59" t="s">
         <v>43</v>
@@ -8902,7 +8962,7 @@
         <v>4</v>
       </c>
       <c r="CF25" s="63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CG25" s="63">
         <v>1</v>
@@ -8914,13 +8974,16 @@
         <v>4</v>
       </c>
       <c r="CJ25" s="63">
-        <v>1</v>
-      </c>
-      <c r="CL25" s="62">
-        <v>0</v>
-      </c>
-      <c r="CN25" s="62">
-        <v>1157</v>
+        <v>4</v>
+      </c>
+      <c r="CK25" s="63">
+        <v>0</v>
+      </c>
+      <c r="CM25" s="62">
+        <v>0</v>
+      </c>
+      <c r="CO25" s="62">
+        <v>1161</v>
       </c>
     </row>
   </sheetData>
@@ -8937,7 +9000,7 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
   </mergeCells>
-  <conditionalFormatting sqref="BX16:CJ25">
+  <conditionalFormatting sqref="BX16:CK25">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>TODAY()-BX$16&lt;6</formula>
     </cfRule>
@@ -8948,27 +9011,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4446A2E9-2FB7-4A64-9161-D41E55548C6A}">
-  <dimension ref="A1:DC26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878EF2F9-8DDA-4A56-BD88-CB387A47DDF3}">
+  <dimension ref="A1:DD26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="27" customWidth="1"/>
-    <col min="5" max="88" width="15.42578125" style="27" customWidth="1"/>
-    <col min="89" max="89" width="2.5703125" style="27" customWidth="1"/>
-    <col min="90" max="90" width="15.28515625" style="27" customWidth="1"/>
-    <col min="91" max="91" width="2.5703125" style="27" customWidth="1"/>
-    <col min="92" max="99" width="15.28515625" style="27" customWidth="1"/>
-    <col min="100" max="16384" width="9.140625" style="27"/>
+    <col min="2" max="2" width="14.6640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="41.5546875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="27" customWidth="1"/>
+    <col min="5" max="89" width="15.44140625" style="27" customWidth="1"/>
+    <col min="90" max="90" width="2.5546875" style="27" customWidth="1"/>
+    <col min="91" max="91" width="15.33203125" style="27" customWidth="1"/>
+    <col min="92" max="92" width="2.5546875" style="27" customWidth="1"/>
+    <col min="93" max="100" width="15.33203125" style="27" customWidth="1"/>
+    <col min="101" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:92" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:93" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -9065,12 +9128,13 @@
       <c r="CH2" s="3"/>
       <c r="CI2" s="3"/>
       <c r="CJ2" s="3"/>
-      <c r="CK2" s="10"/>
+      <c r="CK2" s="3"/>
       <c r="CL2" s="10"/>
       <c r="CM2" s="10"/>
       <c r="CN2" s="10"/>
+      <c r="CO2" s="10"/>
     </row>
-    <row r="3" spans="1:92" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:93" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -9163,12 +9227,13 @@
       <c r="CH3" s="3"/>
       <c r="CI3" s="3"/>
       <c r="CJ3" s="3"/>
-      <c r="CK3" s="10"/>
+      <c r="CK3" s="3"/>
       <c r="CL3" s="10"/>
       <c r="CM3" s="10"/>
       <c r="CN3" s="10"/>
+      <c r="CO3" s="10"/>
     </row>
-    <row r="4" spans="1:92" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:93" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -9261,12 +9326,13 @@
       <c r="CH4" s="3"/>
       <c r="CI4" s="3"/>
       <c r="CJ4" s="3"/>
-      <c r="CK4" s="10"/>
+      <c r="CK4" s="3"/>
       <c r="CL4" s="10"/>
       <c r="CM4" s="10"/>
       <c r="CN4" s="10"/>
+      <c r="CO4" s="10"/>
     </row>
-    <row r="5" spans="1:92" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -9359,12 +9425,13 @@
       <c r="CH5" s="3"/>
       <c r="CI5" s="3"/>
       <c r="CJ5" s="3"/>
-      <c r="CK5" s="10"/>
+      <c r="CK5" s="3"/>
       <c r="CL5" s="10"/>
       <c r="CM5" s="10"/>
       <c r="CN5" s="10"/>
+      <c r="CO5" s="10"/>
     </row>
-    <row r="6" spans="1:92" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>8</v>
@@ -9457,12 +9524,13 @@
       <c r="CH6" s="3"/>
       <c r="CI6" s="3"/>
       <c r="CJ6" s="3"/>
-      <c r="CK6" s="10"/>
+      <c r="CK6" s="3"/>
       <c r="CL6" s="10"/>
       <c r="CM6" s="10"/>
       <c r="CN6" s="10"/>
+      <c r="CO6" s="10"/>
     </row>
-    <row r="7" spans="1:92" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -9555,12 +9623,13 @@
       <c r="CH7" s="3"/>
       <c r="CI7" s="3"/>
       <c r="CJ7" s="3"/>
-      <c r="CK7" s="10"/>
+      <c r="CK7" s="3"/>
       <c r="CL7" s="10"/>
       <c r="CM7" s="10"/>
       <c r="CN7" s="10"/>
+      <c r="CO7" s="10"/>
     </row>
-    <row r="8" spans="1:92" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -9653,12 +9722,13 @@
       <c r="CH8" s="3"/>
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
-      <c r="CK8" s="10"/>
+      <c r="CK8" s="3"/>
       <c r="CL8" s="10"/>
       <c r="CM8" s="10"/>
       <c r="CN8" s="10"/>
+      <c r="CO8" s="10"/>
     </row>
-    <row r="9" spans="1:92" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="15" t="s">
         <v>13</v>
@@ -9751,12 +9821,13 @@
       <c r="CH9" s="3"/>
       <c r="CI9" s="3"/>
       <c r="CJ9" s="3"/>
-      <c r="CK9" s="10"/>
+      <c r="CK9" s="3"/>
       <c r="CL9" s="10"/>
       <c r="CM9" s="10"/>
       <c r="CN9" s="10"/>
+      <c r="CO9" s="10"/>
     </row>
-    <row r="10" spans="1:92" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="15" t="s">
         <v>15</v>
@@ -9849,12 +9920,13 @@
       <c r="CH10" s="3"/>
       <c r="CI10" s="3"/>
       <c r="CJ10" s="3"/>
-      <c r="CK10" s="10"/>
+      <c r="CK10" s="3"/>
       <c r="CL10" s="10"/>
       <c r="CM10" s="10"/>
       <c r="CN10" s="10"/>
+      <c r="CO10" s="10"/>
     </row>
-    <row r="11" spans="1:92" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -9943,12 +10015,13 @@
       <c r="CH11" s="3"/>
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
-      <c r="CK11" s="10"/>
+      <c r="CK11" s="3"/>
       <c r="CL11" s="10"/>
       <c r="CM11" s="10"/>
       <c r="CN11" s="10"/>
+      <c r="CO11" s="10"/>
     </row>
-    <row r="12" spans="1:92" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:93" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="24" t="s">
         <v>28</v>
@@ -10039,12 +10112,13 @@
       <c r="CH12" s="25"/>
       <c r="CI12" s="25"/>
       <c r="CJ12" s="25"/>
-      <c r="CK12" s="26"/>
+      <c r="CK12" s="25"/>
       <c r="CL12" s="26"/>
       <c r="CM12" s="26"/>
       <c r="CN12" s="26"/>
+      <c r="CO12" s="26"/>
     </row>
-    <row r="13" spans="1:92" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:93" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -10133,12 +10207,13 @@
       <c r="CH13" s="25"/>
       <c r="CI13" s="25"/>
       <c r="CJ13" s="25"/>
-      <c r="CK13" s="26"/>
+      <c r="CK13" s="25"/>
       <c r="CL13" s="26"/>
       <c r="CM13" s="26"/>
       <c r="CN13" s="26"/>
+      <c r="CO13" s="26"/>
     </row>
-    <row r="14" spans="1:92" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:93" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="36" t="s">
         <v>29</v>
@@ -10229,12 +10304,13 @@
       <c r="CH14" s="25"/>
       <c r="CI14" s="25"/>
       <c r="CJ14" s="25"/>
-      <c r="CK14" s="26"/>
+      <c r="CK14" s="25"/>
       <c r="CL14" s="26"/>
       <c r="CM14" s="26"/>
       <c r="CN14" s="26"/>
+      <c r="CO14" s="26"/>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -10292,19 +10368,19 @@
       <c r="BZ15" s="3"/>
       <c r="CA15" s="3"/>
       <c r="CC15" s="3"/>
-      <c r="CF15" s="3" t="s">
+      <c r="CG15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CG15" s="23"/>
       <c r="CH15" s="23"/>
       <c r="CI15" s="23"/>
       <c r="CJ15" s="23"/>
-      <c r="CK15" s="28"/>
+      <c r="CK15" s="23"/>
       <c r="CL15" s="28"/>
       <c r="CM15" s="28"/>
       <c r="CN15" s="28"/>
+      <c r="CO15" s="28"/>
     </row>
-    <row r="16" spans="1:92" s="44" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:93" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="41" t="s">
         <v>32</v>
@@ -10565,14 +10641,17 @@
       <c r="CJ16" s="43">
         <v>43974</v>
       </c>
-      <c r="CL16" s="43" t="s">
+      <c r="CK16" s="43">
+        <v>43975</v>
+      </c>
+      <c r="CM16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="CN16" s="43" t="s">
+      <c r="CO16" s="43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:108" x14ac:dyDescent="0.3">
       <c r="B17" s="45" t="s">
         <v>36</v>
       </c>
@@ -10809,7 +10888,7 @@
         <v>20</v>
       </c>
       <c r="CC17" s="47">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CD17" s="47">
         <v>20</v>
@@ -10821,7 +10900,7 @@
         <v>22</v>
       </c>
       <c r="CG17" s="47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="CH17" s="47">
         <v>16</v>
@@ -10830,18 +10909,21 @@
         <v>10</v>
       </c>
       <c r="CJ17" s="47">
-        <v>1</v>
-      </c>
-      <c r="CK17" s="40"/>
-      <c r="CL17" s="48">
-        <v>0</v>
-      </c>
-      <c r="CM17" s="40"/>
-      <c r="CN17" s="48">
-        <v>660</v>
+        <v>2</v>
+      </c>
+      <c r="CK17" s="47">
+        <v>0</v>
+      </c>
+      <c r="CL17" s="40"/>
+      <c r="CM17" s="48">
+        <v>0</v>
+      </c>
+      <c r="CN17" s="40"/>
+      <c r="CO17" s="48">
+        <v>664</v>
       </c>
     </row>
-    <row r="18" spans="1:107" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:108" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="49"/>
@@ -10945,8 +11027,9 @@
       <c r="DA18" s="49"/>
       <c r="DB18" s="49"/>
       <c r="DC18" s="49"/>
+      <c r="DD18" s="49"/>
     </row>
-    <row r="19" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="50" t="s">
         <v>37</v>
@@ -11207,14 +11290,17 @@
       <c r="CJ19" s="53">
         <v>0</v>
       </c>
-      <c r="CL19" s="53">
-        <v>0</v>
-      </c>
-      <c r="CN19" s="53">
+      <c r="CK19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CM19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CO19" s="53">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="54" t="s">
         <v>38</v>
@@ -11464,7 +11550,7 @@
         <v>1</v>
       </c>
       <c r="CG20" s="58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CH20" s="58">
         <v>1</v>
@@ -11475,14 +11561,17 @@
       <c r="CJ20" s="58">
         <v>1</v>
       </c>
-      <c r="CL20" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN20" s="57">
-        <v>148</v>
+      <c r="CK20" s="58">
+        <v>0</v>
+      </c>
+      <c r="CM20" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO20" s="57">
+        <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="54" t="s">
         <v>39</v>
@@ -11743,14 +11832,17 @@
       <c r="CJ21" s="58">
         <v>0</v>
       </c>
-      <c r="CL21" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN21" s="57">
+      <c r="CK21" s="58">
+        <v>0</v>
+      </c>
+      <c r="CM21" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO21" s="57">
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="54" t="s">
         <v>40</v>
@@ -12011,14 +12103,17 @@
       <c r="CJ22" s="58">
         <v>0</v>
       </c>
-      <c r="CL22" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN22" s="57">
+      <c r="CK22" s="58">
+        <v>0</v>
+      </c>
+      <c r="CM22" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO22" s="57">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="54" t="s">
         <v>41</v>
@@ -12279,14 +12374,17 @@
       <c r="CJ23" s="58">
         <v>0</v>
       </c>
-      <c r="CL23" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN23" s="57">
+      <c r="CK23" s="58">
+        <v>0</v>
+      </c>
+      <c r="CM23" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO23" s="57">
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="54" t="s">
         <v>42</v>
@@ -12524,7 +12622,7 @@
         <v>2</v>
       </c>
       <c r="CC24" s="58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CD24" s="58">
         <v>5</v>
@@ -12536,7 +12634,7 @@
         <v>1</v>
       </c>
       <c r="CG24" s="58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CH24" s="58">
         <v>3</v>
@@ -12545,16 +12643,19 @@
         <v>1</v>
       </c>
       <c r="CJ24" s="58">
-        <v>0</v>
-      </c>
-      <c r="CL24" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN24" s="57">
-        <v>97</v>
+        <v>1</v>
+      </c>
+      <c r="CK24" s="58">
+        <v>0</v>
+      </c>
+      <c r="CM24" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO24" s="57">
+        <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="59" t="s">
         <v>43</v>
@@ -12815,14 +12916,17 @@
       <c r="CJ25" s="63">
         <v>0</v>
       </c>
-      <c r="CL25" s="62">
-        <v>0</v>
-      </c>
-      <c r="CN25" s="62">
+      <c r="CK25" s="63">
+        <v>0</v>
+      </c>
+      <c r="CM25" s="62">
+        <v>0</v>
+      </c>
+      <c r="CO25" s="62">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:108" x14ac:dyDescent="0.3">
       <c r="BZ26" s="68"/>
       <c r="CA26" s="68"/>
     </row>
@@ -12840,7 +12944,7 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
   </mergeCells>
-  <conditionalFormatting sqref="D16:CJ25">
+  <conditionalFormatting sqref="D16:CK25">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>TODAY()-D$16&lt;6</formula>
     </cfRule>
@@ -12851,27 +12955,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F8CA234-3078-4195-9096-A8B29F244C83}">
-  <dimension ref="A1:DC35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9365FAC8-0E09-4847-BB6B-FEFD1FDE74A6}">
+  <dimension ref="A1:DD35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="11" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="27" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" style="27" customWidth="1"/>
-    <col min="5" max="88" width="15.42578125" style="27" customWidth="1"/>
-    <col min="89" max="89" width="2.5703125" style="27" customWidth="1"/>
-    <col min="90" max="90" width="15.28515625" style="27" customWidth="1"/>
-    <col min="91" max="91" width="2.5703125" style="27" customWidth="1"/>
-    <col min="92" max="99" width="15.28515625" style="27" customWidth="1"/>
-    <col min="100" max="16384" width="9.140625" style="27"/>
+    <col min="2" max="2" width="14.6640625" style="27" customWidth="1"/>
+    <col min="3" max="3" width="41.5546875" style="27" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="27" customWidth="1"/>
+    <col min="5" max="89" width="15.44140625" style="27" customWidth="1"/>
+    <col min="90" max="90" width="2.5546875" style="27" customWidth="1"/>
+    <col min="91" max="91" width="15.33203125" style="27" customWidth="1"/>
+    <col min="92" max="92" width="2.5546875" style="27" customWidth="1"/>
+    <col min="93" max="100" width="15.33203125" style="27" customWidth="1"/>
+    <col min="101" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:92" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:93" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -12970,11 +13074,12 @@
       <c r="CH2" s="3"/>
       <c r="CI2" s="3"/>
       <c r="CJ2" s="3"/>
-      <c r="CK2" s="10"/>
+      <c r="CK2" s="3"/>
       <c r="CL2" s="10"/>
-      <c r="CN2" s="10"/>
+      <c r="CM2" s="10"/>
+      <c r="CO2" s="10"/>
     </row>
-    <row r="3" spans="1:92" s="11" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:93" s="11" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -13067,11 +13172,12 @@
       <c r="CH3" s="3"/>
       <c r="CI3" s="3"/>
       <c r="CJ3" s="3"/>
-      <c r="CK3" s="10"/>
+      <c r="CK3" s="3"/>
       <c r="CL3" s="10"/>
-      <c r="CN3" s="10"/>
+      <c r="CM3" s="10"/>
+      <c r="CO3" s="10"/>
     </row>
-    <row r="4" spans="1:92" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:93" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -13164,11 +13270,12 @@
       <c r="CH4" s="3"/>
       <c r="CI4" s="3"/>
       <c r="CJ4" s="3"/>
-      <c r="CK4" s="10"/>
+      <c r="CK4" s="3"/>
       <c r="CL4" s="10"/>
-      <c r="CN4" s="10"/>
+      <c r="CM4" s="10"/>
+      <c r="CO4" s="10"/>
     </row>
-    <row r="5" spans="1:92" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -13261,11 +13368,12 @@
       <c r="CH5" s="3"/>
       <c r="CI5" s="3"/>
       <c r="CJ5" s="3"/>
-      <c r="CK5" s="10"/>
+      <c r="CK5" s="3"/>
       <c r="CL5" s="10"/>
-      <c r="CN5" s="10"/>
+      <c r="CM5" s="10"/>
+      <c r="CO5" s="10"/>
     </row>
-    <row r="6" spans="1:92" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>8</v>
@@ -13358,11 +13466,12 @@
       <c r="CH6" s="3"/>
       <c r="CI6" s="3"/>
       <c r="CJ6" s="3"/>
-      <c r="CK6" s="10"/>
+      <c r="CK6" s="3"/>
       <c r="CL6" s="10"/>
-      <c r="CN6" s="10"/>
+      <c r="CM6" s="10"/>
+      <c r="CO6" s="10"/>
     </row>
-    <row r="7" spans="1:92" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -13455,11 +13564,12 @@
       <c r="CH7" s="3"/>
       <c r="CI7" s="3"/>
       <c r="CJ7" s="3"/>
-      <c r="CK7" s="10"/>
+      <c r="CK7" s="3"/>
       <c r="CL7" s="10"/>
-      <c r="CN7" s="10"/>
+      <c r="CM7" s="10"/>
+      <c r="CO7" s="10"/>
     </row>
-    <row r="8" spans="1:92" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -13552,11 +13662,12 @@
       <c r="CH8" s="3"/>
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
-      <c r="CK8" s="10"/>
+      <c r="CK8" s="3"/>
       <c r="CL8" s="10"/>
-      <c r="CN8" s="10"/>
+      <c r="CM8" s="10"/>
+      <c r="CO8" s="10"/>
     </row>
-    <row r="9" spans="1:92" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="15" t="s">
         <v>13</v>
@@ -13649,11 +13760,12 @@
       <c r="CH9" s="3"/>
       <c r="CI9" s="3"/>
       <c r="CJ9" s="3"/>
-      <c r="CK9" s="10"/>
+      <c r="CK9" s="3"/>
       <c r="CL9" s="10"/>
-      <c r="CN9" s="10"/>
+      <c r="CM9" s="10"/>
+      <c r="CO9" s="10"/>
     </row>
-    <row r="10" spans="1:92" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="15" t="s">
         <v>15</v>
@@ -13746,11 +13858,12 @@
       <c r="CH10" s="3"/>
       <c r="CI10" s="3"/>
       <c r="CJ10" s="3"/>
-      <c r="CK10" s="10"/>
+      <c r="CK10" s="3"/>
       <c r="CL10" s="10"/>
-      <c r="CN10" s="10"/>
+      <c r="CM10" s="10"/>
+      <c r="CO10" s="10"/>
     </row>
-    <row r="11" spans="1:92" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -13839,11 +13952,12 @@
       <c r="CH11" s="3"/>
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
-      <c r="CK11" s="10"/>
-      <c r="CL11" s="35"/>
-      <c r="CN11" s="35"/>
+      <c r="CK11" s="3"/>
+      <c r="CL11" s="10"/>
+      <c r="CM11" s="35"/>
+      <c r="CO11" s="35"/>
     </row>
-    <row r="12" spans="1:92" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:93" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="24" t="s">
         <v>48</v>
@@ -13934,11 +14048,12 @@
       <c r="CH12" s="25"/>
       <c r="CI12" s="25"/>
       <c r="CJ12" s="25"/>
-      <c r="CK12" s="26"/>
+      <c r="CK12" s="25"/>
       <c r="CL12" s="26"/>
-      <c r="CN12" s="26"/>
+      <c r="CM12" s="26"/>
+      <c r="CO12" s="26"/>
     </row>
-    <row r="13" spans="1:92" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:93" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -14027,11 +14142,12 @@
       <c r="CH13" s="25"/>
       <c r="CI13" s="25"/>
       <c r="CJ13" s="25"/>
-      <c r="CK13" s="26"/>
+      <c r="CK13" s="25"/>
       <c r="CL13" s="26"/>
-      <c r="CN13" s="26"/>
+      <c r="CM13" s="26"/>
+      <c r="CO13" s="26"/>
     </row>
-    <row r="14" spans="1:92" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:93" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="36" t="s">
         <v>29</v>
@@ -14122,11 +14238,12 @@
       <c r="CH14" s="25"/>
       <c r="CI14" s="25"/>
       <c r="CJ14" s="25"/>
-      <c r="CK14" s="26"/>
+      <c r="CK14" s="25"/>
       <c r="CL14" s="26"/>
-      <c r="CN14" s="26"/>
+      <c r="CM14" s="26"/>
+      <c r="CO14" s="26"/>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -14180,18 +14297,18 @@
       <c r="BT15" s="3"/>
       <c r="BU15" s="3"/>
       <c r="CC15" s="3"/>
-      <c r="CF15" s="3" t="s">
+      <c r="CG15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CG15" s="23"/>
       <c r="CH15" s="23"/>
       <c r="CI15" s="23"/>
       <c r="CJ15" s="23"/>
-      <c r="CK15" s="28"/>
+      <c r="CK15" s="23"/>
       <c r="CL15" s="28"/>
-      <c r="CN15" s="28"/>
+      <c r="CM15" s="28"/>
+      <c r="CO15" s="28"/>
     </row>
-    <row r="16" spans="1:92" s="44" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:93" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="41" t="s">
         <v>49</v>
@@ -14452,14 +14569,17 @@
       <c r="CJ16" s="43">
         <v>43974</v>
       </c>
-      <c r="CL16" s="43" t="s">
+      <c r="CK16" s="43">
+        <v>43975</v>
+      </c>
+      <c r="CM16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="CN16" s="43" t="s">
+      <c r="CO16" s="43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:108" x14ac:dyDescent="0.3">
       <c r="B17" s="45" t="s">
         <v>35</v>
       </c>
@@ -14696,7 +14816,7 @@
         <v>162</v>
       </c>
       <c r="CC17" s="71">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="CD17" s="71">
         <v>131</v>
@@ -14705,28 +14825,31 @@
         <v>131</v>
       </c>
       <c r="CF17" s="71">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="CG17" s="71">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="CH17" s="71">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="CI17" s="71">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="CJ17" s="71">
-        <v>28</v>
-      </c>
-      <c r="CL17" s="71">
-        <v>0</v>
-      </c>
-      <c r="CN17" s="71">
-        <v>25692</v>
+        <v>56</v>
+      </c>
+      <c r="CK17" s="71">
+        <v>19</v>
+      </c>
+      <c r="CM17" s="71">
+        <v>0</v>
+      </c>
+      <c r="CO17" s="71">
+        <v>25751</v>
       </c>
     </row>
-    <row r="18" spans="1:107" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:108" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="49"/>
@@ -14830,8 +14953,9 @@
       <c r="DA18" s="49"/>
       <c r="DB18" s="49"/>
       <c r="DC18" s="49"/>
+      <c r="DD18" s="49"/>
     </row>
-    <row r="19" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="72" t="s">
         <v>50</v>
@@ -15092,14 +15216,17 @@
       <c r="CJ19" s="53">
         <v>0</v>
       </c>
-      <c r="CL19" s="53">
-        <v>0</v>
-      </c>
-      <c r="CN19" s="53">
+      <c r="CK19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CM19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CO19" s="53">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="74" t="s">
         <v>51</v>
@@ -15360,14 +15487,17 @@
       <c r="CJ20" s="57">
         <v>0</v>
       </c>
-      <c r="CL20" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN20" s="57">
+      <c r="CK20" s="57">
+        <v>0</v>
+      </c>
+      <c r="CM20" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO20" s="57">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="74" t="s">
         <v>52</v>
@@ -15626,16 +15756,19 @@
         <v>2</v>
       </c>
       <c r="CJ21" s="57">
-        <v>1</v>
-      </c>
-      <c r="CL21" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN21" s="57">
-        <v>2032</v>
+        <v>4</v>
+      </c>
+      <c r="CK21" s="57">
+        <v>1</v>
+      </c>
+      <c r="CM21" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO21" s="57">
+        <v>2036</v>
       </c>
     </row>
-    <row r="22" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="74" t="s">
         <v>53</v>
@@ -15873,7 +16006,7 @@
         <v>60</v>
       </c>
       <c r="CC22" s="58">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="CD22" s="58">
         <v>42</v>
@@ -15885,25 +16018,28 @@
         <v>42</v>
       </c>
       <c r="CG22" s="57">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CH22" s="57">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="CI22" s="57">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CJ22" s="57">
-        <v>7</v>
-      </c>
-      <c r="CL22" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN22" s="57">
-        <v>9868</v>
+        <v>14</v>
+      </c>
+      <c r="CK22" s="57">
+        <v>1</v>
+      </c>
+      <c r="CM22" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO22" s="57">
+        <v>9881</v>
       </c>
     </row>
-    <row r="23" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="74" t="s">
         <v>54</v>
@@ -16150,28 +16286,31 @@
         <v>63</v>
       </c>
       <c r="CF23" s="58">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="CG23" s="57">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="CH23" s="57">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="CI23" s="57">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="CJ23" s="57">
-        <v>20</v>
-      </c>
-      <c r="CL23" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN23" s="57">
-        <v>13594</v>
+        <v>38</v>
+      </c>
+      <c r="CK23" s="57">
+        <v>17</v>
+      </c>
+      <c r="CM23" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO23" s="57">
+        <v>13636</v>
       </c>
     </row>
-    <row r="24" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:108" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="76" t="s">
         <v>55</v>
@@ -16262,13 +16401,14 @@
       <c r="CH24" s="62"/>
       <c r="CI24" s="62"/>
       <c r="CJ24" s="62"/>
-      <c r="CL24" s="62"/>
-      <c r="CN24" s="62"/>
+      <c r="CK24" s="62"/>
+      <c r="CM24" s="62"/>
+      <c r="CO24" s="62"/>
     </row>
-    <row r="28" spans="1:107" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:108" x14ac:dyDescent="0.3">
       <c r="C28" s="80"/>
     </row>
-    <row r="35" spans="4:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:44" x14ac:dyDescent="0.3">
       <c r="D35" s="81"/>
       <c r="E35" s="81"/>
       <c r="G35" s="81"/>
@@ -16317,7 +16457,7 @@
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B17:C17"/>
   </mergeCells>
-  <conditionalFormatting sqref="D16:CJ24">
+  <conditionalFormatting sqref="D16:CK24">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>TODAY()-D$16&lt;6</formula>
     </cfRule>
@@ -16328,29 +16468,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB1C57D-F73E-4FB5-8AFE-49FDE6FC8F51}">
-  <dimension ref="A1:DE248"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CC4CE5-8236-4BCA-92B8-B11B5664E971}">
+  <dimension ref="A1:DF248"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="27" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="27" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="27" customWidth="1"/>
-    <col min="5" max="5" width="91.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="90" width="15.42578125" style="27" customWidth="1"/>
-    <col min="91" max="91" width="2.7109375" style="27" customWidth="1"/>
-    <col min="92" max="92" width="15.42578125" style="27" customWidth="1"/>
-    <col min="93" max="93" width="2.7109375" style="27" customWidth="1"/>
-    <col min="94" max="101" width="15.28515625" style="27" customWidth="1"/>
-    <col min="102" max="16384" width="9.140625" style="27"/>
+    <col min="2" max="2" width="26.88671875" style="27" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="27" customWidth="1"/>
+    <col min="5" max="5" width="91.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="91" width="15.44140625" style="27" customWidth="1"/>
+    <col min="92" max="92" width="2.6640625" style="27" customWidth="1"/>
+    <col min="93" max="93" width="15.44140625" style="27" customWidth="1"/>
+    <col min="94" max="94" width="2.6640625" style="27" customWidth="1"/>
+    <col min="95" max="102" width="15.33203125" style="27" customWidth="1"/>
+    <col min="103" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:94" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:95" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:95" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -16451,12 +16591,13 @@
       <c r="CJ2" s="21"/>
       <c r="CK2" s="21"/>
       <c r="CL2" s="21"/>
-      <c r="CM2" s="10"/>
+      <c r="CM2" s="21"/>
       <c r="CN2" s="10"/>
       <c r="CO2" s="10"/>
       <c r="CP2" s="10"/>
+      <c r="CQ2" s="10"/>
     </row>
-    <row r="3" spans="1:94" s="11" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:95" s="11" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -16551,12 +16692,13 @@
       <c r="CJ3" s="3"/>
       <c r="CK3" s="3"/>
       <c r="CL3" s="3"/>
-      <c r="CM3" s="10"/>
+      <c r="CM3" s="3"/>
       <c r="CN3" s="10"/>
       <c r="CO3" s="10"/>
       <c r="CP3" s="10"/>
+      <c r="CQ3" s="10"/>
     </row>
-    <row r="4" spans="1:94" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:95" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -16651,12 +16793,13 @@
       <c r="CJ4" s="3"/>
       <c r="CK4" s="3"/>
       <c r="CL4" s="3"/>
-      <c r="CM4" s="10"/>
+      <c r="CM4" s="3"/>
       <c r="CN4" s="10"/>
       <c r="CO4" s="10"/>
       <c r="CP4" s="10"/>
+      <c r="CQ4" s="10"/>
     </row>
-    <row r="5" spans="1:94" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -16751,12 +16894,13 @@
       <c r="CJ5" s="3"/>
       <c r="CK5" s="3"/>
       <c r="CL5" s="3"/>
-      <c r="CM5" s="10"/>
+      <c r="CM5" s="3"/>
       <c r="CN5" s="10"/>
       <c r="CO5" s="10"/>
       <c r="CP5" s="10"/>
+      <c r="CQ5" s="10"/>
     </row>
-    <row r="6" spans="1:94" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>8</v>
@@ -16851,12 +16995,13 @@
       <c r="CJ6" s="3"/>
       <c r="CK6" s="3"/>
       <c r="CL6" s="3"/>
-      <c r="CM6" s="10"/>
+      <c r="CM6" s="3"/>
       <c r="CN6" s="10"/>
       <c r="CO6" s="10"/>
       <c r="CP6" s="10"/>
+      <c r="CQ6" s="10"/>
     </row>
-    <row r="7" spans="1:94" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -16951,12 +17096,13 @@
       <c r="CJ7" s="3"/>
       <c r="CK7" s="3"/>
       <c r="CL7" s="3"/>
-      <c r="CM7" s="10"/>
+      <c r="CM7" s="3"/>
       <c r="CN7" s="10"/>
       <c r="CO7" s="10"/>
       <c r="CP7" s="10"/>
+      <c r="CQ7" s="10"/>
     </row>
-    <row r="8" spans="1:94" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -17051,12 +17197,13 @@
       <c r="CJ8" s="3"/>
       <c r="CK8" s="3"/>
       <c r="CL8" s="3"/>
-      <c r="CM8" s="10"/>
+      <c r="CM8" s="3"/>
       <c r="CN8" s="10"/>
       <c r="CO8" s="10"/>
       <c r="CP8" s="10"/>
+      <c r="CQ8" s="10"/>
     </row>
-    <row r="9" spans="1:94" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="15" t="s">
         <v>13</v>
@@ -17151,12 +17298,13 @@
       <c r="CJ9" s="3"/>
       <c r="CK9" s="3"/>
       <c r="CL9" s="3"/>
-      <c r="CM9" s="10"/>
+      <c r="CM9" s="3"/>
       <c r="CN9" s="10"/>
       <c r="CO9" s="10"/>
       <c r="CP9" s="10"/>
+      <c r="CQ9" s="10"/>
     </row>
-    <row r="10" spans="1:94" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:95" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="15" t="s">
         <v>15</v>
@@ -17251,12 +17399,13 @@
       <c r="CJ10" s="3"/>
       <c r="CK10" s="3"/>
       <c r="CL10" s="3"/>
-      <c r="CM10" s="10"/>
-      <c r="CN10" s="35"/>
-      <c r="CO10" s="10"/>
-      <c r="CP10" s="35"/>
+      <c r="CM10" s="3"/>
+      <c r="CN10" s="10"/>
+      <c r="CO10" s="35"/>
+      <c r="CP10" s="10"/>
+      <c r="CQ10" s="35"/>
     </row>
-    <row r="11" spans="1:94" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -17347,12 +17496,13 @@
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
       <c r="CL11" s="3"/>
-      <c r="CM11" s="10"/>
+      <c r="CM11" s="3"/>
       <c r="CN11" s="10"/>
       <c r="CO11" s="10"/>
       <c r="CP11" s="10"/>
+      <c r="CQ11" s="10"/>
     </row>
-    <row r="12" spans="1:94" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:95" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="6" t="s">
         <v>58</v>
@@ -17445,12 +17595,13 @@
       <c r="CJ12" s="25"/>
       <c r="CK12" s="25"/>
       <c r="CL12" s="25"/>
-      <c r="CM12" s="26"/>
+      <c r="CM12" s="25"/>
       <c r="CN12" s="26"/>
       <c r="CO12" s="26"/>
       <c r="CP12" s="26"/>
+      <c r="CQ12" s="26"/>
     </row>
-    <row r="13" spans="1:94" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:95" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -17541,12 +17692,13 @@
       <c r="CJ13" s="25"/>
       <c r="CK13" s="25"/>
       <c r="CL13" s="25"/>
-      <c r="CM13" s="26"/>
+      <c r="CM13" s="25"/>
       <c r="CN13" s="26"/>
       <c r="CO13" s="26"/>
       <c r="CP13" s="26"/>
+      <c r="CQ13" s="26"/>
     </row>
-    <row r="14" spans="1:94" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:95" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="36" t="s">
         <v>29</v>
@@ -17639,12 +17791,13 @@
       <c r="CJ14" s="25"/>
       <c r="CK14" s="25"/>
       <c r="CL14" s="25"/>
-      <c r="CM14" s="26"/>
+      <c r="CM14" s="25"/>
       <c r="CN14" s="26"/>
       <c r="CO14" s="26"/>
       <c r="CP14" s="26"/>
+      <c r="CQ14" s="26"/>
     </row>
-    <row r="15" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -17724,19 +17877,19 @@
       <c r="CB15" s="3"/>
       <c r="CC15" s="3"/>
       <c r="CE15" s="3"/>
-      <c r="CH15" s="3" t="s">
+      <c r="CI15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CI15" s="3"/>
       <c r="CJ15" s="3"/>
       <c r="CK15" s="3"/>
       <c r="CL15" s="3"/>
-      <c r="CM15" s="28"/>
+      <c r="CM15" s="3"/>
       <c r="CN15" s="28"/>
       <c r="CO15" s="28"/>
       <c r="CP15" s="28"/>
+      <c r="CQ15" s="28"/>
     </row>
-    <row r="16" spans="1:94" s="44" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:95" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="86" t="s">
         <v>32</v>
@@ -18003,14 +18156,17 @@
       <c r="CL16" s="43">
         <v>43974</v>
       </c>
-      <c r="CN16" s="43" t="s">
+      <c r="CM16" s="43">
+        <v>43975</v>
+      </c>
+      <c r="CO16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="CP16" s="43" t="s">
+      <c r="CQ16" s="43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:110" x14ac:dyDescent="0.3">
       <c r="B17" s="45" t="s">
         <v>12</v>
       </c>
@@ -18253,7 +18409,7 @@
         <v>162</v>
       </c>
       <c r="CE17" s="71">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="CF17" s="71">
         <v>131</v>
@@ -18262,30 +18418,33 @@
         <v>131</v>
       </c>
       <c r="CH17" s="71">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="CI17" s="71">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="CJ17" s="71">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="CK17" s="71">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="CL17" s="71">
-        <v>28</v>
-      </c>
-      <c r="CM17" s="91"/>
-      <c r="CN17" s="71">
-        <v>0</v>
-      </c>
-      <c r="CP17" s="71">
-        <v>25692</v>
-      </c>
-      <c r="CR17" s="92"/>
+        <v>56</v>
+      </c>
+      <c r="CM17" s="71">
+        <v>19</v>
+      </c>
+      <c r="CN17" s="91"/>
+      <c r="CO17" s="71">
+        <v>0</v>
+      </c>
+      <c r="CQ17" s="71">
+        <v>25751</v>
+      </c>
+      <c r="CS17" s="92"/>
     </row>
-    <row r="18" spans="1:109" s="11" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:110" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="G18" s="49"/>
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
@@ -18370,8 +18529,8 @@
       <c r="CJ18" s="49"/>
       <c r="CK18" s="49"/>
       <c r="CL18" s="49"/>
-      <c r="CM18" s="93"/>
-      <c r="CN18" s="49"/>
+      <c r="CM18" s="49"/>
+      <c r="CN18" s="93"/>
       <c r="CO18" s="49"/>
       <c r="CP18" s="49"/>
       <c r="CQ18" s="49"/>
@@ -18389,8 +18548,9 @@
       <c r="DC18" s="49"/>
       <c r="DD18" s="49"/>
       <c r="DE18" s="49"/>
+      <c r="DF18" s="49"/>
     </row>
-    <row r="19" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="94" t="s">
         <v>37</v>
@@ -18657,17 +18817,20 @@
       <c r="CL19" s="53">
         <v>0</v>
       </c>
-      <c r="CM19" s="98"/>
-      <c r="CN19" s="53">
-        <v>0</v>
-      </c>
-      <c r="CO19" s="99"/>
-      <c r="CP19" s="53">
-        <v>3</v>
-      </c>
-      <c r="CR19" s="92"/>
+      <c r="CM19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CN19" s="98"/>
+      <c r="CO19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CP19" s="99"/>
+      <c r="CQ19" s="53">
+        <v>3</v>
+      </c>
+      <c r="CS19" s="92"/>
     </row>
-    <row r="20" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="100" t="s">
         <v>37</v>
@@ -18934,17 +19097,20 @@
       <c r="CL20" s="104">
         <v>0</v>
       </c>
-      <c r="CM20" s="99"/>
-      <c r="CN20" s="104">
-        <v>0</v>
-      </c>
-      <c r="CO20" s="99"/>
-      <c r="CP20" s="104">
+      <c r="CM20" s="104">
+        <v>0</v>
+      </c>
+      <c r="CN20" s="99"/>
+      <c r="CO20" s="104">
+        <v>0</v>
+      </c>
+      <c r="CP20" s="99"/>
+      <c r="CQ20" s="104">
         <v>21</v>
       </c>
-      <c r="CR20" s="92"/>
+      <c r="CS20" s="92"/>
     </row>
-    <row r="21" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="100" t="s">
         <v>37</v>
@@ -19209,19 +19375,22 @@
         <v>3</v>
       </c>
       <c r="CL21" s="104">
-        <v>0</v>
-      </c>
-      <c r="CM21" s="99"/>
-      <c r="CN21" s="104">
-        <v>0</v>
-      </c>
-      <c r="CO21" s="99"/>
-      <c r="CP21" s="104">
-        <v>265</v>
-      </c>
-      <c r="CR21" s="92"/>
+        <v>1</v>
+      </c>
+      <c r="CM21" s="104">
+        <v>1</v>
+      </c>
+      <c r="CN21" s="99"/>
+      <c r="CO21" s="104">
+        <v>0</v>
+      </c>
+      <c r="CP21" s="99"/>
+      <c r="CQ21" s="104">
+        <v>267</v>
+      </c>
+      <c r="CS21" s="92"/>
     </row>
-    <row r="22" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="100" t="s">
         <v>37</v>
@@ -19488,16 +19657,19 @@
       <c r="CL22" s="57">
         <v>0</v>
       </c>
-      <c r="CM22" s="99"/>
-      <c r="CN22" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO22" s="99"/>
-      <c r="CP22" s="57">
+      <c r="CM22" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN22" s="99"/>
+      <c r="CO22" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP22" s="99"/>
+      <c r="CQ22" s="57">
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="100" t="s">
         <v>37</v>
@@ -19764,16 +19936,19 @@
       <c r="CL23" s="57">
         <v>0</v>
       </c>
-      <c r="CM23" s="99"/>
-      <c r="CN23" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO23" s="99"/>
-      <c r="CP23" s="57">
+      <c r="CM23" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN23" s="99"/>
+      <c r="CO23" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP23" s="99"/>
+      <c r="CQ23" s="57">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="100" t="s">
         <v>37</v>
@@ -20040,16 +20215,19 @@
       <c r="CL24" s="57">
         <v>0</v>
       </c>
-      <c r="CM24" s="99"/>
-      <c r="CN24" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO24" s="99"/>
-      <c r="CP24" s="57">
+      <c r="CM24" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN24" s="99"/>
+      <c r="CO24" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP24" s="99"/>
+      <c r="CQ24" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="100" t="s">
         <v>37</v>
@@ -20311,21 +20489,24 @@
         <v>1</v>
       </c>
       <c r="CK25" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL25" s="57">
         <v>0</v>
       </c>
-      <c r="CM25" s="99"/>
-      <c r="CN25" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO25" s="99"/>
-      <c r="CP25" s="57">
-        <v>145</v>
+      <c r="CM25" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN25" s="99"/>
+      <c r="CO25" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP25" s="99"/>
+      <c r="CQ25" s="57">
+        <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A26" s="27"/>
       <c r="B26" s="100" t="s">
         <v>37</v>
@@ -20592,16 +20773,19 @@
       <c r="CL26" s="57">
         <v>0</v>
       </c>
-      <c r="CM26" s="99"/>
-      <c r="CN26" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO26" s="99"/>
-      <c r="CP26" s="57">
+      <c r="CM26" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN26" s="99"/>
+      <c r="CO26" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP26" s="99"/>
+      <c r="CQ26" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A27" s="27"/>
       <c r="B27" s="100" t="s">
         <v>37</v>
@@ -20866,18 +21050,21 @@
         <v>0</v>
       </c>
       <c r="CL27" s="57">
-        <v>1</v>
-      </c>
-      <c r="CM27" s="99"/>
-      <c r="CN27" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO27" s="99"/>
-      <c r="CP27" s="57">
-        <v>317</v>
+        <v>2</v>
+      </c>
+      <c r="CM27" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN27" s="99"/>
+      <c r="CO27" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP27" s="99"/>
+      <c r="CQ27" s="57">
+        <v>318</v>
       </c>
     </row>
-    <row r="28" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A28" s="27"/>
       <c r="B28" s="100" t="s">
         <v>37</v>
@@ -21144,16 +21331,19 @@
       <c r="CL28" s="57">
         <v>0</v>
       </c>
-      <c r="CM28" s="99"/>
-      <c r="CN28" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO28" s="99"/>
-      <c r="CP28" s="57">
+      <c r="CM28" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN28" s="99"/>
+      <c r="CO28" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP28" s="99"/>
+      <c r="CQ28" s="57">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
       <c r="B29" s="100" t="s">
         <v>37</v>
@@ -21420,16 +21610,19 @@
       <c r="CL29" s="57">
         <v>0</v>
       </c>
-      <c r="CM29" s="99"/>
-      <c r="CN29" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO29" s="99"/>
-      <c r="CP29" s="57">
+      <c r="CM29" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN29" s="99"/>
+      <c r="CO29" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP29" s="99"/>
+      <c r="CQ29" s="57">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A30" s="27"/>
       <c r="B30" s="100" t="s">
         <v>37</v>
@@ -21696,16 +21889,19 @@
       <c r="CL30" s="57">
         <v>0</v>
       </c>
-      <c r="CM30" s="99"/>
-      <c r="CN30" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO30" s="99"/>
-      <c r="CP30" s="57">
+      <c r="CM30" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN30" s="99"/>
+      <c r="CO30" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP30" s="99"/>
+      <c r="CQ30" s="57">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A31" s="27"/>
       <c r="B31" s="100" t="s">
         <v>37</v>
@@ -21972,16 +22168,19 @@
       <c r="CL31" s="57">
         <v>1</v>
       </c>
-      <c r="CM31" s="99"/>
-      <c r="CN31" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO31" s="99"/>
-      <c r="CP31" s="57">
-        <v>108</v>
+      <c r="CM31" s="57">
+        <v>1</v>
+      </c>
+      <c r="CN31" s="99"/>
+      <c r="CO31" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP31" s="99"/>
+      <c r="CQ31" s="57">
+        <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A32" s="27"/>
       <c r="B32" s="100" t="s">
         <v>37</v>
@@ -22248,16 +22447,19 @@
       <c r="CL32" s="57">
         <v>0</v>
       </c>
-      <c r="CM32" s="99"/>
-      <c r="CN32" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO32" s="99"/>
-      <c r="CP32" s="57">
+      <c r="CM32" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN32" s="99"/>
+      <c r="CO32" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP32" s="99"/>
+      <c r="CQ32" s="57">
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A33" s="27"/>
       <c r="B33" s="100" t="s">
         <v>37</v>
@@ -22524,16 +22726,19 @@
       <c r="CL33" s="57">
         <v>0</v>
       </c>
-      <c r="CM33" s="99"/>
-      <c r="CN33" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO33" s="99"/>
-      <c r="CP33" s="57">
+      <c r="CM33" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN33" s="99"/>
+      <c r="CO33" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP33" s="99"/>
+      <c r="CQ33" s="57">
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A34" s="27"/>
       <c r="B34" s="100" t="s">
         <v>37</v>
@@ -22800,16 +23005,19 @@
       <c r="CL34" s="57">
         <v>0</v>
       </c>
-      <c r="CM34" s="99"/>
-      <c r="CN34" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO34" s="99"/>
-      <c r="CP34" s="57">
+      <c r="CM34" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN34" s="99"/>
+      <c r="CO34" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP34" s="99"/>
+      <c r="CQ34" s="57">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A35" s="27"/>
       <c r="B35" s="100" t="s">
         <v>37</v>
@@ -23076,16 +23284,19 @@
       <c r="CL35" s="57">
         <v>0</v>
       </c>
-      <c r="CM35" s="99"/>
-      <c r="CN35" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO35" s="99"/>
-      <c r="CP35" s="57">
+      <c r="CM35" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN35" s="99"/>
+      <c r="CO35" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP35" s="99"/>
+      <c r="CQ35" s="57">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A36" s="27"/>
       <c r="B36" s="100" t="s">
         <v>37</v>
@@ -23352,16 +23563,19 @@
       <c r="CL36" s="57">
         <v>0</v>
       </c>
-      <c r="CM36" s="99"/>
-      <c r="CN36" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO36" s="99"/>
-      <c r="CP36" s="57">
+      <c r="CM36" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN36" s="99"/>
+      <c r="CO36" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP36" s="99"/>
+      <c r="CQ36" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A37" s="27"/>
       <c r="B37" s="100" t="s">
         <v>37</v>
@@ -23628,16 +23842,19 @@
       <c r="CL37" s="57">
         <v>0</v>
       </c>
-      <c r="CM37" s="99"/>
-      <c r="CN37" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO37" s="99"/>
-      <c r="CP37" s="57">
+      <c r="CM37" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN37" s="99"/>
+      <c r="CO37" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP37" s="99"/>
+      <c r="CQ37" s="57">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A38" s="27"/>
       <c r="B38" s="100" t="s">
         <v>37</v>
@@ -23904,16 +24121,19 @@
       <c r="CL38" s="57">
         <v>0</v>
       </c>
-      <c r="CM38" s="99"/>
-      <c r="CN38" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO38" s="99"/>
-      <c r="CP38" s="57">
+      <c r="CM38" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN38" s="99"/>
+      <c r="CO38" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP38" s="99"/>
+      <c r="CQ38" s="57">
         <v>191</v>
       </c>
     </row>
-    <row r="39" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A39" s="27"/>
       <c r="B39" s="100" t="s">
         <v>37</v>
@@ -24180,16 +24400,19 @@
       <c r="CL39" s="57">
         <v>0</v>
       </c>
-      <c r="CM39" s="99"/>
-      <c r="CN39" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO39" s="99"/>
-      <c r="CP39" s="57">
+      <c r="CM39" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN39" s="99"/>
+      <c r="CO39" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP39" s="99"/>
+      <c r="CQ39" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A40" s="27"/>
       <c r="B40" s="100" t="s">
         <v>37</v>
@@ -24456,16 +24679,19 @@
       <c r="CL40" s="57">
         <v>0</v>
       </c>
-      <c r="CM40" s="99"/>
-      <c r="CN40" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO40" s="99"/>
-      <c r="CP40" s="57">
+      <c r="CM40" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN40" s="99"/>
+      <c r="CO40" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP40" s="99"/>
+      <c r="CQ40" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A41" s="27"/>
       <c r="B41" s="100" t="s">
         <v>37</v>
@@ -24732,16 +24958,19 @@
       <c r="CL41" s="57">
         <v>0</v>
       </c>
-      <c r="CM41" s="99"/>
-      <c r="CN41" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO41" s="99"/>
-      <c r="CP41" s="57">
+      <c r="CM41" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN41" s="99"/>
+      <c r="CO41" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP41" s="99"/>
+      <c r="CQ41" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A42" s="27"/>
       <c r="B42" s="100" t="s">
         <v>37</v>
@@ -25008,16 +25237,19 @@
       <c r="CL42" s="57">
         <v>0</v>
       </c>
-      <c r="CM42" s="99"/>
-      <c r="CN42" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO42" s="99"/>
-      <c r="CP42" s="57">
+      <c r="CM42" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN42" s="99"/>
+      <c r="CO42" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP42" s="99"/>
+      <c r="CQ42" s="57">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A43" s="27"/>
       <c r="B43" s="100" t="s">
         <v>37</v>
@@ -25284,16 +25516,19 @@
       <c r="CL43" s="57">
         <v>0</v>
       </c>
-      <c r="CM43" s="99"/>
-      <c r="CN43" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO43" s="99"/>
-      <c r="CP43" s="57">
+      <c r="CM43" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN43" s="99"/>
+      <c r="CO43" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP43" s="99"/>
+      <c r="CQ43" s="57">
         <v>197</v>
       </c>
     </row>
-    <row r="44" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A44" s="27"/>
       <c r="B44" s="100" t="s">
         <v>37</v>
@@ -25560,16 +25795,19 @@
       <c r="CL44" s="57">
         <v>0</v>
       </c>
-      <c r="CM44" s="99"/>
-      <c r="CN44" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO44" s="99"/>
-      <c r="CP44" s="57">
+      <c r="CM44" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN44" s="99"/>
+      <c r="CO44" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP44" s="99"/>
+      <c r="CQ44" s="57">
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A45" s="27"/>
       <c r="B45" s="100" t="s">
         <v>37</v>
@@ -25828,7 +26066,7 @@
         <v>0</v>
       </c>
       <c r="CJ45" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK45" s="57">
         <v>0</v>
@@ -25836,16 +26074,19 @@
       <c r="CL45" s="57">
         <v>0</v>
       </c>
-      <c r="CM45" s="99"/>
-      <c r="CN45" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO45" s="99"/>
-      <c r="CP45" s="57">
-        <v>134</v>
+      <c r="CM45" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN45" s="99"/>
+      <c r="CO45" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP45" s="99"/>
+      <c r="CQ45" s="57">
+        <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A46" s="27"/>
       <c r="B46" s="100" t="s">
         <v>37</v>
@@ -26089,7 +26330,7 @@
         <v>2</v>
       </c>
       <c r="CE46" s="57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CF46" s="57">
         <v>2</v>
@@ -26112,16 +26353,19 @@
       <c r="CL46" s="57">
         <v>0</v>
       </c>
-      <c r="CM46" s="99"/>
-      <c r="CN46" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO46" s="99"/>
-      <c r="CP46" s="57">
-        <v>344</v>
+      <c r="CM46" s="57">
+        <v>1</v>
+      </c>
+      <c r="CN46" s="99"/>
+      <c r="CO46" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP46" s="99"/>
+      <c r="CQ46" s="57">
+        <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A47" s="27"/>
       <c r="B47" s="100" t="s">
         <v>37</v>
@@ -26386,18 +26630,21 @@
         <v>0</v>
       </c>
       <c r="CL47" s="57">
-        <v>0</v>
-      </c>
-      <c r="CM47" s="99"/>
-      <c r="CN47" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO47" s="99"/>
-      <c r="CP47" s="57">
-        <v>64</v>
+        <v>1</v>
+      </c>
+      <c r="CM47" s="57">
+        <v>1</v>
+      </c>
+      <c r="CN47" s="99"/>
+      <c r="CO47" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP47" s="99"/>
+      <c r="CQ47" s="57">
+        <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:95" x14ac:dyDescent="0.3">
       <c r="A48" s="27"/>
       <c r="B48" s="100" t="s">
         <v>38</v>
@@ -26664,16 +26911,19 @@
       <c r="CL48" s="57">
         <v>0</v>
       </c>
-      <c r="CM48" s="99"/>
-      <c r="CN48" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO48" s="99"/>
-      <c r="CP48" s="57">
+      <c r="CM48" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN48" s="99"/>
+      <c r="CO48" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP48" s="99"/>
+      <c r="CQ48" s="57">
         <v>409</v>
       </c>
     </row>
-    <row r="49" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A49" s="27"/>
       <c r="B49" s="100" t="s">
         <v>38</v>
@@ -26938,18 +27188,21 @@
         <v>0</v>
       </c>
       <c r="CL49" s="57">
-        <v>0</v>
-      </c>
-      <c r="CM49" s="99"/>
-      <c r="CN49" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO49" s="99"/>
-      <c r="CP49" s="57">
-        <v>592</v>
+        <v>1</v>
+      </c>
+      <c r="CM49" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN49" s="99"/>
+      <c r="CO49" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP49" s="99"/>
+      <c r="CQ49" s="57">
+        <v>593</v>
       </c>
     </row>
-    <row r="50" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:110" x14ac:dyDescent="0.3">
       <c r="B50" s="100" t="s">
         <v>38</v>
       </c>
@@ -27215,16 +27468,19 @@
       <c r="CL50" s="57">
         <v>0</v>
       </c>
-      <c r="CM50" s="99"/>
-      <c r="CN50" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO50" s="99"/>
-      <c r="CP50" s="57">
+      <c r="CM50" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN50" s="99"/>
+      <c r="CO50" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP50" s="99"/>
+      <c r="CQ50" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="105" t="s">
         <v>38</v>
@@ -27491,16 +27747,19 @@
       <c r="CL51" s="57">
         <v>0</v>
       </c>
-      <c r="CM51" s="99"/>
-      <c r="CN51" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO51" s="99"/>
-      <c r="CP51" s="57">
+      <c r="CM51" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN51" s="99"/>
+      <c r="CO51" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP51" s="99"/>
+      <c r="CQ51" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="105" t="s">
         <v>38</v>
@@ -27767,16 +28026,19 @@
       <c r="CL52" s="57">
         <v>0</v>
       </c>
-      <c r="CM52" s="99"/>
-      <c r="CN52" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO52" s="99"/>
-      <c r="CP52" s="57">
+      <c r="CM52" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN52" s="99"/>
+      <c r="CO52" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP52" s="99"/>
+      <c r="CQ52" s="57">
         <v>295</v>
       </c>
     </row>
-    <row r="53" spans="1:109" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:110" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="105" t="s">
         <v>38</v>
@@ -28043,16 +28305,19 @@
       <c r="CL53" s="57">
         <v>0</v>
       </c>
-      <c r="CM53" s="99"/>
-      <c r="CN53" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO53" s="99"/>
-      <c r="CP53" s="57">
+      <c r="CM53" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN53" s="99"/>
+      <c r="CO53" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP53" s="99"/>
+      <c r="CQ53" s="57">
         <v>296</v>
       </c>
     </row>
-    <row r="54" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:110" x14ac:dyDescent="0.3">
       <c r="B54" s="105" t="s">
         <v>38</v>
       </c>
@@ -28318,16 +28583,19 @@
       <c r="CL54" s="57">
         <v>0</v>
       </c>
-      <c r="CM54" s="99"/>
-      <c r="CN54" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO54" s="99"/>
-      <c r="CP54" s="57">
+      <c r="CM54" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN54" s="99"/>
+      <c r="CO54" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP54" s="99"/>
+      <c r="CQ54" s="57">
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:109" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:110" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="100" t="s">
         <v>38</v>
       </c>
@@ -28593,61 +28861,34 @@
       <c r="CL55" s="57">
         <v>0</v>
       </c>
-      <c r="CM55" s="99"/>
-      <c r="CN55" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO55" s="99"/>
-      <c r="CP55" s="57">
+      <c r="CM55" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN55" s="99"/>
+      <c r="CO55" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP55" s="99"/>
+      <c r="CQ55" s="57">
         <v>255</v>
       </c>
-      <c r="CQ55" s="49">
-        <v>99</v>
-      </c>
-      <c r="CR55" s="49">
-        <v>100</v>
-      </c>
-      <c r="CS55" s="49">
-        <v>101</v>
-      </c>
-      <c r="CT55" s="49">
-        <v>102</v>
-      </c>
-      <c r="CU55" s="49">
-        <v>103</v>
-      </c>
-      <c r="CV55" s="49">
-        <v>104</v>
-      </c>
-      <c r="CW55" s="49">
-        <v>105</v>
-      </c>
-      <c r="CX55" s="49">
-        <v>106</v>
-      </c>
-      <c r="CY55" s="49">
-        <v>107</v>
-      </c>
-      <c r="CZ55" s="49">
-        <v>108</v>
-      </c>
-      <c r="DA55" s="49">
-        <v>109</v>
-      </c>
-      <c r="DB55" s="49">
-        <v>110</v>
-      </c>
-      <c r="DC55" s="49">
-        <v>111</v>
-      </c>
-      <c r="DD55" s="49">
-        <v>112</v>
-      </c>
-      <c r="DE55" s="49">
-        <v>113</v>
-      </c>
+      <c r="CR55" s="49"/>
+      <c r="CS55" s="49"/>
+      <c r="CT55" s="49"/>
+      <c r="CU55" s="49"/>
+      <c r="CV55" s="49"/>
+      <c r="CW55" s="49"/>
+      <c r="CX55" s="49"/>
+      <c r="CY55" s="49"/>
+      <c r="CZ55" s="49"/>
+      <c r="DA55" s="49"/>
+      <c r="DB55" s="49"/>
+      <c r="DC55" s="49"/>
+      <c r="DD55" s="49"/>
+      <c r="DE55" s="49"/>
+      <c r="DF55" s="49"/>
     </row>
-    <row r="56" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A56" s="27"/>
       <c r="B56" s="100" t="s">
         <v>38</v>
@@ -28914,16 +29155,19 @@
       <c r="CL56" s="57">
         <v>0</v>
       </c>
-      <c r="CM56" s="99"/>
-      <c r="CN56" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO56" s="99"/>
-      <c r="CP56" s="57">
+      <c r="CM56" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN56" s="99"/>
+      <c r="CO56" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP56" s="99"/>
+      <c r="CQ56" s="57">
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="100" t="s">
         <v>138</v>
@@ -29190,16 +29434,19 @@
       <c r="CL57" s="57">
         <v>0</v>
       </c>
-      <c r="CM57" s="99"/>
-      <c r="CN57" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO57" s="99"/>
-      <c r="CP57" s="57">
+      <c r="CM57" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN57" s="99"/>
+      <c r="CO57" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP57" s="99"/>
+      <c r="CQ57" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A58" s="27"/>
       <c r="B58" s="100" t="s">
         <v>38</v>
@@ -29466,16 +29713,19 @@
       <c r="CL58" s="57">
         <v>0</v>
       </c>
-      <c r="CM58" s="99"/>
-      <c r="CN58" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO58" s="99"/>
-      <c r="CP58" s="57">
+      <c r="CM58" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN58" s="99"/>
+      <c r="CO58" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP58" s="99"/>
+      <c r="CQ58" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A59" s="27"/>
       <c r="B59" s="100" t="s">
         <v>38</v>
@@ -29742,16 +29992,19 @@
       <c r="CL59" s="57">
         <v>0</v>
       </c>
-      <c r="CM59" s="99"/>
-      <c r="CN59" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO59" s="99"/>
-      <c r="CP59" s="57">
+      <c r="CM59" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN59" s="99"/>
+      <c r="CO59" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP59" s="99"/>
+      <c r="CQ59" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:110" x14ac:dyDescent="0.3">
       <c r="A60" s="27"/>
       <c r="B60" s="100" t="s">
         <v>38</v>
@@ -30018,16 +30271,19 @@
       <c r="CL60" s="57">
         <v>0</v>
       </c>
-      <c r="CM60" s="99"/>
-      <c r="CN60" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO60" s="99"/>
-      <c r="CP60" s="57">
+      <c r="CM60" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN60" s="99"/>
+      <c r="CO60" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP60" s="99"/>
+      <c r="CQ60" s="57">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:110" x14ac:dyDescent="0.3">
       <c r="B61" s="100" t="s">
         <v>38</v>
       </c>
@@ -30293,16 +30549,19 @@
       <c r="CL61" s="57">
         <v>0</v>
       </c>
-      <c r="CM61" s="99"/>
-      <c r="CN61" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO61" s="99"/>
-      <c r="CP61" s="57">
+      <c r="CM61" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN61" s="99"/>
+      <c r="CO61" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP61" s="99"/>
+      <c r="CQ61" s="57">
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:110" x14ac:dyDescent="0.3">
       <c r="B62" s="100" t="s">
         <v>138</v>
       </c>
@@ -30568,16 +30827,19 @@
       <c r="CL62" s="57">
         <v>0</v>
       </c>
-      <c r="CM62" s="99"/>
-      <c r="CN62" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO62" s="99"/>
-      <c r="CP62" s="57">
+      <c r="CM62" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN62" s="99"/>
+      <c r="CO62" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP62" s="99"/>
+      <c r="CQ62" s="57">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:110" x14ac:dyDescent="0.3">
       <c r="B63" s="100" t="s">
         <v>38</v>
       </c>
@@ -30843,16 +31105,19 @@
       <c r="CL63" s="57">
         <v>2</v>
       </c>
-      <c r="CM63" s="99"/>
-      <c r="CN63" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO63" s="99"/>
-      <c r="CP63" s="57">
+      <c r="CM63" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN63" s="99"/>
+      <c r="CO63" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP63" s="99"/>
+      <c r="CQ63" s="57">
         <v>413</v>
       </c>
     </row>
-    <row r="64" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:110" x14ac:dyDescent="0.3">
       <c r="B64" s="100" t="s">
         <v>38</v>
       </c>
@@ -31110,7 +31375,7 @@
         <v>3</v>
       </c>
       <c r="CJ64" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK64" s="57">
         <v>4</v>
@@ -31118,16 +31383,19 @@
       <c r="CL64" s="57">
         <v>0</v>
       </c>
-      <c r="CM64" s="99"/>
-      <c r="CN64" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO64" s="99"/>
-      <c r="CP64" s="57">
-        <v>488</v>
+      <c r="CM64" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN64" s="99"/>
+      <c r="CO64" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP64" s="99"/>
+      <c r="CQ64" s="57">
+        <v>489</v>
       </c>
     </row>
-    <row r="65" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B65" s="100" t="s">
         <v>38</v>
       </c>
@@ -31393,16 +31661,19 @@
       <c r="CL65" s="57">
         <v>0</v>
       </c>
-      <c r="CM65" s="99"/>
-      <c r="CN65" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO65" s="99"/>
-      <c r="CP65" s="57">
-        <v>157</v>
+      <c r="CM65" s="57">
+        <v>1</v>
+      </c>
+      <c r="CN65" s="99"/>
+      <c r="CO65" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP65" s="99"/>
+      <c r="CQ65" s="57">
+        <v>158</v>
       </c>
     </row>
-    <row r="66" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B66" s="100" t="s">
         <v>38</v>
       </c>
@@ -31666,18 +31937,21 @@
         <v>0</v>
       </c>
       <c r="CL66" s="57">
-        <v>0</v>
-      </c>
-      <c r="CM66" s="99"/>
-      <c r="CN66" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO66" s="99"/>
-      <c r="CP66" s="57">
-        <v>391</v>
+        <v>1</v>
+      </c>
+      <c r="CM66" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN66" s="99"/>
+      <c r="CO66" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP66" s="99"/>
+      <c r="CQ66" s="57">
+        <v>392</v>
       </c>
     </row>
-    <row r="67" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B67" s="100" t="s">
         <v>38</v>
       </c>
@@ -31943,16 +32217,19 @@
       <c r="CL67" s="57">
         <v>0</v>
       </c>
-      <c r="CM67" s="99"/>
-      <c r="CN67" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO67" s="99"/>
-      <c r="CP67" s="57">
+      <c r="CM67" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN67" s="99"/>
+      <c r="CO67" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP67" s="99"/>
+      <c r="CQ67" s="57">
         <v>576</v>
       </c>
     </row>
-    <row r="68" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B68" s="100" t="s">
         <v>38</v>
       </c>
@@ -32218,16 +32495,19 @@
       <c r="CL68" s="57">
         <v>0</v>
       </c>
-      <c r="CM68" s="99"/>
-      <c r="CN68" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO68" s="99"/>
-      <c r="CP68" s="57">
+      <c r="CM68" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN68" s="99"/>
+      <c r="CO68" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP68" s="99"/>
+      <c r="CQ68" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B69" s="100" t="s">
         <v>38</v>
       </c>
@@ -32493,16 +32773,19 @@
       <c r="CL69" s="57">
         <v>0</v>
       </c>
-      <c r="CM69" s="99"/>
-      <c r="CN69" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO69" s="99"/>
-      <c r="CP69" s="57">
+      <c r="CM69" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN69" s="99"/>
+      <c r="CO69" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP69" s="99"/>
+      <c r="CQ69" s="57">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B70" s="100" t="s">
         <v>38</v>
       </c>
@@ -32768,16 +33051,19 @@
       <c r="CL70" s="57">
         <v>0</v>
       </c>
-      <c r="CM70" s="99"/>
-      <c r="CN70" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO70" s="99"/>
-      <c r="CP70" s="57">
+      <c r="CM70" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN70" s="99"/>
+      <c r="CO70" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP70" s="99"/>
+      <c r="CQ70" s="57">
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B71" s="100" t="s">
         <v>38</v>
       </c>
@@ -33043,16 +33329,19 @@
       <c r="CL71" s="57">
         <v>0</v>
       </c>
-      <c r="CM71" s="99"/>
-      <c r="CN71" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO71" s="99"/>
-      <c r="CP71" s="57">
+      <c r="CM71" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN71" s="99"/>
+      <c r="CO71" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP71" s="99"/>
+      <c r="CQ71" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B72" s="100" t="s">
         <v>38</v>
       </c>
@@ -33318,16 +33607,19 @@
       <c r="CL72" s="57">
         <v>0</v>
       </c>
-      <c r="CM72" s="99"/>
-      <c r="CN72" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO72" s="99"/>
-      <c r="CP72" s="57">
+      <c r="CM72" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN72" s="99"/>
+      <c r="CO72" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP72" s="99"/>
+      <c r="CQ72" s="57">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B73" s="100" t="s">
         <v>38</v>
       </c>
@@ -33593,16 +33885,19 @@
       <c r="CL73" s="57">
         <v>0</v>
       </c>
-      <c r="CM73" s="99"/>
-      <c r="CN73" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO73" s="99"/>
-      <c r="CP73" s="57">
+      <c r="CM73" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN73" s="99"/>
+      <c r="CO73" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP73" s="99"/>
+      <c r="CQ73" s="57">
         <v>480</v>
       </c>
     </row>
-    <row r="74" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B74" s="100" t="s">
         <v>38</v>
       </c>
@@ -33868,16 +34163,19 @@
       <c r="CL74" s="57">
         <v>0</v>
       </c>
-      <c r="CM74" s="99"/>
-      <c r="CN74" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO74" s="99"/>
-      <c r="CP74" s="57">
+      <c r="CM74" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN74" s="99"/>
+      <c r="CO74" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP74" s="99"/>
+      <c r="CQ74" s="57">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B75" s="100" t="s">
         <v>38</v>
       </c>
@@ -34143,16 +34441,19 @@
       <c r="CL75" s="57">
         <v>0</v>
       </c>
-      <c r="CM75" s="99"/>
-      <c r="CN75" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO75" s="99"/>
-      <c r="CP75" s="57">
+      <c r="CM75" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN75" s="99"/>
+      <c r="CO75" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP75" s="99"/>
+      <c r="CQ75" s="57">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B76" s="100" t="s">
         <v>38</v>
       </c>
@@ -34418,16 +34719,19 @@
       <c r="CL76" s="57">
         <v>0</v>
       </c>
-      <c r="CM76" s="99"/>
-      <c r="CN76" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO76" s="99"/>
-      <c r="CP76" s="57">
+      <c r="CM76" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN76" s="99"/>
+      <c r="CO76" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP76" s="99"/>
+      <c r="CQ76" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B77" s="100" t="s">
         <v>38</v>
       </c>
@@ -34693,16 +34997,19 @@
       <c r="CL77" s="57">
         <v>0</v>
       </c>
-      <c r="CM77" s="99"/>
-      <c r="CN77" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO77" s="99"/>
-      <c r="CP77" s="57">
+      <c r="CM77" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN77" s="99"/>
+      <c r="CO77" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP77" s="99"/>
+      <c r="CQ77" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B78" s="100" t="s">
         <v>38</v>
       </c>
@@ -34968,16 +35275,19 @@
       <c r="CL78" s="57">
         <v>0</v>
       </c>
-      <c r="CM78" s="99"/>
-      <c r="CN78" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO78" s="99"/>
-      <c r="CP78" s="57">
+      <c r="CM78" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN78" s="99"/>
+      <c r="CO78" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP78" s="99"/>
+      <c r="CQ78" s="57">
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B79" s="100" t="s">
         <v>38</v>
       </c>
@@ -35243,16 +35553,19 @@
       <c r="CL79" s="57">
         <v>0</v>
       </c>
-      <c r="CM79" s="99"/>
-      <c r="CN79" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO79" s="99"/>
-      <c r="CP79" s="57">
+      <c r="CM79" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN79" s="99"/>
+      <c r="CO79" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP79" s="99"/>
+      <c r="CQ79" s="57">
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B80" s="100" t="s">
         <v>38</v>
       </c>
@@ -35518,16 +35831,19 @@
       <c r="CL80" s="57">
         <v>0</v>
       </c>
-      <c r="CM80" s="99"/>
-      <c r="CN80" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO80" s="99"/>
-      <c r="CP80" s="57">
+      <c r="CM80" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN80" s="99"/>
+      <c r="CO80" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP80" s="99"/>
+      <c r="CQ80" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B81" s="100" t="s">
         <v>38</v>
       </c>
@@ -35793,16 +36109,19 @@
       <c r="CL81" s="57">
         <v>0</v>
       </c>
-      <c r="CM81" s="99"/>
-      <c r="CN81" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO81" s="99"/>
-      <c r="CP81" s="57">
+      <c r="CM81" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN81" s="99"/>
+      <c r="CO81" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP81" s="99"/>
+      <c r="CQ81" s="57">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B82" s="100" t="s">
         <v>38</v>
       </c>
@@ -36068,16 +36387,19 @@
       <c r="CL82" s="57">
         <v>0</v>
       </c>
-      <c r="CM82" s="99"/>
-      <c r="CN82" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO82" s="99"/>
-      <c r="CP82" s="57">
+      <c r="CM82" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN82" s="99"/>
+      <c r="CO82" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP82" s="99"/>
+      <c r="CQ82" s="57">
         <v>168</v>
       </c>
     </row>
-    <row r="83" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B83" s="100" t="s">
         <v>38</v>
       </c>
@@ -36343,16 +36665,19 @@
       <c r="CL83" s="57">
         <v>0</v>
       </c>
-      <c r="CM83" s="99"/>
-      <c r="CN83" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO83" s="99"/>
-      <c r="CP83" s="57">
+      <c r="CM83" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN83" s="99"/>
+      <c r="CO83" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP83" s="99"/>
+      <c r="CQ83" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B84" s="100" t="s">
         <v>38</v>
       </c>
@@ -36618,16 +36943,19 @@
       <c r="CL84" s="57">
         <v>0</v>
       </c>
-      <c r="CM84" s="99"/>
-      <c r="CN84" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO84" s="99"/>
-      <c r="CP84" s="57">
+      <c r="CM84" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN84" s="99"/>
+      <c r="CO84" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP84" s="99"/>
+      <c r="CQ84" s="57">
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B85" s="100" t="s">
         <v>39</v>
       </c>
@@ -36893,16 +37221,19 @@
       <c r="CL85" s="57">
         <v>0</v>
       </c>
-      <c r="CM85" s="99"/>
-      <c r="CN85" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO85" s="99"/>
-      <c r="CP85" s="57">
+      <c r="CM85" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN85" s="99"/>
+      <c r="CO85" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP85" s="99"/>
+      <c r="CQ85" s="57">
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B86" s="100" t="s">
         <v>39</v>
       </c>
@@ -37168,16 +37499,19 @@
       <c r="CL86" s="57">
         <v>1</v>
       </c>
-      <c r="CM86" s="99"/>
-      <c r="CN86" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO86" s="99"/>
-      <c r="CP86" s="57">
+      <c r="CM86" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN86" s="99"/>
+      <c r="CO86" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP86" s="99"/>
+      <c r="CQ86" s="57">
         <v>116</v>
       </c>
     </row>
-    <row r="87" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B87" s="100" t="s">
         <v>39</v>
       </c>
@@ -37443,16 +37777,19 @@
       <c r="CL87" s="57">
         <v>0</v>
       </c>
-      <c r="CM87" s="99"/>
-      <c r="CN87" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO87" s="99"/>
-      <c r="CP87" s="57">
+      <c r="CM87" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN87" s="99"/>
+      <c r="CO87" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP87" s="99"/>
+      <c r="CQ87" s="57">
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B88" s="100" t="s">
         <v>39</v>
       </c>
@@ -37718,16 +38055,19 @@
       <c r="CL88" s="57">
         <v>0</v>
       </c>
-      <c r="CM88" s="99"/>
-      <c r="CN88" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO88" s="99"/>
-      <c r="CP88" s="57">
+      <c r="CM88" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN88" s="99"/>
+      <c r="CO88" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP88" s="99"/>
+      <c r="CQ88" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B89" s="100" t="s">
         <v>39</v>
       </c>
@@ -37991,18 +38331,21 @@
         <v>0</v>
       </c>
       <c r="CL89" s="57">
-        <v>0</v>
-      </c>
-      <c r="CM89" s="99"/>
-      <c r="CN89" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO89" s="99"/>
-      <c r="CP89" s="57">
-        <v>126</v>
+        <v>1</v>
+      </c>
+      <c r="CM89" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN89" s="99"/>
+      <c r="CO89" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP89" s="99"/>
+      <c r="CQ89" s="57">
+        <v>127</v>
       </c>
     </row>
-    <row r="90" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B90" s="100" t="s">
         <v>39</v>
       </c>
@@ -38268,16 +38611,19 @@
       <c r="CL90" s="57">
         <v>0</v>
       </c>
-      <c r="CM90" s="99"/>
-      <c r="CN90" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO90" s="99"/>
-      <c r="CP90" s="57">
+      <c r="CM90" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN90" s="99"/>
+      <c r="CO90" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP90" s="99"/>
+      <c r="CQ90" s="57">
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B91" s="100" t="s">
         <v>39</v>
       </c>
@@ -38532,10 +38878,10 @@
         <v>1</v>
       </c>
       <c r="CI91" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ91" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK91" s="57">
         <v>0</v>
@@ -38543,16 +38889,19 @@
       <c r="CL91" s="57">
         <v>0</v>
       </c>
-      <c r="CM91" s="99"/>
-      <c r="CN91" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO91" s="99"/>
-      <c r="CP91" s="57">
-        <v>15</v>
+      <c r="CM91" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN91" s="99"/>
+      <c r="CO91" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP91" s="99"/>
+      <c r="CQ91" s="57">
+        <v>17</v>
       </c>
     </row>
-    <row r="92" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B92" s="100" t="s">
         <v>39</v>
       </c>
@@ -38818,16 +39167,19 @@
       <c r="CL92" s="57">
         <v>0</v>
       </c>
-      <c r="CM92" s="99"/>
-      <c r="CN92" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO92" s="99"/>
-      <c r="CP92" s="57">
+      <c r="CM92" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN92" s="99"/>
+      <c r="CO92" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP92" s="99"/>
+      <c r="CQ92" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B93" s="100" t="s">
         <v>39</v>
       </c>
@@ -39093,16 +39445,19 @@
       <c r="CL93" s="57">
         <v>0</v>
       </c>
-      <c r="CM93" s="99"/>
-      <c r="CN93" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO93" s="99"/>
-      <c r="CP93" s="57">
+      <c r="CM93" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN93" s="99"/>
+      <c r="CO93" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP93" s="99"/>
+      <c r="CQ93" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B94" s="100" t="s">
         <v>39</v>
       </c>
@@ -39368,16 +39723,19 @@
       <c r="CL94" s="57">
         <v>0</v>
       </c>
-      <c r="CM94" s="99"/>
-      <c r="CN94" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO94" s="99"/>
-      <c r="CP94" s="57">
+      <c r="CM94" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN94" s="99"/>
+      <c r="CO94" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP94" s="99"/>
+      <c r="CQ94" s="57">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B95" s="100" t="s">
         <v>39</v>
       </c>
@@ -39643,16 +40001,19 @@
       <c r="CL95" s="57">
         <v>0</v>
       </c>
-      <c r="CM95" s="99"/>
-      <c r="CN95" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO95" s="99"/>
-      <c r="CP95" s="57">
-        <v>5</v>
+      <c r="CM95" s="57">
+        <v>1</v>
+      </c>
+      <c r="CN95" s="99"/>
+      <c r="CO95" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP95" s="99"/>
+      <c r="CQ95" s="57">
+        <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B96" s="100" t="s">
         <v>39</v>
       </c>
@@ -39918,16 +40279,19 @@
       <c r="CL96" s="57">
         <v>0</v>
       </c>
-      <c r="CM96" s="99"/>
-      <c r="CN96" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO96" s="99"/>
-      <c r="CP96" s="57">
+      <c r="CM96" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN96" s="99"/>
+      <c r="CO96" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP96" s="99"/>
+      <c r="CQ96" s="57">
         <v>223</v>
       </c>
     </row>
-    <row r="97" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B97" s="100" t="s">
         <v>39</v>
       </c>
@@ -40193,16 +40557,19 @@
       <c r="CL97" s="57">
         <v>0</v>
       </c>
-      <c r="CM97" s="99"/>
-      <c r="CN97" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO97" s="99"/>
-      <c r="CP97" s="57">
-        <v>4</v>
+      <c r="CM97" s="57">
+        <v>1</v>
+      </c>
+      <c r="CN97" s="99"/>
+      <c r="CO97" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP97" s="99"/>
+      <c r="CQ97" s="57">
+        <v>5</v>
       </c>
     </row>
-    <row r="98" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B98" s="100" t="s">
         <v>39</v>
       </c>
@@ -40468,16 +40835,19 @@
       <c r="CL98" s="57">
         <v>0</v>
       </c>
-      <c r="CM98" s="99"/>
-      <c r="CN98" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO98" s="99"/>
-      <c r="CP98" s="57">
+      <c r="CM98" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN98" s="99"/>
+      <c r="CO98" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP98" s="99"/>
+      <c r="CQ98" s="57">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B99" s="100" t="s">
         <v>39</v>
       </c>
@@ -40741,18 +41111,21 @@
         <v>0</v>
       </c>
       <c r="CL99" s="57">
-        <v>0</v>
-      </c>
-      <c r="CM99" s="99"/>
-      <c r="CN99" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO99" s="99"/>
-      <c r="CP99" s="57">
-        <v>242</v>
+        <v>1</v>
+      </c>
+      <c r="CM99" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN99" s="99"/>
+      <c r="CO99" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP99" s="99"/>
+      <c r="CQ99" s="57">
+        <v>243</v>
       </c>
     </row>
-    <row r="100" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B100" s="100" t="s">
         <v>39</v>
       </c>
@@ -41018,16 +41391,19 @@
       <c r="CL100" s="57">
         <v>0</v>
       </c>
-      <c r="CM100" s="99"/>
-      <c r="CN100" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO100" s="99"/>
-      <c r="CP100" s="57">
+      <c r="CM100" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN100" s="99"/>
+      <c r="CO100" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP100" s="99"/>
+      <c r="CQ100" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B101" s="100" t="s">
         <v>39</v>
       </c>
@@ -41293,16 +41669,19 @@
       <c r="CL101" s="57">
         <v>0</v>
       </c>
-      <c r="CM101" s="99"/>
-      <c r="CN101" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO101" s="99"/>
-      <c r="CP101" s="57">
+      <c r="CM101" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN101" s="99"/>
+      <c r="CO101" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP101" s="99"/>
+      <c r="CQ101" s="57">
         <v>336</v>
       </c>
     </row>
-    <row r="102" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B102" s="100" t="s">
         <v>39</v>
       </c>
@@ -41563,21 +41942,24 @@
         <v>1</v>
       </c>
       <c r="CK102" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL102" s="57">
-        <v>0</v>
-      </c>
-      <c r="CM102" s="99"/>
-      <c r="CN102" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO102" s="99"/>
-      <c r="CP102" s="57">
-        <v>114</v>
+        <v>1</v>
+      </c>
+      <c r="CM102" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN102" s="99"/>
+      <c r="CO102" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP102" s="99"/>
+      <c r="CQ102" s="57">
+        <v>116</v>
       </c>
     </row>
-    <row r="103" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B103" s="100" t="s">
         <v>39</v>
       </c>
@@ -41843,16 +42225,19 @@
       <c r="CL103" s="57">
         <v>2</v>
       </c>
-      <c r="CM103" s="99"/>
-      <c r="CN103" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO103" s="99"/>
-      <c r="CP103" s="57">
+      <c r="CM103" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN103" s="99"/>
+      <c r="CO103" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP103" s="99"/>
+      <c r="CQ103" s="57">
         <v>136</v>
       </c>
     </row>
-    <row r="104" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B104" s="100" t="s">
         <v>39</v>
       </c>
@@ -42118,16 +42503,19 @@
       <c r="CL104" s="57">
         <v>0</v>
       </c>
-      <c r="CM104" s="99"/>
-      <c r="CN104" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO104" s="99"/>
-      <c r="CP104" s="57">
+      <c r="CM104" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN104" s="99"/>
+      <c r="CO104" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP104" s="99"/>
+      <c r="CQ104" s="57">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B105" s="100" t="s">
         <v>39</v>
       </c>
@@ -42393,16 +42781,19 @@
       <c r="CL105" s="57">
         <v>0</v>
       </c>
-      <c r="CM105" s="99"/>
-      <c r="CN105" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO105" s="99"/>
-      <c r="CP105" s="57">
+      <c r="CM105" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN105" s="99"/>
+      <c r="CO105" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP105" s="99"/>
+      <c r="CQ105" s="57">
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B106" s="100" t="s">
         <v>39</v>
       </c>
@@ -42668,16 +43059,19 @@
       <c r="CL106" s="57">
         <v>0</v>
       </c>
-      <c r="CM106" s="99"/>
-      <c r="CN106" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO106" s="99"/>
-      <c r="CP106" s="57">
+      <c r="CM106" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN106" s="99"/>
+      <c r="CO106" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP106" s="99"/>
+      <c r="CQ106" s="57">
         <v>245</v>
       </c>
     </row>
-    <row r="107" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B107" s="100" t="s">
         <v>39</v>
       </c>
@@ -42943,16 +43337,19 @@
       <c r="CL107" s="57">
         <v>0</v>
       </c>
-      <c r="CM107" s="99"/>
-      <c r="CN107" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO107" s="99"/>
-      <c r="CP107" s="57">
+      <c r="CM107" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN107" s="99"/>
+      <c r="CO107" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP107" s="99"/>
+      <c r="CQ107" s="57">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B108" s="100" t="s">
         <v>39</v>
       </c>
@@ -43218,16 +43615,19 @@
       <c r="CL108" s="57">
         <v>0</v>
       </c>
-      <c r="CM108" s="99"/>
-      <c r="CN108" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO108" s="99"/>
-      <c r="CP108" s="57">
+      <c r="CM108" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN108" s="99"/>
+      <c r="CO108" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP108" s="99"/>
+      <c r="CQ108" s="57">
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B109" s="100" t="s">
         <v>39</v>
       </c>
@@ -43493,16 +43893,19 @@
       <c r="CL109" s="57">
         <v>0</v>
       </c>
-      <c r="CM109" s="99"/>
-      <c r="CN109" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO109" s="99"/>
-      <c r="CP109" s="57">
+      <c r="CM109" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN109" s="99"/>
+      <c r="CO109" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP109" s="99"/>
+      <c r="CQ109" s="57">
         <v>262</v>
       </c>
     </row>
-    <row r="110" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B110" s="100" t="s">
         <v>39</v>
       </c>
@@ -43768,16 +44171,19 @@
       <c r="CL110" s="57">
         <v>2</v>
       </c>
-      <c r="CM110" s="99"/>
-      <c r="CN110" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO110" s="99"/>
-      <c r="CP110" s="57">
-        <v>129</v>
+      <c r="CM110" s="57">
+        <v>1</v>
+      </c>
+      <c r="CN110" s="99"/>
+      <c r="CO110" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP110" s="99"/>
+      <c r="CQ110" s="57">
+        <v>130</v>
       </c>
     </row>
-    <row r="111" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B111" s="100" t="s">
         <v>39</v>
       </c>
@@ -44043,16 +44449,19 @@
       <c r="CL111" s="57">
         <v>0</v>
       </c>
-      <c r="CM111" s="99"/>
-      <c r="CN111" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO111" s="99"/>
-      <c r="CP111" s="57">
+      <c r="CM111" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN111" s="99"/>
+      <c r="CO111" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP111" s="99"/>
+      <c r="CQ111" s="57">
         <v>896</v>
       </c>
     </row>
-    <row r="112" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B112" s="100" t="s">
         <v>39</v>
       </c>
@@ -44313,21 +44722,24 @@
         <v>0</v>
       </c>
       <c r="CK112" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL112" s="57">
         <v>0</v>
       </c>
-      <c r="CM112" s="99"/>
-      <c r="CN112" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO112" s="99"/>
-      <c r="CP112" s="57">
-        <v>228</v>
+      <c r="CM112" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN112" s="99"/>
+      <c r="CO112" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP112" s="99"/>
+      <c r="CQ112" s="57">
+        <v>229</v>
       </c>
     </row>
-    <row r="113" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B113" s="100" t="s">
         <v>39</v>
       </c>
@@ -44591,18 +45003,21 @@
         <v>0</v>
       </c>
       <c r="CL113" s="57">
-        <v>2</v>
-      </c>
-      <c r="CM113" s="99"/>
-      <c r="CN113" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO113" s="99"/>
-      <c r="CP113" s="57">
-        <v>465</v>
+        <v>4</v>
+      </c>
+      <c r="CM113" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN113" s="99"/>
+      <c r="CO113" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP113" s="99"/>
+      <c r="CQ113" s="57">
+        <v>467</v>
       </c>
     </row>
-    <row r="114" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B114" s="100" t="s">
         <v>39</v>
       </c>
@@ -44857,7 +45272,7 @@
         <v>1</v>
       </c>
       <c r="CI114" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CJ114" s="57">
         <v>0</v>
@@ -44868,16 +45283,19 @@
       <c r="CL114" s="57">
         <v>0</v>
       </c>
-      <c r="CM114" s="99"/>
-      <c r="CN114" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO114" s="99"/>
-      <c r="CP114" s="57">
-        <v>323</v>
+      <c r="CM114" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN114" s="99"/>
+      <c r="CO114" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP114" s="99"/>
+      <c r="CQ114" s="57">
+        <v>324</v>
       </c>
     </row>
-    <row r="115" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B115" s="100" t="s">
         <v>39</v>
       </c>
@@ -45141,18 +45559,21 @@
         <v>7</v>
       </c>
       <c r="CL115" s="57">
-        <v>0</v>
-      </c>
-      <c r="CM115" s="99"/>
-      <c r="CN115" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO115" s="99"/>
-      <c r="CP115" s="57">
-        <v>290</v>
+        <v>2</v>
+      </c>
+      <c r="CM115" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN115" s="99"/>
+      <c r="CO115" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP115" s="99"/>
+      <c r="CQ115" s="57">
+        <v>292</v>
       </c>
     </row>
-    <row r="116" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B116" s="100" t="s">
         <v>39</v>
       </c>
@@ -45418,16 +45839,19 @@
       <c r="CL116" s="57">
         <v>0</v>
       </c>
-      <c r="CM116" s="99"/>
-      <c r="CN116" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO116" s="99"/>
-      <c r="CP116" s="57">
+      <c r="CM116" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN116" s="99"/>
+      <c r="CO116" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP116" s="99"/>
+      <c r="CQ116" s="57">
         <v>205</v>
       </c>
     </row>
-    <row r="117" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B117" s="100" t="s">
         <v>39</v>
       </c>
@@ -45693,16 +46117,19 @@
       <c r="CL117" s="57">
         <v>0</v>
       </c>
-      <c r="CM117" s="99"/>
-      <c r="CN117" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO117" s="99"/>
-      <c r="CP117" s="57">
+      <c r="CM117" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN117" s="99"/>
+      <c r="CO117" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP117" s="99"/>
+      <c r="CQ117" s="57">
         <v>247</v>
       </c>
     </row>
-    <row r="118" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B118" s="100" t="s">
         <v>39</v>
       </c>
@@ -45968,16 +46395,19 @@
       <c r="CL118" s="57">
         <v>0</v>
       </c>
-      <c r="CM118" s="99"/>
-      <c r="CN118" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO118" s="99"/>
-      <c r="CP118" s="57">
+      <c r="CM118" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN118" s="99"/>
+      <c r="CO118" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP118" s="99"/>
+      <c r="CQ118" s="57">
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B119" s="100" t="s">
         <v>39</v>
       </c>
@@ -46243,16 +46673,19 @@
       <c r="CL119" s="57">
         <v>0</v>
       </c>
-      <c r="CM119" s="99"/>
-      <c r="CN119" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO119" s="99"/>
-      <c r="CP119" s="57">
+      <c r="CM119" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN119" s="99"/>
+      <c r="CO119" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP119" s="99"/>
+      <c r="CQ119" s="57">
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B120" s="100" t="s">
         <v>40</v>
       </c>
@@ -46518,16 +46951,19 @@
       <c r="CL120" s="57">
         <v>0</v>
       </c>
-      <c r="CM120" s="99"/>
-      <c r="CN120" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO120" s="99"/>
-      <c r="CP120" s="57">
+      <c r="CM120" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN120" s="99"/>
+      <c r="CO120" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP120" s="99"/>
+      <c r="CQ120" s="57">
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B121" s="100" t="s">
         <v>40</v>
       </c>
@@ -46791,18 +47227,21 @@
         <v>0</v>
       </c>
       <c r="CL121" s="57">
-        <v>0</v>
-      </c>
-      <c r="CM121" s="99"/>
-      <c r="CN121" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO121" s="99"/>
-      <c r="CP121" s="57">
-        <v>113</v>
+        <v>1</v>
+      </c>
+      <c r="CM121" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN121" s="99"/>
+      <c r="CO121" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP121" s="99"/>
+      <c r="CQ121" s="57">
+        <v>114</v>
       </c>
     </row>
-    <row r="122" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B122" s="100" t="s">
         <v>40</v>
       </c>
@@ -47068,16 +47507,19 @@
       <c r="CL122" s="57">
         <v>0</v>
       </c>
-      <c r="CM122" s="99"/>
-      <c r="CN122" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO122" s="99"/>
-      <c r="CP122" s="57">
+      <c r="CM122" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN122" s="99"/>
+      <c r="CO122" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP122" s="99"/>
+      <c r="CQ122" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B123" s="100" t="s">
         <v>40</v>
       </c>
@@ -47343,16 +47785,19 @@
       <c r="CL123" s="57">
         <v>0</v>
       </c>
-      <c r="CM123" s="99"/>
-      <c r="CN123" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO123" s="99"/>
-      <c r="CP123" s="57">
+      <c r="CM123" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN123" s="99"/>
+      <c r="CO123" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP123" s="99"/>
+      <c r="CQ123" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B124" s="100" t="s">
         <v>40</v>
       </c>
@@ -47616,18 +48061,21 @@
         <v>1</v>
       </c>
       <c r="CL124" s="57">
-        <v>0</v>
-      </c>
-      <c r="CM124" s="99"/>
-      <c r="CN124" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO124" s="99"/>
-      <c r="CP124" s="57">
-        <v>190</v>
+        <v>1</v>
+      </c>
+      <c r="CM124" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN124" s="99"/>
+      <c r="CO124" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP124" s="99"/>
+      <c r="CQ124" s="57">
+        <v>191</v>
       </c>
     </row>
-    <row r="125" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B125" s="100" t="s">
         <v>40</v>
       </c>
@@ -47893,16 +48341,19 @@
       <c r="CL125" s="57">
         <v>0</v>
       </c>
-      <c r="CM125" s="99"/>
-      <c r="CN125" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO125" s="99"/>
-      <c r="CP125" s="57">
+      <c r="CM125" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN125" s="99"/>
+      <c r="CO125" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP125" s="99"/>
+      <c r="CQ125" s="57">
         <v>143</v>
       </c>
     </row>
-    <row r="126" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B126" s="100" t="s">
         <v>40</v>
       </c>
@@ -48168,16 +48619,19 @@
       <c r="CL126" s="57">
         <v>0</v>
       </c>
-      <c r="CM126" s="99"/>
-      <c r="CN126" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO126" s="99"/>
-      <c r="CP126" s="57">
+      <c r="CM126" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN126" s="99"/>
+      <c r="CO126" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP126" s="99"/>
+      <c r="CQ126" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B127" s="100" t="s">
         <v>40</v>
       </c>
@@ -48443,16 +48897,19 @@
       <c r="CL127" s="57">
         <v>1</v>
       </c>
-      <c r="CM127" s="99"/>
-      <c r="CN127" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO127" s="99"/>
-      <c r="CP127" s="57">
+      <c r="CM127" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN127" s="99"/>
+      <c r="CO127" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP127" s="99"/>
+      <c r="CQ127" s="57">
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B128" s="100" t="s">
         <v>40</v>
       </c>
@@ -48718,16 +49175,19 @@
       <c r="CL128" s="57">
         <v>0</v>
       </c>
-      <c r="CM128" s="99"/>
-      <c r="CN128" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO128" s="99"/>
-      <c r="CP128" s="57">
+      <c r="CM128" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN128" s="99"/>
+      <c r="CO128" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP128" s="99"/>
+      <c r="CQ128" s="57">
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B129" s="100" t="s">
         <v>40</v>
       </c>
@@ -48993,16 +49453,19 @@
       <c r="CL129" s="57">
         <v>0</v>
       </c>
-      <c r="CM129" s="99"/>
-      <c r="CN129" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO129" s="99"/>
-      <c r="CP129" s="57">
+      <c r="CM129" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN129" s="99"/>
+      <c r="CO129" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP129" s="99"/>
+      <c r="CQ129" s="57">
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B130" s="100" t="s">
         <v>40</v>
       </c>
@@ -49268,16 +49731,19 @@
       <c r="CL130" s="57">
         <v>0</v>
       </c>
-      <c r="CM130" s="99"/>
-      <c r="CN130" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO130" s="99"/>
-      <c r="CP130" s="57">
+      <c r="CM130" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN130" s="99"/>
+      <c r="CO130" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP130" s="99"/>
+      <c r="CQ130" s="57">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B131" s="100" t="s">
         <v>40</v>
       </c>
@@ -49543,16 +50009,19 @@
       <c r="CL131" s="57">
         <v>0</v>
       </c>
-      <c r="CM131" s="99"/>
-      <c r="CN131" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO131" s="99"/>
-      <c r="CP131" s="57">
-        <v>61</v>
+      <c r="CM131" s="57">
+        <v>1</v>
+      </c>
+      <c r="CN131" s="99"/>
+      <c r="CO131" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP131" s="99"/>
+      <c r="CQ131" s="57">
+        <v>62</v>
       </c>
     </row>
-    <row r="132" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B132" s="100" t="s">
         <v>40</v>
       </c>
@@ -49818,16 +50287,19 @@
       <c r="CL132" s="57">
         <v>0</v>
       </c>
-      <c r="CM132" s="99"/>
-      <c r="CN132" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO132" s="99"/>
-      <c r="CP132" s="57">
+      <c r="CM132" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN132" s="99"/>
+      <c r="CO132" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP132" s="99"/>
+      <c r="CQ132" s="57">
         <v>150</v>
       </c>
     </row>
-    <row r="133" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B133" s="100" t="s">
         <v>40</v>
       </c>
@@ -50093,16 +50565,19 @@
       <c r="CL133" s="57">
         <v>0</v>
       </c>
-      <c r="CM133" s="99"/>
-      <c r="CN133" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO133" s="99"/>
-      <c r="CP133" s="57">
+      <c r="CM133" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN133" s="99"/>
+      <c r="CO133" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP133" s="99"/>
+      <c r="CQ133" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B134" s="100" t="s">
         <v>40</v>
       </c>
@@ -50368,16 +50843,19 @@
       <c r="CL134" s="57">
         <v>0</v>
       </c>
-      <c r="CM134" s="99"/>
-      <c r="CN134" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO134" s="99"/>
-      <c r="CP134" s="57">
+      <c r="CM134" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN134" s="99"/>
+      <c r="CO134" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP134" s="99"/>
+      <c r="CQ134" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B135" s="100" t="s">
         <v>40</v>
       </c>
@@ -50643,16 +51121,19 @@
       <c r="CL135" s="57">
         <v>1</v>
       </c>
-      <c r="CM135" s="99"/>
-      <c r="CN135" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO135" s="99"/>
-      <c r="CP135" s="57">
+      <c r="CM135" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN135" s="99"/>
+      <c r="CO135" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP135" s="99"/>
+      <c r="CQ135" s="57">
         <v>302</v>
       </c>
     </row>
-    <row r="136" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B136" s="100" t="s">
         <v>40</v>
       </c>
@@ -50916,18 +51397,21 @@
         <v>2</v>
       </c>
       <c r="CL136" s="57">
-        <v>0</v>
-      </c>
-      <c r="CM136" s="99"/>
-      <c r="CN136" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO136" s="99"/>
-      <c r="CP136" s="57">
-        <v>272</v>
+        <v>2</v>
+      </c>
+      <c r="CM136" s="57">
+        <v>2</v>
+      </c>
+      <c r="CN136" s="99"/>
+      <c r="CO136" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP136" s="99"/>
+      <c r="CQ136" s="57">
+        <v>276</v>
       </c>
     </row>
-    <row r="137" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B137" s="100" t="s">
         <v>40</v>
       </c>
@@ -51193,16 +51677,19 @@
       <c r="CL137" s="57">
         <v>0</v>
       </c>
-      <c r="CM137" s="99"/>
-      <c r="CN137" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO137" s="99"/>
-      <c r="CP137" s="57">
+      <c r="CM137" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN137" s="99"/>
+      <c r="CO137" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP137" s="99"/>
+      <c r="CQ137" s="57">
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B138" s="100" t="s">
         <v>40</v>
       </c>
@@ -51466,18 +51953,21 @@
         <v>0</v>
       </c>
       <c r="CL138" s="57">
-        <v>2</v>
-      </c>
-      <c r="CM138" s="99"/>
-      <c r="CN138" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO138" s="99"/>
-      <c r="CP138" s="57">
-        <v>110</v>
+        <v>3</v>
+      </c>
+      <c r="CM138" s="57">
+        <v>1</v>
+      </c>
+      <c r="CN138" s="99"/>
+      <c r="CO138" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP138" s="99"/>
+      <c r="CQ138" s="57">
+        <v>112</v>
       </c>
     </row>
-    <row r="139" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B139" s="100" t="s">
         <v>40</v>
       </c>
@@ -51743,16 +52233,19 @@
       <c r="CL139" s="57">
         <v>1</v>
       </c>
-      <c r="CM139" s="99"/>
-      <c r="CN139" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO139" s="99"/>
-      <c r="CP139" s="57">
-        <v>94</v>
+      <c r="CM139" s="57">
+        <v>1</v>
+      </c>
+      <c r="CN139" s="99"/>
+      <c r="CO139" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP139" s="99"/>
+      <c r="CQ139" s="57">
+        <v>95</v>
       </c>
     </row>
-    <row r="140" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B140" s="100" t="s">
         <v>40</v>
       </c>
@@ -52018,16 +52511,19 @@
       <c r="CL140" s="57">
         <v>1</v>
       </c>
-      <c r="CM140" s="99"/>
-      <c r="CN140" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO140" s="99"/>
-      <c r="CP140" s="57">
+      <c r="CM140" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN140" s="99"/>
+      <c r="CO140" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP140" s="99"/>
+      <c r="CQ140" s="57">
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B141" s="100" t="s">
         <v>40</v>
       </c>
@@ -52293,16 +52789,19 @@
       <c r="CL141" s="57">
         <v>0</v>
       </c>
-      <c r="CM141" s="99"/>
-      <c r="CN141" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO141" s="99"/>
-      <c r="CP141" s="57">
+      <c r="CM141" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN141" s="99"/>
+      <c r="CO141" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP141" s="99"/>
+      <c r="CQ141" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B142" s="100" t="s">
         <v>40</v>
       </c>
@@ -52568,16 +53067,19 @@
       <c r="CL142" s="57">
         <v>0</v>
       </c>
-      <c r="CM142" s="99"/>
-      <c r="CN142" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO142" s="99"/>
-      <c r="CP142" s="57">
+      <c r="CM142" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN142" s="99"/>
+      <c r="CO142" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP142" s="99"/>
+      <c r="CQ142" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B143" s="100" t="s">
         <v>40</v>
       </c>
@@ -52841,18 +53343,21 @@
         <v>4</v>
       </c>
       <c r="CL143" s="57">
-        <v>0</v>
-      </c>
-      <c r="CM143" s="99"/>
-      <c r="CN143" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO143" s="99"/>
-      <c r="CP143" s="57">
-        <v>256</v>
+        <v>1</v>
+      </c>
+      <c r="CM143" s="57">
+        <v>1</v>
+      </c>
+      <c r="CN143" s="99"/>
+      <c r="CO143" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP143" s="99"/>
+      <c r="CQ143" s="57">
+        <v>258</v>
       </c>
     </row>
-    <row r="144" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B144" s="100" t="s">
         <v>40</v>
       </c>
@@ -53118,16 +53623,19 @@
       <c r="CL144" s="57">
         <v>0</v>
       </c>
-      <c r="CM144" s="99"/>
-      <c r="CN144" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO144" s="99"/>
-      <c r="CP144" s="57">
+      <c r="CM144" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN144" s="99"/>
+      <c r="CO144" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP144" s="99"/>
+      <c r="CQ144" s="57">
         <v>223</v>
       </c>
     </row>
-    <row r="145" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B145" s="100" t="s">
         <v>40</v>
       </c>
@@ -53393,16 +53901,19 @@
       <c r="CL145" s="57">
         <v>0</v>
       </c>
-      <c r="CM145" s="99"/>
-      <c r="CN145" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO145" s="99"/>
-      <c r="CP145" s="57">
-        <v>315</v>
+      <c r="CM145" s="57">
+        <v>1</v>
+      </c>
+      <c r="CN145" s="99"/>
+      <c r="CO145" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP145" s="99"/>
+      <c r="CQ145" s="57">
+        <v>316</v>
       </c>
     </row>
-    <row r="146" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B146" s="100" t="s">
         <v>40</v>
       </c>
@@ -53668,16 +54179,19 @@
       <c r="CL146" s="57">
         <v>0</v>
       </c>
-      <c r="CM146" s="99"/>
-      <c r="CN146" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO146" s="99"/>
-      <c r="CP146" s="57">
+      <c r="CM146" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN146" s="99"/>
+      <c r="CO146" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP146" s="99"/>
+      <c r="CQ146" s="57">
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B147" s="100" t="s">
         <v>40</v>
       </c>
@@ -53943,16 +54457,19 @@
       <c r="CL147" s="57">
         <v>0</v>
       </c>
-      <c r="CM147" s="99"/>
-      <c r="CN147" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO147" s="99"/>
-      <c r="CP147" s="57">
+      <c r="CM147" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN147" s="99"/>
+      <c r="CO147" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP147" s="99"/>
+      <c r="CQ147" s="57">
         <v>110</v>
       </c>
     </row>
-    <row r="148" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B148" s="100" t="s">
         <v>40</v>
       </c>
@@ -54218,16 +54735,19 @@
       <c r="CL148" s="57">
         <v>2</v>
       </c>
-      <c r="CM148" s="99"/>
-      <c r="CN148" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO148" s="99"/>
-      <c r="CP148" s="57">
+      <c r="CM148" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN148" s="99"/>
+      <c r="CO148" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP148" s="99"/>
+      <c r="CQ148" s="57">
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B149" s="100" t="s">
         <v>40</v>
       </c>
@@ -54493,16 +55013,19 @@
       <c r="CL149" s="57">
         <v>0</v>
       </c>
-      <c r="CM149" s="99"/>
-      <c r="CN149" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO149" s="99"/>
-      <c r="CP149" s="57">
+      <c r="CM149" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN149" s="99"/>
+      <c r="CO149" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP149" s="99"/>
+      <c r="CQ149" s="57">
         <v>201</v>
       </c>
     </row>
-    <row r="150" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B150" s="100" t="s">
         <v>41</v>
       </c>
@@ -54768,16 +55291,19 @@
       <c r="CL150" s="57">
         <v>0</v>
       </c>
-      <c r="CM150" s="99"/>
-      <c r="CN150" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO150" s="99"/>
-      <c r="CP150" s="57">
+      <c r="CM150" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN150" s="99"/>
+      <c r="CO150" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP150" s="99"/>
+      <c r="CQ150" s="57">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B151" s="100" t="s">
         <v>41</v>
       </c>
@@ -55041,18 +55567,21 @@
         <v>1</v>
       </c>
       <c r="CL151" s="57">
-        <v>2</v>
-      </c>
-      <c r="CM151" s="99"/>
-      <c r="CN151" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO151" s="99"/>
-      <c r="CP151" s="57">
-        <v>173</v>
+        <v>3</v>
+      </c>
+      <c r="CM151" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN151" s="99"/>
+      <c r="CO151" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP151" s="99"/>
+      <c r="CQ151" s="57">
+        <v>174</v>
       </c>
     </row>
-    <row r="152" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B152" s="100" t="s">
         <v>41</v>
       </c>
@@ -55318,16 +55847,19 @@
       <c r="CL152" s="57">
         <v>0</v>
       </c>
-      <c r="CM152" s="99"/>
-      <c r="CN152" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO152" s="99"/>
-      <c r="CP152" s="57">
+      <c r="CM152" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN152" s="99"/>
+      <c r="CO152" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP152" s="99"/>
+      <c r="CQ152" s="57">
         <v>205</v>
       </c>
     </row>
-    <row r="153" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B153" s="100" t="s">
         <v>41</v>
       </c>
@@ -55593,16 +56125,19 @@
       <c r="CL153" s="57">
         <v>0</v>
       </c>
-      <c r="CM153" s="99"/>
-      <c r="CN153" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO153" s="99"/>
-      <c r="CP153" s="57">
+      <c r="CM153" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN153" s="99"/>
+      <c r="CO153" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP153" s="99"/>
+      <c r="CQ153" s="57">
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B154" s="100" t="s">
         <v>41</v>
       </c>
@@ -55866,18 +56401,21 @@
         <v>0</v>
       </c>
       <c r="CL154" s="57">
-        <v>0</v>
-      </c>
-      <c r="CM154" s="99"/>
-      <c r="CN154" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO154" s="99"/>
-      <c r="CP154" s="57">
-        <v>164</v>
+        <v>1</v>
+      </c>
+      <c r="CM154" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN154" s="99"/>
+      <c r="CO154" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP154" s="99"/>
+      <c r="CQ154" s="57">
+        <v>165</v>
       </c>
     </row>
-    <row r="155" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B155" s="100" t="s">
         <v>41</v>
       </c>
@@ -56143,16 +56681,19 @@
       <c r="CL155" s="57">
         <v>0</v>
       </c>
-      <c r="CM155" s="99"/>
-      <c r="CN155" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO155" s="99"/>
-      <c r="CP155" s="57">
+      <c r="CM155" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN155" s="99"/>
+      <c r="CO155" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP155" s="99"/>
+      <c r="CQ155" s="57">
         <v>111</v>
       </c>
     </row>
-    <row r="156" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B156" s="100" t="s">
         <v>41</v>
       </c>
@@ -56418,16 +56959,19 @@
       <c r="CL156" s="57">
         <v>0</v>
       </c>
-      <c r="CM156" s="99"/>
-      <c r="CN156" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO156" s="99"/>
-      <c r="CP156" s="57">
+      <c r="CM156" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN156" s="99"/>
+      <c r="CO156" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP156" s="99"/>
+      <c r="CQ156" s="57">
         <v>177</v>
       </c>
     </row>
-    <row r="157" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B157" s="100" t="s">
         <v>41</v>
       </c>
@@ -56693,16 +57237,19 @@
       <c r="CL157" s="57">
         <v>0</v>
       </c>
-      <c r="CM157" s="99"/>
-      <c r="CN157" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO157" s="99"/>
-      <c r="CP157" s="57">
+      <c r="CM157" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN157" s="99"/>
+      <c r="CO157" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP157" s="99"/>
+      <c r="CQ157" s="57">
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B158" s="100" t="s">
         <v>41</v>
       </c>
@@ -56968,16 +57515,19 @@
       <c r="CL158" s="57">
         <v>0</v>
       </c>
-      <c r="CM158" s="99"/>
-      <c r="CN158" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO158" s="99"/>
-      <c r="CP158" s="57">
+      <c r="CM158" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN158" s="99"/>
+      <c r="CO158" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP158" s="99"/>
+      <c r="CQ158" s="57">
         <v>192</v>
       </c>
     </row>
-    <row r="159" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B159" s="100" t="s">
         <v>41</v>
       </c>
@@ -57243,16 +57793,19 @@
       <c r="CL159" s="57">
         <v>0</v>
       </c>
-      <c r="CM159" s="99"/>
-      <c r="CN159" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO159" s="99"/>
-      <c r="CP159" s="57">
+      <c r="CM159" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN159" s="99"/>
+      <c r="CO159" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP159" s="99"/>
+      <c r="CQ159" s="57">
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B160" s="100" t="s">
         <v>41</v>
       </c>
@@ -57518,16 +58071,19 @@
       <c r="CL160" s="57">
         <v>0</v>
       </c>
-      <c r="CM160" s="99"/>
-      <c r="CN160" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO160" s="99"/>
-      <c r="CP160" s="57">
+      <c r="CM160" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN160" s="99"/>
+      <c r="CO160" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP160" s="99"/>
+      <c r="CQ160" s="57">
         <v>408</v>
       </c>
     </row>
-    <row r="161" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B161" s="100" t="s">
         <v>41</v>
       </c>
@@ -57793,16 +58349,19 @@
       <c r="CL161" s="57">
         <v>1</v>
       </c>
-      <c r="CM161" s="99"/>
-      <c r="CN161" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO161" s="99"/>
-      <c r="CP161" s="57">
+      <c r="CM161" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN161" s="99"/>
+      <c r="CO161" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP161" s="99"/>
+      <c r="CQ161" s="57">
         <v>367</v>
       </c>
     </row>
-    <row r="162" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B162" s="100" t="s">
         <v>41</v>
       </c>
@@ -58068,16 +58627,19 @@
       <c r="CL162" s="57">
         <v>0</v>
       </c>
-      <c r="CM162" s="99"/>
-      <c r="CN162" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO162" s="99"/>
-      <c r="CP162" s="57">
+      <c r="CM162" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN162" s="99"/>
+      <c r="CO162" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP162" s="99"/>
+      <c r="CQ162" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B163" s="100" t="s">
         <v>41</v>
       </c>
@@ -58338,21 +58900,24 @@
         <v>1</v>
       </c>
       <c r="CK163" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL163" s="57">
-        <v>0</v>
-      </c>
-      <c r="CM163" s="99"/>
-      <c r="CN163" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO163" s="99"/>
-      <c r="CP163" s="57">
-        <v>166</v>
+        <v>1</v>
+      </c>
+      <c r="CM163" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN163" s="99"/>
+      <c r="CO163" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP163" s="99"/>
+      <c r="CQ163" s="57">
+        <v>168</v>
       </c>
     </row>
-    <row r="164" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B164" s="100" t="s">
         <v>41</v>
       </c>
@@ -58618,16 +59183,19 @@
       <c r="CL164" s="57">
         <v>0</v>
       </c>
-      <c r="CM164" s="99"/>
-      <c r="CN164" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO164" s="99"/>
-      <c r="CP164" s="57">
+      <c r="CM164" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN164" s="99"/>
+      <c r="CO164" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP164" s="99"/>
+      <c r="CQ164" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B165" s="100" t="s">
         <v>41</v>
       </c>
@@ -58893,16 +59461,19 @@
       <c r="CL165" s="57">
         <v>0</v>
       </c>
-      <c r="CM165" s="99"/>
-      <c r="CN165" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO165" s="99"/>
-      <c r="CP165" s="57">
+      <c r="CM165" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN165" s="99"/>
+      <c r="CO165" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP165" s="99"/>
+      <c r="CQ165" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B166" s="100" t="s">
         <v>41</v>
       </c>
@@ -59168,16 +59739,19 @@
       <c r="CL166" s="57">
         <v>1</v>
       </c>
-      <c r="CM166" s="99"/>
-      <c r="CN166" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO166" s="99"/>
-      <c r="CP166" s="57">
+      <c r="CM166" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN166" s="99"/>
+      <c r="CO166" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP166" s="99"/>
+      <c r="CQ166" s="57">
         <v>417</v>
       </c>
     </row>
-    <row r="167" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B167" s="100" t="s">
         <v>41</v>
       </c>
@@ -59443,16 +60017,19 @@
       <c r="CL167" s="57">
         <v>0</v>
       </c>
-      <c r="CM167" s="99"/>
-      <c r="CN167" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO167" s="99"/>
-      <c r="CP167" s="57">
+      <c r="CM167" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN167" s="99"/>
+      <c r="CO167" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP167" s="99"/>
+      <c r="CQ167" s="57">
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B168" s="100" t="s">
         <v>41</v>
       </c>
@@ -59716,18 +60293,21 @@
         <v>0</v>
       </c>
       <c r="CL168" s="57">
-        <v>0</v>
-      </c>
-      <c r="CM168" s="99"/>
-      <c r="CN168" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO168" s="99"/>
-      <c r="CP168" s="57">
-        <v>164</v>
+        <v>1</v>
+      </c>
+      <c r="CM168" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN168" s="99"/>
+      <c r="CO168" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP168" s="99"/>
+      <c r="CQ168" s="57">
+        <v>165</v>
       </c>
     </row>
-    <row r="169" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B169" s="100" t="s">
         <v>41</v>
       </c>
@@ -59993,16 +60573,19 @@
       <c r="CL169" s="57">
         <v>1</v>
       </c>
-      <c r="CM169" s="99"/>
-      <c r="CN169" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO169" s="99"/>
-      <c r="CP169" s="57">
-        <v>134</v>
+      <c r="CM169" s="57">
+        <v>1</v>
+      </c>
+      <c r="CN169" s="99"/>
+      <c r="CO169" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP169" s="99"/>
+      <c r="CQ169" s="57">
+        <v>135</v>
       </c>
     </row>
-    <row r="170" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B170" s="100" t="s">
         <v>41</v>
       </c>
@@ -60268,16 +60851,19 @@
       <c r="CL170" s="57">
         <v>1</v>
       </c>
-      <c r="CM170" s="99"/>
-      <c r="CN170" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO170" s="99"/>
-      <c r="CP170" s="57">
+      <c r="CM170" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN170" s="99"/>
+      <c r="CO170" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP170" s="99"/>
+      <c r="CQ170" s="57">
         <v>183</v>
       </c>
     </row>
-    <row r="171" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B171" s="100" t="s">
         <v>41</v>
       </c>
@@ -60543,16 +61129,19 @@
       <c r="CL171" s="57">
         <v>0</v>
       </c>
-      <c r="CM171" s="99"/>
-      <c r="CN171" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO171" s="99"/>
-      <c r="CP171" s="57">
+      <c r="CM171" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN171" s="99"/>
+      <c r="CO171" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP171" s="99"/>
+      <c r="CQ171" s="57">
         <v>179</v>
       </c>
     </row>
-    <row r="172" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B172" s="100" t="s">
         <v>41</v>
       </c>
@@ -60818,16 +61407,19 @@
       <c r="CL172" s="57">
         <v>0</v>
       </c>
-      <c r="CM172" s="99"/>
-      <c r="CN172" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO172" s="99"/>
-      <c r="CP172" s="57">
-        <v>145</v>
+      <c r="CM172" s="57">
+        <v>1</v>
+      </c>
+      <c r="CN172" s="99"/>
+      <c r="CO172" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP172" s="99"/>
+      <c r="CQ172" s="57">
+        <v>146</v>
       </c>
     </row>
-    <row r="173" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B173" s="100" t="s">
         <v>41</v>
       </c>
@@ -61093,16 +61685,19 @@
       <c r="CL173" s="57">
         <v>0</v>
       </c>
-      <c r="CM173" s="99"/>
-      <c r="CN173" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO173" s="99"/>
-      <c r="CP173" s="57">
+      <c r="CM173" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN173" s="99"/>
+      <c r="CO173" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP173" s="99"/>
+      <c r="CQ173" s="57">
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B174" s="100" t="s">
         <v>41</v>
       </c>
@@ -61368,16 +61963,19 @@
       <c r="CL174" s="57">
         <v>0</v>
       </c>
-      <c r="CM174" s="99"/>
-      <c r="CN174" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO174" s="99"/>
-      <c r="CP174" s="57">
+      <c r="CM174" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN174" s="99"/>
+      <c r="CO174" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP174" s="99"/>
+      <c r="CQ174" s="57">
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B175" s="100" t="s">
         <v>41</v>
       </c>
@@ -61643,16 +62241,19 @@
       <c r="CL175" s="57">
         <v>0</v>
       </c>
-      <c r="CM175" s="99"/>
-      <c r="CN175" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO175" s="99"/>
-      <c r="CP175" s="57">
+      <c r="CM175" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN175" s="99"/>
+      <c r="CO175" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP175" s="99"/>
+      <c r="CQ175" s="57">
         <v>159</v>
       </c>
     </row>
-    <row r="176" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B176" s="100" t="s">
         <v>41</v>
       </c>
@@ -61916,18 +62517,21 @@
         <v>1</v>
       </c>
       <c r="CL176" s="57">
-        <v>0</v>
-      </c>
-      <c r="CM176" s="99"/>
-      <c r="CN176" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO176" s="99"/>
-      <c r="CP176" s="57">
-        <v>115</v>
+        <v>1</v>
+      </c>
+      <c r="CM176" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN176" s="99"/>
+      <c r="CO176" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP176" s="99"/>
+      <c r="CQ176" s="57">
+        <v>116</v>
       </c>
     </row>
-    <row r="177" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B177" s="100" t="s">
         <v>41</v>
       </c>
@@ -62193,16 +62797,19 @@
       <c r="CL177" s="57">
         <v>0</v>
       </c>
-      <c r="CM177" s="99"/>
-      <c r="CN177" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO177" s="99"/>
-      <c r="CP177" s="57">
+      <c r="CM177" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN177" s="99"/>
+      <c r="CO177" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP177" s="99"/>
+      <c r="CQ177" s="57">
         <v>205</v>
       </c>
     </row>
-    <row r="178" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B178" s="100" t="s">
         <v>41</v>
       </c>
@@ -62468,16 +63075,19 @@
       <c r="CL178" s="57">
         <v>1</v>
       </c>
-      <c r="CM178" s="99"/>
-      <c r="CN178" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO178" s="99"/>
-      <c r="CP178" s="57">
+      <c r="CM178" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN178" s="99"/>
+      <c r="CO178" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP178" s="99"/>
+      <c r="CQ178" s="57">
         <v>237</v>
       </c>
     </row>
-    <row r="179" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B179" s="100" t="s">
         <v>42</v>
       </c>
@@ -62743,16 +63353,19 @@
       <c r="CL179" s="57">
         <v>0</v>
       </c>
-      <c r="CM179" s="99"/>
-      <c r="CN179" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO179" s="99"/>
-      <c r="CP179" s="57">
+      <c r="CM179" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN179" s="99"/>
+      <c r="CO179" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP179" s="99"/>
+      <c r="CQ179" s="57">
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B180" s="100" t="s">
         <v>42</v>
       </c>
@@ -63018,16 +63631,19 @@
       <c r="CL180" s="57">
         <v>0</v>
       </c>
-      <c r="CM180" s="99"/>
-      <c r="CN180" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO180" s="99"/>
-      <c r="CP180" s="57">
-        <v>16</v>
+      <c r="CM180" s="57">
+        <v>1</v>
+      </c>
+      <c r="CN180" s="99"/>
+      <c r="CO180" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP180" s="99"/>
+      <c r="CQ180" s="57">
+        <v>17</v>
       </c>
     </row>
-    <row r="181" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B181" s="105" t="s">
         <v>42</v>
       </c>
@@ -63293,16 +63909,19 @@
       <c r="CL181" s="57">
         <v>0</v>
       </c>
-      <c r="CM181" s="99"/>
-      <c r="CN181" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO181" s="99"/>
-      <c r="CP181" s="57">
+      <c r="CM181" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN181" s="99"/>
+      <c r="CO181" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP181" s="99"/>
+      <c r="CQ181" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B182" s="100" t="s">
         <v>42</v>
       </c>
@@ -63568,16 +64187,19 @@
       <c r="CL182" s="57">
         <v>0</v>
       </c>
-      <c r="CM182" s="99"/>
-      <c r="CN182" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO182" s="99"/>
-      <c r="CP182" s="57">
+      <c r="CM182" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN182" s="99"/>
+      <c r="CO182" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP182" s="99"/>
+      <c r="CQ182" s="57">
         <v>123</v>
       </c>
     </row>
-    <row r="183" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B183" s="100" t="s">
         <v>42</v>
       </c>
@@ -63843,16 +64465,19 @@
       <c r="CL183" s="57">
         <v>0</v>
       </c>
-      <c r="CM183" s="99"/>
-      <c r="CN183" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO183" s="99"/>
-      <c r="CP183" s="57">
+      <c r="CM183" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN183" s="99"/>
+      <c r="CO183" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP183" s="99"/>
+      <c r="CQ183" s="57">
         <v>113</v>
       </c>
     </row>
-    <row r="184" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B184" s="100" t="s">
         <v>42</v>
       </c>
@@ -64118,16 +64743,19 @@
       <c r="CL184" s="57">
         <v>0</v>
       </c>
-      <c r="CM184" s="99"/>
-      <c r="CN184" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO184" s="99"/>
-      <c r="CP184" s="57">
+      <c r="CM184" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN184" s="99"/>
+      <c r="CO184" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP184" s="99"/>
+      <c r="CQ184" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B185" s="100" t="s">
         <v>42</v>
       </c>
@@ -64393,16 +65021,19 @@
       <c r="CL185" s="57">
         <v>0</v>
       </c>
-      <c r="CM185" s="99"/>
-      <c r="CN185" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO185" s="99"/>
-      <c r="CP185" s="57">
+      <c r="CM185" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN185" s="99"/>
+      <c r="CO185" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP185" s="99"/>
+      <c r="CQ185" s="57">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B186" s="100" t="s">
         <v>42</v>
       </c>
@@ -64668,16 +65299,19 @@
       <c r="CL186" s="57">
         <v>0</v>
       </c>
-      <c r="CM186" s="99"/>
-      <c r="CN186" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO186" s="99"/>
-      <c r="CP186" s="57">
+      <c r="CM186" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN186" s="99"/>
+      <c r="CO186" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP186" s="99"/>
+      <c r="CQ186" s="57">
         <v>264</v>
       </c>
     </row>
-    <row r="187" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B187" s="100" t="s">
         <v>42</v>
       </c>
@@ -64943,16 +65577,19 @@
       <c r="CL187" s="57">
         <v>0</v>
       </c>
-      <c r="CM187" s="99"/>
-      <c r="CN187" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO187" s="99"/>
-      <c r="CP187" s="57">
+      <c r="CM187" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN187" s="99"/>
+      <c r="CO187" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP187" s="99"/>
+      <c r="CQ187" s="57">
         <v>80</v>
       </c>
     </row>
-    <row r="188" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B188" s="100" t="s">
         <v>42</v>
       </c>
@@ -65218,16 +65855,19 @@
       <c r="CL188" s="57">
         <v>0</v>
       </c>
-      <c r="CM188" s="99"/>
-      <c r="CN188" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO188" s="99"/>
-      <c r="CP188" s="57">
+      <c r="CM188" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN188" s="99"/>
+      <c r="CO188" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP188" s="99"/>
+      <c r="CQ188" s="57">
         <v>333</v>
       </c>
     </row>
-    <row r="189" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B189" s="100" t="s">
         <v>42</v>
       </c>
@@ -65488,21 +66128,24 @@
         <v>0</v>
       </c>
       <c r="CK189" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL189" s="57">
         <v>0</v>
       </c>
-      <c r="CM189" s="99"/>
-      <c r="CN189" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO189" s="99"/>
-      <c r="CP189" s="57">
-        <v>151</v>
+      <c r="CM189" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN189" s="99"/>
+      <c r="CO189" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP189" s="99"/>
+      <c r="CQ189" s="57">
+        <v>152</v>
       </c>
     </row>
-    <row r="190" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B190" s="100" t="s">
         <v>42</v>
       </c>
@@ -65768,16 +66411,19 @@
       <c r="CL190" s="57">
         <v>0</v>
       </c>
-      <c r="CM190" s="99"/>
-      <c r="CN190" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO190" s="99"/>
-      <c r="CP190" s="57">
+      <c r="CM190" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN190" s="99"/>
+      <c r="CO190" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP190" s="99"/>
+      <c r="CQ190" s="57">
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B191" s="100" t="s">
         <v>42</v>
       </c>
@@ -66043,16 +66689,19 @@
       <c r="CL191" s="57">
         <v>0</v>
       </c>
-      <c r="CM191" s="99"/>
-      <c r="CN191" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO191" s="99"/>
-      <c r="CP191" s="57">
+      <c r="CM191" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN191" s="99"/>
+      <c r="CO191" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP191" s="99"/>
+      <c r="CQ191" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B192" s="100" t="s">
         <v>42</v>
       </c>
@@ -66318,16 +66967,19 @@
       <c r="CL192" s="57">
         <v>0</v>
       </c>
-      <c r="CM192" s="99"/>
-      <c r="CN192" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO192" s="99"/>
-      <c r="CP192" s="57">
+      <c r="CM192" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN192" s="99"/>
+      <c r="CO192" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP192" s="99"/>
+      <c r="CQ192" s="57">
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B193" s="100" t="s">
         <v>42</v>
       </c>
@@ -66593,16 +67245,19 @@
       <c r="CL193" s="57">
         <v>0</v>
       </c>
-      <c r="CM193" s="99"/>
-      <c r="CN193" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO193" s="99"/>
-      <c r="CP193" s="57">
+      <c r="CM193" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN193" s="99"/>
+      <c r="CO193" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP193" s="99"/>
+      <c r="CQ193" s="57">
         <v>101</v>
       </c>
     </row>
-    <row r="194" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B194" s="100" t="s">
         <v>42</v>
       </c>
@@ -66868,16 +67523,19 @@
       <c r="CL194" s="57">
         <v>0</v>
       </c>
-      <c r="CM194" s="99"/>
-      <c r="CN194" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO194" s="99"/>
-      <c r="CP194" s="57">
+      <c r="CM194" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN194" s="99"/>
+      <c r="CO194" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP194" s="99"/>
+      <c r="CQ194" s="57">
         <v>152</v>
       </c>
     </row>
-    <row r="195" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B195" s="100" t="s">
         <v>42</v>
       </c>
@@ -67143,16 +67801,19 @@
       <c r="CL195" s="57">
         <v>0</v>
       </c>
-      <c r="CM195" s="99"/>
-      <c r="CN195" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO195" s="99"/>
-      <c r="CP195" s="57">
+      <c r="CM195" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN195" s="99"/>
+      <c r="CO195" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP195" s="99"/>
+      <c r="CQ195" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B196" s="100" t="s">
         <v>42</v>
       </c>
@@ -67418,16 +68079,19 @@
       <c r="CL196" s="57">
         <v>0</v>
       </c>
-      <c r="CM196" s="99"/>
-      <c r="CN196" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO196" s="99"/>
-      <c r="CP196" s="57">
+      <c r="CM196" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN196" s="99"/>
+      <c r="CO196" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP196" s="99"/>
+      <c r="CQ196" s="57">
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B197" s="100" t="s">
         <v>42</v>
       </c>
@@ -67693,16 +68357,19 @@
       <c r="CL197" s="57">
         <v>0</v>
       </c>
-      <c r="CM197" s="99"/>
-      <c r="CN197" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO197" s="99"/>
-      <c r="CP197" s="57">
+      <c r="CM197" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN197" s="99"/>
+      <c r="CO197" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP197" s="99"/>
+      <c r="CQ197" s="57">
         <v>177</v>
       </c>
     </row>
-    <row r="198" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B198" s="100" t="s">
         <v>42</v>
       </c>
@@ -67968,16 +68635,19 @@
       <c r="CL198" s="57">
         <v>0</v>
       </c>
-      <c r="CM198" s="99"/>
-      <c r="CN198" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO198" s="99"/>
-      <c r="CP198" s="57">
+      <c r="CM198" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN198" s="99"/>
+      <c r="CO198" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP198" s="99"/>
+      <c r="CQ198" s="57">
         <v>222</v>
       </c>
     </row>
-    <row r="199" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B199" s="100" t="s">
         <v>42</v>
       </c>
@@ -68241,18 +68911,21 @@
         <v>0</v>
       </c>
       <c r="CL199" s="57">
-        <v>0</v>
-      </c>
-      <c r="CM199" s="99"/>
-      <c r="CN199" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO199" s="99"/>
-      <c r="CP199" s="57">
-        <v>170</v>
+        <v>1</v>
+      </c>
+      <c r="CM199" s="57">
+        <v>1</v>
+      </c>
+      <c r="CN199" s="99"/>
+      <c r="CO199" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP199" s="99"/>
+      <c r="CQ199" s="57">
+        <v>172</v>
       </c>
     </row>
-    <row r="200" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B200" s="100" t="s">
         <v>42</v>
       </c>
@@ -68518,16 +69191,19 @@
       <c r="CL200" s="57">
         <v>0</v>
       </c>
-      <c r="CM200" s="99"/>
-      <c r="CN200" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO200" s="99"/>
-      <c r="CP200" s="57">
+      <c r="CM200" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN200" s="99"/>
+      <c r="CO200" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP200" s="99"/>
+      <c r="CQ200" s="57">
         <v>94</v>
       </c>
     </row>
-    <row r="201" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B201" s="100" t="s">
         <v>42</v>
       </c>
@@ -68793,16 +69469,19 @@
       <c r="CL201" s="57">
         <v>0</v>
       </c>
-      <c r="CM201" s="99"/>
-      <c r="CN201" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO201" s="99"/>
-      <c r="CP201" s="57">
+      <c r="CM201" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN201" s="99"/>
+      <c r="CO201" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP201" s="99"/>
+      <c r="CQ201" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B202" s="100" t="s">
         <v>42</v>
       </c>
@@ -69068,16 +69747,19 @@
       <c r="CL202" s="57">
         <v>0</v>
       </c>
-      <c r="CM202" s="99"/>
-      <c r="CN202" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO202" s="99"/>
-      <c r="CP202" s="57">
+      <c r="CM202" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN202" s="99"/>
+      <c r="CO202" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP202" s="99"/>
+      <c r="CQ202" s="57">
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B203" s="100" t="s">
         <v>42</v>
       </c>
@@ -69341,18 +70023,21 @@
         <v>2</v>
       </c>
       <c r="CL203" s="57">
-        <v>1</v>
-      </c>
-      <c r="CM203" s="99"/>
-      <c r="CN203" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO203" s="99"/>
-      <c r="CP203" s="57">
-        <v>239</v>
+        <v>2</v>
+      </c>
+      <c r="CM203" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN203" s="99"/>
+      <c r="CO203" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP203" s="99"/>
+      <c r="CQ203" s="57">
+        <v>240</v>
       </c>
     </row>
-    <row r="204" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B204" s="100" t="s">
         <v>42</v>
       </c>
@@ -69618,16 +70303,19 @@
       <c r="CL204" s="57">
         <v>0</v>
       </c>
-      <c r="CM204" s="99"/>
-      <c r="CN204" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO204" s="99"/>
-      <c r="CP204" s="57">
+      <c r="CM204" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN204" s="99"/>
+      <c r="CO204" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP204" s="99"/>
+      <c r="CQ204" s="57">
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B205" s="100" t="s">
         <v>42</v>
       </c>
@@ -69893,16 +70581,19 @@
       <c r="CL205" s="57">
         <v>0</v>
       </c>
-      <c r="CM205" s="99"/>
-      <c r="CN205" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO205" s="99"/>
-      <c r="CP205" s="57">
+      <c r="CM205" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN205" s="99"/>
+      <c r="CO205" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP205" s="99"/>
+      <c r="CQ205" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B206" s="100" t="s">
         <v>42</v>
       </c>
@@ -70168,16 +70859,19 @@
       <c r="CL206" s="57">
         <v>0</v>
       </c>
-      <c r="CM206" s="99"/>
-      <c r="CN206" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO206" s="99"/>
-      <c r="CP206" s="57">
+      <c r="CM206" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN206" s="99"/>
+      <c r="CO206" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP206" s="99"/>
+      <c r="CQ206" s="57">
         <v>181</v>
       </c>
     </row>
-    <row r="207" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B207" s="100" t="s">
         <v>42</v>
       </c>
@@ -70443,16 +71137,19 @@
       <c r="CL207" s="57">
         <v>0</v>
       </c>
-      <c r="CM207" s="99"/>
-      <c r="CN207" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO207" s="99"/>
-      <c r="CP207" s="57">
+      <c r="CM207" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN207" s="99"/>
+      <c r="CO207" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP207" s="99"/>
+      <c r="CQ207" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B208" s="100" t="s">
         <v>42</v>
       </c>
@@ -70718,16 +71415,19 @@
       <c r="CL208" s="57">
         <v>0</v>
       </c>
-      <c r="CM208" s="99"/>
-      <c r="CN208" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO208" s="99"/>
-      <c r="CP208" s="57">
+      <c r="CM208" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN208" s="99"/>
+      <c r="CO208" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP208" s="99"/>
+      <c r="CQ208" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B209" s="100" t="s">
         <v>42</v>
       </c>
@@ -70993,16 +71693,19 @@
       <c r="CL209" s="57">
         <v>0</v>
       </c>
-      <c r="CM209" s="99"/>
-      <c r="CN209" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO209" s="99"/>
-      <c r="CP209" s="57">
+      <c r="CM209" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN209" s="99"/>
+      <c r="CO209" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP209" s="99"/>
+      <c r="CQ209" s="57">
         <v>101</v>
       </c>
     </row>
-    <row r="210" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B210" s="100" t="s">
         <v>43</v>
       </c>
@@ -71268,16 +71971,19 @@
       <c r="CL210" s="57">
         <v>0</v>
       </c>
-      <c r="CM210" s="99"/>
-      <c r="CN210" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO210" s="99"/>
-      <c r="CP210" s="57">
+      <c r="CM210" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN210" s="99"/>
+      <c r="CO210" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP210" s="99"/>
+      <c r="CQ210" s="57">
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B211" s="100" t="s">
         <v>43</v>
       </c>
@@ -71543,16 +72249,19 @@
       <c r="CL211" s="57">
         <v>0</v>
       </c>
-      <c r="CM211" s="99"/>
-      <c r="CN211" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO211" s="99"/>
-      <c r="CP211" s="57">
+      <c r="CM211" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN211" s="99"/>
+      <c r="CO211" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP211" s="99"/>
+      <c r="CQ211" s="57">
         <v>23</v>
       </c>
     </row>
-    <row r="212" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B212" s="100" t="s">
         <v>43</v>
       </c>
@@ -71818,16 +72527,19 @@
       <c r="CL212" s="57">
         <v>0</v>
       </c>
-      <c r="CM212" s="99"/>
-      <c r="CN212" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO212" s="99"/>
-      <c r="CP212" s="57">
+      <c r="CM212" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN212" s="99"/>
+      <c r="CO212" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP212" s="99"/>
+      <c r="CQ212" s="57">
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B213" s="100" t="s">
         <v>43</v>
       </c>
@@ -72093,16 +72805,19 @@
       <c r="CL213" s="57">
         <v>0</v>
       </c>
-      <c r="CM213" s="99"/>
-      <c r="CN213" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO213" s="99"/>
-      <c r="CP213" s="57">
+      <c r="CM213" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN213" s="99"/>
+      <c r="CO213" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP213" s="99"/>
+      <c r="CQ213" s="57">
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B214" s="100" t="s">
         <v>43</v>
       </c>
@@ -72366,18 +73081,21 @@
         <v>0</v>
       </c>
       <c r="CL214" s="57">
-        <v>0</v>
-      </c>
-      <c r="CM214" s="99"/>
-      <c r="CN214" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO214" s="99"/>
-      <c r="CP214" s="57">
-        <v>186</v>
+        <v>1</v>
+      </c>
+      <c r="CM214" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN214" s="99"/>
+      <c r="CO214" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP214" s="99"/>
+      <c r="CQ214" s="57">
+        <v>187</v>
       </c>
     </row>
-    <row r="215" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B215" s="100" t="s">
         <v>43</v>
       </c>
@@ -72643,16 +73361,19 @@
       <c r="CL215" s="57">
         <v>0</v>
       </c>
-      <c r="CM215" s="99"/>
-      <c r="CN215" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO215" s="99"/>
-      <c r="CP215" s="57">
+      <c r="CM215" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN215" s="99"/>
+      <c r="CO215" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP215" s="99"/>
+      <c r="CQ215" s="57">
         <v>111</v>
       </c>
     </row>
-    <row r="216" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B216" s="100" t="s">
         <v>43</v>
       </c>
@@ -72918,16 +73639,19 @@
       <c r="CL216" s="57">
         <v>0</v>
       </c>
-      <c r="CM216" s="99"/>
-      <c r="CN216" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO216" s="99"/>
-      <c r="CP216" s="57">
+      <c r="CM216" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN216" s="99"/>
+      <c r="CO216" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP216" s="99"/>
+      <c r="CQ216" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B217" s="100" t="s">
         <v>43</v>
       </c>
@@ -73191,18 +73915,21 @@
         <v>0</v>
       </c>
       <c r="CL217" s="57">
-        <v>0</v>
-      </c>
-      <c r="CM217" s="99"/>
-      <c r="CN217" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO217" s="99"/>
-      <c r="CP217" s="57">
-        <v>112</v>
+        <v>1</v>
+      </c>
+      <c r="CM217" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN217" s="99"/>
+      <c r="CO217" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP217" s="99"/>
+      <c r="CQ217" s="57">
+        <v>113</v>
       </c>
     </row>
-    <row r="218" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B218" s="100" t="s">
         <v>43</v>
       </c>
@@ -73468,16 +74195,19 @@
       <c r="CL218" s="57">
         <v>0</v>
       </c>
-      <c r="CM218" s="99"/>
-      <c r="CN218" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO218" s="99"/>
-      <c r="CP218" s="57">
+      <c r="CM218" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN218" s="99"/>
+      <c r="CO218" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP218" s="99"/>
+      <c r="CQ218" s="57">
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B219" s="100" t="s">
         <v>43</v>
       </c>
@@ -73743,16 +74473,19 @@
       <c r="CL219" s="57">
         <v>0</v>
       </c>
-      <c r="CM219" s="99"/>
-      <c r="CN219" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO219" s="99"/>
-      <c r="CP219" s="57">
+      <c r="CM219" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN219" s="99"/>
+      <c r="CO219" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP219" s="99"/>
+      <c r="CQ219" s="57">
         <v>45</v>
       </c>
     </row>
-    <row r="220" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B220" s="100" t="s">
         <v>43</v>
       </c>
@@ -74018,16 +74751,19 @@
       <c r="CL220" s="57">
         <v>0</v>
       </c>
-      <c r="CM220" s="99"/>
-      <c r="CN220" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO220" s="99"/>
-      <c r="CP220" s="57">
+      <c r="CM220" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN220" s="99"/>
+      <c r="CO220" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP220" s="99"/>
+      <c r="CQ220" s="57">
         <v>60</v>
       </c>
     </row>
-    <row r="221" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B221" s="100" t="s">
         <v>43</v>
       </c>
@@ -74293,16 +75029,19 @@
       <c r="CL221" s="57">
         <v>0</v>
       </c>
-      <c r="CM221" s="99"/>
-      <c r="CN221" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO221" s="99"/>
-      <c r="CP221" s="57">
+      <c r="CM221" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN221" s="99"/>
+      <c r="CO221" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP221" s="99"/>
+      <c r="CQ221" s="57">
         <v>42</v>
       </c>
     </row>
-    <row r="222" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B222" s="100" t="s">
         <v>43</v>
       </c>
@@ -74568,16 +75307,19 @@
       <c r="CL222" s="57">
         <v>0</v>
       </c>
-      <c r="CM222" s="99"/>
-      <c r="CN222" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO222" s="99"/>
-      <c r="CP222" s="57">
+      <c r="CM222" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN222" s="99"/>
+      <c r="CO222" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP222" s="99"/>
+      <c r="CQ222" s="57">
         <v>60</v>
       </c>
     </row>
-    <row r="223" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B223" s="100" t="s">
         <v>43</v>
       </c>
@@ -74843,16 +75585,19 @@
       <c r="CL223" s="57">
         <v>0</v>
       </c>
-      <c r="CM223" s="99"/>
-      <c r="CN223" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO223" s="99"/>
-      <c r="CP223" s="57">
+      <c r="CM223" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN223" s="99"/>
+      <c r="CO223" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP223" s="99"/>
+      <c r="CQ223" s="57">
         <v>52</v>
       </c>
     </row>
-    <row r="224" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B224" s="100" t="s">
         <v>43</v>
       </c>
@@ -75118,16 +75863,19 @@
       <c r="CL224" s="57">
         <v>0</v>
       </c>
-      <c r="CM224" s="99"/>
-      <c r="CN224" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO224" s="99"/>
-      <c r="CP224" s="57">
+      <c r="CM224" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN224" s="99"/>
+      <c r="CO224" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP224" s="99"/>
+      <c r="CQ224" s="57">
         <v>36</v>
       </c>
     </row>
-    <row r="225" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B225" s="100" t="s">
         <v>43</v>
       </c>
@@ -75393,16 +76141,19 @@
       <c r="CL225" s="57">
         <v>0</v>
       </c>
-      <c r="CM225" s="99"/>
-      <c r="CN225" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO225" s="99"/>
-      <c r="CP225" s="57">
+      <c r="CM225" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN225" s="99"/>
+      <c r="CO225" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP225" s="99"/>
+      <c r="CQ225" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B226" s="100" t="s">
         <v>43</v>
       </c>
@@ -75668,16 +76419,19 @@
       <c r="CL226" s="57">
         <v>0</v>
       </c>
-      <c r="CM226" s="99"/>
-      <c r="CN226" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO226" s="99"/>
-      <c r="CP226" s="57">
+      <c r="CM226" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN226" s="99"/>
+      <c r="CO226" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP226" s="99"/>
+      <c r="CQ226" s="57">
         <v>63</v>
       </c>
     </row>
-    <row r="227" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B227" s="100" t="s">
         <v>43</v>
       </c>
@@ -75943,16 +76697,19 @@
       <c r="CL227" s="57">
         <v>0</v>
       </c>
-      <c r="CM227" s="99"/>
-      <c r="CN227" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO227" s="99"/>
-      <c r="CP227" s="57">
+      <c r="CM227" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN227" s="99"/>
+      <c r="CO227" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP227" s="99"/>
+      <c r="CQ227" s="57">
         <v>37</v>
       </c>
     </row>
-    <row r="228" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B228" s="100" t="s">
         <v>43</v>
       </c>
@@ -76204,7 +76961,7 @@
         <v>1</v>
       </c>
       <c r="CH228" s="57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CI228" s="57">
         <v>0</v>
@@ -76218,16 +76975,19 @@
       <c r="CL228" s="57">
         <v>1</v>
       </c>
-      <c r="CM228" s="99"/>
-      <c r="CN228" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO228" s="99"/>
-      <c r="CP228" s="57">
-        <v>114</v>
+      <c r="CM228" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN228" s="99"/>
+      <c r="CO228" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP228" s="99"/>
+      <c r="CQ228" s="57">
+        <v>115</v>
       </c>
     </row>
-    <row r="229" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B229" s="100" t="s">
         <v>43</v>
       </c>
@@ -76493,16 +77253,19 @@
       <c r="CL229" s="57">
         <v>0</v>
       </c>
-      <c r="CM229" s="99"/>
-      <c r="CN229" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO229" s="99"/>
-      <c r="CP229" s="57">
+      <c r="CM229" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN229" s="99"/>
+      <c r="CO229" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP229" s="99"/>
+      <c r="CQ229" s="57">
         <v>79</v>
       </c>
     </row>
-    <row r="230" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B230" s="100" t="s">
         <v>43</v>
       </c>
@@ -76768,16 +77531,19 @@
       <c r="CL230" s="57">
         <v>0</v>
       </c>
-      <c r="CM230" s="99"/>
-      <c r="CN230" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO230" s="99"/>
-      <c r="CP230" s="57">
+      <c r="CM230" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN230" s="99"/>
+      <c r="CO230" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP230" s="99"/>
+      <c r="CQ230" s="57">
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B231" s="100" t="s">
         <v>43</v>
       </c>
@@ -77043,16 +77809,19 @@
       <c r="CL231" s="57">
         <v>0</v>
       </c>
-      <c r="CM231" s="99"/>
-      <c r="CN231" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO231" s="99"/>
-      <c r="CP231" s="57">
+      <c r="CM231" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN231" s="99"/>
+      <c r="CO231" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP231" s="99"/>
+      <c r="CQ231" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B232" s="100" t="s">
         <v>43</v>
       </c>
@@ -77318,16 +78087,19 @@
       <c r="CL232" s="57">
         <v>0</v>
       </c>
-      <c r="CM232" s="99"/>
-      <c r="CN232" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO232" s="99"/>
-      <c r="CP232" s="57">
+      <c r="CM232" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN232" s="99"/>
+      <c r="CO232" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP232" s="99"/>
+      <c r="CQ232" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B233" s="100" t="s">
         <v>43</v>
       </c>
@@ -77593,16 +78365,19 @@
       <c r="CL233" s="57">
         <v>0</v>
       </c>
-      <c r="CM233" s="99"/>
-      <c r="CN233" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO233" s="99"/>
-      <c r="CP233" s="57">
+      <c r="CM233" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN233" s="99"/>
+      <c r="CO233" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP233" s="99"/>
+      <c r="CQ233" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B234" s="100" t="s">
         <v>43</v>
       </c>
@@ -77868,16 +78643,19 @@
       <c r="CL234" s="109">
         <v>0</v>
       </c>
-      <c r="CM234" s="99"/>
-      <c r="CN234" s="109">
-        <v>0</v>
-      </c>
-      <c r="CO234" s="99"/>
-      <c r="CP234" s="109">
+      <c r="CM234" s="109">
+        <v>0</v>
+      </c>
+      <c r="CN234" s="99"/>
+      <c r="CO234" s="109">
+        <v>0</v>
+      </c>
+      <c r="CP234" s="99"/>
+      <c r="CQ234" s="109">
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B235" s="100" t="s">
         <v>43</v>
       </c>
@@ -78143,16 +78921,19 @@
       <c r="CL235" s="109">
         <v>0</v>
       </c>
-      <c r="CM235" s="99"/>
-      <c r="CN235" s="109">
-        <v>0</v>
-      </c>
-      <c r="CO235" s="99"/>
-      <c r="CP235" s="109">
+      <c r="CM235" s="109">
+        <v>0</v>
+      </c>
+      <c r="CN235" s="99"/>
+      <c r="CO235" s="109">
+        <v>0</v>
+      </c>
+      <c r="CP235" s="99"/>
+      <c r="CQ235" s="109">
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="2:94" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:95" x14ac:dyDescent="0.3">
       <c r="B236" s="110" t="s">
         <v>43</v>
       </c>
@@ -78416,21 +79197,24 @@
         <v>0</v>
       </c>
       <c r="CL236" s="62">
-        <v>0</v>
-      </c>
-      <c r="CM236" s="99"/>
-      <c r="CN236" s="62">
-        <v>0</v>
-      </c>
-      <c r="CO236" s="99"/>
-      <c r="CP236" s="62">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="CM236" s="62">
+        <v>0</v>
+      </c>
+      <c r="CN236" s="99"/>
+      <c r="CO236" s="62">
+        <v>0</v>
+      </c>
+      <c r="CP236" s="99"/>
+      <c r="CQ236" s="62">
+        <v>21</v>
       </c>
     </row>
-    <row r="243" spans="1:60" s="81" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:60" s="81" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243" s="114"/>
     </row>
-    <row r="248" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:60" x14ac:dyDescent="0.3">
       <c r="F248" s="92"/>
       <c r="G248" s="92"/>
       <c r="H248" s="92"/>
@@ -78493,7 +79277,7 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
   </mergeCells>
-  <conditionalFormatting sqref="F16:CL236">
+  <conditionalFormatting sqref="F16:CM236">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>TODAY()-F$16&lt;6</formula>
     </cfRule>

--- a/refreshed_daily_deaths_trust.xlsx
+++ b/refreshed_daily_deaths_trust.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NHS CB\Analytical Services (Outcomes Analysis Team)\COVID-19 deaths\Daily reports\25 May\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NHS CB\Analytical Services (Outcomes Analysis Team)\COVID-19 deaths\Daily reports\26 May\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7CBD853-6493-4527-8535-D1BAED773849}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C0C31C5-3237-4338-848D-7DF9999AD5F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1905" windowWidth="29040" windowHeight="17640" activeTab="5" xr2:uid="{8BEB2997-66E4-4B38-A415-05FC96273E7A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3FA12FE9-E422-4820-88FC-1147F552E8D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="501">
   <si>
     <t>Title:</t>
   </si>
@@ -1546,10 +1546,10 @@
     <t>YEOVIL DISTRICT HOSPITAL NHS FOUNDATION TRUST</t>
   </si>
   <si>
-    <t>All data up to 5pm 24 May 2020</t>
+    <t>All data up to 5pm 25 May 2020</t>
   </si>
   <si>
-    <t>25 May 2020</t>
+    <t>26 May 2020</t>
   </si>
 </sst>
 </file>
@@ -2393,60 +2393,43 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1006928</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>802821</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19322</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>227774</xdr:colOff>
+      <xdr:colOff>365488</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>105047</xdr:rowOff>
+      <xdr:rowOff>9839</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94BFFDF-042F-44E2-AABB-5B1B99D2989D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BD54E44-216A-46E4-89D4-6F24565C41F5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="1144088" y="2705100"/>
-          <a:ext cx="9589761" cy="5717177"/>
+          <a:off x="936171" y="2539637"/>
+          <a:ext cx="9931582" cy="5783622"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2777,11 +2760,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2AB7D27-5137-459B-A25C-EEEF8131EFEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7F4E48-93AC-427F-993C-6CAF12352AA0}">
   <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3599,11 +3582,11 @@
     <mergeCell ref="B12:E12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B14" location="'Fig1 All deaths'!A1" display="Fig 1: All deaths by date of death" xr:uid="{4CF1B563-3F88-4AFD-8666-DA7035E8C25D}"/>
-    <hyperlink ref="B15" location="'Tab1 Deaths by region'!A1" display="Table 1: COVID-19 deaths by region and date of death" xr:uid="{2A657305-8CA3-4279-BB58-A932ED92B1B7}"/>
-    <hyperlink ref="B16" location="'Tab2 Deaths - no post test'!A1" display="Table 2: COVID-19 deaths by region and date of death and where a positive test result for COVID-19 was not received but COVID-19 is mentioned on their death certificate" xr:uid="{66B1A4B2-F474-4581-BBCF-835B436C8388}"/>
-    <hyperlink ref="B17" location="'Tab3 Deaths by age'!A1" display="Table 3: COVID-19 deaths by age band and date of death" xr:uid="{BE6A1AC3-1403-455D-9B40-A662E0168C60}"/>
-    <hyperlink ref="B18" location="'Tab4 Deaths by trust'!A1" display="Table 4: COVID-19 deaths by trust" xr:uid="{C41B0C93-FC84-4BAE-8E46-F834CD016628}"/>
+    <hyperlink ref="B14" location="'Fig1 All deaths'!A1" display="Fig 1: All deaths by date of death" xr:uid="{D3AD63E3-F093-4348-8ED3-C1AF515BBC7B}"/>
+    <hyperlink ref="B15" location="'Tab1 Deaths by region'!A1" display="Table 1: COVID-19 deaths by region and date of death" xr:uid="{A9B583F3-20A3-47C4-90B0-48AF11643CC5}"/>
+    <hyperlink ref="B16" location="'Tab2 Deaths - no post test'!A1" display="Table 2: COVID-19 deaths by region and date of death and where a positive test result for COVID-19 was not received but COVID-19 is mentioned on their death certificate" xr:uid="{69BE8D0E-84F0-4046-8DCA-4B427159EE80}"/>
+    <hyperlink ref="B17" location="'Tab3 Deaths by age'!A1" display="Table 3: COVID-19 deaths by age band and date of death" xr:uid="{6DADCE7C-1D45-4373-B4DF-714CDD5BF9E2}"/>
+    <hyperlink ref="B18" location="'Tab4 Deaths by trust'!A1" display="Table 4: COVID-19 deaths by trust" xr:uid="{411EFDFF-9AA7-4773-805D-693322B8A198}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
@@ -3611,10 +3594,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4929A5-D55C-4C60-BACF-B335661A6473}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB11C0B0-CA73-47F5-95B6-6AFB6B59D82A}">
   <dimension ref="A1:CT13"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4895,12 +4880,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B781B317-EE21-4892-A3E2-0774FF984A3D}">
-  <dimension ref="A1:DD25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9113046-2EE3-471C-8EE0-AE4159AEACD7}">
+  <dimension ref="A1:DE25"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4908,17 +4891,17 @@
     <col min="2" max="2" width="14.6640625" style="27" customWidth="1"/>
     <col min="3" max="3" width="41.5546875" style="27" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="27" customWidth="1"/>
-    <col min="5" max="89" width="15.44140625" style="27" customWidth="1"/>
-    <col min="90" max="90" width="2.5546875" style="27" customWidth="1"/>
-    <col min="91" max="91" width="15.33203125" style="27" customWidth="1"/>
-    <col min="92" max="92" width="2.5546875" style="27" customWidth="1"/>
-    <col min="93" max="93" width="15.44140625" style="27" customWidth="1"/>
-    <col min="94" max="100" width="15.33203125" style="27" customWidth="1"/>
-    <col min="101" max="16384" width="9.109375" style="27"/>
+    <col min="5" max="90" width="15.44140625" style="27" customWidth="1"/>
+    <col min="91" max="91" width="2.5546875" style="27" customWidth="1"/>
+    <col min="92" max="92" width="15.33203125" style="27" customWidth="1"/>
+    <col min="93" max="93" width="2.5546875" style="27" customWidth="1"/>
+    <col min="94" max="94" width="15.44140625" style="27" customWidth="1"/>
+    <col min="95" max="101" width="15.33203125" style="27" customWidth="1"/>
+    <col min="102" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:93" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:94" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:94" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -5018,12 +5001,13 @@
       <c r="CI2" s="3"/>
       <c r="CJ2" s="3"/>
       <c r="CK2" s="3"/>
-      <c r="CL2" s="10"/>
+      <c r="CL2" s="3"/>
       <c r="CM2" s="10"/>
       <c r="CN2" s="10"/>
       <c r="CO2" s="10"/>
+      <c r="CP2" s="10"/>
     </row>
-    <row r="3" spans="1:93" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:94" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -5117,12 +5101,13 @@
       <c r="CI3" s="3"/>
       <c r="CJ3" s="3"/>
       <c r="CK3" s="3"/>
-      <c r="CL3" s="10"/>
+      <c r="CL3" s="3"/>
       <c r="CM3" s="10"/>
       <c r="CN3" s="10"/>
       <c r="CO3" s="10"/>
+      <c r="CP3" s="10"/>
     </row>
-    <row r="4" spans="1:93" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:94" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -5216,12 +5201,13 @@
       <c r="CI4" s="3"/>
       <c r="CJ4" s="3"/>
       <c r="CK4" s="3"/>
-      <c r="CL4" s="10"/>
+      <c r="CL4" s="3"/>
       <c r="CM4" s="10"/>
       <c r="CN4" s="10"/>
       <c r="CO4" s="10"/>
+      <c r="CP4" s="10"/>
     </row>
-    <row r="5" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -5315,12 +5301,13 @@
       <c r="CI5" s="3"/>
       <c r="CJ5" s="3"/>
       <c r="CK5" s="3"/>
-      <c r="CL5" s="10"/>
+      <c r="CL5" s="3"/>
       <c r="CM5" s="10"/>
       <c r="CN5" s="10"/>
       <c r="CO5" s="10"/>
+      <c r="CP5" s="10"/>
     </row>
-    <row r="6" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>8</v>
@@ -5414,12 +5401,13 @@
       <c r="CI6" s="3"/>
       <c r="CJ6" s="3"/>
       <c r="CK6" s="3"/>
-      <c r="CL6" s="10"/>
+      <c r="CL6" s="3"/>
       <c r="CM6" s="10"/>
       <c r="CN6" s="10"/>
       <c r="CO6" s="10"/>
+      <c r="CP6" s="10"/>
     </row>
-    <row r="7" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -5513,12 +5501,13 @@
       <c r="CI7" s="3"/>
       <c r="CJ7" s="3"/>
       <c r="CK7" s="3"/>
-      <c r="CL7" s="10"/>
+      <c r="CL7" s="3"/>
       <c r="CM7" s="10"/>
       <c r="CN7" s="10"/>
       <c r="CO7" s="10"/>
+      <c r="CP7" s="10"/>
     </row>
-    <row r="8" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -5612,12 +5601,13 @@
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
       <c r="CK8" s="3"/>
-      <c r="CL8" s="10"/>
+      <c r="CL8" s="3"/>
       <c r="CM8" s="10"/>
       <c r="CN8" s="10"/>
       <c r="CO8" s="10"/>
+      <c r="CP8" s="10"/>
     </row>
-    <row r="9" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="15" t="s">
         <v>13</v>
@@ -5711,12 +5701,13 @@
       <c r="CI9" s="3"/>
       <c r="CJ9" s="3"/>
       <c r="CK9" s="3"/>
-      <c r="CL9" s="10"/>
+      <c r="CL9" s="3"/>
       <c r="CM9" s="10"/>
       <c r="CN9" s="10"/>
       <c r="CO9" s="10"/>
+      <c r="CP9" s="10"/>
     </row>
-    <row r="10" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:94" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="15" t="s">
         <v>15</v>
@@ -5810,12 +5801,13 @@
       <c r="CI10" s="3"/>
       <c r="CJ10" s="3"/>
       <c r="CK10" s="3"/>
-      <c r="CL10" s="10"/>
+      <c r="CL10" s="3"/>
       <c r="CM10" s="10"/>
       <c r="CN10" s="10"/>
       <c r="CO10" s="10"/>
+      <c r="CP10" s="10"/>
     </row>
-    <row r="11" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5905,12 +5897,13 @@
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
-      <c r="CL11" s="10"/>
+      <c r="CL11" s="3"/>
       <c r="CM11" s="10"/>
       <c r="CN11" s="10"/>
       <c r="CO11" s="10"/>
+      <c r="CP11" s="10"/>
     </row>
-    <row r="12" spans="1:93" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:94" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="24" t="s">
         <v>28</v>
@@ -6002,12 +5995,13 @@
       <c r="CI12" s="25"/>
       <c r="CJ12" s="25"/>
       <c r="CK12" s="25"/>
-      <c r="CL12" s="26"/>
+      <c r="CL12" s="25"/>
       <c r="CM12" s="26"/>
       <c r="CN12" s="26"/>
       <c r="CO12" s="26"/>
+      <c r="CP12" s="26"/>
     </row>
-    <row r="13" spans="1:93" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:94" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -6097,12 +6091,13 @@
       <c r="CI13" s="25"/>
       <c r="CJ13" s="25"/>
       <c r="CK13" s="25"/>
-      <c r="CL13" s="26"/>
+      <c r="CL13" s="25"/>
       <c r="CM13" s="26"/>
       <c r="CN13" s="26"/>
       <c r="CO13" s="26"/>
+      <c r="CP13" s="26"/>
     </row>
-    <row r="14" spans="1:93" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:94" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="36" t="s">
         <v>29</v>
@@ -6194,12 +6189,13 @@
       <c r="CI14" s="25"/>
       <c r="CJ14" s="25"/>
       <c r="CK14" s="25"/>
-      <c r="CL14" s="26"/>
+      <c r="CL14" s="25"/>
       <c r="CM14" s="26"/>
       <c r="CN14" s="26"/>
       <c r="CO14" s="26"/>
+      <c r="CP14" s="26"/>
     </row>
-    <row r="15" spans="1:93" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:94" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6429,18 +6425,22 @@
         <v>30</v>
       </c>
       <c r="CC15" s="40"/>
-      <c r="CG15" s="40" t="s">
+      <c r="CG15" s="40"/>
+      <c r="CH15" s="40" t="s">
         <v>31</v>
       </c>
       <c r="CK15" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="CL15" s="28"/>
+      <c r="CL15" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="CM15" s="28"/>
       <c r="CN15" s="28"/>
       <c r="CO15" s="28"/>
+      <c r="CP15" s="28"/>
     </row>
-    <row r="16" spans="1:93" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:94" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="41" t="s">
         <v>32</v>
@@ -6704,14 +6704,17 @@
       <c r="CK16" s="43">
         <v>43975</v>
       </c>
-      <c r="CM16" s="43" t="s">
+      <c r="CL16" s="43">
+        <v>43976</v>
+      </c>
+      <c r="CN16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="CO16" s="43" t="s">
+      <c r="CP16" s="43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B17" s="45" t="s">
         <v>36</v>
       </c>
@@ -6834,13 +6837,13 @@
         <v>807</v>
       </c>
       <c r="AQ17" s="47">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="AR17" s="47">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AS17" s="47">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AT17" s="47">
         <v>771</v>
@@ -6900,7 +6903,7 @@
         <v>319</v>
       </c>
       <c r="BM17" s="47">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BN17" s="47">
         <v>304</v>
@@ -6909,22 +6912,22 @@
         <v>264</v>
       </c>
       <c r="BP17" s="47">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="BQ17" s="47">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BR17" s="47">
         <v>247</v>
       </c>
       <c r="BS17" s="47">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BT17" s="47">
         <v>242</v>
       </c>
       <c r="BU17" s="47">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BV17" s="47">
         <v>194</v>
@@ -6936,7 +6939,7 @@
         <v>156</v>
       </c>
       <c r="BY17" s="47">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BZ17" s="47">
         <v>156</v>
@@ -6945,10 +6948,10 @@
         <v>168</v>
       </c>
       <c r="CB17" s="47">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CC17" s="47">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CD17" s="47">
         <v>131</v>
@@ -6957,33 +6960,36 @@
         <v>131</v>
       </c>
       <c r="CF17" s="47">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="CG17" s="47">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CH17" s="47">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="CI17" s="47">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="CJ17" s="47">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="CK17" s="47">
-        <v>19</v>
-      </c>
-      <c r="CL17" s="40"/>
-      <c r="CM17" s="48">
-        <v>0</v>
-      </c>
-      <c r="CN17" s="40"/>
-      <c r="CO17" s="48">
-        <v>25751</v>
+        <v>59</v>
+      </c>
+      <c r="CL17" s="47">
+        <v>23</v>
+      </c>
+      <c r="CM17" s="40"/>
+      <c r="CN17" s="48">
+        <v>0</v>
+      </c>
+      <c r="CO17" s="40"/>
+      <c r="CP17" s="48">
+        <v>25867</v>
       </c>
     </row>
-    <row r="18" spans="1:108" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:109" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="49"/>
@@ -7088,8 +7094,9 @@
       <c r="DB18" s="49"/>
       <c r="DC18" s="49"/>
       <c r="DD18" s="49"/>
+      <c r="DE18" s="49"/>
     </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="50" t="s">
         <v>37</v>
@@ -7336,31 +7343,34 @@
         <v>16</v>
       </c>
       <c r="CF19" s="53">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CG19" s="53">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CH19" s="53">
         <v>18</v>
       </c>
       <c r="CI19" s="53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CJ19" s="53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CK19" s="53">
-        <v>4</v>
-      </c>
-      <c r="CM19" s="53">
-        <v>0</v>
-      </c>
-      <c r="CO19" s="53">
-        <v>2992</v>
+        <v>9</v>
+      </c>
+      <c r="CL19" s="53">
+        <v>6</v>
+      </c>
+      <c r="CN19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CP19" s="53">
+        <v>3007</v>
       </c>
     </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="54" t="s">
         <v>38</v>
@@ -7568,7 +7578,7 @@
         <v>25</v>
       </c>
       <c r="BS20" s="58">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BT20" s="58">
         <v>35</v>
@@ -7586,7 +7596,7 @@
         <v>16</v>
       </c>
       <c r="BY20" s="58">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BZ20" s="58">
         <v>16</v>
@@ -7595,10 +7605,10 @@
         <v>20</v>
       </c>
       <c r="CB20" s="58">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CC20" s="58">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CD20" s="58">
         <v>15</v>
@@ -7607,7 +7617,7 @@
         <v>9</v>
       </c>
       <c r="CF20" s="58">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CG20" s="58">
         <v>18</v>
@@ -7619,19 +7629,22 @@
         <v>5</v>
       </c>
       <c r="CJ20" s="58">
+        <v>5</v>
+      </c>
+      <c r="CK20" s="58">
         <v>4</v>
       </c>
-      <c r="CK20" s="58">
-        <v>1</v>
-      </c>
-      <c r="CM20" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO20" s="57">
-        <v>5882</v>
+      <c r="CL20" s="58">
+        <v>1</v>
+      </c>
+      <c r="CN20" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP20" s="57">
+        <v>5892</v>
       </c>
     </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="54" t="s">
         <v>39</v>
@@ -7821,7 +7834,7 @@
         <v>53</v>
       </c>
       <c r="BM21" s="58">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BN21" s="58">
         <v>64</v>
@@ -7830,10 +7843,10 @@
         <v>51</v>
       </c>
       <c r="BP21" s="58">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="BQ21" s="58">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BR21" s="58">
         <v>58</v>
@@ -7884,25 +7897,28 @@
         <v>33</v>
       </c>
       <c r="CH21" s="58">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CI21" s="58">
         <v>16</v>
       </c>
       <c r="CJ21" s="58">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="CK21" s="58">
-        <v>3</v>
-      </c>
-      <c r="CM21" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO21" s="57">
-        <v>5067</v>
+        <v>11</v>
+      </c>
+      <c r="CL21" s="58">
+        <v>3</v>
+      </c>
+      <c r="CN21" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP21" s="57">
+        <v>5090</v>
       </c>
     </row>
-    <row r="22" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="54" t="s">
         <v>40</v>
@@ -8164,16 +8180,19 @@
         <v>14</v>
       </c>
       <c r="CK22" s="58">
-        <v>7</v>
-      </c>
-      <c r="CM22" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO22" s="57">
-        <v>3691</v>
+        <v>16</v>
+      </c>
+      <c r="CL22" s="58">
+        <v>9</v>
+      </c>
+      <c r="CN22" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP22" s="57">
+        <v>3709</v>
       </c>
     </row>
-    <row r="23" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="54" t="s">
         <v>41</v>
@@ -8297,13 +8316,13 @@
         <v>133</v>
       </c>
       <c r="AQ23" s="58">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="AR23" s="58">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AS23" s="58">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AT23" s="58">
         <v>135</v>
@@ -8387,7 +8406,7 @@
         <v>44</v>
       </c>
       <c r="BU23" s="58">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BV23" s="58">
         <v>28</v>
@@ -8429,22 +8448,25 @@
         <v>20</v>
       </c>
       <c r="CI23" s="58">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="CJ23" s="58">
+        <v>21</v>
+      </c>
+      <c r="CK23" s="58">
         <v>12</v>
       </c>
-      <c r="CK23" s="58">
-        <v>2</v>
-      </c>
-      <c r="CM23" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO23" s="57">
-        <v>3976</v>
+      <c r="CL23" s="58">
+        <v>2</v>
+      </c>
+      <c r="CN23" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP23" s="57">
+        <v>4006</v>
       </c>
     </row>
-    <row r="24" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="54" t="s">
         <v>42</v>
@@ -8700,22 +8722,25 @@
         <v>10</v>
       </c>
       <c r="CI24" s="58">
+        <v>14</v>
+      </c>
+      <c r="CJ24" s="58">
         <v>9</v>
       </c>
-      <c r="CJ24" s="58">
-        <v>3</v>
-      </c>
       <c r="CK24" s="58">
-        <v>2</v>
-      </c>
-      <c r="CM24" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO24" s="57">
-        <v>2982</v>
+        <v>5</v>
+      </c>
+      <c r="CL24" s="58">
+        <v>0</v>
+      </c>
+      <c r="CN24" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP24" s="57">
+        <v>2996</v>
       </c>
     </row>
-    <row r="25" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="59" t="s">
         <v>43</v>
@@ -8971,19 +8996,22 @@
         <v>8</v>
       </c>
       <c r="CI25" s="63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CJ25" s="63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CK25" s="63">
-        <v>0</v>
-      </c>
-      <c r="CM25" s="62">
-        <v>0</v>
-      </c>
-      <c r="CO25" s="62">
-        <v>1161</v>
+        <v>2</v>
+      </c>
+      <c r="CL25" s="63">
+        <v>2</v>
+      </c>
+      <c r="CN25" s="62">
+        <v>0</v>
+      </c>
+      <c r="CP25" s="62">
+        <v>1167</v>
       </c>
     </row>
   </sheetData>
@@ -9000,7 +9028,7 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
   </mergeCells>
-  <conditionalFormatting sqref="BX16:CK25">
+  <conditionalFormatting sqref="BX16:CL25">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>TODAY()-BX$16&lt;6</formula>
     </cfRule>
@@ -9011,8 +9039,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878EF2F9-8DDA-4A56-BD88-CB387A47DDF3}">
-  <dimension ref="A1:DD26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E4F811-5F16-40B7-93A3-B665F2B76D5A}">
+  <dimension ref="A1:DE26"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -9022,16 +9050,16 @@
     <col min="2" max="2" width="14.6640625" style="27" customWidth="1"/>
     <col min="3" max="3" width="41.5546875" style="27" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="27" customWidth="1"/>
-    <col min="5" max="89" width="15.44140625" style="27" customWidth="1"/>
-    <col min="90" max="90" width="2.5546875" style="27" customWidth="1"/>
-    <col min="91" max="91" width="15.33203125" style="27" customWidth="1"/>
-    <col min="92" max="92" width="2.5546875" style="27" customWidth="1"/>
-    <col min="93" max="100" width="15.33203125" style="27" customWidth="1"/>
-    <col min="101" max="16384" width="9.109375" style="27"/>
+    <col min="5" max="90" width="15.44140625" style="27" customWidth="1"/>
+    <col min="91" max="91" width="2.5546875" style="27" customWidth="1"/>
+    <col min="92" max="92" width="15.33203125" style="27" customWidth="1"/>
+    <col min="93" max="93" width="2.5546875" style="27" customWidth="1"/>
+    <col min="94" max="101" width="15.33203125" style="27" customWidth="1"/>
+    <col min="102" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:93" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:94" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:94" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -9129,12 +9157,13 @@
       <c r="CI2" s="3"/>
       <c r="CJ2" s="3"/>
       <c r="CK2" s="3"/>
-      <c r="CL2" s="10"/>
+      <c r="CL2" s="3"/>
       <c r="CM2" s="10"/>
       <c r="CN2" s="10"/>
       <c r="CO2" s="10"/>
+      <c r="CP2" s="10"/>
     </row>
-    <row r="3" spans="1:93" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:94" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -9228,12 +9257,13 @@
       <c r="CI3" s="3"/>
       <c r="CJ3" s="3"/>
       <c r="CK3" s="3"/>
-      <c r="CL3" s="10"/>
+      <c r="CL3" s="3"/>
       <c r="CM3" s="10"/>
       <c r="CN3" s="10"/>
       <c r="CO3" s="10"/>
+      <c r="CP3" s="10"/>
     </row>
-    <row r="4" spans="1:93" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:94" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -9327,12 +9357,13 @@
       <c r="CI4" s="3"/>
       <c r="CJ4" s="3"/>
       <c r="CK4" s="3"/>
-      <c r="CL4" s="10"/>
+      <c r="CL4" s="3"/>
       <c r="CM4" s="10"/>
       <c r="CN4" s="10"/>
       <c r="CO4" s="10"/>
+      <c r="CP4" s="10"/>
     </row>
-    <row r="5" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -9426,12 +9457,13 @@
       <c r="CI5" s="3"/>
       <c r="CJ5" s="3"/>
       <c r="CK5" s="3"/>
-      <c r="CL5" s="10"/>
+      <c r="CL5" s="3"/>
       <c r="CM5" s="10"/>
       <c r="CN5" s="10"/>
       <c r="CO5" s="10"/>
+      <c r="CP5" s="10"/>
     </row>
-    <row r="6" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>8</v>
@@ -9525,12 +9557,13 @@
       <c r="CI6" s="3"/>
       <c r="CJ6" s="3"/>
       <c r="CK6" s="3"/>
-      <c r="CL6" s="10"/>
+      <c r="CL6" s="3"/>
       <c r="CM6" s="10"/>
       <c r="CN6" s="10"/>
       <c r="CO6" s="10"/>
+      <c r="CP6" s="10"/>
     </row>
-    <row r="7" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -9624,12 +9657,13 @@
       <c r="CI7" s="3"/>
       <c r="CJ7" s="3"/>
       <c r="CK7" s="3"/>
-      <c r="CL7" s="10"/>
+      <c r="CL7" s="3"/>
       <c r="CM7" s="10"/>
       <c r="CN7" s="10"/>
       <c r="CO7" s="10"/>
+      <c r="CP7" s="10"/>
     </row>
-    <row r="8" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -9723,12 +9757,13 @@
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
       <c r="CK8" s="3"/>
-      <c r="CL8" s="10"/>
+      <c r="CL8" s="3"/>
       <c r="CM8" s="10"/>
       <c r="CN8" s="10"/>
       <c r="CO8" s="10"/>
+      <c r="CP8" s="10"/>
     </row>
-    <row r="9" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="15" t="s">
         <v>13</v>
@@ -9822,12 +9857,13 @@
       <c r="CI9" s="3"/>
       <c r="CJ9" s="3"/>
       <c r="CK9" s="3"/>
-      <c r="CL9" s="10"/>
+      <c r="CL9" s="3"/>
       <c r="CM9" s="10"/>
       <c r="CN9" s="10"/>
       <c r="CO9" s="10"/>
+      <c r="CP9" s="10"/>
     </row>
-    <row r="10" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:94" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="15" t="s">
         <v>15</v>
@@ -9921,12 +9957,13 @@
       <c r="CI10" s="3"/>
       <c r="CJ10" s="3"/>
       <c r="CK10" s="3"/>
-      <c r="CL10" s="10"/>
+      <c r="CL10" s="3"/>
       <c r="CM10" s="10"/>
       <c r="CN10" s="10"/>
       <c r="CO10" s="10"/>
+      <c r="CP10" s="10"/>
     </row>
-    <row r="11" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -10016,12 +10053,13 @@
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
-      <c r="CL11" s="10"/>
+      <c r="CL11" s="3"/>
       <c r="CM11" s="10"/>
       <c r="CN11" s="10"/>
       <c r="CO11" s="10"/>
+      <c r="CP11" s="10"/>
     </row>
-    <row r="12" spans="1:93" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:94" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="24" t="s">
         <v>28</v>
@@ -10113,12 +10151,13 @@
       <c r="CI12" s="25"/>
       <c r="CJ12" s="25"/>
       <c r="CK12" s="25"/>
-      <c r="CL12" s="26"/>
+      <c r="CL12" s="25"/>
       <c r="CM12" s="26"/>
       <c r="CN12" s="26"/>
       <c r="CO12" s="26"/>
+      <c r="CP12" s="26"/>
     </row>
-    <row r="13" spans="1:93" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:94" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -10208,12 +10247,13 @@
       <c r="CI13" s="25"/>
       <c r="CJ13" s="25"/>
       <c r="CK13" s="25"/>
-      <c r="CL13" s="26"/>
+      <c r="CL13" s="25"/>
       <c r="CM13" s="26"/>
       <c r="CN13" s="26"/>
       <c r="CO13" s="26"/>
+      <c r="CP13" s="26"/>
     </row>
-    <row r="14" spans="1:93" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:94" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="36" t="s">
         <v>29</v>
@@ -10305,12 +10345,13 @@
       <c r="CI14" s="25"/>
       <c r="CJ14" s="25"/>
       <c r="CK14" s="25"/>
-      <c r="CL14" s="26"/>
+      <c r="CL14" s="25"/>
       <c r="CM14" s="26"/>
       <c r="CN14" s="26"/>
       <c r="CO14" s="26"/>
+      <c r="CP14" s="26"/>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -10368,19 +10409,20 @@
       <c r="BZ15" s="3"/>
       <c r="CA15" s="3"/>
       <c r="CC15" s="3"/>
-      <c r="CG15" s="3" t="s">
+      <c r="CG15" s="3"/>
+      <c r="CH15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CH15" s="23"/>
       <c r="CI15" s="23"/>
       <c r="CJ15" s="23"/>
       <c r="CK15" s="23"/>
-      <c r="CL15" s="28"/>
+      <c r="CL15" s="23"/>
       <c r="CM15" s="28"/>
       <c r="CN15" s="28"/>
       <c r="CO15" s="28"/>
+      <c r="CP15" s="28"/>
     </row>
-    <row r="16" spans="1:93" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:94" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="41" t="s">
         <v>32</v>
@@ -10644,14 +10686,17 @@
       <c r="CK16" s="43">
         <v>43975</v>
       </c>
-      <c r="CM16" s="43" t="s">
+      <c r="CL16" s="43">
+        <v>43976</v>
+      </c>
+      <c r="CN16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="CO16" s="43" t="s">
+      <c r="CP16" s="43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B17" s="45" t="s">
         <v>36</v>
       </c>
@@ -10879,51 +10924,54 @@
         <v>23</v>
       </c>
       <c r="BZ17" s="47">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CA17" s="47">
         <v>19</v>
       </c>
       <c r="CB17" s="47">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CC17" s="47">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CD17" s="47">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CE17" s="47">
         <v>16</v>
       </c>
       <c r="CF17" s="47">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CG17" s="47">
+        <v>13</v>
+      </c>
+      <c r="CH17" s="47">
+        <v>17</v>
+      </c>
+      <c r="CI17" s="47">
         <v>12</v>
       </c>
-      <c r="CH17" s="47">
-        <v>16</v>
-      </c>
-      <c r="CI17" s="47">
-        <v>10</v>
-      </c>
       <c r="CJ17" s="47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CK17" s="47">
-        <v>0</v>
-      </c>
-      <c r="CL17" s="40"/>
-      <c r="CM17" s="48">
-        <v>0</v>
-      </c>
-      <c r="CN17" s="40"/>
-      <c r="CO17" s="48">
-        <v>664</v>
+        <v>4</v>
+      </c>
+      <c r="CL17" s="47">
+        <v>0</v>
+      </c>
+      <c r="CM17" s="40"/>
+      <c r="CN17" s="48">
+        <v>0</v>
+      </c>
+      <c r="CO17" s="40"/>
+      <c r="CP17" s="48">
+        <v>680</v>
       </c>
     </row>
-    <row r="18" spans="1:108" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:109" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="49"/>
@@ -11028,8 +11076,9 @@
       <c r="DB18" s="49"/>
       <c r="DC18" s="49"/>
       <c r="DD18" s="49"/>
+      <c r="DE18" s="49"/>
     </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="50" t="s">
         <v>37</v>
@@ -11293,14 +11342,17 @@
       <c r="CK19" s="53">
         <v>0</v>
       </c>
-      <c r="CM19" s="53">
-        <v>0</v>
-      </c>
-      <c r="CO19" s="53">
+      <c r="CL19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CN19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CP19" s="53">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="54" t="s">
         <v>38</v>
@@ -11535,19 +11587,19 @@
         <v>2</v>
       </c>
       <c r="CB20" s="58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC20" s="58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CD20" s="58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CE20" s="58">
         <v>3</v>
       </c>
       <c r="CF20" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CG20" s="58">
         <v>5</v>
@@ -11556,22 +11608,25 @@
         <v>1</v>
       </c>
       <c r="CI20" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ20" s="58">
         <v>1</v>
       </c>
       <c r="CK20" s="58">
-        <v>0</v>
-      </c>
-      <c r="CM20" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO20" s="57">
-        <v>149</v>
+        <v>1</v>
+      </c>
+      <c r="CL20" s="58">
+        <v>0</v>
+      </c>
+      <c r="CN20" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP20" s="57">
+        <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="54" t="s">
         <v>39</v>
@@ -11800,7 +11855,7 @@
         <v>10</v>
       </c>
       <c r="BZ21" s="58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CA21" s="58">
         <v>1</v>
@@ -11835,14 +11890,17 @@
       <c r="CK21" s="58">
         <v>0</v>
       </c>
-      <c r="CM21" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO21" s="57">
-        <v>117</v>
+      <c r="CL21" s="58">
+        <v>0</v>
+      </c>
+      <c r="CN21" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP21" s="57">
+        <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="54" t="s">
         <v>40</v>
@@ -12104,16 +12162,19 @@
         <v>0</v>
       </c>
       <c r="CK22" s="58">
-        <v>0</v>
-      </c>
-      <c r="CM22" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO22" s="57">
-        <v>68</v>
+        <v>1</v>
+      </c>
+      <c r="CL22" s="58">
+        <v>0</v>
+      </c>
+      <c r="CN22" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP22" s="57">
+        <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="54" t="s">
         <v>41</v>
@@ -12354,7 +12415,7 @@
         <v>0</v>
       </c>
       <c r="CD23" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CE23" s="58">
         <v>1</v>
@@ -12372,19 +12433,22 @@
         <v>0</v>
       </c>
       <c r="CJ23" s="58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK23" s="58">
         <v>0</v>
       </c>
-      <c r="CM23" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO23" s="57">
-        <v>80</v>
+      <c r="CL23" s="58">
+        <v>0</v>
+      </c>
+      <c r="CN23" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP23" s="57">
+        <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="54" t="s">
         <v>42</v>
@@ -12622,7 +12686,7 @@
         <v>2</v>
       </c>
       <c r="CC24" s="58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CD24" s="58">
         <v>5</v>
@@ -12634,28 +12698,31 @@
         <v>1</v>
       </c>
       <c r="CG24" s="58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CH24" s="58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CI24" s="58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CJ24" s="58">
         <v>1</v>
       </c>
       <c r="CK24" s="58">
-        <v>0</v>
-      </c>
-      <c r="CM24" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO24" s="57">
-        <v>100</v>
+        <v>1</v>
+      </c>
+      <c r="CL24" s="58">
+        <v>0</v>
+      </c>
+      <c r="CN24" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP24" s="57">
+        <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="59" t="s">
         <v>43</v>
@@ -12917,16 +12984,19 @@
         <v>0</v>
       </c>
       <c r="CK25" s="63">
-        <v>0</v>
-      </c>
-      <c r="CM25" s="62">
-        <v>0</v>
-      </c>
-      <c r="CO25" s="62">
-        <v>46</v>
+        <v>1</v>
+      </c>
+      <c r="CL25" s="63">
+        <v>0</v>
+      </c>
+      <c r="CN25" s="62">
+        <v>0</v>
+      </c>
+      <c r="CP25" s="62">
+        <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:109" x14ac:dyDescent="0.3">
       <c r="BZ26" s="68"/>
       <c r="CA26" s="68"/>
     </row>
@@ -12944,7 +13014,7 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
   </mergeCells>
-  <conditionalFormatting sqref="D16:CK25">
+  <conditionalFormatting sqref="D16:CL25">
     <cfRule type="expression" dxfId="2" priority="1">
       <formula>TODAY()-D$16&lt;6</formula>
     </cfRule>
@@ -12955,8 +13025,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9365FAC8-0E09-4847-BB6B-FEFD1FDE74A6}">
-  <dimension ref="A1:DD35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBED350-B5EB-4495-88C9-B10B580E3A42}">
+  <dimension ref="A1:DE35"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
@@ -12966,16 +13036,16 @@
     <col min="2" max="2" width="14.6640625" style="27" customWidth="1"/>
     <col min="3" max="3" width="41.5546875" style="27" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" style="27" customWidth="1"/>
-    <col min="5" max="89" width="15.44140625" style="27" customWidth="1"/>
-    <col min="90" max="90" width="2.5546875" style="27" customWidth="1"/>
-    <col min="91" max="91" width="15.33203125" style="27" customWidth="1"/>
-    <col min="92" max="92" width="2.5546875" style="27" customWidth="1"/>
-    <col min="93" max="100" width="15.33203125" style="27" customWidth="1"/>
-    <col min="101" max="16384" width="9.109375" style="27"/>
+    <col min="5" max="90" width="15.44140625" style="27" customWidth="1"/>
+    <col min="91" max="91" width="2.5546875" style="27" customWidth="1"/>
+    <col min="92" max="92" width="15.33203125" style="27" customWidth="1"/>
+    <col min="93" max="93" width="2.5546875" style="27" customWidth="1"/>
+    <col min="94" max="101" width="15.33203125" style="27" customWidth="1"/>
+    <col min="102" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:93" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:94" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:94" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -13075,11 +13145,12 @@
       <c r="CI2" s="3"/>
       <c r="CJ2" s="3"/>
       <c r="CK2" s="3"/>
-      <c r="CL2" s="10"/>
+      <c r="CL2" s="3"/>
       <c r="CM2" s="10"/>
-      <c r="CO2" s="10"/>
+      <c r="CN2" s="10"/>
+      <c r="CP2" s="10"/>
     </row>
-    <row r="3" spans="1:93" s="11" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:94" s="11" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -13173,11 +13244,12 @@
       <c r="CI3" s="3"/>
       <c r="CJ3" s="3"/>
       <c r="CK3" s="3"/>
-      <c r="CL3" s="10"/>
+      <c r="CL3" s="3"/>
       <c r="CM3" s="10"/>
-      <c r="CO3" s="10"/>
+      <c r="CN3" s="10"/>
+      <c r="CP3" s="10"/>
     </row>
-    <row r="4" spans="1:93" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:94" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -13271,11 +13343,12 @@
       <c r="CI4" s="3"/>
       <c r="CJ4" s="3"/>
       <c r="CK4" s="3"/>
-      <c r="CL4" s="10"/>
+      <c r="CL4" s="3"/>
       <c r="CM4" s="10"/>
-      <c r="CO4" s="10"/>
+      <c r="CN4" s="10"/>
+      <c r="CP4" s="10"/>
     </row>
-    <row r="5" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -13369,11 +13442,12 @@
       <c r="CI5" s="3"/>
       <c r="CJ5" s="3"/>
       <c r="CK5" s="3"/>
-      <c r="CL5" s="10"/>
+      <c r="CL5" s="3"/>
       <c r="CM5" s="10"/>
-      <c r="CO5" s="10"/>
+      <c r="CN5" s="10"/>
+      <c r="CP5" s="10"/>
     </row>
-    <row r="6" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>8</v>
@@ -13467,11 +13541,12 @@
       <c r="CI6" s="3"/>
       <c r="CJ6" s="3"/>
       <c r="CK6" s="3"/>
-      <c r="CL6" s="10"/>
+      <c r="CL6" s="3"/>
       <c r="CM6" s="10"/>
-      <c r="CO6" s="10"/>
+      <c r="CN6" s="10"/>
+      <c r="CP6" s="10"/>
     </row>
-    <row r="7" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -13565,11 +13640,12 @@
       <c r="CI7" s="3"/>
       <c r="CJ7" s="3"/>
       <c r="CK7" s="3"/>
-      <c r="CL7" s="10"/>
+      <c r="CL7" s="3"/>
       <c r="CM7" s="10"/>
-      <c r="CO7" s="10"/>
+      <c r="CN7" s="10"/>
+      <c r="CP7" s="10"/>
     </row>
-    <row r="8" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -13663,11 +13739,12 @@
       <c r="CI8" s="3"/>
       <c r="CJ8" s="3"/>
       <c r="CK8" s="3"/>
-      <c r="CL8" s="10"/>
+      <c r="CL8" s="3"/>
       <c r="CM8" s="10"/>
-      <c r="CO8" s="10"/>
+      <c r="CN8" s="10"/>
+      <c r="CP8" s="10"/>
     </row>
-    <row r="9" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="15" t="s">
         <v>13</v>
@@ -13761,11 +13838,12 @@
       <c r="CI9" s="3"/>
       <c r="CJ9" s="3"/>
       <c r="CK9" s="3"/>
-      <c r="CL9" s="10"/>
+      <c r="CL9" s="3"/>
       <c r="CM9" s="10"/>
-      <c r="CO9" s="10"/>
+      <c r="CN9" s="10"/>
+      <c r="CP9" s="10"/>
     </row>
-    <row r="10" spans="1:93" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:94" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="15" t="s">
         <v>15</v>
@@ -13859,11 +13937,12 @@
       <c r="CI10" s="3"/>
       <c r="CJ10" s="3"/>
       <c r="CK10" s="3"/>
-      <c r="CL10" s="10"/>
+      <c r="CL10" s="3"/>
       <c r="CM10" s="10"/>
-      <c r="CO10" s="10"/>
+      <c r="CN10" s="10"/>
+      <c r="CP10" s="10"/>
     </row>
-    <row r="11" spans="1:93" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:94" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -13953,11 +14032,12 @@
       <c r="CI11" s="3"/>
       <c r="CJ11" s="3"/>
       <c r="CK11" s="3"/>
-      <c r="CL11" s="10"/>
-      <c r="CM11" s="35"/>
-      <c r="CO11" s="35"/>
+      <c r="CL11" s="3"/>
+      <c r="CM11" s="10"/>
+      <c r="CN11" s="35"/>
+      <c r="CP11" s="35"/>
     </row>
-    <row r="12" spans="1:93" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:94" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="24" t="s">
         <v>48</v>
@@ -14049,11 +14129,12 @@
       <c r="CI12" s="25"/>
       <c r="CJ12" s="25"/>
       <c r="CK12" s="25"/>
-      <c r="CL12" s="26"/>
+      <c r="CL12" s="25"/>
       <c r="CM12" s="26"/>
-      <c r="CO12" s="26"/>
+      <c r="CN12" s="26"/>
+      <c r="CP12" s="26"/>
     </row>
-    <row r="13" spans="1:93" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:94" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -14143,11 +14224,12 @@
       <c r="CI13" s="25"/>
       <c r="CJ13" s="25"/>
       <c r="CK13" s="25"/>
-      <c r="CL13" s="26"/>
+      <c r="CL13" s="25"/>
       <c r="CM13" s="26"/>
-      <c r="CO13" s="26"/>
+      <c r="CN13" s="26"/>
+      <c r="CP13" s="26"/>
     </row>
-    <row r="14" spans="1:93" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:94" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="36" t="s">
         <v>29</v>
@@ -14239,11 +14321,12 @@
       <c r="CI14" s="25"/>
       <c r="CJ14" s="25"/>
       <c r="CK14" s="25"/>
-      <c r="CL14" s="26"/>
+      <c r="CL14" s="25"/>
       <c r="CM14" s="26"/>
-      <c r="CO14" s="26"/>
+      <c r="CN14" s="26"/>
+      <c r="CP14" s="26"/>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -14297,18 +14380,18 @@
       <c r="BT15" s="3"/>
       <c r="BU15" s="3"/>
       <c r="CC15" s="3"/>
-      <c r="CG15" s="3" t="s">
+      <c r="CH15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CH15" s="23"/>
       <c r="CI15" s="23"/>
       <c r="CJ15" s="23"/>
       <c r="CK15" s="23"/>
-      <c r="CL15" s="28"/>
+      <c r="CL15" s="23"/>
       <c r="CM15" s="28"/>
-      <c r="CO15" s="28"/>
+      <c r="CN15" s="28"/>
+      <c r="CP15" s="28"/>
     </row>
-    <row r="16" spans="1:93" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:94" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="41" t="s">
         <v>49</v>
@@ -14572,14 +14655,17 @@
       <c r="CK16" s="43">
         <v>43975</v>
       </c>
-      <c r="CM16" s="43" t="s">
+      <c r="CL16" s="43">
+        <v>43976</v>
+      </c>
+      <c r="CN16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="CO16" s="43" t="s">
+      <c r="CP16" s="43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:109" x14ac:dyDescent="0.3">
       <c r="B17" s="45" t="s">
         <v>35</v>
       </c>
@@ -14702,13 +14788,13 @@
         <v>807</v>
       </c>
       <c r="AQ17" s="71">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="AR17" s="71">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AS17" s="71">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AT17" s="71">
         <v>771</v>
@@ -14768,7 +14854,7 @@
         <v>319</v>
       </c>
       <c r="BM17" s="71">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BN17" s="71">
         <v>304</v>
@@ -14777,22 +14863,22 @@
         <v>264</v>
       </c>
       <c r="BP17" s="71">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="BQ17" s="71">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BR17" s="71">
         <v>247</v>
       </c>
       <c r="BS17" s="71">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BT17" s="71">
         <v>242</v>
       </c>
       <c r="BU17" s="71">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BV17" s="71">
         <v>194</v>
@@ -14804,7 +14890,7 @@
         <v>156</v>
       </c>
       <c r="BY17" s="71">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BZ17" s="71">
         <v>156</v>
@@ -14813,10 +14899,10 @@
         <v>168</v>
       </c>
       <c r="CB17" s="71">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CC17" s="71">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CD17" s="71">
         <v>131</v>
@@ -14825,31 +14911,34 @@
         <v>131</v>
       </c>
       <c r="CF17" s="71">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="CG17" s="71">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CH17" s="71">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="CI17" s="71">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="CJ17" s="71">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="CK17" s="71">
-        <v>19</v>
-      </c>
-      <c r="CM17" s="71">
-        <v>0</v>
-      </c>
-      <c r="CO17" s="71">
-        <v>25751</v>
+        <v>59</v>
+      </c>
+      <c r="CL17" s="71">
+        <v>23</v>
+      </c>
+      <c r="CN17" s="71">
+        <v>0</v>
+      </c>
+      <c r="CP17" s="71">
+        <v>25867</v>
       </c>
     </row>
-    <row r="18" spans="1:108" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:109" s="11" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E18" s="49"/>
       <c r="F18" s="49"/>
       <c r="G18" s="49"/>
@@ -14954,8 +15043,9 @@
       <c r="DB18" s="49"/>
       <c r="DC18" s="49"/>
       <c r="DD18" s="49"/>
+      <c r="DE18" s="49"/>
     </row>
-    <row r="19" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="72" t="s">
         <v>50</v>
@@ -15219,14 +15309,17 @@
       <c r="CK19" s="53">
         <v>0</v>
       </c>
-      <c r="CM19" s="53">
-        <v>0</v>
-      </c>
-      <c r="CO19" s="53">
+      <c r="CL19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CN19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CP19" s="53">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="74" t="s">
         <v>51</v>
@@ -15490,14 +15583,17 @@
       <c r="CK20" s="57">
         <v>0</v>
       </c>
-      <c r="CM20" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO20" s="57">
+      <c r="CL20" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN20" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP20" s="57">
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="74" t="s">
         <v>52</v>
@@ -15756,19 +15852,22 @@
         <v>2</v>
       </c>
       <c r="CJ21" s="57">
+        <v>5</v>
+      </c>
+      <c r="CK21" s="57">
         <v>4</v>
       </c>
-      <c r="CK21" s="57">
-        <v>1</v>
-      </c>
-      <c r="CM21" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO21" s="57">
-        <v>2036</v>
+      <c r="CL21" s="57">
+        <v>2</v>
+      </c>
+      <c r="CN21" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP21" s="57">
+        <v>2042</v>
       </c>
     </row>
-    <row r="22" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="74" t="s">
         <v>53</v>
@@ -15892,13 +15991,13 @@
         <v>344</v>
       </c>
       <c r="AQ22" s="58">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AR22" s="58">
         <v>328</v>
       </c>
       <c r="AS22" s="58">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AT22" s="58">
         <v>316</v>
@@ -15967,7 +16066,7 @@
         <v>97</v>
       </c>
       <c r="BP22" s="58">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BQ22" s="58">
         <v>89</v>
@@ -15994,7 +16093,7 @@
         <v>47</v>
       </c>
       <c r="BY22" s="58">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BZ22" s="58">
         <v>54</v>
@@ -16015,31 +16114,34 @@
         <v>56</v>
       </c>
       <c r="CF22" s="58">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CG22" s="57">
         <v>43</v>
       </c>
       <c r="CH22" s="57">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="CI22" s="57">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CJ22" s="57">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="CK22" s="57">
-        <v>1</v>
-      </c>
-      <c r="CM22" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO22" s="57">
-        <v>9881</v>
+        <v>16</v>
+      </c>
+      <c r="CL22" s="57">
+        <v>9</v>
+      </c>
+      <c r="CN22" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP22" s="57">
+        <v>9923</v>
       </c>
     </row>
-    <row r="23" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="74" t="s">
         <v>54</v>
@@ -16166,7 +16268,7 @@
         <v>462</v>
       </c>
       <c r="AR23" s="58">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AS23" s="58">
         <v>369</v>
@@ -16229,7 +16331,7 @@
         <v>185</v>
       </c>
       <c r="BM23" s="58">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="BN23" s="58">
         <v>163</v>
@@ -16238,22 +16340,22 @@
         <v>144</v>
       </c>
       <c r="BP23" s="58">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="BQ23" s="58">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BR23" s="58">
         <v>130</v>
       </c>
       <c r="BS23" s="58">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BT23" s="58">
         <v>139</v>
       </c>
       <c r="BU23" s="58">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BV23" s="58">
         <v>116</v>
@@ -16274,10 +16376,10 @@
         <v>99</v>
       </c>
       <c r="CB23" s="58">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="CC23" s="58">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CD23" s="58">
         <v>75</v>
@@ -16286,31 +16388,34 @@
         <v>63</v>
       </c>
       <c r="CF23" s="58">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="CG23" s="57">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="CH23" s="57">
         <v>67</v>
       </c>
       <c r="CI23" s="57">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="CJ23" s="57">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="CK23" s="57">
-        <v>17</v>
-      </c>
-      <c r="CM23" s="57">
-        <v>0</v>
-      </c>
-      <c r="CO23" s="57">
-        <v>13636</v>
+        <v>39</v>
+      </c>
+      <c r="CL23" s="57">
+        <v>12</v>
+      </c>
+      <c r="CN23" s="57">
+        <v>0</v>
+      </c>
+      <c r="CP23" s="57">
+        <v>13704</v>
       </c>
     </row>
-    <row r="24" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="76" t="s">
         <v>55</v>
@@ -16402,10 +16507,11 @@
       <c r="CI24" s="62"/>
       <c r="CJ24" s="62"/>
       <c r="CK24" s="62"/>
-      <c r="CM24" s="62"/>
-      <c r="CO24" s="62"/>
+      <c r="CL24" s="62"/>
+      <c r="CN24" s="62"/>
+      <c r="CP24" s="62"/>
     </row>
-    <row r="28" spans="1:108" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:109" x14ac:dyDescent="0.3">
       <c r="C28" s="80"/>
     </row>
     <row r="35" spans="4:44" x14ac:dyDescent="0.3">
@@ -16457,7 +16563,7 @@
     <mergeCell ref="B14:I14"/>
     <mergeCell ref="B17:C17"/>
   </mergeCells>
-  <conditionalFormatting sqref="D16:CK24">
+  <conditionalFormatting sqref="D16:CL24">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>TODAY()-D$16&lt;6</formula>
     </cfRule>
@@ -16468,10 +16574,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CC4CE5-8236-4BCA-92B8-B11B5664E971}">
-  <dimension ref="A1:DF248"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAFABA55-A365-465B-B41A-1D30E2E6F187}">
+  <dimension ref="A1:DG248"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16481,16 +16587,16 @@
     <col min="4" max="4" width="9.6640625" style="27" customWidth="1"/>
     <col min="5" max="5" width="91.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="91" width="15.44140625" style="27" customWidth="1"/>
-    <col min="92" max="92" width="2.6640625" style="27" customWidth="1"/>
-    <col min="93" max="93" width="15.44140625" style="27" customWidth="1"/>
-    <col min="94" max="94" width="2.6640625" style="27" customWidth="1"/>
-    <col min="95" max="102" width="15.33203125" style="27" customWidth="1"/>
-    <col min="103" max="16384" width="9.109375" style="27"/>
+    <col min="7" max="92" width="15.44140625" style="27" customWidth="1"/>
+    <col min="93" max="93" width="2.6640625" style="27" customWidth="1"/>
+    <col min="94" max="94" width="15.44140625" style="27" customWidth="1"/>
+    <col min="95" max="95" width="2.6640625" style="27" customWidth="1"/>
+    <col min="96" max="103" width="15.33203125" style="27" customWidth="1"/>
+    <col min="104" max="16384" width="9.109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:95" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:95" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:96" s="1" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:96" s="11" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -16592,12 +16698,13 @@
       <c r="CK2" s="21"/>
       <c r="CL2" s="21"/>
       <c r="CM2" s="21"/>
-      <c r="CN2" s="10"/>
+      <c r="CN2" s="21"/>
       <c r="CO2" s="10"/>
       <c r="CP2" s="10"/>
       <c r="CQ2" s="10"/>
+      <c r="CR2" s="10"/>
     </row>
-    <row r="3" spans="1:95" s="11" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:96" s="11" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>3</v>
@@ -16693,12 +16800,13 @@
       <c r="CK3" s="3"/>
       <c r="CL3" s="3"/>
       <c r="CM3" s="3"/>
-      <c r="CN3" s="10"/>
+      <c r="CN3" s="3"/>
       <c r="CO3" s="10"/>
       <c r="CP3" s="10"/>
       <c r="CQ3" s="10"/>
+      <c r="CR3" s="10"/>
     </row>
-    <row r="4" spans="1:95" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:96" s="11" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="15" t="s">
         <v>5</v>
@@ -16794,12 +16902,13 @@
       <c r="CK4" s="3"/>
       <c r="CL4" s="3"/>
       <c r="CM4" s="3"/>
-      <c r="CN4" s="10"/>
+      <c r="CN4" s="3"/>
       <c r="CO4" s="10"/>
       <c r="CP4" s="10"/>
       <c r="CQ4" s="10"/>
+      <c r="CR4" s="10"/>
     </row>
-    <row r="5" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:96" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="15" t="s">
         <v>6</v>
@@ -16895,12 +17004,13 @@
       <c r="CK5" s="3"/>
       <c r="CL5" s="3"/>
       <c r="CM5" s="3"/>
-      <c r="CN5" s="10"/>
+      <c r="CN5" s="3"/>
       <c r="CO5" s="10"/>
       <c r="CP5" s="10"/>
       <c r="CQ5" s="10"/>
+      <c r="CR5" s="10"/>
     </row>
-    <row r="6" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="15" t="s">
         <v>8</v>
@@ -16996,12 +17106,13 @@
       <c r="CK6" s="3"/>
       <c r="CL6" s="3"/>
       <c r="CM6" s="3"/>
-      <c r="CN6" s="10"/>
+      <c r="CN6" s="3"/>
       <c r="CO6" s="10"/>
       <c r="CP6" s="10"/>
       <c r="CQ6" s="10"/>
+      <c r="CR6" s="10"/>
     </row>
-    <row r="7" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="15" t="s">
         <v>10</v>
@@ -17097,12 +17208,13 @@
       <c r="CK7" s="3"/>
       <c r="CL7" s="3"/>
       <c r="CM7" s="3"/>
-      <c r="CN7" s="10"/>
+      <c r="CN7" s="3"/>
       <c r="CO7" s="10"/>
       <c r="CP7" s="10"/>
       <c r="CQ7" s="10"/>
+      <c r="CR7" s="10"/>
     </row>
-    <row r="8" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:96" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="15" t="s">
         <v>11</v>
@@ -17198,12 +17310,13 @@
       <c r="CK8" s="3"/>
       <c r="CL8" s="3"/>
       <c r="CM8" s="3"/>
-      <c r="CN8" s="10"/>
+      <c r="CN8" s="3"/>
       <c r="CO8" s="10"/>
       <c r="CP8" s="10"/>
       <c r="CQ8" s="10"/>
+      <c r="CR8" s="10"/>
     </row>
-    <row r="9" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="15" t="s">
         <v>13</v>
@@ -17299,12 +17412,13 @@
       <c r="CK9" s="3"/>
       <c r="CL9" s="3"/>
       <c r="CM9" s="3"/>
-      <c r="CN9" s="10"/>
+      <c r="CN9" s="3"/>
       <c r="CO9" s="10"/>
       <c r="CP9" s="10"/>
       <c r="CQ9" s="10"/>
+      <c r="CR9" s="10"/>
     </row>
-    <row r="10" spans="1:95" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:96" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="15" t="s">
         <v>15</v>
@@ -17400,12 +17514,13 @@
       <c r="CK10" s="3"/>
       <c r="CL10" s="3"/>
       <c r="CM10" s="3"/>
-      <c r="CN10" s="10"/>
-      <c r="CO10" s="35"/>
-      <c r="CP10" s="10"/>
-      <c r="CQ10" s="35"/>
+      <c r="CN10" s="3"/>
+      <c r="CO10" s="10"/>
+      <c r="CP10" s="35"/>
+      <c r="CQ10" s="10"/>
+      <c r="CR10" s="35"/>
     </row>
-    <row r="11" spans="1:95" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -17497,12 +17612,13 @@
       <c r="CK11" s="3"/>
       <c r="CL11" s="3"/>
       <c r="CM11" s="3"/>
-      <c r="CN11" s="10"/>
+      <c r="CN11" s="3"/>
       <c r="CO11" s="10"/>
       <c r="CP11" s="10"/>
       <c r="CQ11" s="10"/>
+      <c r="CR11" s="10"/>
     </row>
-    <row r="12" spans="1:95" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:96" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="6" t="s">
         <v>58</v>
@@ -17596,12 +17712,13 @@
       <c r="CK12" s="25"/>
       <c r="CL12" s="25"/>
       <c r="CM12" s="25"/>
-      <c r="CN12" s="26"/>
+      <c r="CN12" s="25"/>
       <c r="CO12" s="26"/>
       <c r="CP12" s="26"/>
       <c r="CQ12" s="26"/>
+      <c r="CR12" s="26"/>
     </row>
-    <row r="13" spans="1:95" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:96" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -17693,12 +17810,13 @@
       <c r="CK13" s="25"/>
       <c r="CL13" s="25"/>
       <c r="CM13" s="25"/>
-      <c r="CN13" s="26"/>
+      <c r="CN13" s="25"/>
       <c r="CO13" s="26"/>
       <c r="CP13" s="26"/>
       <c r="CQ13" s="26"/>
+      <c r="CR13" s="26"/>
     </row>
-    <row r="14" spans="1:95" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:96" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="36" t="s">
         <v>29</v>
@@ -17792,12 +17910,13 @@
       <c r="CK14" s="25"/>
       <c r="CL14" s="25"/>
       <c r="CM14" s="25"/>
-      <c r="CN14" s="26"/>
+      <c r="CN14" s="25"/>
       <c r="CO14" s="26"/>
       <c r="CP14" s="26"/>
       <c r="CQ14" s="26"/>
+      <c r="CR14" s="26"/>
     </row>
-    <row r="15" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -17877,19 +17996,19 @@
       <c r="CB15" s="3"/>
       <c r="CC15" s="3"/>
       <c r="CE15" s="3"/>
-      <c r="CI15" s="3" t="s">
+      <c r="CJ15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="CJ15" s="3"/>
       <c r="CK15" s="3"/>
       <c r="CL15" s="3"/>
       <c r="CM15" s="3"/>
-      <c r="CN15" s="28"/>
+      <c r="CN15" s="3"/>
       <c r="CO15" s="28"/>
       <c r="CP15" s="28"/>
       <c r="CQ15" s="28"/>
+      <c r="CR15" s="28"/>
     </row>
-    <row r="16" spans="1:95" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:96" s="44" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="86" t="s">
         <v>32</v>
@@ -18159,14 +18278,17 @@
       <c r="CM16" s="43">
         <v>43975</v>
       </c>
-      <c r="CO16" s="43" t="s">
+      <c r="CN16" s="43">
+        <v>43976</v>
+      </c>
+      <c r="CP16" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="CQ16" s="43" t="s">
+      <c r="CR16" s="43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:111" x14ac:dyDescent="0.3">
       <c r="B17" s="45" t="s">
         <v>12</v>
       </c>
@@ -18295,13 +18417,13 @@
         <v>807</v>
       </c>
       <c r="AS17" s="71">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="AT17" s="71">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AU17" s="71">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AV17" s="71">
         <v>771</v>
@@ -18361,7 +18483,7 @@
         <v>319</v>
       </c>
       <c r="BO17" s="71">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BP17" s="71">
         <v>304</v>
@@ -18370,22 +18492,22 @@
         <v>264</v>
       </c>
       <c r="BR17" s="71">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="BS17" s="71">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BT17" s="71">
         <v>247</v>
       </c>
       <c r="BU17" s="71">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="BV17" s="71">
         <v>242</v>
       </c>
       <c r="BW17" s="71">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="BX17" s="71">
         <v>194</v>
@@ -18397,7 +18519,7 @@
         <v>156</v>
       </c>
       <c r="CA17" s="71">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="CB17" s="71">
         <v>156</v>
@@ -18406,10 +18528,10 @@
         <v>168</v>
       </c>
       <c r="CD17" s="71">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="CE17" s="71">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CF17" s="71">
         <v>131</v>
@@ -18418,33 +18540,36 @@
         <v>131</v>
       </c>
       <c r="CH17" s="71">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="CI17" s="71">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="CJ17" s="71">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="CK17" s="71">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="CL17" s="71">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="CM17" s="71">
-        <v>19</v>
-      </c>
-      <c r="CN17" s="91"/>
-      <c r="CO17" s="71">
-        <v>0</v>
-      </c>
-      <c r="CQ17" s="71">
-        <v>25751</v>
-      </c>
-      <c r="CS17" s="92"/>
+        <v>59</v>
+      </c>
+      <c r="CN17" s="71">
+        <v>23</v>
+      </c>
+      <c r="CO17" s="91"/>
+      <c r="CP17" s="71">
+        <v>0</v>
+      </c>
+      <c r="CR17" s="71">
+        <v>25867</v>
+      </c>
+      <c r="CT17" s="92"/>
     </row>
-    <row r="18" spans="1:110" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:111" s="11" customFormat="1" ht="12.6" x14ac:dyDescent="0.2">
       <c r="G18" s="49"/>
       <c r="H18" s="49"/>
       <c r="I18" s="49"/>
@@ -18530,8 +18655,8 @@
       <c r="CK18" s="49"/>
       <c r="CL18" s="49"/>
       <c r="CM18" s="49"/>
-      <c r="CN18" s="93"/>
-      <c r="CO18" s="49"/>
+      <c r="CN18" s="49"/>
+      <c r="CO18" s="93"/>
       <c r="CP18" s="49"/>
       <c r="CQ18" s="49"/>
       <c r="CR18" s="49"/>
@@ -18549,8 +18674,9 @@
       <c r="DD18" s="49"/>
       <c r="DE18" s="49"/>
       <c r="DF18" s="49"/>
+      <c r="DG18" s="49"/>
     </row>
-    <row r="19" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A19" s="27"/>
       <c r="B19" s="94" t="s">
         <v>37</v>
@@ -18820,17 +18946,20 @@
       <c r="CM19" s="53">
         <v>0</v>
       </c>
-      <c r="CN19" s="98"/>
-      <c r="CO19" s="53">
-        <v>0</v>
-      </c>
-      <c r="CP19" s="99"/>
-      <c r="CQ19" s="53">
-        <v>3</v>
-      </c>
-      <c r="CS19" s="92"/>
+      <c r="CN19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CO19" s="98"/>
+      <c r="CP19" s="53">
+        <v>0</v>
+      </c>
+      <c r="CQ19" s="99"/>
+      <c r="CR19" s="53">
+        <v>3</v>
+      </c>
+      <c r="CT19" s="92"/>
     </row>
-    <row r="20" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
       <c r="B20" s="100" t="s">
         <v>37</v>
@@ -19095,22 +19224,25 @@
         <v>0</v>
       </c>
       <c r="CL20" s="104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM20" s="104">
         <v>0</v>
       </c>
-      <c r="CN20" s="99"/>
-      <c r="CO20" s="104">
-        <v>0</v>
-      </c>
-      <c r="CP20" s="99"/>
-      <c r="CQ20" s="104">
-        <v>21</v>
-      </c>
-      <c r="CS20" s="92"/>
+      <c r="CN20" s="104">
+        <v>0</v>
+      </c>
+      <c r="CO20" s="99"/>
+      <c r="CP20" s="104">
+        <v>0</v>
+      </c>
+      <c r="CQ20" s="99"/>
+      <c r="CR20" s="104">
+        <v>22</v>
+      </c>
+      <c r="CT20" s="92"/>
     </row>
-    <row r="21" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A21" s="27"/>
       <c r="B21" s="100" t="s">
         <v>37</v>
@@ -19380,17 +19512,20 @@
       <c r="CM21" s="104">
         <v>1</v>
       </c>
-      <c r="CN21" s="99"/>
-      <c r="CO21" s="104">
-        <v>0</v>
-      </c>
-      <c r="CP21" s="99"/>
-      <c r="CQ21" s="104">
+      <c r="CN21" s="104">
+        <v>0</v>
+      </c>
+      <c r="CO21" s="99"/>
+      <c r="CP21" s="104">
+        <v>0</v>
+      </c>
+      <c r="CQ21" s="99"/>
+      <c r="CR21" s="104">
         <v>267</v>
       </c>
-      <c r="CS21" s="92"/>
+      <c r="CT21" s="92"/>
     </row>
-    <row r="22" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A22" s="27"/>
       <c r="B22" s="100" t="s">
         <v>37</v>
@@ -19643,16 +19778,16 @@
         <v>1</v>
       </c>
       <c r="CH22" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CI22" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CJ22" s="57">
         <v>0</v>
       </c>
       <c r="CK22" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL22" s="57">
         <v>0</v>
@@ -19660,16 +19795,19 @@
       <c r="CM22" s="57">
         <v>0</v>
       </c>
-      <c r="CN22" s="99"/>
-      <c r="CO22" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP22" s="99"/>
-      <c r="CQ22" s="57">
-        <v>157</v>
+      <c r="CN22" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO22" s="99"/>
+      <c r="CP22" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ22" s="99"/>
+      <c r="CR22" s="57">
+        <v>160</v>
       </c>
     </row>
-    <row r="23" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A23" s="27"/>
       <c r="B23" s="100" t="s">
         <v>37</v>
@@ -19939,16 +20077,19 @@
       <c r="CM23" s="57">
         <v>0</v>
       </c>
-      <c r="CN23" s="99"/>
-      <c r="CO23" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP23" s="99"/>
-      <c r="CQ23" s="57">
+      <c r="CN23" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO23" s="99"/>
+      <c r="CP23" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ23" s="99"/>
+      <c r="CR23" s="57">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A24" s="27"/>
       <c r="B24" s="100" t="s">
         <v>37</v>
@@ -20218,16 +20359,19 @@
       <c r="CM24" s="57">
         <v>0</v>
       </c>
-      <c r="CN24" s="99"/>
-      <c r="CO24" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP24" s="99"/>
-      <c r="CQ24" s="57">
+      <c r="CN24" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO24" s="99"/>
+      <c r="CP24" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ24" s="99"/>
+      <c r="CR24" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A25" s="27"/>
       <c r="B25" s="100" t="s">
         <v>37</v>
@@ -20497,16 +20641,19 @@
       <c r="CM25" s="57">
         <v>0</v>
       </c>
-      <c r="CN25" s="99"/>
-      <c r="CO25" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP25" s="99"/>
-      <c r="CQ25" s="57">
+      <c r="CN25" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO25" s="99"/>
+      <c r="CP25" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ25" s="99"/>
+      <c r="CR25" s="57">
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A26" s="27"/>
       <c r="B26" s="100" t="s">
         <v>37</v>
@@ -20776,16 +20923,19 @@
       <c r="CM26" s="57">
         <v>0</v>
       </c>
-      <c r="CN26" s="99"/>
-      <c r="CO26" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP26" s="99"/>
-      <c r="CQ26" s="57">
+      <c r="CN26" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO26" s="99"/>
+      <c r="CP26" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ26" s="99"/>
+      <c r="CR26" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A27" s="27"/>
       <c r="B27" s="100" t="s">
         <v>37</v>
@@ -21053,18 +21203,21 @@
         <v>2</v>
       </c>
       <c r="CM27" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN27" s="99"/>
-      <c r="CO27" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP27" s="99"/>
-      <c r="CQ27" s="57">
-        <v>318</v>
+        <v>2</v>
+      </c>
+      <c r="CN27" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO27" s="99"/>
+      <c r="CP27" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ27" s="99"/>
+      <c r="CR27" s="57">
+        <v>320</v>
       </c>
     </row>
-    <row r="28" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A28" s="27"/>
       <c r="B28" s="100" t="s">
         <v>37</v>
@@ -21334,16 +21487,19 @@
       <c r="CM28" s="57">
         <v>0</v>
       </c>
-      <c r="CN28" s="99"/>
-      <c r="CO28" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP28" s="99"/>
-      <c r="CQ28" s="57">
+      <c r="CN28" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO28" s="99"/>
+      <c r="CP28" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ28" s="99"/>
+      <c r="CR28" s="57">
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
       <c r="B29" s="100" t="s">
         <v>37</v>
@@ -21613,16 +21769,19 @@
       <c r="CM29" s="57">
         <v>0</v>
       </c>
-      <c r="CN29" s="99"/>
-      <c r="CO29" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP29" s="99"/>
-      <c r="CQ29" s="57">
+      <c r="CN29" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO29" s="99"/>
+      <c r="CP29" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ29" s="99"/>
+      <c r="CR29" s="57">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A30" s="27"/>
       <c r="B30" s="100" t="s">
         <v>37</v>
@@ -21892,16 +22051,19 @@
       <c r="CM30" s="57">
         <v>0</v>
       </c>
-      <c r="CN30" s="99"/>
-      <c r="CO30" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP30" s="99"/>
-      <c r="CQ30" s="57">
+      <c r="CN30" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO30" s="99"/>
+      <c r="CP30" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ30" s="99"/>
+      <c r="CR30" s="57">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A31" s="27"/>
       <c r="B31" s="100" t="s">
         <v>37</v>
@@ -22171,16 +22333,19 @@
       <c r="CM31" s="57">
         <v>1</v>
       </c>
-      <c r="CN31" s="99"/>
-      <c r="CO31" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP31" s="99"/>
-      <c r="CQ31" s="57">
-        <v>109</v>
+      <c r="CN31" s="57">
+        <v>2</v>
+      </c>
+      <c r="CO31" s="99"/>
+      <c r="CP31" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ31" s="99"/>
+      <c r="CR31" s="57">
+        <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A32" s="27"/>
       <c r="B32" s="100" t="s">
         <v>37</v>
@@ -22450,16 +22615,19 @@
       <c r="CM32" s="57">
         <v>0</v>
       </c>
-      <c r="CN32" s="99"/>
-      <c r="CO32" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP32" s="99"/>
-      <c r="CQ32" s="57">
+      <c r="CN32" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO32" s="99"/>
+      <c r="CP32" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ32" s="99"/>
+      <c r="CR32" s="57">
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A33" s="27"/>
       <c r="B33" s="100" t="s">
         <v>37</v>
@@ -22729,16 +22897,19 @@
       <c r="CM33" s="57">
         <v>0</v>
       </c>
-      <c r="CN33" s="99"/>
-      <c r="CO33" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP33" s="99"/>
-      <c r="CQ33" s="57">
+      <c r="CN33" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO33" s="99"/>
+      <c r="CP33" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ33" s="99"/>
+      <c r="CR33" s="57">
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A34" s="27"/>
       <c r="B34" s="100" t="s">
         <v>37</v>
@@ -23008,16 +23179,19 @@
       <c r="CM34" s="57">
         <v>0</v>
       </c>
-      <c r="CN34" s="99"/>
-      <c r="CO34" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP34" s="99"/>
-      <c r="CQ34" s="57">
+      <c r="CN34" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO34" s="99"/>
+      <c r="CP34" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ34" s="99"/>
+      <c r="CR34" s="57">
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A35" s="27"/>
       <c r="B35" s="100" t="s">
         <v>37</v>
@@ -23285,18 +23459,21 @@
         <v>0</v>
       </c>
       <c r="CM35" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN35" s="99"/>
-      <c r="CO35" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP35" s="99"/>
-      <c r="CQ35" s="57">
-        <v>116</v>
+        <v>1</v>
+      </c>
+      <c r="CN35" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO35" s="99"/>
+      <c r="CP35" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ35" s="99"/>
+      <c r="CR35" s="57">
+        <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A36" s="27"/>
       <c r="B36" s="100" t="s">
         <v>37</v>
@@ -23566,16 +23743,19 @@
       <c r="CM36" s="57">
         <v>0</v>
       </c>
-      <c r="CN36" s="99"/>
-      <c r="CO36" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP36" s="99"/>
-      <c r="CQ36" s="57">
+      <c r="CN36" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO36" s="99"/>
+      <c r="CP36" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ36" s="99"/>
+      <c r="CR36" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A37" s="27"/>
       <c r="B37" s="100" t="s">
         <v>37</v>
@@ -23845,16 +24025,19 @@
       <c r="CM37" s="57">
         <v>0</v>
       </c>
-      <c r="CN37" s="99"/>
-      <c r="CO37" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP37" s="99"/>
-      <c r="CQ37" s="57">
+      <c r="CN37" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO37" s="99"/>
+      <c r="CP37" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ37" s="99"/>
+      <c r="CR37" s="57">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A38" s="27"/>
       <c r="B38" s="100" t="s">
         <v>37</v>
@@ -24122,18 +24305,21 @@
         <v>0</v>
       </c>
       <c r="CM38" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN38" s="99"/>
-      <c r="CO38" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP38" s="99"/>
-      <c r="CQ38" s="57">
-        <v>191</v>
+        <v>2</v>
+      </c>
+      <c r="CN38" s="57">
+        <v>3</v>
+      </c>
+      <c r="CO38" s="99"/>
+      <c r="CP38" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ38" s="99"/>
+      <c r="CR38" s="57">
+        <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A39" s="27"/>
       <c r="B39" s="100" t="s">
         <v>37</v>
@@ -24403,16 +24589,19 @@
       <c r="CM39" s="57">
         <v>0</v>
       </c>
-      <c r="CN39" s="99"/>
-      <c r="CO39" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP39" s="99"/>
-      <c r="CQ39" s="57">
+      <c r="CN39" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO39" s="99"/>
+      <c r="CP39" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ39" s="99"/>
+      <c r="CR39" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A40" s="27"/>
       <c r="B40" s="100" t="s">
         <v>37</v>
@@ -24682,16 +24871,19 @@
       <c r="CM40" s="57">
         <v>0</v>
       </c>
-      <c r="CN40" s="99"/>
-      <c r="CO40" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP40" s="99"/>
-      <c r="CQ40" s="57">
+      <c r="CN40" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO40" s="99"/>
+      <c r="CP40" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ40" s="99"/>
+      <c r="CR40" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A41" s="27"/>
       <c r="B41" s="100" t="s">
         <v>37</v>
@@ -24961,16 +25153,19 @@
       <c r="CM41" s="57">
         <v>0</v>
       </c>
-      <c r="CN41" s="99"/>
-      <c r="CO41" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP41" s="99"/>
-      <c r="CQ41" s="57">
+      <c r="CN41" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO41" s="99"/>
+      <c r="CP41" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ41" s="99"/>
+      <c r="CR41" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A42" s="27"/>
       <c r="B42" s="100" t="s">
         <v>37</v>
@@ -25240,16 +25435,19 @@
       <c r="CM42" s="57">
         <v>0</v>
       </c>
-      <c r="CN42" s="99"/>
-      <c r="CO42" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP42" s="99"/>
-      <c r="CQ42" s="57">
+      <c r="CN42" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO42" s="99"/>
+      <c r="CP42" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ42" s="99"/>
+      <c r="CR42" s="57">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A43" s="27"/>
       <c r="B43" s="100" t="s">
         <v>37</v>
@@ -25519,16 +25717,19 @@
       <c r="CM43" s="57">
         <v>0</v>
       </c>
-      <c r="CN43" s="99"/>
-      <c r="CO43" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP43" s="99"/>
-      <c r="CQ43" s="57">
+      <c r="CN43" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO43" s="99"/>
+      <c r="CP43" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ43" s="99"/>
+      <c r="CR43" s="57">
         <v>197</v>
       </c>
     </row>
-    <row r="44" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A44" s="27"/>
       <c r="B44" s="100" t="s">
         <v>37</v>
@@ -25798,16 +25999,19 @@
       <c r="CM44" s="57">
         <v>0</v>
       </c>
-      <c r="CN44" s="99"/>
-      <c r="CO44" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP44" s="99"/>
-      <c r="CQ44" s="57">
+      <c r="CN44" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO44" s="99"/>
+      <c r="CP44" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ44" s="99"/>
+      <c r="CR44" s="57">
         <v>199</v>
       </c>
     </row>
-    <row r="45" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A45" s="27"/>
       <c r="B45" s="100" t="s">
         <v>37</v>
@@ -26077,16 +26281,19 @@
       <c r="CM45" s="57">
         <v>0</v>
       </c>
-      <c r="CN45" s="99"/>
-      <c r="CO45" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP45" s="99"/>
-      <c r="CQ45" s="57">
+      <c r="CN45" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO45" s="99"/>
+      <c r="CP45" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ45" s="99"/>
+      <c r="CR45" s="57">
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A46" s="27"/>
       <c r="B46" s="100" t="s">
         <v>37</v>
@@ -26356,16 +26563,19 @@
       <c r="CM46" s="57">
         <v>1</v>
       </c>
-      <c r="CN46" s="99"/>
-      <c r="CO46" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP46" s="99"/>
-      <c r="CQ46" s="57">
+      <c r="CN46" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO46" s="99"/>
+      <c r="CP46" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ46" s="99"/>
+      <c r="CR46" s="57">
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A47" s="27"/>
       <c r="B47" s="100" t="s">
         <v>37</v>
@@ -26635,16 +26845,19 @@
       <c r="CM47" s="57">
         <v>1</v>
       </c>
-      <c r="CN47" s="99"/>
-      <c r="CO47" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP47" s="99"/>
-      <c r="CQ47" s="57">
-        <v>66</v>
+      <c r="CN47" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO47" s="99"/>
+      <c r="CP47" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ47" s="99"/>
+      <c r="CR47" s="57">
+        <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:95" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.3">
       <c r="A48" s="27"/>
       <c r="B48" s="100" t="s">
         <v>38</v>
@@ -26914,16 +27127,19 @@
       <c r="CM48" s="57">
         <v>0</v>
       </c>
-      <c r="CN48" s="99"/>
-      <c r="CO48" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP48" s="99"/>
-      <c r="CQ48" s="57">
+      <c r="CN48" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO48" s="99"/>
+      <c r="CP48" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ48" s="99"/>
+      <c r="CR48" s="57">
         <v>409</v>
       </c>
     </row>
-    <row r="49" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A49" s="27"/>
       <c r="B49" s="100" t="s">
         <v>38</v>
@@ -27167,7 +27383,7 @@
         <v>2</v>
       </c>
       <c r="CE49" s="57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CF49" s="57">
         <v>4</v>
@@ -27193,16 +27409,19 @@
       <c r="CM49" s="57">
         <v>0</v>
       </c>
-      <c r="CN49" s="99"/>
-      <c r="CO49" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP49" s="99"/>
-      <c r="CQ49" s="57">
-        <v>593</v>
+      <c r="CN49" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO49" s="99"/>
+      <c r="CP49" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ49" s="99"/>
+      <c r="CR49" s="57">
+        <v>594</v>
       </c>
     </row>
-    <row r="50" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:111" x14ac:dyDescent="0.3">
       <c r="B50" s="100" t="s">
         <v>38</v>
       </c>
@@ -27471,16 +27690,19 @@
       <c r="CM50" s="57">
         <v>0</v>
       </c>
-      <c r="CN50" s="99"/>
-      <c r="CO50" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP50" s="99"/>
-      <c r="CQ50" s="57">
+      <c r="CN50" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO50" s="99"/>
+      <c r="CP50" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ50" s="99"/>
+      <c r="CR50" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="105" t="s">
         <v>38</v>
@@ -27750,16 +27972,19 @@
       <c r="CM51" s="57">
         <v>0</v>
       </c>
-      <c r="CN51" s="99"/>
-      <c r="CO51" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP51" s="99"/>
-      <c r="CQ51" s="57">
+      <c r="CN51" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO51" s="99"/>
+      <c r="CP51" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ51" s="99"/>
+      <c r="CR51" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="105" t="s">
         <v>38</v>
@@ -28029,16 +28254,19 @@
       <c r="CM52" s="57">
         <v>0</v>
       </c>
-      <c r="CN52" s="99"/>
-      <c r="CO52" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP52" s="99"/>
-      <c r="CQ52" s="57">
+      <c r="CN52" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO52" s="99"/>
+      <c r="CP52" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ52" s="99"/>
+      <c r="CR52" s="57">
         <v>295</v>
       </c>
     </row>
-    <row r="53" spans="1:110" s="44" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:111" s="44" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="105" t="s">
         <v>38</v>
@@ -28306,18 +28534,21 @@
         <v>0</v>
       </c>
       <c r="CM53" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN53" s="99"/>
-      <c r="CO53" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP53" s="99"/>
-      <c r="CQ53" s="57">
-        <v>296</v>
+        <v>1</v>
+      </c>
+      <c r="CN53" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO53" s="99"/>
+      <c r="CP53" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ53" s="99"/>
+      <c r="CR53" s="57">
+        <v>298</v>
       </c>
     </row>
-    <row r="54" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:111" x14ac:dyDescent="0.3">
       <c r="B54" s="105" t="s">
         <v>38</v>
       </c>
@@ -28530,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="BU54" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BV54" s="57">
         <v>0</v>
@@ -28586,16 +28817,19 @@
       <c r="CM54" s="57">
         <v>0</v>
       </c>
-      <c r="CN54" s="99"/>
-      <c r="CO54" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP54" s="99"/>
-      <c r="CQ54" s="57">
-        <v>15</v>
+      <c r="CN54" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO54" s="99"/>
+      <c r="CP54" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ54" s="99"/>
+      <c r="CR54" s="57">
+        <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:110" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:111" s="11" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="100" t="s">
         <v>38</v>
       </c>
@@ -28864,15 +29098,17 @@
       <c r="CM55" s="57">
         <v>0</v>
       </c>
-      <c r="CN55" s="99"/>
-      <c r="CO55" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP55" s="99"/>
-      <c r="CQ55" s="57">
+      <c r="CN55" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO55" s="99"/>
+      <c r="CP55" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ55" s="99"/>
+      <c r="CR55" s="57">
         <v>255</v>
       </c>
-      <c r="CR55" s="49"/>
       <c r="CS55" s="49"/>
       <c r="CT55" s="49"/>
       <c r="CU55" s="49"/>
@@ -28887,8 +29123,9 @@
       <c r="DD55" s="49"/>
       <c r="DE55" s="49"/>
       <c r="DF55" s="49"/>
+      <c r="DG55" s="49"/>
     </row>
-    <row r="56" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A56" s="27"/>
       <c r="B56" s="100" t="s">
         <v>38</v>
@@ -29158,16 +29395,19 @@
       <c r="CM56" s="57">
         <v>0</v>
       </c>
-      <c r="CN56" s="99"/>
-      <c r="CO56" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP56" s="99"/>
-      <c r="CQ56" s="57">
+      <c r="CN56" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO56" s="99"/>
+      <c r="CP56" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ56" s="99"/>
+      <c r="CR56" s="57">
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
       <c r="B57" s="100" t="s">
         <v>138</v>
@@ -29437,16 +29677,19 @@
       <c r="CM57" s="57">
         <v>0</v>
       </c>
-      <c r="CN57" s="99"/>
-      <c r="CO57" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP57" s="99"/>
-      <c r="CQ57" s="57">
+      <c r="CN57" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO57" s="99"/>
+      <c r="CP57" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ57" s="99"/>
+      <c r="CR57" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A58" s="27"/>
       <c r="B58" s="100" t="s">
         <v>38</v>
@@ -29716,16 +29959,19 @@
       <c r="CM58" s="57">
         <v>0</v>
       </c>
-      <c r="CN58" s="99"/>
-      <c r="CO58" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP58" s="99"/>
-      <c r="CQ58" s="57">
+      <c r="CN58" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO58" s="99"/>
+      <c r="CP58" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ58" s="99"/>
+      <c r="CR58" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A59" s="27"/>
       <c r="B59" s="100" t="s">
         <v>38</v>
@@ -29995,16 +30241,19 @@
       <c r="CM59" s="57">
         <v>0</v>
       </c>
-      <c r="CN59" s="99"/>
-      <c r="CO59" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP59" s="99"/>
-      <c r="CQ59" s="57">
+      <c r="CN59" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO59" s="99"/>
+      <c r="CP59" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ59" s="99"/>
+      <c r="CR59" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:111" x14ac:dyDescent="0.3">
       <c r="A60" s="27"/>
       <c r="B60" s="100" t="s">
         <v>38</v>
@@ -30274,16 +30523,19 @@
       <c r="CM60" s="57">
         <v>0</v>
       </c>
-      <c r="CN60" s="99"/>
-      <c r="CO60" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP60" s="99"/>
-      <c r="CQ60" s="57">
+      <c r="CN60" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO60" s="99"/>
+      <c r="CP60" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ60" s="99"/>
+      <c r="CR60" s="57">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:111" x14ac:dyDescent="0.3">
       <c r="B61" s="100" t="s">
         <v>38</v>
       </c>
@@ -30552,16 +30804,19 @@
       <c r="CM61" s="57">
         <v>0</v>
       </c>
-      <c r="CN61" s="99"/>
-      <c r="CO61" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP61" s="99"/>
-      <c r="CQ61" s="57">
+      <c r="CN61" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO61" s="99"/>
+      <c r="CP61" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ61" s="99"/>
+      <c r="CR61" s="57">
         <v>146</v>
       </c>
     </row>
-    <row r="62" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:111" x14ac:dyDescent="0.3">
       <c r="B62" s="100" t="s">
         <v>138</v>
       </c>
@@ -30830,16 +31085,19 @@
       <c r="CM62" s="57">
         <v>0</v>
       </c>
-      <c r="CN62" s="99"/>
-      <c r="CO62" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP62" s="99"/>
-      <c r="CQ62" s="57">
+      <c r="CN62" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO62" s="99"/>
+      <c r="CP62" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ62" s="99"/>
+      <c r="CR62" s="57">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:111" x14ac:dyDescent="0.3">
       <c r="B63" s="100" t="s">
         <v>38</v>
       </c>
@@ -31103,21 +31361,24 @@
         <v>0</v>
       </c>
       <c r="CL63" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CM63" s="57">
         <v>0</v>
       </c>
-      <c r="CN63" s="99"/>
-      <c r="CO63" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP63" s="99"/>
-      <c r="CQ63" s="57">
-        <v>413</v>
+      <c r="CN63" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO63" s="99"/>
+      <c r="CP63" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ63" s="99"/>
+      <c r="CR63" s="57">
+        <v>414</v>
       </c>
     </row>
-    <row r="64" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:111" x14ac:dyDescent="0.3">
       <c r="B64" s="100" t="s">
         <v>38</v>
       </c>
@@ -31386,16 +31647,19 @@
       <c r="CM64" s="57">
         <v>0</v>
       </c>
-      <c r="CN64" s="99"/>
-      <c r="CO64" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP64" s="99"/>
-      <c r="CQ64" s="57">
+      <c r="CN64" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO64" s="99"/>
+      <c r="CP64" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ64" s="99"/>
+      <c r="CR64" s="57">
         <v>489</v>
       </c>
     </row>
-    <row r="65" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B65" s="100" t="s">
         <v>38</v>
       </c>
@@ -31662,18 +31926,21 @@
         <v>0</v>
       </c>
       <c r="CM65" s="57">
-        <v>1</v>
-      </c>
-      <c r="CN65" s="99"/>
-      <c r="CO65" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP65" s="99"/>
-      <c r="CQ65" s="57">
-        <v>158</v>
+        <v>2</v>
+      </c>
+      <c r="CN65" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO65" s="99"/>
+      <c r="CP65" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ65" s="99"/>
+      <c r="CR65" s="57">
+        <v>159</v>
       </c>
     </row>
-    <row r="66" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B66" s="100" t="s">
         <v>38</v>
       </c>
@@ -31940,18 +32207,21 @@
         <v>1</v>
       </c>
       <c r="CM66" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN66" s="99"/>
-      <c r="CO66" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP66" s="99"/>
-      <c r="CQ66" s="57">
-        <v>392</v>
+        <v>1</v>
+      </c>
+      <c r="CN66" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO66" s="99"/>
+      <c r="CP66" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ66" s="99"/>
+      <c r="CR66" s="57">
+        <v>393</v>
       </c>
     </row>
-    <row r="67" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B67" s="100" t="s">
         <v>38</v>
       </c>
@@ -32220,16 +32490,19 @@
       <c r="CM67" s="57">
         <v>0</v>
       </c>
-      <c r="CN67" s="99"/>
-      <c r="CO67" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP67" s="99"/>
-      <c r="CQ67" s="57">
+      <c r="CN67" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO67" s="99"/>
+      <c r="CP67" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ67" s="99"/>
+      <c r="CR67" s="57">
         <v>576</v>
       </c>
     </row>
-    <row r="68" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B68" s="100" t="s">
         <v>38</v>
       </c>
@@ -32498,16 +32771,19 @@
       <c r="CM68" s="57">
         <v>0</v>
       </c>
-      <c r="CN68" s="99"/>
-      <c r="CO68" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP68" s="99"/>
-      <c r="CQ68" s="57">
+      <c r="CN68" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO68" s="99"/>
+      <c r="CP68" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ68" s="99"/>
+      <c r="CR68" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B69" s="100" t="s">
         <v>38</v>
       </c>
@@ -32776,16 +33052,19 @@
       <c r="CM69" s="57">
         <v>0</v>
       </c>
-      <c r="CN69" s="99"/>
-      <c r="CO69" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP69" s="99"/>
-      <c r="CQ69" s="57">
+      <c r="CN69" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO69" s="99"/>
+      <c r="CP69" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ69" s="99"/>
+      <c r="CR69" s="57">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B70" s="100" t="s">
         <v>38</v>
       </c>
@@ -33054,16 +33333,19 @@
       <c r="CM70" s="57">
         <v>0</v>
       </c>
-      <c r="CN70" s="99"/>
-      <c r="CO70" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP70" s="99"/>
-      <c r="CQ70" s="57">
+      <c r="CN70" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO70" s="99"/>
+      <c r="CP70" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ70" s="99"/>
+      <c r="CR70" s="57">
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B71" s="100" t="s">
         <v>38</v>
       </c>
@@ -33332,16 +33614,19 @@
       <c r="CM71" s="57">
         <v>0</v>
       </c>
-      <c r="CN71" s="99"/>
-      <c r="CO71" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP71" s="99"/>
-      <c r="CQ71" s="57">
+      <c r="CN71" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO71" s="99"/>
+      <c r="CP71" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ71" s="99"/>
+      <c r="CR71" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B72" s="100" t="s">
         <v>38</v>
       </c>
@@ -33610,16 +33895,19 @@
       <c r="CM72" s="57">
         <v>0</v>
       </c>
-      <c r="CN72" s="99"/>
-      <c r="CO72" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP72" s="99"/>
-      <c r="CQ72" s="57">
+      <c r="CN72" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO72" s="99"/>
+      <c r="CP72" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ72" s="99"/>
+      <c r="CR72" s="57">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B73" s="100" t="s">
         <v>38</v>
       </c>
@@ -33888,16 +34176,19 @@
       <c r="CM73" s="57">
         <v>0</v>
       </c>
-      <c r="CN73" s="99"/>
-      <c r="CO73" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP73" s="99"/>
-      <c r="CQ73" s="57">
+      <c r="CN73" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO73" s="99"/>
+      <c r="CP73" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ73" s="99"/>
+      <c r="CR73" s="57">
         <v>480</v>
       </c>
     </row>
-    <row r="74" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B74" s="100" t="s">
         <v>38</v>
       </c>
@@ -34166,16 +34457,19 @@
       <c r="CM74" s="57">
         <v>0</v>
       </c>
-      <c r="CN74" s="99"/>
-      <c r="CO74" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP74" s="99"/>
-      <c r="CQ74" s="57">
+      <c r="CN74" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO74" s="99"/>
+      <c r="CP74" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ74" s="99"/>
+      <c r="CR74" s="57">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B75" s="100" t="s">
         <v>38</v>
       </c>
@@ -34444,16 +34738,19 @@
       <c r="CM75" s="57">
         <v>0</v>
       </c>
-      <c r="CN75" s="99"/>
-      <c r="CO75" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP75" s="99"/>
-      <c r="CQ75" s="57">
+      <c r="CN75" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO75" s="99"/>
+      <c r="CP75" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ75" s="99"/>
+      <c r="CR75" s="57">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B76" s="100" t="s">
         <v>38</v>
       </c>
@@ -34722,16 +35019,19 @@
       <c r="CM76" s="57">
         <v>0</v>
       </c>
-      <c r="CN76" s="99"/>
-      <c r="CO76" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP76" s="99"/>
-      <c r="CQ76" s="57">
+      <c r="CN76" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO76" s="99"/>
+      <c r="CP76" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ76" s="99"/>
+      <c r="CR76" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B77" s="100" t="s">
         <v>38</v>
       </c>
@@ -35000,16 +35300,19 @@
       <c r="CM77" s="57">
         <v>0</v>
       </c>
-      <c r="CN77" s="99"/>
-      <c r="CO77" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP77" s="99"/>
-      <c r="CQ77" s="57">
+      <c r="CN77" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO77" s="99"/>
+      <c r="CP77" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ77" s="99"/>
+      <c r="CR77" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B78" s="100" t="s">
         <v>38</v>
       </c>
@@ -35278,16 +35581,19 @@
       <c r="CM78" s="57">
         <v>0</v>
       </c>
-      <c r="CN78" s="99"/>
-      <c r="CO78" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP78" s="99"/>
-      <c r="CQ78" s="57">
+      <c r="CN78" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO78" s="99"/>
+      <c r="CP78" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ78" s="99"/>
+      <c r="CR78" s="57">
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B79" s="100" t="s">
         <v>38</v>
       </c>
@@ -35556,16 +35862,19 @@
       <c r="CM79" s="57">
         <v>0</v>
       </c>
-      <c r="CN79" s="99"/>
-      <c r="CO79" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP79" s="99"/>
-      <c r="CQ79" s="57">
+      <c r="CN79" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO79" s="99"/>
+      <c r="CP79" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ79" s="99"/>
+      <c r="CR79" s="57">
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B80" s="100" t="s">
         <v>38</v>
       </c>
@@ -35834,16 +36143,19 @@
       <c r="CM80" s="57">
         <v>0</v>
       </c>
-      <c r="CN80" s="99"/>
-      <c r="CO80" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP80" s="99"/>
-      <c r="CQ80" s="57">
+      <c r="CN80" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO80" s="99"/>
+      <c r="CP80" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ80" s="99"/>
+      <c r="CR80" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B81" s="100" t="s">
         <v>38</v>
       </c>
@@ -36112,16 +36424,19 @@
       <c r="CM81" s="57">
         <v>0</v>
       </c>
-      <c r="CN81" s="99"/>
-      <c r="CO81" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP81" s="99"/>
-      <c r="CQ81" s="57">
+      <c r="CN81" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO81" s="99"/>
+      <c r="CP81" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ81" s="99"/>
+      <c r="CR81" s="57">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B82" s="100" t="s">
         <v>38</v>
       </c>
@@ -36352,7 +36667,7 @@
         <v>1</v>
       </c>
       <c r="CA82" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB82" s="57">
         <v>0</v>
@@ -36361,7 +36676,7 @@
         <v>1</v>
       </c>
       <c r="CD82" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE82" s="57">
         <v>1</v>
@@ -36373,7 +36688,7 @@
         <v>0</v>
       </c>
       <c r="CH82" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CI82" s="57">
         <v>1</v>
@@ -36390,16 +36705,19 @@
       <c r="CM82" s="57">
         <v>0</v>
       </c>
-      <c r="CN82" s="99"/>
-      <c r="CO82" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP82" s="99"/>
-      <c r="CQ82" s="57">
-        <v>168</v>
+      <c r="CN82" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO82" s="99"/>
+      <c r="CP82" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ82" s="99"/>
+      <c r="CR82" s="57">
+        <v>171</v>
       </c>
     </row>
-    <row r="83" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B83" s="100" t="s">
         <v>38</v>
       </c>
@@ -36668,16 +36986,19 @@
       <c r="CM83" s="57">
         <v>0</v>
       </c>
-      <c r="CN83" s="99"/>
-      <c r="CO83" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP83" s="99"/>
-      <c r="CQ83" s="57">
+      <c r="CN83" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO83" s="99"/>
+      <c r="CP83" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ83" s="99"/>
+      <c r="CR83" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B84" s="100" t="s">
         <v>38</v>
       </c>
@@ -36946,16 +37267,19 @@
       <c r="CM84" s="57">
         <v>0</v>
       </c>
-      <c r="CN84" s="99"/>
-      <c r="CO84" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP84" s="99"/>
-      <c r="CQ84" s="57">
+      <c r="CN84" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO84" s="99"/>
+      <c r="CP84" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ84" s="99"/>
+      <c r="CR84" s="57">
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B85" s="100" t="s">
         <v>39</v>
       </c>
@@ -37219,21 +37543,24 @@
         <v>0</v>
       </c>
       <c r="CL85" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM85" s="57">
         <v>0</v>
       </c>
-      <c r="CN85" s="99"/>
-      <c r="CO85" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP85" s="99"/>
-      <c r="CQ85" s="57">
-        <v>35</v>
+      <c r="CN85" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO85" s="99"/>
+      <c r="CP85" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ85" s="99"/>
+      <c r="CR85" s="57">
+        <v>36</v>
       </c>
     </row>
-    <row r="86" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B86" s="100" t="s">
         <v>39</v>
       </c>
@@ -37500,18 +37827,21 @@
         <v>1</v>
       </c>
       <c r="CM86" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN86" s="99"/>
-      <c r="CO86" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP86" s="99"/>
-      <c r="CQ86" s="57">
-        <v>116</v>
+        <v>2</v>
+      </c>
+      <c r="CN86" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO86" s="99"/>
+      <c r="CP86" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ86" s="99"/>
+      <c r="CR86" s="57">
+        <v>118</v>
       </c>
     </row>
-    <row r="87" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B87" s="100" t="s">
         <v>39</v>
       </c>
@@ -37780,16 +38110,19 @@
       <c r="CM87" s="57">
         <v>0</v>
       </c>
-      <c r="CN87" s="99"/>
-      <c r="CO87" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP87" s="99"/>
-      <c r="CQ87" s="57">
+      <c r="CN87" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO87" s="99"/>
+      <c r="CP87" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ87" s="99"/>
+      <c r="CR87" s="57">
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B88" s="100" t="s">
         <v>39</v>
       </c>
@@ -38058,16 +38391,19 @@
       <c r="CM88" s="57">
         <v>0</v>
       </c>
-      <c r="CN88" s="99"/>
-      <c r="CO88" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP88" s="99"/>
-      <c r="CQ88" s="57">
+      <c r="CN88" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO88" s="99"/>
+      <c r="CP88" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ88" s="99"/>
+      <c r="CR88" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B89" s="100" t="s">
         <v>39</v>
       </c>
@@ -38336,16 +38672,19 @@
       <c r="CM89" s="57">
         <v>0</v>
       </c>
-      <c r="CN89" s="99"/>
-      <c r="CO89" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP89" s="99"/>
-      <c r="CQ89" s="57">
+      <c r="CN89" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO89" s="99"/>
+      <c r="CP89" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ89" s="99"/>
+      <c r="CR89" s="57">
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B90" s="100" t="s">
         <v>39</v>
       </c>
@@ -38614,16 +38953,19 @@
       <c r="CM90" s="57">
         <v>0</v>
       </c>
-      <c r="CN90" s="99"/>
-      <c r="CO90" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP90" s="99"/>
-      <c r="CQ90" s="57">
+      <c r="CN90" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO90" s="99"/>
+      <c r="CP90" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ90" s="99"/>
+      <c r="CR90" s="57">
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B91" s="100" t="s">
         <v>39</v>
       </c>
@@ -38892,16 +39234,19 @@
       <c r="CM91" s="57">
         <v>0</v>
       </c>
-      <c r="CN91" s="99"/>
-      <c r="CO91" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP91" s="99"/>
-      <c r="CQ91" s="57">
+      <c r="CN91" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO91" s="99"/>
+      <c r="CP91" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ91" s="99"/>
+      <c r="CR91" s="57">
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B92" s="100" t="s">
         <v>39</v>
       </c>
@@ -39170,16 +39515,19 @@
       <c r="CM92" s="57">
         <v>0</v>
       </c>
-      <c r="CN92" s="99"/>
-      <c r="CO92" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP92" s="99"/>
-      <c r="CQ92" s="57">
+      <c r="CN92" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO92" s="99"/>
+      <c r="CP92" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ92" s="99"/>
+      <c r="CR92" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B93" s="100" t="s">
         <v>39</v>
       </c>
@@ -39448,16 +39796,19 @@
       <c r="CM93" s="57">
         <v>0</v>
       </c>
-      <c r="CN93" s="99"/>
-      <c r="CO93" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP93" s="99"/>
-      <c r="CQ93" s="57">
+      <c r="CN93" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO93" s="99"/>
+      <c r="CP93" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ93" s="99"/>
+      <c r="CR93" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B94" s="100" t="s">
         <v>39</v>
       </c>
@@ -39726,16 +40077,19 @@
       <c r="CM94" s="57">
         <v>0</v>
       </c>
-      <c r="CN94" s="99"/>
-      <c r="CO94" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP94" s="99"/>
-      <c r="CQ94" s="57">
+      <c r="CN94" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO94" s="99"/>
+      <c r="CP94" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ94" s="99"/>
+      <c r="CR94" s="57">
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B95" s="100" t="s">
         <v>39</v>
       </c>
@@ -40004,16 +40358,19 @@
       <c r="CM95" s="57">
         <v>1</v>
       </c>
-      <c r="CN95" s="99"/>
-      <c r="CO95" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP95" s="99"/>
-      <c r="CQ95" s="57">
+      <c r="CN95" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO95" s="99"/>
+      <c r="CP95" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ95" s="99"/>
+      <c r="CR95" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B96" s="100" t="s">
         <v>39</v>
       </c>
@@ -40277,21 +40634,24 @@
         <v>1</v>
       </c>
       <c r="CL96" s="57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CM96" s="57">
         <v>0</v>
       </c>
-      <c r="CN96" s="99"/>
-      <c r="CO96" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP96" s="99"/>
-      <c r="CQ96" s="57">
-        <v>223</v>
+      <c r="CN96" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO96" s="99"/>
+      <c r="CP96" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ96" s="99"/>
+      <c r="CR96" s="57">
+        <v>226</v>
       </c>
     </row>
-    <row r="97" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B97" s="100" t="s">
         <v>39</v>
       </c>
@@ -40560,16 +40920,19 @@
       <c r="CM97" s="57">
         <v>1</v>
       </c>
-      <c r="CN97" s="99"/>
-      <c r="CO97" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP97" s="99"/>
-      <c r="CQ97" s="57">
+      <c r="CN97" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO97" s="99"/>
+      <c r="CP97" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ97" s="99"/>
+      <c r="CR97" s="57">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B98" s="100" t="s">
         <v>39</v>
       </c>
@@ -40838,16 +41201,19 @@
       <c r="CM98" s="57">
         <v>0</v>
       </c>
-      <c r="CN98" s="99"/>
-      <c r="CO98" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP98" s="99"/>
-      <c r="CQ98" s="57">
+      <c r="CN98" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO98" s="99"/>
+      <c r="CP98" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ98" s="99"/>
+      <c r="CR98" s="57">
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B99" s="100" t="s">
         <v>39</v>
       </c>
@@ -41114,18 +41480,21 @@
         <v>1</v>
       </c>
       <c r="CM99" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN99" s="99"/>
-      <c r="CO99" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP99" s="99"/>
-      <c r="CQ99" s="57">
-        <v>243</v>
+        <v>1</v>
+      </c>
+      <c r="CN99" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO99" s="99"/>
+      <c r="CP99" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ99" s="99"/>
+      <c r="CR99" s="57">
+        <v>245</v>
       </c>
     </row>
-    <row r="100" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B100" s="100" t="s">
         <v>39</v>
       </c>
@@ -41394,16 +41763,19 @@
       <c r="CM100" s="57">
         <v>0</v>
       </c>
-      <c r="CN100" s="99"/>
-      <c r="CO100" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP100" s="99"/>
-      <c r="CQ100" s="57">
+      <c r="CN100" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO100" s="99"/>
+      <c r="CP100" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ100" s="99"/>
+      <c r="CR100" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B101" s="100" t="s">
         <v>39</v>
       </c>
@@ -41661,7 +42033,7 @@
         <v>0</v>
       </c>
       <c r="CJ101" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CK101" s="57">
         <v>0</v>
@@ -41672,16 +42044,19 @@
       <c r="CM101" s="57">
         <v>0</v>
       </c>
-      <c r="CN101" s="99"/>
-      <c r="CO101" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP101" s="99"/>
-      <c r="CQ101" s="57">
-        <v>336</v>
+      <c r="CN101" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO101" s="99"/>
+      <c r="CP101" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ101" s="99"/>
+      <c r="CR101" s="57">
+        <v>337</v>
       </c>
     </row>
-    <row r="102" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B102" s="100" t="s">
         <v>39</v>
       </c>
@@ -41950,16 +42325,19 @@
       <c r="CM102" s="57">
         <v>0</v>
       </c>
-      <c r="CN102" s="99"/>
-      <c r="CO102" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP102" s="99"/>
-      <c r="CQ102" s="57">
+      <c r="CN102" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO102" s="99"/>
+      <c r="CP102" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ102" s="99"/>
+      <c r="CR102" s="57">
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B103" s="100" t="s">
         <v>39</v>
       </c>
@@ -42163,10 +42541,10 @@
         <v>1</v>
       </c>
       <c r="BR103" s="57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS103" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT103" s="57">
         <v>8</v>
@@ -42226,18 +42604,21 @@
         <v>2</v>
       </c>
       <c r="CM103" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN103" s="99"/>
-      <c r="CO103" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP103" s="99"/>
-      <c r="CQ103" s="57">
-        <v>136</v>
+        <v>1</v>
+      </c>
+      <c r="CN103" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO103" s="99"/>
+      <c r="CP103" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ103" s="99"/>
+      <c r="CR103" s="57">
+        <v>140</v>
       </c>
     </row>
-    <row r="104" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B104" s="100" t="s">
         <v>39</v>
       </c>
@@ -42506,16 +42887,19 @@
       <c r="CM104" s="57">
         <v>0</v>
       </c>
-      <c r="CN104" s="99"/>
-      <c r="CO104" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP104" s="99"/>
-      <c r="CQ104" s="57">
+      <c r="CN104" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO104" s="99"/>
+      <c r="CP104" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ104" s="99"/>
+      <c r="CR104" s="57">
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B105" s="100" t="s">
         <v>39</v>
       </c>
@@ -42784,16 +43168,19 @@
       <c r="CM105" s="57">
         <v>0</v>
       </c>
-      <c r="CN105" s="99"/>
-      <c r="CO105" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP105" s="99"/>
-      <c r="CQ105" s="57">
+      <c r="CN105" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO105" s="99"/>
+      <c r="CP105" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ105" s="99"/>
+      <c r="CR105" s="57">
         <v>107</v>
       </c>
     </row>
-    <row r="106" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B106" s="100" t="s">
         <v>39</v>
       </c>
@@ -42997,7 +43384,7 @@
         <v>1</v>
       </c>
       <c r="BR106" s="57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS106" s="57">
         <v>1</v>
@@ -43062,16 +43449,19 @@
       <c r="CM106" s="57">
         <v>0</v>
       </c>
-      <c r="CN106" s="99"/>
-      <c r="CO106" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP106" s="99"/>
-      <c r="CQ106" s="57">
-        <v>245</v>
+      <c r="CN106" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO106" s="99"/>
+      <c r="CP106" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ106" s="99"/>
+      <c r="CR106" s="57">
+        <v>246</v>
       </c>
     </row>
-    <row r="107" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B107" s="100" t="s">
         <v>39</v>
       </c>
@@ -43340,16 +43730,19 @@
       <c r="CM107" s="57">
         <v>0</v>
       </c>
-      <c r="CN107" s="99"/>
-      <c r="CO107" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP107" s="99"/>
-      <c r="CQ107" s="57">
+      <c r="CN107" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO107" s="99"/>
+      <c r="CP107" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ107" s="99"/>
+      <c r="CR107" s="57">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B108" s="100" t="s">
         <v>39</v>
       </c>
@@ -43618,16 +44011,19 @@
       <c r="CM108" s="57">
         <v>0</v>
       </c>
-      <c r="CN108" s="99"/>
-      <c r="CO108" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP108" s="99"/>
-      <c r="CQ108" s="57">
+      <c r="CN108" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO108" s="99"/>
+      <c r="CP108" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ108" s="99"/>
+      <c r="CR108" s="57">
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B109" s="100" t="s">
         <v>39</v>
       </c>
@@ -43891,21 +44287,24 @@
         <v>0</v>
       </c>
       <c r="CL109" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM109" s="57">
         <v>0</v>
       </c>
-      <c r="CN109" s="99"/>
-      <c r="CO109" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP109" s="99"/>
-      <c r="CQ109" s="57">
-        <v>262</v>
+      <c r="CN109" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO109" s="99"/>
+      <c r="CP109" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ109" s="99"/>
+      <c r="CR109" s="57">
+        <v>264</v>
       </c>
     </row>
-    <row r="110" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B110" s="100" t="s">
         <v>39</v>
       </c>
@@ -44174,16 +44573,19 @@
       <c r="CM110" s="57">
         <v>1</v>
       </c>
-      <c r="CN110" s="99"/>
-      <c r="CO110" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP110" s="99"/>
-      <c r="CQ110" s="57">
+      <c r="CN110" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO110" s="99"/>
+      <c r="CP110" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ110" s="99"/>
+      <c r="CR110" s="57">
         <v>130</v>
       </c>
     </row>
-    <row r="111" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B111" s="100" t="s">
         <v>39</v>
       </c>
@@ -44378,7 +44780,7 @@
         <v>7</v>
       </c>
       <c r="BO111" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP111" s="57">
         <v>10</v>
@@ -44447,21 +44849,24 @@
         <v>1</v>
       </c>
       <c r="CL111" s="57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CM111" s="57">
         <v>0</v>
       </c>
-      <c r="CN111" s="99"/>
-      <c r="CO111" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP111" s="99"/>
-      <c r="CQ111" s="57">
-        <v>896</v>
+      <c r="CN111" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO111" s="99"/>
+      <c r="CP111" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ111" s="99"/>
+      <c r="CR111" s="57">
+        <v>899</v>
       </c>
     </row>
-    <row r="112" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B112" s="100" t="s">
         <v>39</v>
       </c>
@@ -44728,18 +45133,21 @@
         <v>0</v>
       </c>
       <c r="CM112" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN112" s="99"/>
-      <c r="CO112" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP112" s="99"/>
-      <c r="CQ112" s="57">
-        <v>229</v>
+        <v>1</v>
+      </c>
+      <c r="CN112" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO112" s="99"/>
+      <c r="CP112" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ112" s="99"/>
+      <c r="CR112" s="57">
+        <v>230</v>
       </c>
     </row>
-    <row r="113" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B113" s="100" t="s">
         <v>39</v>
       </c>
@@ -45008,16 +45416,19 @@
       <c r="CM113" s="57">
         <v>0</v>
       </c>
-      <c r="CN113" s="99"/>
-      <c r="CO113" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP113" s="99"/>
-      <c r="CQ113" s="57">
+      <c r="CN113" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO113" s="99"/>
+      <c r="CP113" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ113" s="99"/>
+      <c r="CR113" s="57">
         <v>467</v>
       </c>
     </row>
-    <row r="114" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B114" s="100" t="s">
         <v>39</v>
       </c>
@@ -45286,16 +45697,19 @@
       <c r="CM114" s="57">
         <v>0</v>
       </c>
-      <c r="CN114" s="99"/>
-      <c r="CO114" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP114" s="99"/>
-      <c r="CQ114" s="57">
+      <c r="CN114" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO114" s="99"/>
+      <c r="CP114" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ114" s="99"/>
+      <c r="CR114" s="57">
         <v>324</v>
       </c>
     </row>
-    <row r="115" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B115" s="100" t="s">
         <v>39</v>
       </c>
@@ -45562,18 +45976,21 @@
         <v>2</v>
       </c>
       <c r="CM115" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN115" s="99"/>
-      <c r="CO115" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP115" s="99"/>
-      <c r="CQ115" s="57">
-        <v>292</v>
+        <v>3</v>
+      </c>
+      <c r="CN115" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO115" s="99"/>
+      <c r="CP115" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ115" s="99"/>
+      <c r="CR115" s="57">
+        <v>295</v>
       </c>
     </row>
-    <row r="116" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B116" s="100" t="s">
         <v>39</v>
       </c>
@@ -45842,16 +46259,19 @@
       <c r="CM116" s="57">
         <v>0</v>
       </c>
-      <c r="CN116" s="99"/>
-      <c r="CO116" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP116" s="99"/>
-      <c r="CQ116" s="57">
+      <c r="CN116" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO116" s="99"/>
+      <c r="CP116" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ116" s="99"/>
+      <c r="CR116" s="57">
         <v>205</v>
       </c>
     </row>
-    <row r="117" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B117" s="100" t="s">
         <v>39</v>
       </c>
@@ -46120,16 +46540,19 @@
       <c r="CM117" s="57">
         <v>0</v>
       </c>
-      <c r="CN117" s="99"/>
-      <c r="CO117" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP117" s="99"/>
-      <c r="CQ117" s="57">
+      <c r="CN117" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO117" s="99"/>
+      <c r="CP117" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ117" s="99"/>
+      <c r="CR117" s="57">
         <v>247</v>
       </c>
     </row>
-    <row r="118" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B118" s="100" t="s">
         <v>39</v>
       </c>
@@ -46398,16 +46821,19 @@
       <c r="CM118" s="57">
         <v>0</v>
       </c>
-      <c r="CN118" s="99"/>
-      <c r="CO118" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP118" s="99"/>
-      <c r="CQ118" s="57">
+      <c r="CN118" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO118" s="99"/>
+      <c r="CP118" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ118" s="99"/>
+      <c r="CR118" s="57">
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B119" s="100" t="s">
         <v>39</v>
       </c>
@@ -46676,16 +47102,19 @@
       <c r="CM119" s="57">
         <v>0</v>
       </c>
-      <c r="CN119" s="99"/>
-      <c r="CO119" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP119" s="99"/>
-      <c r="CQ119" s="57">
+      <c r="CN119" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO119" s="99"/>
+      <c r="CP119" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ119" s="99"/>
+      <c r="CR119" s="57">
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B120" s="100" t="s">
         <v>40</v>
       </c>
@@ -46954,16 +47383,19 @@
       <c r="CM120" s="57">
         <v>0</v>
       </c>
-      <c r="CN120" s="99"/>
-      <c r="CO120" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP120" s="99"/>
-      <c r="CQ120" s="57">
+      <c r="CN120" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO120" s="99"/>
+      <c r="CP120" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ120" s="99"/>
+      <c r="CR120" s="57">
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B121" s="100" t="s">
         <v>40</v>
       </c>
@@ -47230,18 +47662,21 @@
         <v>1</v>
       </c>
       <c r="CM121" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN121" s="99"/>
-      <c r="CO121" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP121" s="99"/>
-      <c r="CQ121" s="57">
-        <v>114</v>
+        <v>1</v>
+      </c>
+      <c r="CN121" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO121" s="99"/>
+      <c r="CP121" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ121" s="99"/>
+      <c r="CR121" s="57">
+        <v>116</v>
       </c>
     </row>
-    <row r="122" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B122" s="100" t="s">
         <v>40</v>
       </c>
@@ -47510,16 +47945,19 @@
       <c r="CM122" s="57">
         <v>0</v>
       </c>
-      <c r="CN122" s="99"/>
-      <c r="CO122" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP122" s="99"/>
-      <c r="CQ122" s="57">
+      <c r="CN122" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO122" s="99"/>
+      <c r="CP122" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ122" s="99"/>
+      <c r="CR122" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B123" s="100" t="s">
         <v>40</v>
       </c>
@@ -47788,16 +48226,19 @@
       <c r="CM123" s="57">
         <v>0</v>
       </c>
-      <c r="CN123" s="99"/>
-      <c r="CO123" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP123" s="99"/>
-      <c r="CQ123" s="57">
+      <c r="CN123" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO123" s="99"/>
+      <c r="CP123" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ123" s="99"/>
+      <c r="CR123" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B124" s="100" t="s">
         <v>40</v>
       </c>
@@ -48066,16 +48507,19 @@
       <c r="CM124" s="57">
         <v>0</v>
       </c>
-      <c r="CN124" s="99"/>
-      <c r="CO124" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP124" s="99"/>
-      <c r="CQ124" s="57">
-        <v>191</v>
+      <c r="CN124" s="57">
+        <v>2</v>
+      </c>
+      <c r="CO124" s="99"/>
+      <c r="CP124" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ124" s="99"/>
+      <c r="CR124" s="57">
+        <v>193</v>
       </c>
     </row>
-    <row r="125" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B125" s="100" t="s">
         <v>40</v>
       </c>
@@ -48342,18 +48786,21 @@
         <v>0</v>
       </c>
       <c r="CM125" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN125" s="99"/>
-      <c r="CO125" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP125" s="99"/>
-      <c r="CQ125" s="57">
-        <v>143</v>
+        <v>1</v>
+      </c>
+      <c r="CN125" s="57">
+        <v>2</v>
+      </c>
+      <c r="CO125" s="99"/>
+      <c r="CP125" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ125" s="99"/>
+      <c r="CR125" s="57">
+        <v>146</v>
       </c>
     </row>
-    <row r="126" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B126" s="100" t="s">
         <v>40</v>
       </c>
@@ -48622,16 +49069,19 @@
       <c r="CM126" s="57">
         <v>0</v>
       </c>
-      <c r="CN126" s="99"/>
-      <c r="CO126" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP126" s="99"/>
-      <c r="CQ126" s="57">
+      <c r="CN126" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO126" s="99"/>
+      <c r="CP126" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ126" s="99"/>
+      <c r="CR126" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B127" s="100" t="s">
         <v>40</v>
       </c>
@@ -48900,16 +49350,19 @@
       <c r="CM127" s="57">
         <v>0</v>
       </c>
-      <c r="CN127" s="99"/>
-      <c r="CO127" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP127" s="99"/>
-      <c r="CQ127" s="57">
+      <c r="CN127" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO127" s="99"/>
+      <c r="CP127" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ127" s="99"/>
+      <c r="CR127" s="57">
         <v>225</v>
       </c>
     </row>
-    <row r="128" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B128" s="100" t="s">
         <v>40</v>
       </c>
@@ -49178,16 +49631,19 @@
       <c r="CM128" s="57">
         <v>0</v>
       </c>
-      <c r="CN128" s="99"/>
-      <c r="CO128" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP128" s="99"/>
-      <c r="CQ128" s="57">
+      <c r="CN128" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO128" s="99"/>
+      <c r="CP128" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ128" s="99"/>
+      <c r="CR128" s="57">
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B129" s="100" t="s">
         <v>40</v>
       </c>
@@ -49456,16 +49912,19 @@
       <c r="CM129" s="57">
         <v>0</v>
       </c>
-      <c r="CN129" s="99"/>
-      <c r="CO129" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP129" s="99"/>
-      <c r="CQ129" s="57">
+      <c r="CN129" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO129" s="99"/>
+      <c r="CP129" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ129" s="99"/>
+      <c r="CR129" s="57">
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B130" s="100" t="s">
         <v>40</v>
       </c>
@@ -49734,16 +50193,19 @@
       <c r="CM130" s="57">
         <v>0</v>
       </c>
-      <c r="CN130" s="99"/>
-      <c r="CO130" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP130" s="99"/>
-      <c r="CQ130" s="57">
+      <c r="CN130" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO130" s="99"/>
+      <c r="CP130" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ130" s="99"/>
+      <c r="CR130" s="57">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B131" s="100" t="s">
         <v>40</v>
       </c>
@@ -50010,18 +50472,21 @@
         <v>0</v>
       </c>
       <c r="CM131" s="57">
-        <v>1</v>
-      </c>
-      <c r="CN131" s="99"/>
-      <c r="CO131" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP131" s="99"/>
-      <c r="CQ131" s="57">
-        <v>62</v>
+        <v>2</v>
+      </c>
+      <c r="CN131" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO131" s="99"/>
+      <c r="CP131" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ131" s="99"/>
+      <c r="CR131" s="57">
+        <v>63</v>
       </c>
     </row>
-    <row r="132" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B132" s="100" t="s">
         <v>40</v>
       </c>
@@ -50290,16 +50755,19 @@
       <c r="CM132" s="57">
         <v>0</v>
       </c>
-      <c r="CN132" s="99"/>
-      <c r="CO132" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP132" s="99"/>
-      <c r="CQ132" s="57">
+      <c r="CN132" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO132" s="99"/>
+      <c r="CP132" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ132" s="99"/>
+      <c r="CR132" s="57">
         <v>150</v>
       </c>
     </row>
-    <row r="133" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B133" s="100" t="s">
         <v>40</v>
       </c>
@@ -50568,16 +51036,19 @@
       <c r="CM133" s="57">
         <v>0</v>
       </c>
-      <c r="CN133" s="99"/>
-      <c r="CO133" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP133" s="99"/>
-      <c r="CQ133" s="57">
+      <c r="CN133" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO133" s="99"/>
+      <c r="CP133" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ133" s="99"/>
+      <c r="CR133" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B134" s="100" t="s">
         <v>40</v>
       </c>
@@ -50846,16 +51317,19 @@
       <c r="CM134" s="57">
         <v>0</v>
       </c>
-      <c r="CN134" s="99"/>
-      <c r="CO134" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP134" s="99"/>
-      <c r="CQ134" s="57">
+      <c r="CN134" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO134" s="99"/>
+      <c r="CP134" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ134" s="99"/>
+      <c r="CR134" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B135" s="100" t="s">
         <v>40</v>
       </c>
@@ -51124,16 +51598,19 @@
       <c r="CM135" s="57">
         <v>0</v>
       </c>
-      <c r="CN135" s="99"/>
-      <c r="CO135" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP135" s="99"/>
-      <c r="CQ135" s="57">
+      <c r="CN135" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO135" s="99"/>
+      <c r="CP135" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ135" s="99"/>
+      <c r="CR135" s="57">
         <v>302</v>
       </c>
     </row>
-    <row r="136" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B136" s="100" t="s">
         <v>40</v>
       </c>
@@ -51400,18 +51877,21 @@
         <v>2</v>
       </c>
       <c r="CM136" s="57">
-        <v>2</v>
-      </c>
-      <c r="CN136" s="99"/>
-      <c r="CO136" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP136" s="99"/>
-      <c r="CQ136" s="57">
-        <v>276</v>
+        <v>3</v>
+      </c>
+      <c r="CN136" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO136" s="99"/>
+      <c r="CP136" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ136" s="99"/>
+      <c r="CR136" s="57">
+        <v>277</v>
       </c>
     </row>
-    <row r="137" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B137" s="100" t="s">
         <v>40</v>
       </c>
@@ -51680,16 +52160,19 @@
       <c r="CM137" s="57">
         <v>0</v>
       </c>
-      <c r="CN137" s="99"/>
-      <c r="CO137" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP137" s="99"/>
-      <c r="CQ137" s="57">
+      <c r="CN137" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO137" s="99"/>
+      <c r="CP137" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ137" s="99"/>
+      <c r="CR137" s="57">
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B138" s="100" t="s">
         <v>40</v>
       </c>
@@ -51956,18 +52439,21 @@
         <v>3</v>
       </c>
       <c r="CM138" s="57">
-        <v>1</v>
-      </c>
-      <c r="CN138" s="99"/>
-      <c r="CO138" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP138" s="99"/>
-      <c r="CQ138" s="57">
-        <v>112</v>
+        <v>3</v>
+      </c>
+      <c r="CN138" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO138" s="99"/>
+      <c r="CP138" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ138" s="99"/>
+      <c r="CR138" s="57">
+        <v>114</v>
       </c>
     </row>
-    <row r="139" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B139" s="100" t="s">
         <v>40</v>
       </c>
@@ -52236,16 +52722,19 @@
       <c r="CM139" s="57">
         <v>1</v>
       </c>
-      <c r="CN139" s="99"/>
-      <c r="CO139" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP139" s="99"/>
-      <c r="CQ139" s="57">
-        <v>95</v>
+      <c r="CN139" s="57">
+        <v>2</v>
+      </c>
+      <c r="CO139" s="99"/>
+      <c r="CP139" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ139" s="99"/>
+      <c r="CR139" s="57">
+        <v>97</v>
       </c>
     </row>
-    <row r="140" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B140" s="100" t="s">
         <v>40</v>
       </c>
@@ -52514,16 +53003,19 @@
       <c r="CM140" s="57">
         <v>0</v>
       </c>
-      <c r="CN140" s="99"/>
-      <c r="CO140" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP140" s="99"/>
-      <c r="CQ140" s="57">
+      <c r="CN140" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO140" s="99"/>
+      <c r="CP140" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ140" s="99"/>
+      <c r="CR140" s="57">
         <v>186</v>
       </c>
     </row>
-    <row r="141" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B141" s="100" t="s">
         <v>40</v>
       </c>
@@ -52792,16 +53284,19 @@
       <c r="CM141" s="57">
         <v>0</v>
       </c>
-      <c r="CN141" s="99"/>
-      <c r="CO141" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP141" s="99"/>
-      <c r="CQ141" s="57">
+      <c r="CN141" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO141" s="99"/>
+      <c r="CP141" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ141" s="99"/>
+      <c r="CR141" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B142" s="100" t="s">
         <v>40</v>
       </c>
@@ -53070,16 +53565,19 @@
       <c r="CM142" s="57">
         <v>0</v>
       </c>
-      <c r="CN142" s="99"/>
-      <c r="CO142" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP142" s="99"/>
-      <c r="CQ142" s="57">
+      <c r="CN142" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO142" s="99"/>
+      <c r="CP142" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ142" s="99"/>
+      <c r="CR142" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B143" s="100" t="s">
         <v>40</v>
       </c>
@@ -53346,18 +53844,21 @@
         <v>1</v>
       </c>
       <c r="CM143" s="57">
-        <v>1</v>
-      </c>
-      <c r="CN143" s="99"/>
-      <c r="CO143" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP143" s="99"/>
-      <c r="CQ143" s="57">
-        <v>258</v>
+        <v>2</v>
+      </c>
+      <c r="CN143" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO143" s="99"/>
+      <c r="CP143" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ143" s="99"/>
+      <c r="CR143" s="57">
+        <v>260</v>
       </c>
     </row>
-    <row r="144" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B144" s="100" t="s">
         <v>40</v>
       </c>
@@ -53626,16 +54127,19 @@
       <c r="CM144" s="57">
         <v>0</v>
       </c>
-      <c r="CN144" s="99"/>
-      <c r="CO144" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP144" s="99"/>
-      <c r="CQ144" s="57">
+      <c r="CN144" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO144" s="99"/>
+      <c r="CP144" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ144" s="99"/>
+      <c r="CR144" s="57">
         <v>223</v>
       </c>
     </row>
-    <row r="145" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B145" s="100" t="s">
         <v>40</v>
       </c>
@@ -53902,18 +54406,21 @@
         <v>0</v>
       </c>
       <c r="CM145" s="57">
-        <v>1</v>
-      </c>
-      <c r="CN145" s="99"/>
-      <c r="CO145" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP145" s="99"/>
-      <c r="CQ145" s="57">
-        <v>316</v>
+        <v>2</v>
+      </c>
+      <c r="CN145" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO145" s="99"/>
+      <c r="CP145" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ145" s="99"/>
+      <c r="CR145" s="57">
+        <v>317</v>
       </c>
     </row>
-    <row r="146" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B146" s="100" t="s">
         <v>40</v>
       </c>
@@ -54182,16 +54689,19 @@
       <c r="CM146" s="57">
         <v>0</v>
       </c>
-      <c r="CN146" s="99"/>
-      <c r="CO146" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP146" s="99"/>
-      <c r="CQ146" s="57">
+      <c r="CN146" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO146" s="99"/>
+      <c r="CP146" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ146" s="99"/>
+      <c r="CR146" s="57">
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B147" s="100" t="s">
         <v>40</v>
       </c>
@@ -54460,16 +54970,19 @@
       <c r="CM147" s="57">
         <v>0</v>
       </c>
-      <c r="CN147" s="99"/>
-      <c r="CO147" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP147" s="99"/>
-      <c r="CQ147" s="57">
+      <c r="CN147" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO147" s="99"/>
+      <c r="CP147" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ147" s="99"/>
+      <c r="CR147" s="57">
         <v>110</v>
       </c>
     </row>
-    <row r="148" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B148" s="100" t="s">
         <v>40</v>
       </c>
@@ -54736,18 +55249,21 @@
         <v>2</v>
       </c>
       <c r="CM148" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN148" s="99"/>
-      <c r="CO148" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP148" s="99"/>
-      <c r="CQ148" s="57">
-        <v>151</v>
+        <v>1</v>
+      </c>
+      <c r="CN148" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO148" s="99"/>
+      <c r="CP148" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ148" s="99"/>
+      <c r="CR148" s="57">
+        <v>153</v>
       </c>
     </row>
-    <row r="149" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B149" s="100" t="s">
         <v>40</v>
       </c>
@@ -55016,16 +55532,19 @@
       <c r="CM149" s="57">
         <v>0</v>
       </c>
-      <c r="CN149" s="99"/>
-      <c r="CO149" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP149" s="99"/>
-      <c r="CQ149" s="57">
+      <c r="CN149" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO149" s="99"/>
+      <c r="CP149" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ149" s="99"/>
+      <c r="CR149" s="57">
         <v>201</v>
       </c>
     </row>
-    <row r="150" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B150" s="100" t="s">
         <v>41</v>
       </c>
@@ -55294,16 +55813,19 @@
       <c r="CM150" s="57">
         <v>0</v>
       </c>
-      <c r="CN150" s="99"/>
-      <c r="CO150" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP150" s="99"/>
-      <c r="CQ150" s="57">
+      <c r="CN150" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO150" s="99"/>
+      <c r="CP150" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ150" s="99"/>
+      <c r="CR150" s="57">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B151" s="100" t="s">
         <v>41</v>
       </c>
@@ -55570,18 +56092,21 @@
         <v>3</v>
       </c>
       <c r="CM151" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN151" s="99"/>
-      <c r="CO151" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP151" s="99"/>
-      <c r="CQ151" s="57">
-        <v>174</v>
+        <v>1</v>
+      </c>
+      <c r="CN151" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO151" s="99"/>
+      <c r="CP151" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ151" s="99"/>
+      <c r="CR151" s="57">
+        <v>175</v>
       </c>
     </row>
-    <row r="152" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B152" s="100" t="s">
         <v>41</v>
       </c>
@@ -55842,24 +56367,27 @@
         <v>1</v>
       </c>
       <c r="CK152" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CL152" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM152" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN152" s="99"/>
-      <c r="CO152" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP152" s="99"/>
-      <c r="CQ152" s="57">
-        <v>205</v>
+        <v>2</v>
+      </c>
+      <c r="CN152" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO152" s="99"/>
+      <c r="CP152" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ152" s="99"/>
+      <c r="CR152" s="57">
+        <v>209</v>
       </c>
     </row>
-    <row r="153" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B153" s="100" t="s">
         <v>41</v>
       </c>
@@ -56128,16 +56656,19 @@
       <c r="CM153" s="57">
         <v>0</v>
       </c>
-      <c r="CN153" s="99"/>
-      <c r="CO153" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP153" s="99"/>
-      <c r="CQ153" s="57">
+      <c r="CN153" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO153" s="99"/>
+      <c r="CP153" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ153" s="99"/>
+      <c r="CR153" s="57">
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B154" s="100" t="s">
         <v>41</v>
       </c>
@@ -56401,21 +56932,24 @@
         <v>0</v>
       </c>
       <c r="CL154" s="57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CM154" s="57">
         <v>0</v>
       </c>
-      <c r="CN154" s="99"/>
-      <c r="CO154" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP154" s="99"/>
-      <c r="CQ154" s="57">
-        <v>165</v>
+      <c r="CN154" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO154" s="99"/>
+      <c r="CP154" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ154" s="99"/>
+      <c r="CR154" s="57">
+        <v>167</v>
       </c>
     </row>
-    <row r="155" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B155" s="100" t="s">
         <v>41</v>
       </c>
@@ -56684,16 +57218,19 @@
       <c r="CM155" s="57">
         <v>0</v>
       </c>
-      <c r="CN155" s="99"/>
-      <c r="CO155" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP155" s="99"/>
-      <c r="CQ155" s="57">
+      <c r="CN155" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO155" s="99"/>
+      <c r="CP155" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ155" s="99"/>
+      <c r="CR155" s="57">
         <v>111</v>
       </c>
     </row>
-    <row r="156" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B156" s="100" t="s">
         <v>41</v>
       </c>
@@ -56954,7 +57491,7 @@
         <v>0</v>
       </c>
       <c r="CK156" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL156" s="57">
         <v>0</v>
@@ -56962,16 +57499,19 @@
       <c r="CM156" s="57">
         <v>0</v>
       </c>
-      <c r="CN156" s="99"/>
-      <c r="CO156" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP156" s="99"/>
-      <c r="CQ156" s="57">
-        <v>177</v>
+      <c r="CN156" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO156" s="99"/>
+      <c r="CP156" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ156" s="99"/>
+      <c r="CR156" s="57">
+        <v>178</v>
       </c>
     </row>
-    <row r="157" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B157" s="100" t="s">
         <v>41</v>
       </c>
@@ -57240,16 +57780,19 @@
       <c r="CM157" s="57">
         <v>0</v>
       </c>
-      <c r="CN157" s="99"/>
-      <c r="CO157" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP157" s="99"/>
-      <c r="CQ157" s="57">
+      <c r="CN157" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO157" s="99"/>
+      <c r="CP157" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ157" s="99"/>
+      <c r="CR157" s="57">
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B158" s="100" t="s">
         <v>41</v>
       </c>
@@ -57510,24 +58053,27 @@
         <v>0</v>
       </c>
       <c r="CK158" s="57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CL158" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM158" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN158" s="99"/>
-      <c r="CO158" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP158" s="99"/>
-      <c r="CQ158" s="57">
-        <v>192</v>
+        <v>5</v>
+      </c>
+      <c r="CN158" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO158" s="99"/>
+      <c r="CP158" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ158" s="99"/>
+      <c r="CR158" s="57">
+        <v>199</v>
       </c>
     </row>
-    <row r="159" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B159" s="100" t="s">
         <v>41</v>
       </c>
@@ -57796,16 +58342,19 @@
       <c r="CM159" s="57">
         <v>0</v>
       </c>
-      <c r="CN159" s="99"/>
-      <c r="CO159" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP159" s="99"/>
-      <c r="CQ159" s="57">
+      <c r="CN159" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO159" s="99"/>
+      <c r="CP159" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ159" s="99"/>
+      <c r="CR159" s="57">
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B160" s="100" t="s">
         <v>41</v>
       </c>
@@ -57934,13 +58483,13 @@
         <v>21</v>
       </c>
       <c r="AS160" s="57">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT160" s="57">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU160" s="57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV160" s="57">
         <v>11</v>
@@ -58024,7 +58573,7 @@
         <v>2</v>
       </c>
       <c r="BW160" s="57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BX160" s="57">
         <v>1</v>
@@ -58074,16 +58623,19 @@
       <c r="CM160" s="57">
         <v>0</v>
       </c>
-      <c r="CN160" s="99"/>
-      <c r="CO160" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP160" s="99"/>
-      <c r="CQ160" s="57">
-        <v>408</v>
+      <c r="CN160" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO160" s="99"/>
+      <c r="CP160" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ160" s="99"/>
+      <c r="CR160" s="57">
+        <v>413</v>
       </c>
     </row>
-    <row r="161" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B161" s="100" t="s">
         <v>41</v>
       </c>
@@ -58347,21 +58899,24 @@
         <v>3</v>
       </c>
       <c r="CL161" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CM161" s="57">
         <v>0</v>
       </c>
-      <c r="CN161" s="99"/>
-      <c r="CO161" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP161" s="99"/>
-      <c r="CQ161" s="57">
-        <v>367</v>
+      <c r="CN161" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO161" s="99"/>
+      <c r="CP161" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ161" s="99"/>
+      <c r="CR161" s="57">
+        <v>368</v>
       </c>
     </row>
-    <row r="162" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B162" s="100" t="s">
         <v>41</v>
       </c>
@@ -58630,16 +59185,19 @@
       <c r="CM162" s="57">
         <v>0</v>
       </c>
-      <c r="CN162" s="99"/>
-      <c r="CO162" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP162" s="99"/>
-      <c r="CQ162" s="57">
+      <c r="CN162" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO162" s="99"/>
+      <c r="CP162" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ162" s="99"/>
+      <c r="CR162" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B163" s="100" t="s">
         <v>41</v>
       </c>
@@ -58908,16 +59466,19 @@
       <c r="CM163" s="57">
         <v>0</v>
       </c>
-      <c r="CN163" s="99"/>
-      <c r="CO163" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP163" s="99"/>
-      <c r="CQ163" s="57">
+      <c r="CN163" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO163" s="99"/>
+      <c r="CP163" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ163" s="99"/>
+      <c r="CR163" s="57">
         <v>168</v>
       </c>
     </row>
-    <row r="164" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B164" s="100" t="s">
         <v>41</v>
       </c>
@@ -59186,16 +59747,19 @@
       <c r="CM164" s="57">
         <v>0</v>
       </c>
-      <c r="CN164" s="99"/>
-      <c r="CO164" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP164" s="99"/>
-      <c r="CQ164" s="57">
+      <c r="CN164" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO164" s="99"/>
+      <c r="CP164" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ164" s="99"/>
+      <c r="CR164" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B165" s="100" t="s">
         <v>41</v>
       </c>
@@ -59464,16 +60028,19 @@
       <c r="CM165" s="57">
         <v>0</v>
       </c>
-      <c r="CN165" s="99"/>
-      <c r="CO165" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP165" s="99"/>
-      <c r="CQ165" s="57">
+      <c r="CN165" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO165" s="99"/>
+      <c r="CP165" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ165" s="99"/>
+      <c r="CR165" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B166" s="100" t="s">
         <v>41</v>
       </c>
@@ -59740,18 +60307,21 @@
         <v>1</v>
       </c>
       <c r="CM166" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN166" s="99"/>
-      <c r="CO166" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP166" s="99"/>
-      <c r="CQ166" s="57">
-        <v>417</v>
+        <v>1</v>
+      </c>
+      <c r="CN166" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO166" s="99"/>
+      <c r="CP166" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ166" s="99"/>
+      <c r="CR166" s="57">
+        <v>418</v>
       </c>
     </row>
-    <row r="167" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B167" s="100" t="s">
         <v>41</v>
       </c>
@@ -60020,16 +60590,19 @@
       <c r="CM167" s="57">
         <v>0</v>
       </c>
-      <c r="CN167" s="99"/>
-      <c r="CO167" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP167" s="99"/>
-      <c r="CQ167" s="57">
+      <c r="CN167" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO167" s="99"/>
+      <c r="CP167" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ167" s="99"/>
+      <c r="CR167" s="57">
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B168" s="100" t="s">
         <v>41</v>
       </c>
@@ -60298,16 +60871,19 @@
       <c r="CM168" s="57">
         <v>0</v>
       </c>
-      <c r="CN168" s="99"/>
-      <c r="CO168" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP168" s="99"/>
-      <c r="CQ168" s="57">
+      <c r="CN168" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO168" s="99"/>
+      <c r="CP168" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ168" s="99"/>
+      <c r="CR168" s="57">
         <v>165</v>
       </c>
     </row>
-    <row r="169" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B169" s="100" t="s">
         <v>41</v>
       </c>
@@ -60576,16 +61152,19 @@
       <c r="CM169" s="57">
         <v>1</v>
       </c>
-      <c r="CN169" s="99"/>
-      <c r="CO169" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP169" s="99"/>
-      <c r="CQ169" s="57">
+      <c r="CN169" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO169" s="99"/>
+      <c r="CP169" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ169" s="99"/>
+      <c r="CR169" s="57">
         <v>135</v>
       </c>
     </row>
-    <row r="170" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B170" s="100" t="s">
         <v>41</v>
       </c>
@@ -60849,21 +61428,24 @@
         <v>0</v>
       </c>
       <c r="CL170" s="57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CM170" s="57">
         <v>0</v>
       </c>
-      <c r="CN170" s="99"/>
-      <c r="CO170" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP170" s="99"/>
-      <c r="CQ170" s="57">
-        <v>183</v>
+      <c r="CN170" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO170" s="99"/>
+      <c r="CP170" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ170" s="99"/>
+      <c r="CR170" s="57">
+        <v>185</v>
       </c>
     </row>
-    <row r="171" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B171" s="100" t="s">
         <v>41</v>
       </c>
@@ -61124,24 +61706,27 @@
         <v>1</v>
       </c>
       <c r="CK171" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL171" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM171" s="57">
         <v>0</v>
       </c>
-      <c r="CN171" s="99"/>
-      <c r="CO171" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP171" s="99"/>
-      <c r="CQ171" s="57">
-        <v>179</v>
+      <c r="CN171" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO171" s="99"/>
+      <c r="CP171" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ171" s="99"/>
+      <c r="CR171" s="57">
+        <v>181</v>
       </c>
     </row>
-    <row r="172" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B172" s="100" t="s">
         <v>41</v>
       </c>
@@ -61408,18 +61993,21 @@
         <v>0</v>
       </c>
       <c r="CM172" s="57">
-        <v>1</v>
-      </c>
-      <c r="CN172" s="99"/>
-      <c r="CO172" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP172" s="99"/>
-      <c r="CQ172" s="57">
-        <v>146</v>
+        <v>2</v>
+      </c>
+      <c r="CN172" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO172" s="99"/>
+      <c r="CP172" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ172" s="99"/>
+      <c r="CR172" s="57">
+        <v>148</v>
       </c>
     </row>
-    <row r="173" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B173" s="100" t="s">
         <v>41</v>
       </c>
@@ -61688,16 +62276,19 @@
       <c r="CM173" s="57">
         <v>0</v>
       </c>
-      <c r="CN173" s="99"/>
-      <c r="CO173" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP173" s="99"/>
-      <c r="CQ173" s="57">
+      <c r="CN173" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO173" s="99"/>
+      <c r="CP173" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ173" s="99"/>
+      <c r="CR173" s="57">
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B174" s="100" t="s">
         <v>41</v>
       </c>
@@ -61966,16 +62557,19 @@
       <c r="CM174" s="57">
         <v>0</v>
       </c>
-      <c r="CN174" s="99"/>
-      <c r="CO174" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP174" s="99"/>
-      <c r="CQ174" s="57">
+      <c r="CN174" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO174" s="99"/>
+      <c r="CP174" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ174" s="99"/>
+      <c r="CR174" s="57">
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B175" s="100" t="s">
         <v>41</v>
       </c>
@@ -62244,16 +62838,19 @@
       <c r="CM175" s="57">
         <v>0</v>
       </c>
-      <c r="CN175" s="99"/>
-      <c r="CO175" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP175" s="99"/>
-      <c r="CQ175" s="57">
-        <v>159</v>
+      <c r="CN175" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO175" s="99"/>
+      <c r="CP175" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ175" s="99"/>
+      <c r="CR175" s="57">
+        <v>160</v>
       </c>
     </row>
-    <row r="176" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B176" s="100" t="s">
         <v>41</v>
       </c>
@@ -62522,16 +63119,19 @@
       <c r="CM176" s="57">
         <v>0</v>
       </c>
-      <c r="CN176" s="99"/>
-      <c r="CO176" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP176" s="99"/>
-      <c r="CQ176" s="57">
+      <c r="CN176" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO176" s="99"/>
+      <c r="CP176" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ176" s="99"/>
+      <c r="CR176" s="57">
         <v>116</v>
       </c>
     </row>
-    <row r="177" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B177" s="100" t="s">
         <v>41</v>
       </c>
@@ -62800,16 +63400,19 @@
       <c r="CM177" s="57">
         <v>0</v>
       </c>
-      <c r="CN177" s="99"/>
-      <c r="CO177" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP177" s="99"/>
-      <c r="CQ177" s="57">
+      <c r="CN177" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO177" s="99"/>
+      <c r="CP177" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ177" s="99"/>
+      <c r="CR177" s="57">
         <v>205</v>
       </c>
     </row>
-    <row r="178" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B178" s="100" t="s">
         <v>41</v>
       </c>
@@ -63073,21 +63676,24 @@
         <v>1</v>
       </c>
       <c r="CL178" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CM178" s="57">
         <v>0</v>
       </c>
-      <c r="CN178" s="99"/>
-      <c r="CO178" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP178" s="99"/>
-      <c r="CQ178" s="57">
-        <v>237</v>
+      <c r="CN178" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO178" s="99"/>
+      <c r="CP178" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ178" s="99"/>
+      <c r="CR178" s="57">
+        <v>238</v>
       </c>
     </row>
-    <row r="179" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B179" s="100" t="s">
         <v>42</v>
       </c>
@@ -63356,16 +63962,19 @@
       <c r="CM179" s="57">
         <v>0</v>
       </c>
-      <c r="CN179" s="99"/>
-      <c r="CO179" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP179" s="99"/>
-      <c r="CQ179" s="57">
+      <c r="CN179" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO179" s="99"/>
+      <c r="CP179" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ179" s="99"/>
+      <c r="CR179" s="57">
         <v>162</v>
       </c>
     </row>
-    <row r="180" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B180" s="100" t="s">
         <v>42</v>
       </c>
@@ -63634,16 +64243,19 @@
       <c r="CM180" s="57">
         <v>1</v>
       </c>
-      <c r="CN180" s="99"/>
-      <c r="CO180" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP180" s="99"/>
-      <c r="CQ180" s="57">
+      <c r="CN180" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO180" s="99"/>
+      <c r="CP180" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ180" s="99"/>
+      <c r="CR180" s="57">
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B181" s="105" t="s">
         <v>42</v>
       </c>
@@ -63912,16 +64524,19 @@
       <c r="CM181" s="57">
         <v>0</v>
       </c>
-      <c r="CN181" s="99"/>
-      <c r="CO181" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP181" s="99"/>
-      <c r="CQ181" s="57">
+      <c r="CN181" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO181" s="99"/>
+      <c r="CP181" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ181" s="99"/>
+      <c r="CR181" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B182" s="100" t="s">
         <v>42</v>
       </c>
@@ -64190,16 +64805,19 @@
       <c r="CM182" s="57">
         <v>0</v>
       </c>
-      <c r="CN182" s="99"/>
-      <c r="CO182" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP182" s="99"/>
-      <c r="CQ182" s="57">
+      <c r="CN182" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO182" s="99"/>
+      <c r="CP182" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ182" s="99"/>
+      <c r="CR182" s="57">
         <v>123</v>
       </c>
     </row>
-    <row r="183" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B183" s="100" t="s">
         <v>42</v>
       </c>
@@ -64468,16 +65086,19 @@
       <c r="CM183" s="57">
         <v>0</v>
       </c>
-      <c r="CN183" s="99"/>
-      <c r="CO183" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP183" s="99"/>
-      <c r="CQ183" s="57">
+      <c r="CN183" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO183" s="99"/>
+      <c r="CP183" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ183" s="99"/>
+      <c r="CR183" s="57">
         <v>113</v>
       </c>
     </row>
-    <row r="184" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B184" s="100" t="s">
         <v>42</v>
       </c>
@@ -64746,16 +65367,19 @@
       <c r="CM184" s="57">
         <v>0</v>
       </c>
-      <c r="CN184" s="99"/>
-      <c r="CO184" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP184" s="99"/>
-      <c r="CQ184" s="57">
+      <c r="CN184" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO184" s="99"/>
+      <c r="CP184" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ184" s="99"/>
+      <c r="CR184" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B185" s="100" t="s">
         <v>42</v>
       </c>
@@ -65024,16 +65648,19 @@
       <c r="CM185" s="57">
         <v>0</v>
       </c>
-      <c r="CN185" s="99"/>
-      <c r="CO185" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP185" s="99"/>
-      <c r="CQ185" s="57">
+      <c r="CN185" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO185" s="99"/>
+      <c r="CP185" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ185" s="99"/>
+      <c r="CR185" s="57">
         <v>170</v>
       </c>
     </row>
-    <row r="186" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B186" s="100" t="s">
         <v>42</v>
       </c>
@@ -65294,24 +65921,27 @@
         <v>3</v>
       </c>
       <c r="CK186" s="57">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CL186" s="57">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CM186" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN186" s="99"/>
-      <c r="CO186" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP186" s="99"/>
-      <c r="CQ186" s="57">
-        <v>264</v>
+        <v>1</v>
+      </c>
+      <c r="CN186" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO186" s="99"/>
+      <c r="CP186" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ186" s="99"/>
+      <c r="CR186" s="57">
+        <v>273</v>
       </c>
     </row>
-    <row r="187" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B187" s="100" t="s">
         <v>42</v>
       </c>
@@ -65580,16 +66210,19 @@
       <c r="CM187" s="57">
         <v>0</v>
       </c>
-      <c r="CN187" s="99"/>
-      <c r="CO187" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP187" s="99"/>
-      <c r="CQ187" s="57">
+      <c r="CN187" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO187" s="99"/>
+      <c r="CP187" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ187" s="99"/>
+      <c r="CR187" s="57">
         <v>80</v>
       </c>
     </row>
-    <row r="188" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B188" s="100" t="s">
         <v>42</v>
       </c>
@@ -65853,21 +66486,24 @@
         <v>1</v>
       </c>
       <c r="CL188" s="57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CM188" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN188" s="99"/>
-      <c r="CO188" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP188" s="99"/>
-      <c r="CQ188" s="57">
-        <v>333</v>
+        <v>2</v>
+      </c>
+      <c r="CN188" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO188" s="99"/>
+      <c r="CP188" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ188" s="99"/>
+      <c r="CR188" s="57">
+        <v>337</v>
       </c>
     </row>
-    <row r="189" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B189" s="100" t="s">
         <v>42</v>
       </c>
@@ -66136,16 +66772,19 @@
       <c r="CM189" s="57">
         <v>0</v>
       </c>
-      <c r="CN189" s="99"/>
-      <c r="CO189" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP189" s="99"/>
-      <c r="CQ189" s="57">
+      <c r="CN189" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO189" s="99"/>
+      <c r="CP189" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ189" s="99"/>
+      <c r="CR189" s="57">
         <v>152</v>
       </c>
     </row>
-    <row r="190" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B190" s="100" t="s">
         <v>42</v>
       </c>
@@ -66409,21 +67048,24 @@
         <v>0</v>
       </c>
       <c r="CL190" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CM190" s="57">
         <v>0</v>
       </c>
-      <c r="CN190" s="99"/>
-      <c r="CO190" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP190" s="99"/>
-      <c r="CQ190" s="57">
-        <v>36</v>
+      <c r="CN190" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO190" s="99"/>
+      <c r="CP190" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ190" s="99"/>
+      <c r="CR190" s="57">
+        <v>37</v>
       </c>
     </row>
-    <row r="191" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B191" s="100" t="s">
         <v>42</v>
       </c>
@@ -66692,16 +67334,19 @@
       <c r="CM191" s="57">
         <v>0</v>
       </c>
-      <c r="CN191" s="99"/>
-      <c r="CO191" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP191" s="99"/>
-      <c r="CQ191" s="57">
+      <c r="CN191" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO191" s="99"/>
+      <c r="CP191" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ191" s="99"/>
+      <c r="CR191" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B192" s="100" t="s">
         <v>42</v>
       </c>
@@ -66970,16 +67615,19 @@
       <c r="CM192" s="57">
         <v>0</v>
       </c>
-      <c r="CN192" s="99"/>
-      <c r="CO192" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP192" s="99"/>
-      <c r="CQ192" s="57">
+      <c r="CN192" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO192" s="99"/>
+      <c r="CP192" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ192" s="99"/>
+      <c r="CR192" s="57">
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B193" s="100" t="s">
         <v>42</v>
       </c>
@@ -67248,16 +67896,19 @@
       <c r="CM193" s="57">
         <v>0</v>
       </c>
-      <c r="CN193" s="99"/>
-      <c r="CO193" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP193" s="99"/>
-      <c r="CQ193" s="57">
+      <c r="CN193" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO193" s="99"/>
+      <c r="CP193" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ193" s="99"/>
+      <c r="CR193" s="57">
         <v>101</v>
       </c>
     </row>
-    <row r="194" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B194" s="100" t="s">
         <v>42</v>
       </c>
@@ -67526,16 +68177,19 @@
       <c r="CM194" s="57">
         <v>0</v>
       </c>
-      <c r="CN194" s="99"/>
-      <c r="CO194" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP194" s="99"/>
-      <c r="CQ194" s="57">
+      <c r="CN194" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO194" s="99"/>
+      <c r="CP194" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ194" s="99"/>
+      <c r="CR194" s="57">
         <v>152</v>
       </c>
     </row>
-    <row r="195" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B195" s="100" t="s">
         <v>42</v>
       </c>
@@ -67804,16 +68458,19 @@
       <c r="CM195" s="57">
         <v>0</v>
       </c>
-      <c r="CN195" s="99"/>
-      <c r="CO195" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP195" s="99"/>
-      <c r="CQ195" s="57">
+      <c r="CN195" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO195" s="99"/>
+      <c r="CP195" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ195" s="99"/>
+      <c r="CR195" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B196" s="100" t="s">
         <v>42</v>
       </c>
@@ -68082,16 +68739,19 @@
       <c r="CM196" s="57">
         <v>0</v>
       </c>
-      <c r="CN196" s="99"/>
-      <c r="CO196" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP196" s="99"/>
-      <c r="CQ196" s="57">
+      <c r="CN196" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO196" s="99"/>
+      <c r="CP196" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ196" s="99"/>
+      <c r="CR196" s="57">
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B197" s="100" t="s">
         <v>42</v>
       </c>
@@ -68360,16 +69020,19 @@
       <c r="CM197" s="57">
         <v>0</v>
       </c>
-      <c r="CN197" s="99"/>
-      <c r="CO197" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP197" s="99"/>
-      <c r="CQ197" s="57">
+      <c r="CN197" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO197" s="99"/>
+      <c r="CP197" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ197" s="99"/>
+      <c r="CR197" s="57">
         <v>177</v>
       </c>
     </row>
-    <row r="198" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B198" s="100" t="s">
         <v>42</v>
       </c>
@@ -68638,16 +69301,19 @@
       <c r="CM198" s="57">
         <v>0</v>
       </c>
-      <c r="CN198" s="99"/>
-      <c r="CO198" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP198" s="99"/>
-      <c r="CQ198" s="57">
+      <c r="CN198" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO198" s="99"/>
+      <c r="CP198" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ198" s="99"/>
+      <c r="CR198" s="57">
         <v>222</v>
       </c>
     </row>
-    <row r="199" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B199" s="100" t="s">
         <v>42</v>
       </c>
@@ -68916,16 +69582,19 @@
       <c r="CM199" s="57">
         <v>1</v>
       </c>
-      <c r="CN199" s="99"/>
-      <c r="CO199" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP199" s="99"/>
-      <c r="CQ199" s="57">
+      <c r="CN199" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO199" s="99"/>
+      <c r="CP199" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ199" s="99"/>
+      <c r="CR199" s="57">
         <v>172</v>
       </c>
     </row>
-    <row r="200" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B200" s="100" t="s">
         <v>42</v>
       </c>
@@ -69194,16 +69863,19 @@
       <c r="CM200" s="57">
         <v>0</v>
       </c>
-      <c r="CN200" s="99"/>
-      <c r="CO200" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP200" s="99"/>
-      <c r="CQ200" s="57">
+      <c r="CN200" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO200" s="99"/>
+      <c r="CP200" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ200" s="99"/>
+      <c r="CR200" s="57">
         <v>94</v>
       </c>
     </row>
-    <row r="201" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B201" s="100" t="s">
         <v>42</v>
       </c>
@@ -69472,16 +70144,19 @@
       <c r="CM201" s="57">
         <v>0</v>
       </c>
-      <c r="CN201" s="99"/>
-      <c r="CO201" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP201" s="99"/>
-      <c r="CQ201" s="57">
+      <c r="CN201" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO201" s="99"/>
+      <c r="CP201" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ201" s="99"/>
+      <c r="CR201" s="57">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B202" s="100" t="s">
         <v>42</v>
       </c>
@@ -69750,16 +70425,19 @@
       <c r="CM202" s="57">
         <v>0</v>
       </c>
-      <c r="CN202" s="99"/>
-      <c r="CO202" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP202" s="99"/>
-      <c r="CQ202" s="57">
+      <c r="CN202" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO202" s="99"/>
+      <c r="CP202" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ202" s="99"/>
+      <c r="CR202" s="57">
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B203" s="100" t="s">
         <v>42</v>
       </c>
@@ -70028,16 +70706,19 @@
       <c r="CM203" s="57">
         <v>0</v>
       </c>
-      <c r="CN203" s="99"/>
-      <c r="CO203" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP203" s="99"/>
-      <c r="CQ203" s="57">
+      <c r="CN203" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO203" s="99"/>
+      <c r="CP203" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ203" s="99"/>
+      <c r="CR203" s="57">
         <v>240</v>
       </c>
     </row>
-    <row r="204" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B204" s="100" t="s">
         <v>42</v>
       </c>
@@ -70306,16 +70987,19 @@
       <c r="CM204" s="57">
         <v>0</v>
       </c>
-      <c r="CN204" s="99"/>
-      <c r="CO204" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP204" s="99"/>
-      <c r="CQ204" s="57">
+      <c r="CN204" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO204" s="99"/>
+      <c r="CP204" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ204" s="99"/>
+      <c r="CR204" s="57">
         <v>15</v>
       </c>
     </row>
-    <row r="205" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B205" s="100" t="s">
         <v>42</v>
       </c>
@@ -70584,16 +71268,19 @@
       <c r="CM205" s="57">
         <v>0</v>
       </c>
-      <c r="CN205" s="99"/>
-      <c r="CO205" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP205" s="99"/>
-      <c r="CQ205" s="57">
+      <c r="CN205" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO205" s="99"/>
+      <c r="CP205" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ205" s="99"/>
+      <c r="CR205" s="57">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B206" s="100" t="s">
         <v>42</v>
       </c>
@@ -70862,16 +71549,19 @@
       <c r="CM206" s="57">
         <v>0</v>
       </c>
-      <c r="CN206" s="99"/>
-      <c r="CO206" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP206" s="99"/>
-      <c r="CQ206" s="57">
+      <c r="CN206" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO206" s="99"/>
+      <c r="CP206" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ206" s="99"/>
+      <c r="CR206" s="57">
         <v>181</v>
       </c>
     </row>
-    <row r="207" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B207" s="100" t="s">
         <v>42</v>
       </c>
@@ -71140,16 +71830,19 @@
       <c r="CM207" s="57">
         <v>0</v>
       </c>
-      <c r="CN207" s="99"/>
-      <c r="CO207" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP207" s="99"/>
-      <c r="CQ207" s="57">
+      <c r="CN207" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO207" s="99"/>
+      <c r="CP207" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ207" s="99"/>
+      <c r="CR207" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B208" s="100" t="s">
         <v>42</v>
       </c>
@@ -71418,16 +72111,19 @@
       <c r="CM208" s="57">
         <v>0</v>
       </c>
-      <c r="CN208" s="99"/>
-      <c r="CO208" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP208" s="99"/>
-      <c r="CQ208" s="57">
+      <c r="CN208" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO208" s="99"/>
+      <c r="CP208" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ208" s="99"/>
+      <c r="CR208" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B209" s="100" t="s">
         <v>42</v>
       </c>
@@ -71696,16 +72392,19 @@
       <c r="CM209" s="57">
         <v>0</v>
       </c>
-      <c r="CN209" s="99"/>
-      <c r="CO209" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP209" s="99"/>
-      <c r="CQ209" s="57">
+      <c r="CN209" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO209" s="99"/>
+      <c r="CP209" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ209" s="99"/>
+      <c r="CR209" s="57">
         <v>101</v>
       </c>
     </row>
-    <row r="210" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B210" s="100" t="s">
         <v>43</v>
       </c>
@@ -71974,16 +72673,19 @@
       <c r="CM210" s="57">
         <v>0</v>
       </c>
-      <c r="CN210" s="99"/>
-      <c r="CO210" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP210" s="99"/>
-      <c r="CQ210" s="57">
+      <c r="CN210" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO210" s="99"/>
+      <c r="CP210" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ210" s="99"/>
+      <c r="CR210" s="57">
         <v>26</v>
       </c>
     </row>
-    <row r="211" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B211" s="100" t="s">
         <v>43</v>
       </c>
@@ -72252,16 +72954,19 @@
       <c r="CM211" s="57">
         <v>0</v>
       </c>
-      <c r="CN211" s="99"/>
-      <c r="CO211" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP211" s="99"/>
-      <c r="CQ211" s="57">
-        <v>23</v>
+      <c r="CN211" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO211" s="99"/>
+      <c r="CP211" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ211" s="99"/>
+      <c r="CR211" s="57">
+        <v>24</v>
       </c>
     </row>
-    <row r="212" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B212" s="100" t="s">
         <v>43</v>
       </c>
@@ -72530,16 +73235,19 @@
       <c r="CM212" s="57">
         <v>0</v>
       </c>
-      <c r="CN212" s="99"/>
-      <c r="CO212" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP212" s="99"/>
-      <c r="CQ212" s="57">
+      <c r="CN212" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO212" s="99"/>
+      <c r="CP212" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ212" s="99"/>
+      <c r="CR212" s="57">
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B213" s="100" t="s">
         <v>43</v>
       </c>
@@ -72808,16 +73516,19 @@
       <c r="CM213" s="57">
         <v>0</v>
       </c>
-      <c r="CN213" s="99"/>
-      <c r="CO213" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP213" s="99"/>
-      <c r="CQ213" s="57">
+      <c r="CN213" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO213" s="99"/>
+      <c r="CP213" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ213" s="99"/>
+      <c r="CR213" s="57">
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B214" s="100" t="s">
         <v>43</v>
       </c>
@@ -73086,16 +73797,19 @@
       <c r="CM214" s="57">
         <v>0</v>
       </c>
-      <c r="CN214" s="99"/>
-      <c r="CO214" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP214" s="99"/>
-      <c r="CQ214" s="57">
+      <c r="CN214" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO214" s="99"/>
+      <c r="CP214" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ214" s="99"/>
+      <c r="CR214" s="57">
         <v>187</v>
       </c>
     </row>
-    <row r="215" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B215" s="100" t="s">
         <v>43</v>
       </c>
@@ -73362,18 +74076,21 @@
         <v>0</v>
       </c>
       <c r="CM215" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN215" s="99"/>
-      <c r="CO215" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP215" s="99"/>
-      <c r="CQ215" s="57">
-        <v>111</v>
+        <v>1</v>
+      </c>
+      <c r="CN215" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO215" s="99"/>
+      <c r="CP215" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ215" s="99"/>
+      <c r="CR215" s="57">
+        <v>112</v>
       </c>
     </row>
-    <row r="216" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B216" s="100" t="s">
         <v>43</v>
       </c>
@@ -73642,16 +74359,19 @@
       <c r="CM216" s="57">
         <v>0</v>
       </c>
-      <c r="CN216" s="99"/>
-      <c r="CO216" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP216" s="99"/>
-      <c r="CQ216" s="57">
+      <c r="CN216" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO216" s="99"/>
+      <c r="CP216" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ216" s="99"/>
+      <c r="CR216" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B217" s="100" t="s">
         <v>43</v>
       </c>
@@ -73920,16 +74640,19 @@
       <c r="CM217" s="57">
         <v>0</v>
       </c>
-      <c r="CN217" s="99"/>
-      <c r="CO217" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP217" s="99"/>
-      <c r="CQ217" s="57">
+      <c r="CN217" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO217" s="99"/>
+      <c r="CP217" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ217" s="99"/>
+      <c r="CR217" s="57">
         <v>113</v>
       </c>
     </row>
-    <row r="218" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B218" s="100" t="s">
         <v>43</v>
       </c>
@@ -74198,16 +74921,19 @@
       <c r="CM218" s="57">
         <v>0</v>
       </c>
-      <c r="CN218" s="99"/>
-      <c r="CO218" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP218" s="99"/>
-      <c r="CQ218" s="57">
+      <c r="CN218" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO218" s="99"/>
+      <c r="CP218" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ218" s="99"/>
+      <c r="CR218" s="57">
         <v>20</v>
       </c>
     </row>
-    <row r="219" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B219" s="100" t="s">
         <v>43</v>
       </c>
@@ -74476,16 +75202,19 @@
       <c r="CM219" s="57">
         <v>0</v>
       </c>
-      <c r="CN219" s="99"/>
-      <c r="CO219" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP219" s="99"/>
-      <c r="CQ219" s="57">
+      <c r="CN219" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO219" s="99"/>
+      <c r="CP219" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ219" s="99"/>
+      <c r="CR219" s="57">
         <v>45</v>
       </c>
     </row>
-    <row r="220" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B220" s="100" t="s">
         <v>43</v>
       </c>
@@ -74754,16 +75483,19 @@
       <c r="CM220" s="57">
         <v>0</v>
       </c>
-      <c r="CN220" s="99"/>
-      <c r="CO220" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP220" s="99"/>
-      <c r="CQ220" s="57">
+      <c r="CN220" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO220" s="99"/>
+      <c r="CP220" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ220" s="99"/>
+      <c r="CR220" s="57">
         <v>60</v>
       </c>
     </row>
-    <row r="221" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B221" s="100" t="s">
         <v>43</v>
       </c>
@@ -75032,16 +75764,19 @@
       <c r="CM221" s="57">
         <v>0</v>
       </c>
-      <c r="CN221" s="99"/>
-      <c r="CO221" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP221" s="99"/>
-      <c r="CQ221" s="57">
+      <c r="CN221" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO221" s="99"/>
+      <c r="CP221" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ221" s="99"/>
+      <c r="CR221" s="57">
         <v>42</v>
       </c>
     </row>
-    <row r="222" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B222" s="100" t="s">
         <v>43</v>
       </c>
@@ -75310,16 +76045,19 @@
       <c r="CM222" s="57">
         <v>0</v>
       </c>
-      <c r="CN222" s="99"/>
-      <c r="CO222" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP222" s="99"/>
-      <c r="CQ222" s="57">
+      <c r="CN222" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO222" s="99"/>
+      <c r="CP222" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ222" s="99"/>
+      <c r="CR222" s="57">
         <v>60</v>
       </c>
     </row>
-    <row r="223" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B223" s="100" t="s">
         <v>43</v>
       </c>
@@ -75580,7 +76318,7 @@
         <v>1</v>
       </c>
       <c r="CK223" s="57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CL223" s="57">
         <v>0</v>
@@ -75588,16 +76326,19 @@
       <c r="CM223" s="57">
         <v>0</v>
       </c>
-      <c r="CN223" s="99"/>
-      <c r="CO223" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP223" s="99"/>
-      <c r="CQ223" s="57">
-        <v>52</v>
+      <c r="CN223" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO223" s="99"/>
+      <c r="CP223" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ223" s="99"/>
+      <c r="CR223" s="57">
+        <v>53</v>
       </c>
     </row>
-    <row r="224" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B224" s="100" t="s">
         <v>43</v>
       </c>
@@ -75866,16 +76607,19 @@
       <c r="CM224" s="57">
         <v>0</v>
       </c>
-      <c r="CN224" s="99"/>
-      <c r="CO224" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP224" s="99"/>
-      <c r="CQ224" s="57">
+      <c r="CN224" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO224" s="99"/>
+      <c r="CP224" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ224" s="99"/>
+      <c r="CR224" s="57">
         <v>36</v>
       </c>
     </row>
-    <row r="225" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B225" s="100" t="s">
         <v>43</v>
       </c>
@@ -76144,16 +76888,19 @@
       <c r="CM225" s="57">
         <v>0</v>
       </c>
-      <c r="CN225" s="99"/>
-      <c r="CO225" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP225" s="99"/>
-      <c r="CQ225" s="57">
+      <c r="CN225" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO225" s="99"/>
+      <c r="CP225" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ225" s="99"/>
+      <c r="CR225" s="57">
         <v>6</v>
       </c>
     </row>
-    <row r="226" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B226" s="100" t="s">
         <v>43</v>
       </c>
@@ -76422,16 +77169,19 @@
       <c r="CM226" s="57">
         <v>0</v>
       </c>
-      <c r="CN226" s="99"/>
-      <c r="CO226" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP226" s="99"/>
-      <c r="CQ226" s="57">
+      <c r="CN226" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO226" s="99"/>
+      <c r="CP226" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ226" s="99"/>
+      <c r="CR226" s="57">
         <v>63</v>
       </c>
     </row>
-    <row r="227" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B227" s="100" t="s">
         <v>43</v>
       </c>
@@ -76700,16 +77450,19 @@
       <c r="CM227" s="57">
         <v>0</v>
       </c>
-      <c r="CN227" s="99"/>
-      <c r="CO227" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP227" s="99"/>
-      <c r="CQ227" s="57">
+      <c r="CN227" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO227" s="99"/>
+      <c r="CP227" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ227" s="99"/>
+      <c r="CR227" s="57">
         <v>37</v>
       </c>
     </row>
-    <row r="228" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B228" s="100" t="s">
         <v>43</v>
       </c>
@@ -76973,21 +77726,24 @@
         <v>3</v>
       </c>
       <c r="CL228" s="57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CM228" s="57">
-        <v>0</v>
-      </c>
-      <c r="CN228" s="99"/>
-      <c r="CO228" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP228" s="99"/>
-      <c r="CQ228" s="57">
-        <v>115</v>
+        <v>1</v>
+      </c>
+      <c r="CN228" s="57">
+        <v>1</v>
+      </c>
+      <c r="CO228" s="99"/>
+      <c r="CP228" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ228" s="99"/>
+      <c r="CR228" s="57">
+        <v>118</v>
       </c>
     </row>
-    <row r="229" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B229" s="100" t="s">
         <v>43</v>
       </c>
@@ -77256,16 +78012,19 @@
       <c r="CM229" s="57">
         <v>0</v>
       </c>
-      <c r="CN229" s="99"/>
-      <c r="CO229" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP229" s="99"/>
-      <c r="CQ229" s="57">
+      <c r="CN229" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO229" s="99"/>
+      <c r="CP229" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ229" s="99"/>
+      <c r="CR229" s="57">
         <v>79</v>
       </c>
     </row>
-    <row r="230" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B230" s="100" t="s">
         <v>43</v>
       </c>
@@ -77534,16 +78293,19 @@
       <c r="CM230" s="57">
         <v>0</v>
       </c>
-      <c r="CN230" s="99"/>
-      <c r="CO230" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP230" s="99"/>
-      <c r="CQ230" s="57">
+      <c r="CN230" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO230" s="99"/>
+      <c r="CP230" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ230" s="99"/>
+      <c r="CR230" s="57">
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B231" s="100" t="s">
         <v>43</v>
       </c>
@@ -77812,16 +78574,19 @@
       <c r="CM231" s="57">
         <v>0</v>
       </c>
-      <c r="CN231" s="99"/>
-      <c r="CO231" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP231" s="99"/>
-      <c r="CQ231" s="57">
+      <c r="CN231" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO231" s="99"/>
+      <c r="CP231" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ231" s="99"/>
+      <c r="CR231" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B232" s="100" t="s">
         <v>43</v>
       </c>
@@ -78090,16 +78855,19 @@
       <c r="CM232" s="57">
         <v>0</v>
       </c>
-      <c r="CN232" s="99"/>
-      <c r="CO232" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP232" s="99"/>
-      <c r="CQ232" s="57">
+      <c r="CN232" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO232" s="99"/>
+      <c r="CP232" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ232" s="99"/>
+      <c r="CR232" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="233" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B233" s="100" t="s">
         <v>43</v>
       </c>
@@ -78368,16 +79136,19 @@
       <c r="CM233" s="57">
         <v>0</v>
       </c>
-      <c r="CN233" s="99"/>
-      <c r="CO233" s="57">
-        <v>0</v>
-      </c>
-      <c r="CP233" s="99"/>
-      <c r="CQ233" s="57">
+      <c r="CN233" s="57">
+        <v>0</v>
+      </c>
+      <c r="CO233" s="99"/>
+      <c r="CP233" s="57">
+        <v>0</v>
+      </c>
+      <c r="CQ233" s="99"/>
+      <c r="CR233" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B234" s="100" t="s">
         <v>43</v>
       </c>
@@ -78646,16 +79417,19 @@
       <c r="CM234" s="109">
         <v>0</v>
       </c>
-      <c r="CN234" s="99"/>
-      <c r="CO234" s="109">
-        <v>0</v>
-      </c>
-      <c r="CP234" s="99"/>
-      <c r="CQ234" s="109">
+      <c r="CN234" s="109">
+        <v>0</v>
+      </c>
+      <c r="CO234" s="99"/>
+      <c r="CP234" s="109">
+        <v>0</v>
+      </c>
+      <c r="CQ234" s="99"/>
+      <c r="CR234" s="109">
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B235" s="100" t="s">
         <v>43</v>
       </c>
@@ -78924,16 +79698,19 @@
       <c r="CM235" s="109">
         <v>0</v>
       </c>
-      <c r="CN235" s="99"/>
-      <c r="CO235" s="109">
-        <v>0</v>
-      </c>
-      <c r="CP235" s="99"/>
-      <c r="CQ235" s="109">
+      <c r="CN235" s="109">
+        <v>0</v>
+      </c>
+      <c r="CO235" s="99"/>
+      <c r="CP235" s="109">
+        <v>0</v>
+      </c>
+      <c r="CQ235" s="99"/>
+      <c r="CR235" s="109">
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="2:95" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:96" x14ac:dyDescent="0.3">
       <c r="B236" s="110" t="s">
         <v>43</v>
       </c>
@@ -79202,12 +79979,15 @@
       <c r="CM236" s="62">
         <v>0</v>
       </c>
-      <c r="CN236" s="99"/>
-      <c r="CO236" s="62">
-        <v>0</v>
-      </c>
-      <c r="CP236" s="99"/>
-      <c r="CQ236" s="62">
+      <c r="CN236" s="62">
+        <v>0</v>
+      </c>
+      <c r="CO236" s="99"/>
+      <c r="CP236" s="62">
+        <v>0</v>
+      </c>
+      <c r="CQ236" s="99"/>
+      <c r="CR236" s="62">
         <v>21</v>
       </c>
     </row>
@@ -79277,7 +80057,7 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
   </mergeCells>
-  <conditionalFormatting sqref="F16:CM236">
+  <conditionalFormatting sqref="F16:CN236">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>TODAY()-F$16&lt;6</formula>
     </cfRule>

--- a/refreshed_daily_deaths_trust.xlsx
+++ b/refreshed_daily_deaths_trust.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NHS CB\Analytical Services (Outcomes Analysis Team)\COVID-19 deaths\Daily reports\10 June\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\NHS CB\Analytical Services (Outcomes Analysis Team)\COVID-19 deaths\Daily reports\12 June\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DE089C-1A94-4760-8DCE-2A93D5974A0A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:8001_{9F16EAD4-FB50-44A6-8ECA-BD892DE5147C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1522,10 +1522,10 @@
     <t>Deaths of patients who have died in hospitals in England and have tested positive for COVID-19, split by trust. All deaths are recorded against the date of death rather than the day the deaths were announced.</t>
   </si>
   <si>
-    <t>All data up to 5pm 09 June 2020</t>
+    <t>All data up to 5pm 11 June 2020</t>
   </si>
   <si>
-    <t>10 June 2020</t>
+    <t>12 June 2020</t>
   </si>
   <si>
     <t>NQA31</t>
@@ -2059,7 +2059,7 @@
     <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2295,20 +2295,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2360,28 +2346,7 @@
     <cellStyle name="Percent 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Percent 3" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
@@ -2461,22 +2426,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>799427</xdr:colOff>
+      <xdr:colOff>646130</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>7396</xdr:rowOff>
+      <xdr:rowOff>59840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>19751</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>919807</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>112881</xdr:rowOff>
+      <xdr:rowOff>153895</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88B416BF-B914-427F-9C28-039012577FE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F31C70B0-0C0D-4181-9FE4-9431CF594E2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,8 +2457,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="933898" y="2551131"/>
-          <a:ext cx="10668925" cy="6380779"/>
+          <a:off x="780601" y="2603575"/>
+          <a:ext cx="10672735" cy="6369349"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2941,20 +2906,20 @@
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="128" t="s">
         <v>487</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
-      <c r="L3" s="135"/>
-      <c r="M3" s="135"/>
-      <c r="N3" s="135"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="29"/>
@@ -3501,12 +3466,12 @@
     </row>
     <row r="12" spans="1:57" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="130" t="s">
         <v>472</v>
       </c>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
@@ -3819,16 +3784,16 @@
       <c r="B3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="128" t="s">
         <v>488</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
       <c r="K3" s="25"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -3922,7 +3887,7 @@
       <c r="B4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="10" t="s">
         <v>493</v>
       </c>
       <c r="D4" s="11"/>
@@ -4025,7 +3990,7 @@
       <c r="B5" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="13"/>
@@ -4128,7 +4093,7 @@
       <c r="B6" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="13"/>
@@ -4231,7 +4196,7 @@
       <c r="B7" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="14" t="s">
         <v>494</v>
       </c>
       <c r="D7" s="15"/>
@@ -4739,13 +4704,13 @@
     </row>
     <row r="12" spans="1:98" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="130" t="s">
         <v>470</v>
       </c>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
@@ -4950,14 +4915,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:DT28"/>
+  <dimension ref="A1:DV28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="18" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4965,15 +4925,15 @@
     <col min="2" max="2" width="14.6640625" style="42" customWidth="1"/>
     <col min="3" max="3" width="41.5546875" style="42" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="42" customWidth="1"/>
-    <col min="5" max="105" width="15.44140625" style="42" customWidth="1"/>
-    <col min="106" max="106" width="2.5546875" style="82" customWidth="1"/>
-    <col min="107" max="107" width="15.33203125" style="42" customWidth="1"/>
+    <col min="5" max="107" width="15.44140625" style="42" customWidth="1"/>
     <col min="108" max="108" width="2.5546875" style="82" customWidth="1"/>
-    <col min="109" max="109" width="15.44140625" style="42" customWidth="1"/>
-    <col min="110" max="16384" width="8.88671875" style="42"/>
+    <col min="109" max="109" width="15.33203125" style="42" customWidth="1"/>
+    <col min="110" max="110" width="2.5546875" style="82" customWidth="1"/>
+    <col min="111" max="111" width="15.44140625" style="42" customWidth="1"/>
+    <col min="112" max="16384" width="8.88671875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:113" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43"/>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -5083,8 +5043,10 @@
       <c r="DC1" s="43"/>
       <c r="DD1" s="43"/>
       <c r="DE1" s="43"/>
+      <c r="DF1" s="43"/>
+      <c r="DG1" s="43"/>
     </row>
-    <row r="2" spans="1:111" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:113" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="45" t="s">
         <v>4</v>
@@ -5196,26 +5158,28 @@
       <c r="CY2" s="44"/>
       <c r="CZ2" s="44"/>
       <c r="DA2" s="44"/>
-      <c r="DB2" s="34"/>
-      <c r="DC2" s="50"/>
+      <c r="DB2" s="44"/>
+      <c r="DC2" s="44"/>
       <c r="DD2" s="34"/>
       <c r="DE2" s="50"/>
+      <c r="DF2" s="34"/>
+      <c r="DG2" s="50"/>
     </row>
-    <row r="3" spans="1:111" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:113" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="128" t="s">
         <v>489</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
       <c r="K3" s="52"/>
       <c r="L3" s="44"/>
       <c r="M3" s="44"/>
@@ -5311,12 +5275,14 @@
       <c r="CY3" s="44"/>
       <c r="CZ3" s="44"/>
       <c r="DA3" s="44"/>
-      <c r="DB3" s="34"/>
-      <c r="DC3" s="50"/>
+      <c r="DB3" s="44"/>
+      <c r="DC3" s="44"/>
       <c r="DD3" s="34"/>
       <c r="DE3" s="50"/>
+      <c r="DF3" s="34"/>
+      <c r="DG3" s="50"/>
     </row>
-    <row r="4" spans="1:111" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:113" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="53" t="s">
         <v>7</v>
@@ -5426,12 +5392,14 @@
       <c r="CY4" s="44"/>
       <c r="CZ4" s="44"/>
       <c r="DA4" s="44"/>
-      <c r="DB4" s="34"/>
-      <c r="DC4" s="50"/>
+      <c r="DB4" s="44"/>
+      <c r="DC4" s="44"/>
       <c r="DD4" s="34"/>
       <c r="DE4" s="50"/>
+      <c r="DF4" s="34"/>
+      <c r="DG4" s="50"/>
     </row>
-    <row r="5" spans="1:111" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:113" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="53" t="s">
         <v>8</v>
@@ -5541,12 +5509,14 @@
       <c r="CY5" s="44"/>
       <c r="CZ5" s="44"/>
       <c r="DA5" s="44"/>
-      <c r="DB5" s="34"/>
-      <c r="DC5" s="50"/>
+      <c r="DB5" s="44"/>
+      <c r="DC5" s="44"/>
       <c r="DD5" s="34"/>
       <c r="DE5" s="50"/>
+      <c r="DF5" s="34"/>
+      <c r="DG5" s="50"/>
     </row>
-    <row r="6" spans="1:111" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:113" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="53" t="s">
         <v>10</v>
@@ -5656,12 +5626,14 @@
       <c r="CY6" s="44"/>
       <c r="CZ6" s="44"/>
       <c r="DA6" s="44"/>
-      <c r="DB6" s="34"/>
-      <c r="DC6" s="50"/>
+      <c r="DB6" s="44"/>
+      <c r="DC6" s="44"/>
       <c r="DD6" s="34"/>
       <c r="DE6" s="50"/>
+      <c r="DF6" s="34"/>
+      <c r="DG6" s="50"/>
     </row>
-    <row r="7" spans="1:111" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:113" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="53" t="s">
         <v>12</v>
@@ -5771,12 +5743,14 @@
       <c r="CY7" s="44"/>
       <c r="CZ7" s="44"/>
       <c r="DA7" s="44"/>
-      <c r="DB7" s="34"/>
-      <c r="DC7" s="50"/>
+      <c r="DB7" s="44"/>
+      <c r="DC7" s="44"/>
       <c r="DD7" s="34"/>
       <c r="DE7" s="50"/>
+      <c r="DF7" s="34"/>
+      <c r="DG7" s="50"/>
     </row>
-    <row r="8" spans="1:111" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:113" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="53" t="s">
         <v>13</v>
@@ -5886,12 +5860,14 @@
       <c r="CY8" s="44"/>
       <c r="CZ8" s="44"/>
       <c r="DA8" s="44"/>
-      <c r="DB8" s="34"/>
-      <c r="DC8" s="50"/>
+      <c r="DB8" s="44"/>
+      <c r="DC8" s="44"/>
       <c r="DD8" s="34"/>
       <c r="DE8" s="50"/>
+      <c r="DF8" s="34"/>
+      <c r="DG8" s="50"/>
     </row>
-    <row r="9" spans="1:111" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:113" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="53" t="s">
         <v>15</v>
@@ -6001,12 +5977,14 @@
       <c r="CY9" s="44"/>
       <c r="CZ9" s="44"/>
       <c r="DA9" s="44"/>
-      <c r="DB9" s="34"/>
-      <c r="DC9" s="50"/>
+      <c r="DB9" s="44"/>
+      <c r="DC9" s="44"/>
       <c r="DD9" s="34"/>
       <c r="DE9" s="50"/>
+      <c r="DF9" s="34"/>
+      <c r="DG9" s="50"/>
     </row>
-    <row r="10" spans="1:111" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:113" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="53" t="s">
         <v>17</v>
@@ -6116,12 +6094,14 @@
       <c r="CY10" s="44"/>
       <c r="CZ10" s="44"/>
       <c r="DA10" s="44"/>
-      <c r="DB10" s="34"/>
-      <c r="DC10" s="50"/>
+      <c r="DB10" s="44"/>
+      <c r="DC10" s="44"/>
       <c r="DD10" s="34"/>
       <c r="DE10" s="50"/>
+      <c r="DF10" s="34"/>
+      <c r="DG10" s="50"/>
     </row>
-    <row r="11" spans="1:111" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:113" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -6227,20 +6207,22 @@
       <c r="CY11" s="44"/>
       <c r="CZ11" s="44"/>
       <c r="DA11" s="44"/>
-      <c r="DB11" s="34"/>
-      <c r="DC11" s="50"/>
+      <c r="DB11" s="44"/>
+      <c r="DC11" s="44"/>
       <c r="DD11" s="34"/>
       <c r="DE11" s="50"/>
+      <c r="DF11" s="34"/>
+      <c r="DG11" s="50"/>
     </row>
-    <row r="12" spans="1:111" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:113" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
       <c r="G12" s="61"/>
       <c r="H12" s="61"/>
       <c r="I12" s="61"/>
@@ -6340,14 +6322,16 @@
       <c r="CY12" s="61"/>
       <c r="CZ12" s="61"/>
       <c r="DA12" s="61"/>
-      <c r="DB12" s="35"/>
-      <c r="DC12" s="62"/>
+      <c r="DB12" s="61"/>
+      <c r="DC12" s="61"/>
       <c r="DD12" s="35"/>
-      <c r="DE12" s="35"/>
-      <c r="DF12" s="82"/>
-      <c r="DG12" s="82"/>
+      <c r="DE12" s="62"/>
+      <c r="DF12" s="35"/>
+      <c r="DG12" s="35"/>
+      <c r="DH12" s="82"/>
+      <c r="DI12" s="82"/>
     </row>
-    <row r="13" spans="1:111" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:113" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -6453,25 +6437,27 @@
       <c r="CY13" s="61"/>
       <c r="CZ13" s="61"/>
       <c r="DA13" s="61"/>
-      <c r="DB13" s="35"/>
-      <c r="DC13" s="62"/>
-      <c r="DD13" s="36"/>
-      <c r="DE13" s="36"/>
-      <c r="DF13" s="82"/>
-      <c r="DG13" s="82"/>
+      <c r="DB13" s="61"/>
+      <c r="DC13" s="61"/>
+      <c r="DD13" s="35"/>
+      <c r="DE13" s="62"/>
+      <c r="DF13" s="36"/>
+      <c r="DG13" s="36"/>
+      <c r="DH13" s="82"/>
+      <c r="DI13" s="82"/>
     </row>
-    <row r="14" spans="1:111" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:113" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="132" t="s">
         <v>490</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
       <c r="J14" s="69"/>
       <c r="K14" s="61"/>
       <c r="L14" s="61"/>
@@ -6568,14 +6554,16 @@
       <c r="CY14" s="61"/>
       <c r="CZ14" s="61"/>
       <c r="DA14" s="61"/>
-      <c r="DB14" s="35"/>
-      <c r="DC14" s="62"/>
-      <c r="DD14" s="36"/>
-      <c r="DE14" s="36"/>
-      <c r="DF14" s="82"/>
-      <c r="DG14" s="82"/>
+      <c r="DB14" s="61"/>
+      <c r="DC14" s="61"/>
+      <c r="DD14" s="35"/>
+      <c r="DE14" s="62"/>
+      <c r="DF14" s="36"/>
+      <c r="DG14" s="36"/>
+      <c r="DH14" s="82"/>
+      <c r="DI14" s="82"/>
     </row>
-    <row r="15" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -6640,21 +6628,23 @@
       <c r="CT15" s="60"/>
       <c r="CU15" s="60"/>
       <c r="CV15" s="60"/>
-      <c r="CW15" s="42" t="s">
+      <c r="CW15" s="60"/>
+      <c r="CX15" s="60"/>
+      <c r="CY15" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="CX15" s="60"/>
-      <c r="CY15" s="60"/>
       <c r="CZ15" s="60"/>
       <c r="DA15" s="60"/>
-      <c r="DB15" s="41"/>
-      <c r="DC15" s="64"/>
-      <c r="DD15" s="37"/>
-      <c r="DE15" s="37"/>
-      <c r="DF15" s="82"/>
-      <c r="DG15" s="82"/>
+      <c r="DB15" s="60"/>
+      <c r="DC15" s="60"/>
+      <c r="DD15" s="41"/>
+      <c r="DE15" s="64"/>
+      <c r="DF15" s="37"/>
+      <c r="DG15" s="37"/>
+      <c r="DH15" s="82"/>
+      <c r="DI15" s="82"/>
     </row>
-    <row r="16" spans="1:111" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:113" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
       <c r="B16" s="70" t="s">
         <v>27</v>
@@ -6966,16 +6956,22 @@
       <c r="DA16" s="72">
         <v>43991</v>
       </c>
-      <c r="DB16" s="38"/>
-      <c r="DC16" s="72" t="s">
-        <v>23</v>
+      <c r="DB16" s="72">
+        <v>43992</v>
+      </c>
+      <c r="DC16" s="72">
+        <v>43993</v>
       </c>
       <c r="DD16" s="38"/>
       <c r="DE16" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="DF16" s="38"/>
+      <c r="DG16" s="72" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:124" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A17" s="51"/>
       <c r="B17" s="118" t="s">
         <v>28</v>
@@ -7030,7 +7026,7 @@
         <v>28</v>
       </c>
       <c r="T17" s="74">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U17" s="74">
         <v>48</v>
@@ -7042,7 +7038,7 @@
         <v>64</v>
       </c>
       <c r="X17" s="74">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y17" s="74">
         <v>104</v>
@@ -7078,7 +7074,7 @@
         <v>574</v>
       </c>
       <c r="AJ17" s="74">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="AK17" s="74">
         <v>644</v>
@@ -7141,7 +7137,7 @@
         <v>484</v>
       </c>
       <c r="BE17" s="74">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="BF17" s="74">
         <v>451</v>
@@ -7204,7 +7200,7 @@
         <v>183</v>
       </c>
       <c r="BZ17" s="74">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CA17" s="74">
         <v>177</v>
@@ -7219,7 +7215,7 @@
         <v>137</v>
       </c>
       <c r="CE17" s="74">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="CF17" s="74">
         <v>142</v>
@@ -7237,7 +7233,7 @@
         <v>128</v>
       </c>
       <c r="CK17" s="74">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="CL17" s="74">
         <v>133</v>
@@ -7252,51 +7248,57 @@
         <v>120</v>
       </c>
       <c r="CP17" s="74">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="CQ17" s="74">
         <v>89</v>
       </c>
       <c r="CR17" s="74">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="CS17" s="74">
         <v>91</v>
       </c>
       <c r="CT17" s="74">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="CU17" s="74">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="CV17" s="74">
+        <v>80</v>
+      </c>
+      <c r="CW17" s="74">
+        <v>78</v>
+      </c>
+      <c r="CX17" s="74">
         <v>74</v>
       </c>
-      <c r="CW17" s="74">
-        <v>77</v>
-      </c>
-      <c r="CX17" s="74">
-        <v>67</v>
-      </c>
       <c r="CY17" s="74">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="CZ17" s="74">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="DA17" s="74">
-        <v>11</v>
-      </c>
-      <c r="DB17" s="39"/>
-      <c r="DC17" s="75">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="DB17" s="74">
+        <v>48</v>
+      </c>
+      <c r="DC17" s="74">
+        <v>10</v>
       </c>
       <c r="DD17" s="39"/>
       <c r="DE17" s="75">
-        <v>27706</v>
+        <v>0</v>
+      </c>
+      <c r="DF17" s="39"/>
+      <c r="DG17" s="75">
+        <v>27859</v>
       </c>
     </row>
-    <row r="18" spans="1:124" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:126" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -7402,14 +7404,14 @@
       <c r="CY18" s="76"/>
       <c r="CZ18" s="76"/>
       <c r="DA18" s="76"/>
-      <c r="DB18" s="40"/>
+      <c r="DB18" s="76"/>
       <c r="DC18" s="76"/>
       <c r="DD18" s="40"/>
-      <c r="DE18" s="76">
-        <v>0</v>
-      </c>
-      <c r="DF18" s="76"/>
-      <c r="DG18" s="76"/>
+      <c r="DE18" s="76"/>
+      <c r="DF18" s="40"/>
+      <c r="DG18" s="76">
+        <v>0</v>
+      </c>
       <c r="DH18" s="76"/>
       <c r="DI18" s="76"/>
       <c r="DJ18" s="76"/>
@@ -7423,8 +7425,10 @@
       <c r="DR18" s="76"/>
       <c r="DS18" s="76"/>
       <c r="DT18" s="76"/>
+      <c r="DU18" s="76"/>
+      <c r="DV18" s="76"/>
     </row>
-    <row r="19" spans="1:124" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A19" s="63"/>
       <c r="B19" s="120" t="s">
         <v>29</v>
@@ -7527,7 +7531,7 @@
         <v>70</v>
       </c>
       <c r="AJ19" s="103">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AK19" s="103">
         <v>64</v>
@@ -7668,7 +7672,7 @@
         <v>17</v>
       </c>
       <c r="CE19" s="103">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CF19" s="103">
         <v>15</v>
@@ -7716,10 +7720,10 @@
         <v>14</v>
       </c>
       <c r="CU19" s="103">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CV19" s="103">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CW19" s="103">
         <v>12</v>
@@ -7728,22 +7732,28 @@
         <v>4</v>
       </c>
       <c r="CY19" s="103">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CZ19" s="103">
+        <v>5</v>
+      </c>
+      <c r="DA19" s="103">
         <v>4</v>
       </c>
-      <c r="DA19" s="104">
-        <v>2</v>
+      <c r="DB19" s="103">
+        <v>4</v>
       </c>
       <c r="DC19" s="104">
         <v>0</v>
       </c>
-      <c r="DE19" s="105">
-        <v>3237</v>
+      <c r="DE19" s="104">
+        <v>0</v>
+      </c>
+      <c r="DG19" s="105">
+        <v>3249</v>
       </c>
     </row>
-    <row r="20" spans="1:124" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A20" s="63"/>
       <c r="B20" s="122" t="s">
         <v>30</v>
@@ -7798,7 +7808,7 @@
         <v>10</v>
       </c>
       <c r="T20" s="106">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U20" s="106">
         <v>25</v>
@@ -7810,7 +7820,7 @@
         <v>25</v>
       </c>
       <c r="X20" s="106">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y20" s="106">
         <v>50</v>
@@ -8035,7 +8045,7 @@
         <v>7</v>
       </c>
       <c r="CU20" s="106">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CV20" s="106">
         <v>8</v>
@@ -8050,19 +8060,25 @@
         <v>4</v>
       </c>
       <c r="CZ20" s="106">
-        <v>4</v>
-      </c>
-      <c r="DA20" s="78">
-        <v>0</v>
-      </c>
-      <c r="DC20" s="100">
-        <v>0</v>
-      </c>
-      <c r="DE20" s="107">
-        <v>6050</v>
+        <v>5</v>
+      </c>
+      <c r="DA20" s="106">
+        <v>2</v>
+      </c>
+      <c r="DB20" s="106">
+        <v>5</v>
+      </c>
+      <c r="DC20" s="78">
+        <v>2</v>
+      </c>
+      <c r="DE20" s="100">
+        <v>0</v>
+      </c>
+      <c r="DG20" s="107">
+        <v>6061</v>
       </c>
     </row>
-    <row r="21" spans="1:124" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A21" s="63"/>
       <c r="B21" s="122" t="s">
         <v>31</v>
@@ -8345,43 +8361,49 @@
         <v>20</v>
       </c>
       <c r="CR21" s="106">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CS21" s="106">
         <v>20</v>
       </c>
       <c r="CT21" s="106">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CU21" s="106">
         <v>23</v>
       </c>
       <c r="CV21" s="106">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CW21" s="106">
         <v>21</v>
       </c>
       <c r="CX21" s="106">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CY21" s="106">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CZ21" s="106">
-        <v>10</v>
-      </c>
-      <c r="DA21" s="78">
-        <v>0</v>
-      </c>
-      <c r="DC21" s="100">
-        <v>0</v>
-      </c>
-      <c r="DE21" s="108">
-        <v>5470</v>
+        <v>15</v>
+      </c>
+      <c r="DA21" s="106">
+        <v>17</v>
+      </c>
+      <c r="DB21" s="106">
+        <v>12</v>
+      </c>
+      <c r="DC21" s="78">
+        <v>0</v>
+      </c>
+      <c r="DE21" s="100">
+        <v>0</v>
+      </c>
+      <c r="DG21" s="108">
+        <v>5509</v>
       </c>
     </row>
-    <row r="22" spans="1:124" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A22" s="63"/>
       <c r="B22" s="122" t="s">
         <v>32</v>
@@ -8643,7 +8665,7 @@
         <v>18</v>
       </c>
       <c r="CK22" s="106">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CL22" s="106">
         <v>21</v>
@@ -8664,7 +8686,7 @@
         <v>20</v>
       </c>
       <c r="CR22" s="106">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CS22" s="106">
         <v>16</v>
@@ -8673,34 +8695,40 @@
         <v>22</v>
       </c>
       <c r="CU22" s="106">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CV22" s="106">
         <v>17</v>
       </c>
       <c r="CW22" s="106">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CX22" s="106">
         <v>20</v>
       </c>
       <c r="CY22" s="106">
+        <v>13</v>
+      </c>
+      <c r="CZ22" s="106">
         <v>11</v>
       </c>
-      <c r="CZ22" s="106">
-        <v>10</v>
-      </c>
-      <c r="DA22" s="78">
-        <v>5</v>
-      </c>
-      <c r="DC22" s="100">
-        <v>0</v>
-      </c>
-      <c r="DE22" s="109">
-        <v>4039</v>
+      <c r="DA22" s="106">
+        <v>11</v>
+      </c>
+      <c r="DB22" s="106">
+        <v>12</v>
+      </c>
+      <c r="DC22" s="78">
+        <v>1</v>
+      </c>
+      <c r="DE22" s="100">
+        <v>0</v>
+      </c>
+      <c r="DG22" s="109">
+        <v>4065</v>
       </c>
     </row>
-    <row r="23" spans="1:124" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A23" s="63"/>
       <c r="B23" s="122" t="s">
         <v>33</v>
@@ -8929,7 +8957,7 @@
         <v>38</v>
       </c>
       <c r="BZ23" s="106">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CA23" s="106">
         <v>26</v>
@@ -8977,7 +9005,7 @@
         <v>28</v>
       </c>
       <c r="CP23" s="106">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CQ23" s="106">
         <v>17</v>
@@ -8989,37 +9017,43 @@
         <v>12</v>
       </c>
       <c r="CT23" s="106">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CU23" s="106">
         <v>21</v>
       </c>
       <c r="CV23" s="106">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CW23" s="106">
         <v>15</v>
       </c>
       <c r="CX23" s="106">
+        <v>21</v>
+      </c>
+      <c r="CY23" s="106">
+        <v>17</v>
+      </c>
+      <c r="CZ23" s="106">
         <v>18</v>
       </c>
-      <c r="CY23" s="106">
-        <v>15</v>
-      </c>
-      <c r="CZ23" s="106">
-        <v>16</v>
-      </c>
-      <c r="DA23" s="78">
-        <v>2</v>
-      </c>
-      <c r="DC23" s="100">
-        <v>0</v>
-      </c>
-      <c r="DE23" s="109">
-        <v>4432</v>
+      <c r="DA23" s="106">
+        <v>11</v>
+      </c>
+      <c r="DB23" s="106">
+        <v>7</v>
+      </c>
+      <c r="DC23" s="78">
+        <v>6</v>
+      </c>
+      <c r="DE23" s="100">
+        <v>0</v>
+      </c>
+      <c r="DG23" s="109">
+        <v>4465</v>
       </c>
     </row>
-    <row r="24" spans="1:124" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A24" s="63"/>
       <c r="B24" s="122" t="s">
         <v>34</v>
@@ -9122,7 +9156,7 @@
         <v>65</v>
       </c>
       <c r="AJ24" s="106">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AK24" s="106">
         <v>55</v>
@@ -9308,37 +9342,43 @@
         <v>11</v>
       </c>
       <c r="CT24" s="106">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CU24" s="106">
         <v>17</v>
       </c>
       <c r="CV24" s="106">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CW24" s="106">
         <v>9</v>
       </c>
       <c r="CX24" s="106">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CY24" s="106">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="CZ24" s="106">
-        <v>4</v>
-      </c>
-      <c r="DA24" s="78">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="DA24" s="106">
+        <v>9</v>
+      </c>
+      <c r="DB24" s="106">
+        <v>8</v>
       </c>
       <c r="DC24" s="78">
         <v>0</v>
       </c>
-      <c r="DE24" s="109">
-        <v>3237</v>
+      <c r="DE24" s="78">
+        <v>0</v>
+      </c>
+      <c r="DG24" s="109">
+        <v>3264</v>
       </c>
     </row>
-    <row r="25" spans="1:124" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A25" s="63"/>
       <c r="B25" s="124" t="s">
         <v>35</v>
@@ -9504,7 +9544,7 @@
         <v>26</v>
       </c>
       <c r="BE25" s="111">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BF25" s="111">
         <v>17</v>
@@ -9633,7 +9673,7 @@
         <v>5</v>
       </c>
       <c r="CV25" s="111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CW25" s="111">
         <v>1</v>
@@ -9642,28 +9682,34 @@
         <v>1</v>
       </c>
       <c r="CY25" s="111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CZ25" s="111">
-        <v>2</v>
-      </c>
-      <c r="DA25" s="112">
+        <v>3</v>
+      </c>
+      <c r="DA25" s="111">
+        <v>0</v>
+      </c>
+      <c r="DB25" s="111">
         <v>0</v>
       </c>
       <c r="DC25" s="112">
-        <v>0</v>
-      </c>
-      <c r="DE25" s="113">
-        <v>1241</v>
+        <v>1</v>
+      </c>
+      <c r="DE25" s="112">
+        <v>0</v>
+      </c>
+      <c r="DG25" s="113">
+        <v>1246</v>
       </c>
     </row>
-    <row r="26" spans="1:124" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A26" s="51"/>
     </row>
-    <row r="27" spans="1:124" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A27" s="51"/>
     </row>
-    <row r="28" spans="1:124" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:126" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
     </row>
   </sheetData>
@@ -9672,8 +9718,8 @@
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B14:I14"/>
   </mergeCells>
-  <conditionalFormatting sqref="BZ16:DA25">
-    <cfRule type="expression" dxfId="10" priority="1">
+  <conditionalFormatting sqref="BZ16:DC25">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>TODAY()-BZ$16&lt;6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9683,14 +9729,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:DT28"/>
+  <dimension ref="A1:DV28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="18" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9698,15 +9739,16 @@
     <col min="2" max="2" width="14.6640625" style="42" customWidth="1"/>
     <col min="3" max="3" width="41.5546875" style="42" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="42" customWidth="1"/>
-    <col min="5" max="105" width="15.44140625" style="42" customWidth="1"/>
-    <col min="106" max="106" width="2.5546875" style="82" customWidth="1"/>
+    <col min="5" max="106" width="15.44140625" style="42" customWidth="1"/>
     <col min="107" max="107" width="15.33203125" style="42" customWidth="1"/>
     <col min="108" max="108" width="2.5546875" style="82" customWidth="1"/>
-    <col min="109" max="109" width="15.44140625" style="42" customWidth="1"/>
-    <col min="110" max="16384" width="8.88671875" style="42"/>
+    <col min="109" max="109" width="15.33203125" style="42" customWidth="1"/>
+    <col min="110" max="110" width="2.5546875" style="82" customWidth="1"/>
+    <col min="111" max="111" width="15.44140625" style="42" customWidth="1"/>
+    <col min="112" max="16384" width="8.88671875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:113" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43"/>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -9816,8 +9858,10 @@
       <c r="DC1" s="43"/>
       <c r="DD1" s="43"/>
       <c r="DE1" s="43"/>
+      <c r="DF1" s="43"/>
+      <c r="DG1" s="43"/>
     </row>
-    <row r="2" spans="1:111" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:113" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="45" t="s">
         <v>4</v>
@@ -9827,7 +9871,7 @@
       </c>
       <c r="D2" s="46"/>
       <c r="E2" s="46"/>
-      <c r="F2" s="129"/>
+      <c r="F2" s="47"/>
       <c r="G2" s="44"/>
       <c r="H2" s="49"/>
       <c r="I2" s="44"/>
@@ -9931,48 +9975,50 @@
       <c r="CY2" s="44"/>
       <c r="CZ2" s="44"/>
       <c r="DA2" s="44"/>
-      <c r="DB2" s="34"/>
-      <c r="DC2" s="50"/>
+      <c r="DB2" s="44"/>
+      <c r="DC2" s="44"/>
       <c r="DD2" s="34"/>
       <c r="DE2" s="50"/>
+      <c r="DF2" s="34"/>
+      <c r="DG2" s="50"/>
     </row>
-    <row r="3" spans="1:111" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:113" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="141" t="s">
+      <c r="C3" s="135" t="s">
         <v>478</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
       <c r="O3" s="44"/>
       <c r="P3" s="44"/>
       <c r="Q3" s="44"/>
-      <c r="R3" s="128"/>
+      <c r="R3" s="52"/>
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
-      <c r="U3" s="128"/>
+      <c r="U3" s="52"/>
       <c r="V3" s="44"/>
       <c r="W3" s="44"/>
       <c r="X3" s="44"/>
-      <c r="Y3" s="128"/>
+      <c r="Y3" s="52"/>
       <c r="Z3" s="44"/>
       <c r="AA3" s="44"/>
-      <c r="AB3" s="128"/>
+      <c r="AB3" s="52"/>
       <c r="AC3" s="44"/>
       <c r="AD3" s="44"/>
       <c r="AE3" s="44"/>
-      <c r="AF3" s="128"/>
+      <c r="AF3" s="52"/>
       <c r="AG3" s="44"/>
       <c r="AH3" s="44"/>
       <c r="AI3" s="44"/>
@@ -10046,12 +10092,14 @@
       <c r="CY3" s="44"/>
       <c r="CZ3" s="44"/>
       <c r="DA3" s="44"/>
-      <c r="DB3" s="34"/>
-      <c r="DC3" s="50"/>
+      <c r="DB3" s="44"/>
+      <c r="DC3" s="44"/>
       <c r="DD3" s="34"/>
       <c r="DE3" s="50"/>
+      <c r="DF3" s="34"/>
+      <c r="DG3" s="50"/>
     </row>
-    <row r="4" spans="1:111" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:113" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="53" t="s">
         <v>7</v>
@@ -10161,12 +10209,14 @@
       <c r="CY4" s="44"/>
       <c r="CZ4" s="44"/>
       <c r="DA4" s="44"/>
-      <c r="DB4" s="34"/>
-      <c r="DC4" s="50"/>
+      <c r="DB4" s="44"/>
+      <c r="DC4" s="44"/>
       <c r="DD4" s="34"/>
       <c r="DE4" s="50"/>
+      <c r="DF4" s="34"/>
+      <c r="DG4" s="50"/>
     </row>
-    <row r="5" spans="1:111" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:113" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="53" t="s">
         <v>8</v>
@@ -10276,12 +10326,14 @@
       <c r="CY5" s="44"/>
       <c r="CZ5" s="44"/>
       <c r="DA5" s="44"/>
-      <c r="DB5" s="34"/>
-      <c r="DC5" s="50"/>
+      <c r="DB5" s="44"/>
+      <c r="DC5" s="44"/>
       <c r="DD5" s="34"/>
       <c r="DE5" s="50"/>
+      <c r="DF5" s="34"/>
+      <c r="DG5" s="50"/>
     </row>
-    <row r="6" spans="1:111" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:113" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="53" t="s">
         <v>10</v>
@@ -10391,12 +10443,14 @@
       <c r="CY6" s="44"/>
       <c r="CZ6" s="44"/>
       <c r="DA6" s="44"/>
-      <c r="DB6" s="34"/>
-      <c r="DC6" s="50"/>
+      <c r="DB6" s="44"/>
+      <c r="DC6" s="44"/>
       <c r="DD6" s="34"/>
       <c r="DE6" s="50"/>
+      <c r="DF6" s="34"/>
+      <c r="DG6" s="50"/>
     </row>
-    <row r="7" spans="1:111" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:113" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="53" t="s">
         <v>12</v>
@@ -10506,12 +10560,14 @@
       <c r="CY7" s="44"/>
       <c r="CZ7" s="44"/>
       <c r="DA7" s="44"/>
-      <c r="DB7" s="34"/>
-      <c r="DC7" s="50"/>
+      <c r="DB7" s="44"/>
+      <c r="DC7" s="44"/>
       <c r="DD7" s="34"/>
       <c r="DE7" s="50"/>
+      <c r="DF7" s="34"/>
+      <c r="DG7" s="50"/>
     </row>
-    <row r="8" spans="1:111" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:113" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="53" t="s">
         <v>13</v>
@@ -10621,12 +10677,14 @@
       <c r="CY8" s="44"/>
       <c r="CZ8" s="44"/>
       <c r="DA8" s="44"/>
-      <c r="DB8" s="34"/>
-      <c r="DC8" s="50"/>
+      <c r="DB8" s="44"/>
+      <c r="DC8" s="44"/>
       <c r="DD8" s="34"/>
       <c r="DE8" s="50"/>
+      <c r="DF8" s="34"/>
+      <c r="DG8" s="50"/>
     </row>
-    <row r="9" spans="1:111" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:113" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="53" t="s">
         <v>15</v>
@@ -10736,12 +10794,14 @@
       <c r="CY9" s="44"/>
       <c r="CZ9" s="44"/>
       <c r="DA9" s="44"/>
-      <c r="DB9" s="34"/>
-      <c r="DC9" s="50"/>
+      <c r="DB9" s="44"/>
+      <c r="DC9" s="44"/>
       <c r="DD9" s="34"/>
       <c r="DE9" s="50"/>
+      <c r="DF9" s="34"/>
+      <c r="DG9" s="50"/>
     </row>
-    <row r="10" spans="1:111" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:113" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="53" t="s">
         <v>17</v>
@@ -10851,12 +10911,14 @@
       <c r="CY10" s="44"/>
       <c r="CZ10" s="44"/>
       <c r="DA10" s="44"/>
-      <c r="DB10" s="34"/>
-      <c r="DC10" s="50"/>
+      <c r="DB10" s="44"/>
+      <c r="DC10" s="44"/>
       <c r="DD10" s="34"/>
       <c r="DE10" s="50"/>
+      <c r="DF10" s="34"/>
+      <c r="DG10" s="50"/>
     </row>
-    <row r="11" spans="1:111" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:113" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -10962,20 +11024,22 @@
       <c r="CY11" s="44"/>
       <c r="CZ11" s="44"/>
       <c r="DA11" s="44"/>
-      <c r="DB11" s="34"/>
-      <c r="DC11" s="50"/>
+      <c r="DB11" s="44"/>
+      <c r="DC11" s="44"/>
       <c r="DD11" s="34"/>
       <c r="DE11" s="50"/>
+      <c r="DF11" s="34"/>
+      <c r="DG11" s="50"/>
     </row>
-    <row r="12" spans="1:111" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:113" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
       <c r="G12" s="61"/>
       <c r="H12" s="61"/>
       <c r="I12" s="61"/>
@@ -11075,20 +11139,22 @@
       <c r="CY12" s="61"/>
       <c r="CZ12" s="61"/>
       <c r="DA12" s="61"/>
-      <c r="DB12" s="35"/>
-      <c r="DC12" s="62"/>
+      <c r="DB12" s="61"/>
+      <c r="DC12" s="61"/>
       <c r="DD12" s="35"/>
-      <c r="DE12" s="35"/>
-      <c r="DF12" s="82"/>
-      <c r="DG12" s="82"/>
+      <c r="DE12" s="62"/>
+      <c r="DF12" s="35"/>
+      <c r="DG12" s="35"/>
+      <c r="DH12" s="82"/>
+      <c r="DI12" s="82"/>
     </row>
-    <row r="13" spans="1:111" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:113" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
       <c r="G13" s="61"/>
       <c r="H13" s="61"/>
       <c r="I13" s="61"/>
@@ -11188,26 +11254,28 @@
       <c r="CY13" s="61"/>
       <c r="CZ13" s="61"/>
       <c r="DA13" s="61"/>
-      <c r="DB13" s="35"/>
-      <c r="DC13" s="62"/>
-      <c r="DD13" s="36"/>
-      <c r="DE13" s="36"/>
-      <c r="DF13" s="82"/>
-      <c r="DG13" s="82"/>
+      <c r="DB13" s="61"/>
+      <c r="DC13" s="61"/>
+      <c r="DD13" s="35"/>
+      <c r="DE13" s="62"/>
+      <c r="DF13" s="36"/>
+      <c r="DG13" s="36"/>
+      <c r="DH13" s="82"/>
+      <c r="DI13" s="82"/>
     </row>
-    <row r="14" spans="1:111" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:113" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="132" t="s">
         <v>490</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="130"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="61"/>
       <c r="L14" s="61"/>
       <c r="M14" s="61"/>
@@ -11303,14 +11371,16 @@
       <c r="CY14" s="61"/>
       <c r="CZ14" s="61"/>
       <c r="DA14" s="61"/>
-      <c r="DB14" s="35"/>
-      <c r="DC14" s="62"/>
-      <c r="DD14" s="36"/>
-      <c r="DE14" s="36"/>
-      <c r="DF14" s="82"/>
-      <c r="DG14" s="82"/>
+      <c r="DB14" s="61"/>
+      <c r="DC14" s="61"/>
+      <c r="DD14" s="35"/>
+      <c r="DE14" s="62"/>
+      <c r="DF14" s="36"/>
+      <c r="DG14" s="36"/>
+      <c r="DH14" s="82"/>
+      <c r="DI14" s="82"/>
     </row>
-    <row r="15" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -11375,27 +11445,29 @@
       <c r="CT15" s="60"/>
       <c r="CU15" s="60"/>
       <c r="CV15" s="60"/>
-      <c r="CW15" s="42" t="s">
+      <c r="CW15" s="60"/>
+      <c r="CX15" s="60"/>
+      <c r="CY15" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="CX15" s="60"/>
-      <c r="CY15" s="60"/>
       <c r="CZ15" s="60"/>
       <c r="DA15" s="60"/>
-      <c r="DB15" s="41"/>
-      <c r="DC15" s="64"/>
-      <c r="DD15" s="37"/>
-      <c r="DE15" s="37"/>
-      <c r="DF15" s="82"/>
-      <c r="DG15" s="82"/>
+      <c r="DB15" s="60"/>
+      <c r="DC15" s="60"/>
+      <c r="DD15" s="41"/>
+      <c r="DE15" s="64"/>
+      <c r="DF15" s="37"/>
+      <c r="DG15" s="37"/>
+      <c r="DH15" s="82"/>
+      <c r="DI15" s="82"/>
     </row>
-    <row r="16" spans="1:111" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:113" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="71" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="72">
@@ -11701,16 +11773,22 @@
       <c r="DA16" s="72">
         <v>43991</v>
       </c>
-      <c r="DB16" s="38"/>
-      <c r="DC16" s="72" t="s">
-        <v>23</v>
+      <c r="DB16" s="72">
+        <v>43992</v>
+      </c>
+      <c r="DC16" s="72">
+        <v>43993</v>
       </c>
       <c r="DD16" s="38"/>
       <c r="DE16" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="DF16" s="38"/>
+      <c r="DG16" s="72" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:124" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A17" s="51"/>
       <c r="B17" s="118" t="s">
         <v>28</v>
@@ -11888,16 +11966,16 @@
         <v>20</v>
       </c>
       <c r="BI17" s="74">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BJ17" s="74">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BK17" s="74">
         <v>34</v>
       </c>
       <c r="BL17" s="74">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BM17" s="74">
         <v>27</v>
@@ -11918,13 +11996,13 @@
         <v>26</v>
       </c>
       <c r="BS17" s="74">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BT17" s="74">
         <v>28</v>
       </c>
       <c r="BU17" s="74">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BV17" s="74">
         <v>14</v>
@@ -11957,7 +12035,7 @@
         <v>21</v>
       </c>
       <c r="CF17" s="74">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CG17" s="74">
         <v>16</v>
@@ -11993,45 +12071,51 @@
         <v>15</v>
       </c>
       <c r="CR17" s="74">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CS17" s="74">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CT17" s="74">
+        <v>8</v>
+      </c>
+      <c r="CU17" s="74">
+        <v>15</v>
+      </c>
+      <c r="CV17" s="74">
+        <v>9</v>
+      </c>
+      <c r="CW17" s="74">
+        <v>13</v>
+      </c>
+      <c r="CX17" s="74">
         <v>7</v>
       </c>
-      <c r="CU17" s="74">
-        <v>14</v>
-      </c>
-      <c r="CV17" s="74">
-        <v>8</v>
-      </c>
-      <c r="CW17" s="74">
-        <v>12</v>
-      </c>
-      <c r="CX17" s="74">
+      <c r="CY17" s="74">
+        <v>5</v>
+      </c>
+      <c r="CZ17" s="74">
         <v>6</v>
       </c>
-      <c r="CY17" s="74">
-        <v>3</v>
-      </c>
-      <c r="CZ17" s="74">
-        <v>4</v>
-      </c>
       <c r="DA17" s="74">
-        <v>1</v>
-      </c>
-      <c r="DB17" s="39"/>
-      <c r="DC17" s="75">
+        <v>6</v>
+      </c>
+      <c r="DB17" s="74">
+        <v>5</v>
+      </c>
+      <c r="DC17" s="74">
         <v>0</v>
       </c>
       <c r="DD17" s="39"/>
       <c r="DE17" s="75">
-        <v>934</v>
+        <v>0</v>
+      </c>
+      <c r="DF17" s="39"/>
+      <c r="DG17" s="75">
+        <v>962</v>
       </c>
     </row>
-    <row r="18" spans="1:124" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:126" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -12137,11 +12221,11 @@
       <c r="CY18" s="76"/>
       <c r="CZ18" s="76"/>
       <c r="DA18" s="76"/>
-      <c r="DB18" s="40"/>
+      <c r="DB18" s="76"/>
       <c r="DC18" s="76"/>
       <c r="DD18" s="40"/>
       <c r="DE18" s="76"/>
-      <c r="DF18" s="76"/>
+      <c r="DF18" s="40"/>
       <c r="DG18" s="76"/>
       <c r="DH18" s="76"/>
       <c r="DI18" s="76"/>
@@ -12156,14 +12240,16 @@
       <c r="DR18" s="76"/>
       <c r="DS18" s="76"/>
       <c r="DT18" s="76"/>
+      <c r="DU18" s="76"/>
+      <c r="DV18" s="76"/>
     </row>
-    <row r="19" spans="1:124" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A19" s="63"/>
       <c r="B19" s="120" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="121"/>
-      <c r="D19" s="131">
+      <c r="D19" s="127">
         <v>0</v>
       </c>
       <c r="E19" s="103">
@@ -12404,7 +12490,7 @@
         <v>2</v>
       </c>
       <c r="CF19" s="103">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CG19" s="103">
         <v>0</v>
@@ -12446,7 +12532,7 @@
         <v>1</v>
       </c>
       <c r="CT19" s="103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CU19" s="103">
         <v>2</v>
@@ -12466,17 +12552,23 @@
       <c r="CZ19" s="103">
         <v>1</v>
       </c>
-      <c r="DA19" s="104">
+      <c r="DA19" s="103">
+        <v>2</v>
+      </c>
+      <c r="DB19" s="103">
         <v>0</v>
       </c>
       <c r="DC19" s="104">
         <v>0</v>
       </c>
-      <c r="DE19" s="105">
-        <v>146</v>
+      <c r="DE19" s="104">
+        <v>0</v>
+      </c>
+      <c r="DG19" s="105">
+        <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:124" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A20" s="63"/>
       <c r="B20" s="122" t="s">
         <v>30</v>
@@ -12759,7 +12851,7 @@
         <v>1</v>
       </c>
       <c r="CR20" s="106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CS20" s="106">
         <v>2</v>
@@ -12771,7 +12863,7 @@
         <v>0</v>
       </c>
       <c r="CV20" s="106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW20" s="106">
         <v>1</v>
@@ -12785,17 +12877,23 @@
       <c r="CZ20" s="106">
         <v>0</v>
       </c>
-      <c r="DA20" s="78">
-        <v>0</v>
-      </c>
-      <c r="DC20" s="100">
-        <v>0</v>
-      </c>
-      <c r="DE20" s="107">
-        <v>181</v>
+      <c r="DA20" s="106">
+        <v>1</v>
+      </c>
+      <c r="DB20" s="106">
+        <v>0</v>
+      </c>
+      <c r="DC20" s="78">
+        <v>0</v>
+      </c>
+      <c r="DE20" s="100">
+        <v>0</v>
+      </c>
+      <c r="DG20" s="107">
+        <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:124" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A21" s="63"/>
       <c r="B21" s="122" t="s">
         <v>31</v>
@@ -13093,28 +13191,34 @@
         <v>3</v>
       </c>
       <c r="CW21" s="106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CX21" s="106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CY21" s="106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CZ21" s="106">
-        <v>1</v>
-      </c>
-      <c r="DA21" s="78">
-        <v>0</v>
-      </c>
-      <c r="DC21" s="100">
-        <v>0</v>
-      </c>
-      <c r="DE21" s="108">
-        <v>173</v>
+        <v>3</v>
+      </c>
+      <c r="DA21" s="106">
+        <v>1</v>
+      </c>
+      <c r="DB21" s="106">
+        <v>2</v>
+      </c>
+      <c r="DC21" s="78">
+        <v>0</v>
+      </c>
+      <c r="DE21" s="100">
+        <v>0</v>
+      </c>
+      <c r="DG21" s="108">
+        <v>181</v>
       </c>
     </row>
-    <row r="22" spans="1:124" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A22" s="63"/>
       <c r="B22" s="122" t="s">
         <v>32</v>
@@ -13423,17 +13527,23 @@
       <c r="CZ22" s="106">
         <v>2</v>
       </c>
-      <c r="DA22" s="78">
-        <v>1</v>
-      </c>
-      <c r="DC22" s="100">
-        <v>0</v>
-      </c>
-      <c r="DE22" s="109">
-        <v>107</v>
+      <c r="DA22" s="106">
+        <v>2</v>
+      </c>
+      <c r="DB22" s="106">
+        <v>1</v>
+      </c>
+      <c r="DC22" s="78">
+        <v>0</v>
+      </c>
+      <c r="DE22" s="100">
+        <v>0</v>
+      </c>
+      <c r="DG22" s="109">
+        <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:124" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A23" s="63"/>
       <c r="B23" s="122" t="s">
         <v>33</v>
@@ -13737,22 +13847,28 @@
         <v>0</v>
       </c>
       <c r="CY23" s="106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ23" s="106">
         <v>0</v>
       </c>
-      <c r="DA23" s="78">
-        <v>0</v>
-      </c>
-      <c r="DC23" s="100">
-        <v>0</v>
-      </c>
-      <c r="DE23" s="109">
-        <v>110</v>
+      <c r="DA23" s="106">
+        <v>0</v>
+      </c>
+      <c r="DB23" s="106">
+        <v>2</v>
+      </c>
+      <c r="DC23" s="78">
+        <v>0</v>
+      </c>
+      <c r="DE23" s="100">
+        <v>0</v>
+      </c>
+      <c r="DG23" s="109">
+        <v>113</v>
       </c>
     </row>
-    <row r="24" spans="1:124" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A24" s="63"/>
       <c r="B24" s="122" t="s">
         <v>34</v>
@@ -13930,16 +14046,16 @@
         <v>5</v>
       </c>
       <c r="BI24" s="106">
+        <v>5</v>
+      </c>
+      <c r="BJ24" s="106">
         <v>4</v>
-      </c>
-      <c r="BJ24" s="106">
-        <v>3</v>
       </c>
       <c r="BK24" s="106">
         <v>8</v>
       </c>
       <c r="BL24" s="106">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BM24" s="106">
         <v>3</v>
@@ -13960,13 +14076,13 @@
         <v>3</v>
       </c>
       <c r="BS24" s="106">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BT24" s="106">
         <v>2</v>
       </c>
       <c r="BU24" s="106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BV24" s="106">
         <v>4</v>
@@ -14038,7 +14154,7 @@
         <v>3</v>
       </c>
       <c r="CS24" s="106">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CT24" s="106">
         <v>0</v>
@@ -14061,17 +14177,23 @@
       <c r="CZ24" s="106">
         <v>0</v>
       </c>
-      <c r="DA24" s="78">
+      <c r="DA24" s="106">
+        <v>0</v>
+      </c>
+      <c r="DB24" s="106">
         <v>0</v>
       </c>
       <c r="DC24" s="78">
         <v>0</v>
       </c>
-      <c r="DE24" s="109">
-        <v>147</v>
+      <c r="DE24" s="78">
+        <v>0</v>
+      </c>
+      <c r="DG24" s="109">
+        <v>154</v>
       </c>
     </row>
-    <row r="25" spans="1:124" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A25" s="63"/>
       <c r="B25" s="124" t="s">
         <v>35</v>
@@ -14363,7 +14485,7 @@
         <v>0</v>
       </c>
       <c r="CU25" s="111">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CV25" s="111">
         <v>1</v>
@@ -14380,23 +14502,29 @@
       <c r="CZ25" s="111">
         <v>0</v>
       </c>
-      <c r="DA25" s="112">
+      <c r="DA25" s="111">
+        <v>0</v>
+      </c>
+      <c r="DB25" s="111">
         <v>0</v>
       </c>
       <c r="DC25" s="112">
         <v>0</v>
       </c>
-      <c r="DE25" s="113">
-        <v>70</v>
+      <c r="DE25" s="112">
+        <v>0</v>
+      </c>
+      <c r="DG25" s="113">
+        <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:124" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A26" s="51"/>
     </row>
-    <row r="27" spans="1:124" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:126" x14ac:dyDescent="0.3">
       <c r="A27" s="51"/>
     </row>
-    <row r="28" spans="1:124" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:126" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
     </row>
   </sheetData>
@@ -14405,8 +14533,8 @@
     <mergeCell ref="C3:N3"/>
     <mergeCell ref="B14:I14"/>
   </mergeCells>
-  <conditionalFormatting sqref="BZ16:DA25">
-    <cfRule type="expression" dxfId="9" priority="1">
+  <conditionalFormatting sqref="BZ16:DC25">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>TODAY()-BZ$16&lt;6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14417,14 +14545,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:DS27"/>
+  <dimension ref="A1:DU27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="18" topLeftCell="D19" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -14432,15 +14555,15 @@
     <col min="2" max="2" width="14.6640625" style="42" customWidth="1"/>
     <col min="3" max="3" width="41.5546875" style="42" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="42" customWidth="1"/>
-    <col min="5" max="105" width="15.44140625" style="42" customWidth="1"/>
-    <col min="106" max="106" width="2.5546875" style="42" customWidth="1"/>
-    <col min="107" max="107" width="15.33203125" style="42" customWidth="1"/>
+    <col min="5" max="107" width="15.44140625" style="42" customWidth="1"/>
     <col min="108" max="108" width="2.5546875" style="42" customWidth="1"/>
-    <col min="109" max="109" width="15.44140625" style="42" customWidth="1"/>
-    <col min="110" max="16384" width="8.88671875" style="42"/>
+    <col min="109" max="109" width="15.33203125" style="42" customWidth="1"/>
+    <col min="110" max="110" width="2.5546875" style="42" customWidth="1"/>
+    <col min="111" max="111" width="15.44140625" style="42" customWidth="1"/>
+    <col min="112" max="16384" width="8.88671875" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:110" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:112" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43"/>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -14550,8 +14673,10 @@
       <c r="DC1" s="43"/>
       <c r="DD1" s="43"/>
       <c r="DE1" s="43"/>
+      <c r="DF1" s="43"/>
+      <c r="DG1" s="43"/>
     </row>
-    <row r="2" spans="1:110" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:112" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="45" t="s">
         <v>4</v>
@@ -14559,10 +14684,10 @@
       <c r="C2" s="46" t="s">
         <v>480</v>
       </c>
-      <c r="D2" s="129"/>
+      <c r="D2" s="126"/>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
-      <c r="G2" s="129"/>
+      <c r="G2" s="126"/>
       <c r="H2" s="44"/>
       <c r="I2" s="49"/>
       <c r="J2" s="44"/>
@@ -14667,44 +14792,46 @@
       <c r="DC2" s="44"/>
       <c r="DD2" s="44"/>
       <c r="DE2" s="44"/>
+      <c r="DF2" s="44"/>
+      <c r="DG2" s="44"/>
     </row>
-    <row r="3" spans="1:110" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:112" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="128" t="s">
         <v>491</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
       <c r="K3" s="44"/>
       <c r="L3" s="44"/>
       <c r="M3" s="44"/>
-      <c r="N3" s="128"/>
+      <c r="N3" s="52"/>
       <c r="O3" s="44"/>
       <c r="P3" s="44"/>
       <c r="Q3" s="44"/>
-      <c r="R3" s="128"/>
+      <c r="R3" s="52"/>
       <c r="S3" s="44"/>
       <c r="T3" s="44"/>
-      <c r="U3" s="128"/>
+      <c r="U3" s="52"/>
       <c r="V3" s="44"/>
       <c r="W3" s="44"/>
       <c r="X3" s="44"/>
-      <c r="Y3" s="128"/>
+      <c r="Y3" s="52"/>
       <c r="Z3" s="44"/>
       <c r="AA3" s="44"/>
-      <c r="AB3" s="128"/>
+      <c r="AB3" s="52"/>
       <c r="AC3" s="44"/>
       <c r="AD3" s="44"/>
       <c r="AE3" s="44"/>
-      <c r="AF3" s="128"/>
+      <c r="AF3" s="52"/>
       <c r="AG3" s="44"/>
       <c r="AH3" s="44"/>
       <c r="AI3" s="44"/>
@@ -14782,8 +14909,10 @@
       <c r="DC3" s="44"/>
       <c r="DD3" s="44"/>
       <c r="DE3" s="44"/>
+      <c r="DF3" s="44"/>
+      <c r="DG3" s="44"/>
     </row>
-    <row r="4" spans="1:110" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:112" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="53" t="s">
         <v>7</v>
@@ -14897,8 +15026,10 @@
       <c r="DC4" s="44"/>
       <c r="DD4" s="44"/>
       <c r="DE4" s="44"/>
+      <c r="DF4" s="44"/>
+      <c r="DG4" s="44"/>
     </row>
-    <row r="5" spans="1:110" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:112" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="44"/>
       <c r="B5" s="53" t="s">
         <v>8</v>
@@ -15012,8 +15143,10 @@
       <c r="DC5" s="44"/>
       <c r="DD5" s="44"/>
       <c r="DE5" s="44"/>
+      <c r="DF5" s="44"/>
+      <c r="DG5" s="44"/>
     </row>
-    <row r="6" spans="1:110" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:112" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="44"/>
       <c r="B6" s="53" t="s">
         <v>10</v>
@@ -15127,8 +15260,10 @@
       <c r="DC6" s="44"/>
       <c r="DD6" s="44"/>
       <c r="DE6" s="44"/>
+      <c r="DF6" s="44"/>
+      <c r="DG6" s="44"/>
     </row>
-    <row r="7" spans="1:110" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:112" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44"/>
       <c r="B7" s="53" t="s">
         <v>12</v>
@@ -15242,8 +15377,10 @@
       <c r="DC7" s="44"/>
       <c r="DD7" s="44"/>
       <c r="DE7" s="44"/>
+      <c r="DF7" s="44"/>
+      <c r="DG7" s="44"/>
     </row>
-    <row r="8" spans="1:110" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:112" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44"/>
       <c r="B8" s="53" t="s">
         <v>13</v>
@@ -15357,8 +15494,10 @@
       <c r="DC8" s="44"/>
       <c r="DD8" s="44"/>
       <c r="DE8" s="44"/>
+      <c r="DF8" s="44"/>
+      <c r="DG8" s="44"/>
     </row>
-    <row r="9" spans="1:110" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:112" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="44"/>
       <c r="B9" s="53" t="s">
         <v>15</v>
@@ -15472,8 +15611,10 @@
       <c r="DC9" s="44"/>
       <c r="DD9" s="44"/>
       <c r="DE9" s="44"/>
+      <c r="DF9" s="44"/>
+      <c r="DG9" s="44"/>
     </row>
-    <row r="10" spans="1:110" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:112" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="53" t="s">
         <v>17</v>
@@ -15587,8 +15728,10 @@
       <c r="DC10" s="44"/>
       <c r="DD10" s="44"/>
       <c r="DE10" s="44"/>
+      <c r="DF10" s="44"/>
+      <c r="DG10" s="44"/>
     </row>
-    <row r="11" spans="1:110" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:112" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -15698,16 +15841,18 @@
       <c r="DC11" s="44"/>
       <c r="DD11" s="44"/>
       <c r="DE11" s="44"/>
+      <c r="DF11" s="44"/>
+      <c r="DG11" s="44"/>
     </row>
-    <row r="12" spans="1:110" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:112" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="130" t="s">
         <v>484</v>
       </c>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="129"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="61"/>
       <c r="H12" s="61"/>
       <c r="I12" s="61"/>
@@ -15811,15 +15956,17 @@
       <c r="DC12" s="61"/>
       <c r="DD12" s="61"/>
       <c r="DE12" s="61"/>
-      <c r="DF12" s="82"/>
+      <c r="DF12" s="61"/>
+      <c r="DG12" s="61"/>
+      <c r="DH12" s="82"/>
     </row>
-    <row r="13" spans="1:110" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:112" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
       <c r="G13" s="61"/>
       <c r="H13" s="61"/>
       <c r="I13" s="61"/>
@@ -15923,21 +16070,23 @@
       <c r="DC13" s="61"/>
       <c r="DD13" s="61"/>
       <c r="DE13" s="61"/>
-      <c r="DF13" s="82"/>
+      <c r="DF13" s="61"/>
+      <c r="DG13" s="61"/>
+      <c r="DH13" s="82"/>
     </row>
-    <row r="14" spans="1:110" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:112" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="132" t="s">
         <v>490</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="130"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="134"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="61"/>
       <c r="L14" s="61"/>
       <c r="M14" s="61"/>
@@ -16037,9 +16186,11 @@
       <c r="DC14" s="61"/>
       <c r="DD14" s="61"/>
       <c r="DE14" s="61"/>
-      <c r="DF14" s="82"/>
+      <c r="DF14" s="61"/>
+      <c r="DG14" s="61"/>
+      <c r="DH14" s="82"/>
     </row>
-    <row r="15" spans="1:110" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:112" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -16092,22 +16243,22 @@
       <c r="BS15" s="44"/>
       <c r="BT15" s="44"/>
       <c r="BU15" s="44"/>
-      <c r="CW15" s="42" t="s">
+      <c r="CY15" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="DB15" s="41"/>
-      <c r="DC15" s="64"/>
-      <c r="DD15" s="37"/>
-      <c r="DE15" s="37"/>
-      <c r="DF15" s="82"/>
+      <c r="DD15" s="41"/>
+      <c r="DE15" s="64"/>
+      <c r="DF15" s="37"/>
+      <c r="DG15" s="37"/>
+      <c r="DH15" s="82"/>
     </row>
-    <row r="16" spans="1:110" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:112" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="133"/>
-      <c r="D16" s="133" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="71" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="72">
@@ -16413,21 +16564,27 @@
       <c r="DA16" s="72">
         <v>43991</v>
       </c>
-      <c r="DB16" s="38"/>
-      <c r="DC16" s="72" t="s">
-        <v>23</v>
+      <c r="DB16" s="72">
+        <v>43992</v>
+      </c>
+      <c r="DC16" s="72">
+        <v>43993</v>
       </c>
       <c r="DD16" s="38"/>
       <c r="DE16" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="DF16" s="38"/>
+      <c r="DG16" s="72" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:123" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A17" s="51"/>
-      <c r="B17" s="147" t="s">
+      <c r="B17" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="148"/>
+      <c r="C17" s="142"/>
       <c r="D17" s="74">
         <v>0</v>
       </c>
@@ -16477,7 +16634,7 @@
         <v>28</v>
       </c>
       <c r="T17" s="74">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U17" s="74">
         <v>48</v>
@@ -16489,7 +16646,7 @@
         <v>64</v>
       </c>
       <c r="X17" s="74">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y17" s="74">
         <v>104</v>
@@ -16525,7 +16682,7 @@
         <v>574</v>
       </c>
       <c r="AJ17" s="74">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="AK17" s="74">
         <v>644</v>
@@ -16588,7 +16745,7 @@
         <v>484</v>
       </c>
       <c r="BE17" s="74">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="BF17" s="74">
         <v>451</v>
@@ -16651,7 +16808,7 @@
         <v>183</v>
       </c>
       <c r="BZ17" s="74">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CA17" s="74">
         <v>177</v>
@@ -16666,7 +16823,7 @@
         <v>137</v>
       </c>
       <c r="CE17" s="74">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="CF17" s="74">
         <v>142</v>
@@ -16684,7 +16841,7 @@
         <v>128</v>
       </c>
       <c r="CK17" s="74">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="CL17" s="74">
         <v>133</v>
@@ -16699,51 +16856,57 @@
         <v>120</v>
       </c>
       <c r="CP17" s="74">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="CQ17" s="74">
         <v>89</v>
       </c>
       <c r="CR17" s="74">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="CS17" s="74">
         <v>91</v>
       </c>
       <c r="CT17" s="74">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="CU17" s="74">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="CV17" s="74">
+        <v>80</v>
+      </c>
+      <c r="CW17" s="74">
+        <v>78</v>
+      </c>
+      <c r="CX17" s="74">
         <v>74</v>
       </c>
-      <c r="CW17" s="74">
-        <v>77</v>
-      </c>
-      <c r="CX17" s="74">
-        <v>67</v>
-      </c>
       <c r="CY17" s="74">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="CZ17" s="74">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="DA17" s="74">
-        <v>11</v>
-      </c>
-      <c r="DB17" s="39"/>
-      <c r="DC17" s="75">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="DB17" s="74">
+        <v>48</v>
+      </c>
+      <c r="DC17" s="74">
+        <v>10</v>
       </c>
       <c r="DD17" s="39"/>
       <c r="DE17" s="75">
-        <v>27706</v>
+        <v>0</v>
+      </c>
+      <c r="DF17" s="39"/>
+      <c r="DG17" s="75">
+        <v>27859</v>
       </c>
     </row>
-    <row r="18" spans="1:123" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:125" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="51"/>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -16849,14 +17012,14 @@
       <c r="CY18" s="76"/>
       <c r="CZ18" s="76"/>
       <c r="DA18" s="76"/>
-      <c r="DB18" s="40"/>
+      <c r="DB18" s="76"/>
       <c r="DC18" s="76"/>
       <c r="DD18" s="40"/>
-      <c r="DE18" s="76">
-        <v>0</v>
-      </c>
-      <c r="DF18" s="76"/>
-      <c r="DG18" s="76"/>
+      <c r="DE18" s="76"/>
+      <c r="DF18" s="40"/>
+      <c r="DG18" s="76">
+        <v>0</v>
+      </c>
       <c r="DH18" s="76"/>
       <c r="DI18" s="76"/>
       <c r="DJ18" s="76"/>
@@ -16869,14 +17032,16 @@
       <c r="DQ18" s="76"/>
       <c r="DR18" s="76"/>
       <c r="DS18" s="76"/>
+      <c r="DT18" s="76"/>
+      <c r="DU18" s="76"/>
     </row>
-    <row r="19" spans="1:123" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A19" s="63"/>
-      <c r="B19" s="149" t="s">
+      <c r="B19" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="150"/>
-      <c r="D19" s="131">
+      <c r="C19" s="144"/>
+      <c r="D19" s="127">
         <v>0</v>
       </c>
       <c r="E19" s="103">
@@ -17179,24 +17344,30 @@
       <c r="CZ19" s="103">
         <v>0</v>
       </c>
-      <c r="DA19" s="104">
-        <v>0</v>
-      </c>
-      <c r="DB19" s="82"/>
+      <c r="DA19" s="103">
+        <v>0</v>
+      </c>
+      <c r="DB19" s="103">
+        <v>0</v>
+      </c>
       <c r="DC19" s="104">
         <v>0</v>
       </c>
       <c r="DD19" s="82"/>
-      <c r="DE19" s="105">
+      <c r="DE19" s="104">
+        <v>0</v>
+      </c>
+      <c r="DF19" s="82"/>
+      <c r="DG19" s="105">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:123" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A20" s="63"/>
-      <c r="B20" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="144"/>
+      <c r="B20" s="137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="138"/>
       <c r="D20" s="84">
         <v>0</v>
       </c>
@@ -17498,26 +17669,32 @@
         <v>0</v>
       </c>
       <c r="CZ20" s="106">
-        <v>0</v>
-      </c>
-      <c r="DA20" s="78">
-        <v>0</v>
-      </c>
-      <c r="DB20" s="82"/>
-      <c r="DC20" s="100">
+        <v>1</v>
+      </c>
+      <c r="DA20" s="106">
+        <v>0</v>
+      </c>
+      <c r="DB20" s="106">
+        <v>3</v>
+      </c>
+      <c r="DC20" s="78">
         <v>0</v>
       </c>
       <c r="DD20" s="82"/>
-      <c r="DE20" s="107">
-        <v>196</v>
+      <c r="DE20" s="100">
+        <v>0</v>
+      </c>
+      <c r="DF20" s="82"/>
+      <c r="DG20" s="107">
+        <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:123" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A21" s="63"/>
-      <c r="B21" s="143" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="144"/>
+      <c r="B21" s="137" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="138"/>
       <c r="D21" s="84">
         <v>0</v>
       </c>
@@ -17789,7 +17966,7 @@
         <v>8</v>
       </c>
       <c r="CP21" s="106">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CQ21" s="106">
         <v>4</v>
@@ -17821,24 +17998,30 @@
       <c r="CZ21" s="106">
         <v>6</v>
       </c>
-      <c r="DA21" s="78">
-        <v>1</v>
-      </c>
-      <c r="DB21" s="82"/>
-      <c r="DC21" s="100">
+      <c r="DA21" s="106">
+        <v>5</v>
+      </c>
+      <c r="DB21" s="106">
+        <v>2</v>
+      </c>
+      <c r="DC21" s="78">
         <v>0</v>
       </c>
       <c r="DD21" s="82"/>
-      <c r="DE21" s="108">
-        <v>2173</v>
+      <c r="DE21" s="100">
+        <v>0</v>
+      </c>
+      <c r="DF21" s="82"/>
+      <c r="DG21" s="108">
+        <v>2180</v>
       </c>
     </row>
-    <row r="22" spans="1:123" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A22" s="63"/>
-      <c r="B22" s="143" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="144"/>
+      <c r="B22" s="137" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="138"/>
       <c r="D22" s="84">
         <v>0</v>
       </c>
@@ -17936,7 +18119,7 @@
         <v>258</v>
       </c>
       <c r="AJ22" s="106">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AK22" s="106">
         <v>247</v>
@@ -17999,7 +18182,7 @@
         <v>164</v>
       </c>
       <c r="BE22" s="106">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="BF22" s="106">
         <v>170</v>
@@ -18116,50 +18299,56 @@
         <v>36</v>
       </c>
       <c r="CR22" s="106">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CS22" s="106">
         <v>21</v>
       </c>
       <c r="CT22" s="106">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="CU22" s="106">
         <v>39</v>
       </c>
       <c r="CV22" s="106">
+        <v>23</v>
+      </c>
+      <c r="CW22" s="106">
+        <v>29</v>
+      </c>
+      <c r="CX22" s="106">
+        <v>25</v>
+      </c>
+      <c r="CY22" s="106">
+        <v>29</v>
+      </c>
+      <c r="CZ22" s="106">
         <v>22</v>
       </c>
-      <c r="CW22" s="106">
-        <v>28</v>
-      </c>
-      <c r="CX22" s="106">
-        <v>21</v>
-      </c>
-      <c r="CY22" s="106">
-        <v>23</v>
-      </c>
-      <c r="CZ22" s="106">
+      <c r="DA22" s="106">
+        <v>15</v>
+      </c>
+      <c r="DB22" s="106">
         <v>16</v>
       </c>
-      <c r="DA22" s="78">
-        <v>2</v>
-      </c>
-      <c r="DB22" s="82"/>
-      <c r="DC22" s="100">
-        <v>0</v>
+      <c r="DC22" s="78">
+        <v>2</v>
       </c>
       <c r="DD22" s="82"/>
-      <c r="DE22" s="109">
-        <v>10556</v>
+      <c r="DE22" s="100">
+        <v>0</v>
+      </c>
+      <c r="DF22" s="82"/>
+      <c r="DG22" s="109">
+        <v>10612</v>
       </c>
     </row>
-    <row r="23" spans="1:123" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A23" s="63"/>
-      <c r="B23" s="143" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="144"/>
+      <c r="B23" s="137" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="138"/>
       <c r="D23" s="84">
         <v>0</v>
       </c>
@@ -18209,7 +18398,7 @@
         <v>10</v>
       </c>
       <c r="T23" s="106">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="U23" s="106">
         <v>33</v>
@@ -18221,7 +18410,7 @@
         <v>37</v>
       </c>
       <c r="X23" s="106">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Y23" s="106">
         <v>52</v>
@@ -18383,7 +18572,7 @@
         <v>92</v>
       </c>
       <c r="BZ23" s="106">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CA23" s="106">
         <v>106</v>
@@ -18398,7 +18587,7 @@
         <v>78</v>
       </c>
       <c r="CE23" s="106">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="CF23" s="106">
         <v>90</v>
@@ -18416,7 +18605,7 @@
         <v>75</v>
       </c>
       <c r="CK23" s="106">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="CL23" s="106">
         <v>75</v>
@@ -18443,44 +18632,50 @@
         <v>62</v>
       </c>
       <c r="CT23" s="106">
+        <v>53</v>
+      </c>
+      <c r="CU23" s="106">
+        <v>60</v>
+      </c>
+      <c r="CV23" s="106">
         <v>52</v>
-      </c>
-      <c r="CU23" s="106">
-        <v>57</v>
-      </c>
-      <c r="CV23" s="106">
-        <v>47</v>
       </c>
       <c r="CW23" s="106">
         <v>47</v>
       </c>
       <c r="CX23" s="106">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="CY23" s="106">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="CZ23" s="106">
-        <v>28</v>
-      </c>
-      <c r="DA23" s="78">
+        <v>33</v>
+      </c>
+      <c r="DA23" s="106">
+        <v>34</v>
+      </c>
+      <c r="DB23" s="106">
+        <v>27</v>
+      </c>
+      <c r="DC23" s="78">
         <v>8</v>
       </c>
-      <c r="DB23" s="82"/>
-      <c r="DC23" s="100">
-        <v>0</v>
-      </c>
       <c r="DD23" s="82"/>
-      <c r="DE23" s="109">
-        <v>14763</v>
+      <c r="DE23" s="100">
+        <v>0</v>
+      </c>
+      <c r="DF23" s="82"/>
+      <c r="DG23" s="109">
+        <v>14849</v>
       </c>
     </row>
-    <row r="24" spans="1:123" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A24" s="63"/>
-      <c r="B24" s="145" t="s">
+      <c r="B24" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="146"/>
+      <c r="C24" s="140"/>
       <c r="D24" s="85">
         <v>0</v>
       </c>
@@ -18784,19 +18979,25 @@
       <c r="CZ24" s="114">
         <v>0</v>
       </c>
-      <c r="DA24" s="80">
-        <v>0</v>
-      </c>
-      <c r="DB24" s="82"/>
+      <c r="DA24" s="114">
+        <v>0</v>
+      </c>
+      <c r="DB24" s="114">
+        <v>0</v>
+      </c>
       <c r="DC24" s="80">
         <v>0</v>
       </c>
       <c r="DD24" s="82"/>
-      <c r="DE24" s="113">
+      <c r="DE24" s="80">
+        <v>0</v>
+      </c>
+      <c r="DF24" s="82"/>
+      <c r="DG24" s="113">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:123" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A25" s="51"/>
       <c r="B25" s="115"/>
       <c r="C25" s="115"/>
@@ -18809,10 +19010,10 @@
       <c r="J25" s="115"/>
       <c r="K25" s="115"/>
     </row>
-    <row r="26" spans="1:123" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:125" x14ac:dyDescent="0.3">
       <c r="A26" s="51"/>
     </row>
-    <row r="27" spans="1:123" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:125" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
     </row>
   </sheetData>
@@ -18828,8 +19029,8 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B12:E12"/>
   </mergeCells>
-  <conditionalFormatting sqref="BZ16:DA24">
-    <cfRule type="expression" dxfId="7" priority="1">
+  <conditionalFormatting sqref="BZ16:DC24">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>TODAY()-BZ$16&lt;6</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18840,14 +19041,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:DU245"/>
+  <dimension ref="A1:DW245"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="18" topLeftCell="F19" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18856,16 +19052,16 @@
     <col min="3" max="3" width="24.33203125" style="63" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="63" customWidth="1"/>
     <col min="5" max="5" width="87.6640625" style="63" bestFit="1" customWidth="1"/>
-    <col min="6" max="107" width="15.44140625" style="63" customWidth="1"/>
-    <col min="108" max="108" width="2.6640625" style="63" customWidth="1"/>
-    <col min="109" max="109" width="15.44140625" style="63" customWidth="1"/>
+    <col min="6" max="109" width="15.44140625" style="63" customWidth="1"/>
     <col min="110" max="110" width="2.6640625" style="63" customWidth="1"/>
-    <col min="111" max="117" width="15.33203125" style="63" customWidth="1"/>
-    <col min="118" max="16384" width="9.109375" style="63"/>
+    <col min="111" max="111" width="15.44140625" style="63" customWidth="1"/>
+    <col min="112" max="112" width="2.6640625" style="63" customWidth="1"/>
+    <col min="113" max="119" width="15.33203125" style="63" customWidth="1"/>
+    <col min="120" max="16384" width="9.109375" style="63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:111" s="43" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:111" s="51" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:113" s="43" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:113" s="51" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44"/>
       <c r="B2" s="45" t="s">
         <v>4</v>
@@ -18983,25 +19179,27 @@
       <c r="DA2" s="59"/>
       <c r="DB2" s="59"/>
       <c r="DC2" s="59"/>
-      <c r="DD2" s="50"/>
-      <c r="DE2" s="50"/>
+      <c r="DD2" s="59"/>
+      <c r="DE2" s="59"/>
       <c r="DF2" s="50"/>
+      <c r="DG2" s="50"/>
+      <c r="DH2" s="50"/>
     </row>
-    <row r="3" spans="1:111" s="51" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:113" s="51" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44"/>
       <c r="B3" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="134" t="s">
+      <c r="C3" s="128" t="s">
         <v>492</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
       <c r="K3" s="44"/>
       <c r="L3" s="44"/>
       <c r="M3" s="52"/>
@@ -19099,11 +19297,13 @@
       <c r="DA3" s="44"/>
       <c r="DB3" s="44"/>
       <c r="DC3" s="44"/>
-      <c r="DD3" s="50"/>
-      <c r="DE3" s="50"/>
+      <c r="DD3" s="44"/>
+      <c r="DE3" s="44"/>
       <c r="DF3" s="50"/>
+      <c r="DG3" s="50"/>
+      <c r="DH3" s="50"/>
     </row>
-    <row r="4" spans="1:111" s="51" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:113" s="51" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44"/>
       <c r="B4" s="53" t="s">
         <v>7</v>
@@ -19215,11 +19415,13 @@
       <c r="DA4" s="44"/>
       <c r="DB4" s="44"/>
       <c r="DC4" s="44"/>
-      <c r="DD4" s="50"/>
-      <c r="DE4" s="50"/>
+      <c r="DD4" s="44"/>
+      <c r="DE4" s="44"/>
       <c r="DF4" s="50"/>
+      <c r="DG4" s="50"/>
+      <c r="DH4" s="50"/>
     </row>
-    <row r="5" spans="1:111" s="51" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:113" s="51" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="44"/>
       <c r="B5" s="53" t="s">
         <v>8</v>
@@ -19331,11 +19533,13 @@
       <c r="DA5" s="44"/>
       <c r="DB5" s="44"/>
       <c r="DC5" s="44"/>
-      <c r="DD5" s="50"/>
-      <c r="DE5" s="50"/>
+      <c r="DD5" s="44"/>
+      <c r="DE5" s="44"/>
       <c r="DF5" s="50"/>
+      <c r="DG5" s="50"/>
+      <c r="DH5" s="50"/>
     </row>
-    <row r="6" spans="1:111" s="51" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:113" s="51" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="44"/>
       <c r="B6" s="53" t="s">
         <v>10</v>
@@ -19447,11 +19651,13 @@
       <c r="DA6" s="44"/>
       <c r="DB6" s="44"/>
       <c r="DC6" s="44"/>
-      <c r="DD6" s="50"/>
-      <c r="DE6" s="50"/>
+      <c r="DD6" s="44"/>
+      <c r="DE6" s="44"/>
       <c r="DF6" s="50"/>
+      <c r="DG6" s="50"/>
+      <c r="DH6" s="50"/>
     </row>
-    <row r="7" spans="1:111" s="51" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:113" s="51" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="44"/>
       <c r="B7" s="53" t="s">
         <v>12</v>
@@ -19563,11 +19769,13 @@
       <c r="DA7" s="44"/>
       <c r="DB7" s="44"/>
       <c r="DC7" s="44"/>
-      <c r="DD7" s="50"/>
-      <c r="DE7" s="50"/>
+      <c r="DD7" s="44"/>
+      <c r="DE7" s="44"/>
       <c r="DF7" s="50"/>
+      <c r="DG7" s="50"/>
+      <c r="DH7" s="50"/>
     </row>
-    <row r="8" spans="1:111" s="51" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:113" s="51" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="44"/>
       <c r="B8" s="53" t="s">
         <v>13</v>
@@ -19679,11 +19887,13 @@
       <c r="DA8" s="44"/>
       <c r="DB8" s="44"/>
       <c r="DC8" s="44"/>
-      <c r="DD8" s="50"/>
-      <c r="DE8" s="50"/>
+      <c r="DD8" s="44"/>
+      <c r="DE8" s="44"/>
       <c r="DF8" s="50"/>
+      <c r="DG8" s="50"/>
+      <c r="DH8" s="50"/>
     </row>
-    <row r="9" spans="1:111" s="51" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:113" s="51" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="44"/>
       <c r="B9" s="53" t="s">
         <v>15</v>
@@ -19795,11 +20005,13 @@
       <c r="DA9" s="44"/>
       <c r="DB9" s="44"/>
       <c r="DC9" s="44"/>
-      <c r="DD9" s="50"/>
-      <c r="DE9" s="50"/>
+      <c r="DD9" s="44"/>
+      <c r="DE9" s="44"/>
       <c r="DF9" s="50"/>
+      <c r="DG9" s="50"/>
+      <c r="DH9" s="50"/>
     </row>
-    <row r="10" spans="1:111" s="51" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:113" s="51" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44"/>
       <c r="B10" s="53" t="s">
         <v>17</v>
@@ -19911,11 +20123,13 @@
       <c r="DA10" s="44"/>
       <c r="DB10" s="44"/>
       <c r="DC10" s="44"/>
-      <c r="DD10" s="68"/>
-      <c r="DE10" s="50"/>
+      <c r="DD10" s="44"/>
+      <c r="DE10" s="44"/>
       <c r="DF10" s="68"/>
+      <c r="DG10" s="50"/>
+      <c r="DH10" s="68"/>
     </row>
-    <row r="11" spans="1:111" s="51" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:113" s="51" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
@@ -20023,11 +20237,13 @@
       <c r="DA11" s="44"/>
       <c r="DB11" s="44"/>
       <c r="DC11" s="44"/>
-      <c r="DD11" s="50"/>
-      <c r="DE11" s="50"/>
+      <c r="DD11" s="44"/>
+      <c r="DE11" s="44"/>
       <c r="DF11" s="50"/>
+      <c r="DG11" s="50"/>
+      <c r="DH11" s="50"/>
     </row>
-    <row r="12" spans="1:111" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:113" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="44"/>
       <c r="B12" s="126" t="s">
         <v>37</v>
@@ -20137,11 +20353,13 @@
       <c r="DA12" s="61"/>
       <c r="DB12" s="61"/>
       <c r="DC12" s="61"/>
-      <c r="DD12" s="62"/>
-      <c r="DE12" s="62"/>
+      <c r="DD12" s="61"/>
+      <c r="DE12" s="61"/>
       <c r="DF12" s="62"/>
+      <c r="DG12" s="62"/>
+      <c r="DH12" s="62"/>
     </row>
-    <row r="13" spans="1:111" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:113" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="44"/>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -20249,20 +20467,22 @@
       <c r="DA13" s="61"/>
       <c r="DB13" s="61"/>
       <c r="DC13" s="61"/>
-      <c r="DD13" s="62"/>
-      <c r="DE13" s="62"/>
+      <c r="DD13" s="61"/>
+      <c r="DE13" s="61"/>
       <c r="DF13" s="62"/>
+      <c r="DG13" s="62"/>
+      <c r="DH13" s="62"/>
     </row>
-    <row r="14" spans="1:111" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:113" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="44"/>
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="132" t="s">
         <v>490</v>
       </c>
-      <c r="C14" s="139"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
       <c r="H14" s="89"/>
       <c r="I14" s="89"/>
       <c r="J14" s="89"/>
@@ -20363,11 +20583,13 @@
       <c r="DA14" s="61"/>
       <c r="DB14" s="61"/>
       <c r="DC14" s="61"/>
-      <c r="DD14" s="62"/>
-      <c r="DE14" s="62"/>
+      <c r="DD14" s="61"/>
+      <c r="DE14" s="61"/>
       <c r="DF14" s="62"/>
+      <c r="DG14" s="62"/>
+      <c r="DH14" s="62"/>
     </row>
-    <row r="15" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A15" s="44"/>
       <c r="B15" s="44"/>
       <c r="C15" s="44"/>
@@ -20456,25 +20678,28 @@
       <c r="CR15" s="44"/>
       <c r="CS15" s="44"/>
       <c r="CU15" s="44"/>
+      <c r="CV15" s="44"/>
       <c r="CW15" s="44"/>
       <c r="CX15" s="44"/>
-      <c r="CY15" s="44" t="s">
+      <c r="CY15" s="44"/>
+      <c r="CZ15" s="44"/>
+      <c r="DA15" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CZ15" s="44"/>
-      <c r="DA15" s="44"/>
       <c r="DB15" s="44"/>
       <c r="DC15" s="44"/>
-      <c r="DD15" s="64"/>
-      <c r="DE15" s="64"/>
+      <c r="DD15" s="44"/>
+      <c r="DE15" s="44"/>
       <c r="DF15" s="64"/>
+      <c r="DG15" s="64"/>
+      <c r="DH15" s="64"/>
     </row>
-    <row r="16" spans="1:111" s="73" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:113" s="73" customFormat="1" ht="25.2" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="145" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="152"/>
+      <c r="C16" s="146"/>
       <c r="D16" s="91" t="s">
         <v>38</v>
       </c>
@@ -20787,18 +21012,24 @@
       <c r="DC16" s="72">
         <v>43991</v>
       </c>
-      <c r="DE16" s="72" t="s">
+      <c r="DD16" s="72">
+        <v>43992</v>
+      </c>
+      <c r="DE16" s="72">
+        <v>43993</v>
+      </c>
+      <c r="DG16" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="DG16" s="72" t="s">
+      <c r="DI16" s="72" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:125" x14ac:dyDescent="0.3">
-      <c r="B17" s="147" t="s">
+    <row r="17" spans="1:127" x14ac:dyDescent="0.3">
+      <c r="B17" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="148"/>
+      <c r="C17" s="142"/>
       <c r="D17" s="93" t="s">
         <v>14</v>
       </c>
@@ -20854,7 +21085,7 @@
         <v>28</v>
       </c>
       <c r="V17" s="83">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W17" s="83">
         <v>48</v>
@@ -20866,7 +21097,7 @@
         <v>64</v>
       </c>
       <c r="Z17" s="83">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AA17" s="83">
         <v>104</v>
@@ -20902,7 +21133,7 @@
         <v>574</v>
       </c>
       <c r="AL17" s="83">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="AM17" s="83">
         <v>644</v>
@@ -20965,7 +21196,7 @@
         <v>484</v>
       </c>
       <c r="BG17" s="83">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="BH17" s="83">
         <v>451</v>
@@ -21028,7 +21259,7 @@
         <v>183</v>
       </c>
       <c r="CB17" s="83">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="CC17" s="83">
         <v>177</v>
@@ -21043,7 +21274,7 @@
         <v>137</v>
       </c>
       <c r="CG17" s="83">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="CH17" s="83">
         <v>142</v>
@@ -21061,7 +21292,7 @@
         <v>128</v>
       </c>
       <c r="CM17" s="83">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="CN17" s="83">
         <v>133</v>
@@ -21076,50 +21307,56 @@
         <v>120</v>
       </c>
       <c r="CR17" s="83">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="CS17" s="83">
         <v>89</v>
       </c>
       <c r="CT17" s="83">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="CU17" s="83">
         <v>91</v>
       </c>
       <c r="CV17" s="83">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="CW17" s="83">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="CX17" s="83">
+        <v>80</v>
+      </c>
+      <c r="CY17" s="83">
+        <v>78</v>
+      </c>
+      <c r="CZ17" s="83">
         <v>74</v>
       </c>
-      <c r="CY17" s="83">
-        <v>77</v>
-      </c>
-      <c r="CZ17" s="83">
-        <v>67</v>
-      </c>
       <c r="DA17" s="83">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="DB17" s="83">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="DC17" s="83">
-        <v>11</v>
+        <v>54</v>
+      </c>
+      <c r="DD17" s="83">
+        <v>48</v>
       </c>
       <c r="DE17" s="83">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="DG17" s="83">
-        <v>27706</v>
-      </c>
-      <c r="DH17" s="94"/>
+        <v>0</v>
+      </c>
+      <c r="DI17" s="83">
+        <v>27859</v>
+      </c>
+      <c r="DJ17" s="94"/>
     </row>
-    <row r="18" spans="1:125" s="51" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:127" s="51" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G18" s="76"/>
       <c r="H18" s="76"/>
       <c r="I18" s="76"/>
@@ -21239,8 +21476,10 @@
       <c r="DS18" s="76"/>
       <c r="DT18" s="76"/>
       <c r="DU18" s="76"/>
+      <c r="DV18" s="76"/>
+      <c r="DW18" s="76"/>
     </row>
-    <row r="19" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A19" s="63"/>
       <c r="B19" s="95" t="s">
         <v>29</v>
@@ -21558,17 +21797,23 @@
       <c r="DC19" s="77">
         <v>0</v>
       </c>
-      <c r="DD19" s="96"/>
+      <c r="DD19" s="77">
+        <v>0</v>
+      </c>
       <c r="DE19" s="77">
         <v>0</v>
       </c>
       <c r="DF19" s="96"/>
       <c r="DG19" s="77">
+        <v>0</v>
+      </c>
+      <c r="DH19" s="96"/>
+      <c r="DI19" s="77">
         <v>4</v>
       </c>
-      <c r="DH19" s="94"/>
+      <c r="DJ19" s="94"/>
     </row>
-    <row r="20" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A20" s="63"/>
       <c r="B20" s="97" t="s">
         <v>29</v>
@@ -21886,17 +22131,23 @@
       <c r="DC20" s="98">
         <v>0</v>
       </c>
-      <c r="DD20" s="96"/>
+      <c r="DD20" s="98">
+        <v>0</v>
+      </c>
       <c r="DE20" s="98">
         <v>0</v>
       </c>
       <c r="DF20" s="96"/>
       <c r="DG20" s="98">
+        <v>0</v>
+      </c>
+      <c r="DH20" s="96"/>
+      <c r="DI20" s="98">
         <v>24</v>
       </c>
-      <c r="DH20" s="94"/>
+      <c r="DJ20" s="94"/>
     </row>
-    <row r="21" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A21" s="63"/>
       <c r="B21" s="97" t="s">
         <v>29</v>
@@ -22214,17 +22465,23 @@
       <c r="DC21" s="98">
         <v>0</v>
       </c>
-      <c r="DD21" s="96"/>
+      <c r="DD21" s="98">
+        <v>1</v>
+      </c>
       <c r="DE21" s="98">
         <v>0</v>
       </c>
       <c r="DF21" s="96"/>
       <c r="DG21" s="98">
-        <v>280</v>
-      </c>
-      <c r="DH21" s="94"/>
+        <v>0</v>
+      </c>
+      <c r="DH21" s="96"/>
+      <c r="DI21" s="98">
+        <v>281</v>
+      </c>
+      <c r="DJ21" s="94"/>
     </row>
-    <row r="22" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A22" s="63"/>
       <c r="B22" s="97" t="s">
         <v>29</v>
@@ -22474,7 +22731,7 @@
         <v>1</v>
       </c>
       <c r="CG22" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CH22" s="78">
         <v>2</v>
@@ -22522,7 +22779,7 @@
         <v>3</v>
       </c>
       <c r="CW22" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX22" s="78">
         <v>1</v>
@@ -22542,16 +22799,22 @@
       <c r="DC22" s="78">
         <v>0</v>
       </c>
-      <c r="DD22" s="96"/>
+      <c r="DD22" s="78">
+        <v>0</v>
+      </c>
       <c r="DE22" s="78">
         <v>0</v>
       </c>
       <c r="DF22" s="96"/>
       <c r="DG22" s="78">
-        <v>190</v>
+        <v>0</v>
+      </c>
+      <c r="DH22" s="96"/>
+      <c r="DI22" s="78">
+        <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A23" s="63"/>
       <c r="B23" s="97" t="s">
         <v>29</v>
@@ -22869,16 +23132,22 @@
       <c r="DC23" s="78">
         <v>1</v>
       </c>
-      <c r="DD23" s="96"/>
+      <c r="DD23" s="78">
+        <v>0</v>
+      </c>
       <c r="DE23" s="78">
         <v>0</v>
       </c>
       <c r="DF23" s="96"/>
       <c r="DG23" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH23" s="96"/>
+      <c r="DI23" s="78">
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A24" s="63"/>
       <c r="B24" s="97" t="s">
         <v>29</v>
@@ -23196,16 +23465,22 @@
       <c r="DC24" s="78">
         <v>0</v>
       </c>
-      <c r="DD24" s="96"/>
+      <c r="DD24" s="78">
+        <v>0</v>
+      </c>
       <c r="DE24" s="78">
         <v>0</v>
       </c>
       <c r="DF24" s="96"/>
       <c r="DG24" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH24" s="96"/>
+      <c r="DI24" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A25" s="63"/>
       <c r="B25" s="97" t="s">
         <v>29</v>
@@ -23523,16 +23798,22 @@
       <c r="DC25" s="78">
         <v>0</v>
       </c>
-      <c r="DD25" s="96"/>
+      <c r="DD25" s="78">
+        <v>1</v>
+      </c>
       <c r="DE25" s="78">
         <v>0</v>
       </c>
       <c r="DF25" s="96"/>
       <c r="DG25" s="78">
-        <v>159</v>
+        <v>0</v>
+      </c>
+      <c r="DH25" s="96"/>
+      <c r="DI25" s="78">
+        <v>160</v>
       </c>
     </row>
-    <row r="26" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A26" s="63"/>
       <c r="B26" s="97" t="s">
         <v>29</v>
@@ -23850,16 +24131,22 @@
       <c r="DC26" s="78">
         <v>0</v>
       </c>
-      <c r="DD26" s="96"/>
+      <c r="DD26" s="78">
+        <v>0</v>
+      </c>
       <c r="DE26" s="78">
         <v>0</v>
       </c>
       <c r="DF26" s="96"/>
       <c r="DG26" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH26" s="96"/>
+      <c r="DI26" s="78">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A27" s="63"/>
       <c r="B27" s="97" t="s">
         <v>29</v>
@@ -24175,18 +24462,24 @@
         <v>0</v>
       </c>
       <c r="DC27" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD27" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="DD27" s="78">
+        <v>1</v>
+      </c>
       <c r="DE27" s="78">
         <v>0</v>
       </c>
       <c r="DF27" s="96"/>
       <c r="DG27" s="78">
-        <v>338</v>
+        <v>0</v>
+      </c>
+      <c r="DH27" s="96"/>
+      <c r="DI27" s="78">
+        <v>340</v>
       </c>
     </row>
-    <row r="28" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A28" s="63"/>
       <c r="B28" s="97" t="s">
         <v>29</v>
@@ -24504,16 +24797,22 @@
       <c r="DC28" s="78">
         <v>0</v>
       </c>
-      <c r="DD28" s="96"/>
+      <c r="DD28" s="78">
+        <v>0</v>
+      </c>
       <c r="DE28" s="78">
         <v>0</v>
       </c>
       <c r="DF28" s="96"/>
       <c r="DG28" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH28" s="96"/>
+      <c r="DI28" s="78">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A29" s="63"/>
       <c r="B29" s="97" t="s">
         <v>29</v>
@@ -24831,16 +25130,22 @@
       <c r="DC29" s="78">
         <v>0</v>
       </c>
-      <c r="DD29" s="96"/>
+      <c r="DD29" s="78">
+        <v>0</v>
+      </c>
       <c r="DE29" s="78">
         <v>0</v>
       </c>
       <c r="DF29" s="96"/>
       <c r="DG29" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH29" s="96"/>
+      <c r="DI29" s="78">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A30" s="63"/>
       <c r="B30" s="97" t="s">
         <v>29</v>
@@ -25158,16 +25463,22 @@
       <c r="DC30" s="78">
         <v>0</v>
       </c>
-      <c r="DD30" s="96"/>
+      <c r="DD30" s="78">
+        <v>0</v>
+      </c>
       <c r="DE30" s="78">
         <v>0</v>
       </c>
       <c r="DF30" s="96"/>
       <c r="DG30" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH30" s="96"/>
+      <c r="DI30" s="78">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A31" s="63"/>
       <c r="B31" s="97" t="s">
         <v>29</v>
@@ -25485,16 +25796,22 @@
       <c r="DC31" s="78">
         <v>0</v>
       </c>
-      <c r="DD31" s="96"/>
+      <c r="DD31" s="78">
+        <v>0</v>
+      </c>
       <c r="DE31" s="78">
         <v>0</v>
       </c>
       <c r="DF31" s="96"/>
       <c r="DG31" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH31" s="96"/>
+      <c r="DI31" s="78">
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A32" s="63"/>
       <c r="B32" s="97" t="s">
         <v>29</v>
@@ -25795,7 +26112,7 @@
         <v>2</v>
       </c>
       <c r="CX32" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY32" s="78">
         <v>0</v>
@@ -25804,24 +26121,30 @@
         <v>0</v>
       </c>
       <c r="DA32" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB32" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC32" s="78">
         <v>0</v>
       </c>
-      <c r="DD32" s="96"/>
+      <c r="DD32" s="78">
+        <v>0</v>
+      </c>
       <c r="DE32" s="78">
         <v>0</v>
       </c>
       <c r="DF32" s="96"/>
       <c r="DG32" s="78">
-        <v>265</v>
+        <v>0</v>
+      </c>
+      <c r="DH32" s="96"/>
+      <c r="DI32" s="78">
+        <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A33" s="63"/>
       <c r="B33" s="97" t="s">
         <v>29</v>
@@ -26139,16 +26462,22 @@
       <c r="DC33" s="78">
         <v>0</v>
       </c>
-      <c r="DD33" s="96"/>
+      <c r="DD33" s="78">
+        <v>0</v>
+      </c>
       <c r="DE33" s="78">
         <v>0</v>
       </c>
       <c r="DF33" s="96"/>
       <c r="DG33" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH33" s="96"/>
+      <c r="DI33" s="78">
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A34" s="63"/>
       <c r="B34" s="97" t="s">
         <v>29</v>
@@ -26466,16 +26795,22 @@
       <c r="DC34" s="78">
         <v>0</v>
       </c>
-      <c r="DD34" s="96"/>
+      <c r="DD34" s="78">
+        <v>0</v>
+      </c>
       <c r="DE34" s="78">
         <v>0</v>
       </c>
       <c r="DF34" s="96"/>
       <c r="DG34" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH34" s="96"/>
+      <c r="DI34" s="78">
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A35" s="63"/>
       <c r="B35" s="97" t="s">
         <v>29</v>
@@ -26793,16 +27128,22 @@
       <c r="DC35" s="78">
         <v>0</v>
       </c>
-      <c r="DD35" s="96"/>
+      <c r="DD35" s="78">
+        <v>0</v>
+      </c>
       <c r="DE35" s="78">
         <v>0</v>
       </c>
       <c r="DF35" s="96"/>
       <c r="DG35" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH35" s="96"/>
+      <c r="DI35" s="78">
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A36" s="63"/>
       <c r="B36" s="97" t="s">
         <v>29</v>
@@ -27120,16 +27461,22 @@
       <c r="DC36" s="78">
         <v>0</v>
       </c>
-      <c r="DD36" s="96"/>
+      <c r="DD36" s="78">
+        <v>0</v>
+      </c>
       <c r="DE36" s="78">
         <v>0</v>
       </c>
       <c r="DF36" s="96"/>
       <c r="DG36" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH36" s="96"/>
+      <c r="DI36" s="78">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A37" s="63"/>
       <c r="B37" s="97" t="s">
         <v>29</v>
@@ -27447,16 +27794,22 @@
       <c r="DC37" s="78">
         <v>0</v>
       </c>
-      <c r="DD37" s="96"/>
+      <c r="DD37" s="78">
+        <v>0</v>
+      </c>
       <c r="DE37" s="78">
         <v>0</v>
       </c>
       <c r="DF37" s="96"/>
       <c r="DG37" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH37" s="96"/>
+      <c r="DI37" s="78">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A38" s="63"/>
       <c r="B38" s="97" t="s">
         <v>29</v>
@@ -27774,16 +28127,22 @@
       <c r="DC38" s="78">
         <v>0</v>
       </c>
-      <c r="DD38" s="96"/>
+      <c r="DD38" s="78">
+        <v>1</v>
+      </c>
       <c r="DE38" s="78">
         <v>0</v>
       </c>
       <c r="DF38" s="96"/>
       <c r="DG38" s="78">
-        <v>225</v>
+        <v>0</v>
+      </c>
+      <c r="DH38" s="96"/>
+      <c r="DI38" s="78">
+        <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A39" s="63"/>
       <c r="B39" s="97" t="s">
         <v>29</v>
@@ -28101,16 +28460,22 @@
       <c r="DC39" s="78">
         <v>0</v>
       </c>
-      <c r="DD39" s="96"/>
+      <c r="DD39" s="78">
+        <v>0</v>
+      </c>
       <c r="DE39" s="78">
         <v>0</v>
       </c>
       <c r="DF39" s="96"/>
       <c r="DG39" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH39" s="96"/>
+      <c r="DI39" s="78">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A40" s="63"/>
       <c r="B40" s="97" t="s">
         <v>29</v>
@@ -28428,16 +28793,22 @@
       <c r="DC40" s="78">
         <v>0</v>
       </c>
-      <c r="DD40" s="96"/>
+      <c r="DD40" s="78">
+        <v>0</v>
+      </c>
       <c r="DE40" s="78">
         <v>0</v>
       </c>
       <c r="DF40" s="96"/>
       <c r="DG40" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH40" s="96"/>
+      <c r="DI40" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A41" s="63"/>
       <c r="B41" s="97" t="s">
         <v>29</v>
@@ -28755,16 +29126,22 @@
       <c r="DC41" s="78">
         <v>0</v>
       </c>
-      <c r="DD41" s="96"/>
+      <c r="DD41" s="78">
+        <v>0</v>
+      </c>
       <c r="DE41" s="78">
         <v>0</v>
       </c>
       <c r="DF41" s="96"/>
       <c r="DG41" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH41" s="96"/>
+      <c r="DI41" s="78">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A42" s="63"/>
       <c r="B42" s="97" t="s">
         <v>29</v>
@@ -29082,16 +29459,22 @@
       <c r="DC42" s="78">
         <v>0</v>
       </c>
-      <c r="DD42" s="96"/>
+      <c r="DD42" s="78">
+        <v>0</v>
+      </c>
       <c r="DE42" s="78">
         <v>0</v>
       </c>
       <c r="DF42" s="96"/>
       <c r="DG42" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH42" s="96"/>
+      <c r="DI42" s="78">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A43" s="63"/>
       <c r="B43" s="97" t="s">
         <v>29</v>
@@ -29409,16 +29792,22 @@
       <c r="DC43" s="78">
         <v>0</v>
       </c>
-      <c r="DD43" s="96"/>
+      <c r="DD43" s="78">
+        <v>0</v>
+      </c>
       <c r="DE43" s="78">
         <v>0</v>
       </c>
       <c r="DF43" s="96"/>
       <c r="DG43" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH43" s="96"/>
+      <c r="DI43" s="78">
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A44" s="63"/>
       <c r="B44" s="97" t="s">
         <v>29</v>
@@ -29736,16 +30125,22 @@
       <c r="DC44" s="78">
         <v>0</v>
       </c>
-      <c r="DD44" s="96"/>
+      <c r="DD44" s="78">
+        <v>0</v>
+      </c>
       <c r="DE44" s="78">
         <v>0</v>
       </c>
       <c r="DF44" s="96"/>
       <c r="DG44" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH44" s="96"/>
+      <c r="DI44" s="78">
         <v>201</v>
       </c>
     </row>
-    <row r="45" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A45" s="63"/>
       <c r="B45" s="97" t="s">
         <v>29</v>
@@ -30063,16 +30458,22 @@
       <c r="DC45" s="78">
         <v>0</v>
       </c>
-      <c r="DD45" s="96"/>
+      <c r="DD45" s="78">
+        <v>0</v>
+      </c>
       <c r="DE45" s="78">
         <v>0</v>
       </c>
       <c r="DF45" s="96"/>
       <c r="DG45" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH45" s="96"/>
+      <c r="DI45" s="78">
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A46" s="63"/>
       <c r="B46" s="97" t="s">
         <v>29</v>
@@ -30181,7 +30582,7 @@
         <v>13</v>
       </c>
       <c r="AL46" s="78">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM46" s="78">
         <v>10</v>
@@ -30390,16 +30791,22 @@
       <c r="DC46" s="78">
         <v>1</v>
       </c>
-      <c r="DD46" s="96"/>
+      <c r="DD46" s="78">
+        <v>0</v>
+      </c>
       <c r="DE46" s="78">
         <v>0</v>
       </c>
       <c r="DF46" s="96"/>
       <c r="DG46" s="78">
-        <v>355</v>
+        <v>0</v>
+      </c>
+      <c r="DH46" s="96"/>
+      <c r="DI46" s="78">
+        <v>356</v>
       </c>
     </row>
-    <row r="47" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A47" s="63"/>
       <c r="B47" s="97" t="s">
         <v>29</v>
@@ -30715,18 +31122,24 @@
         <v>0</v>
       </c>
       <c r="DC47" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD47" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="DD47" s="78">
+        <v>0</v>
+      </c>
       <c r="DE47" s="78">
         <v>0</v>
       </c>
       <c r="DF47" s="96"/>
       <c r="DG47" s="78">
-        <v>77</v>
+        <v>0</v>
+      </c>
+      <c r="DH47" s="96"/>
+      <c r="DI47" s="78">
+        <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A48" s="63"/>
       <c r="B48" s="97" t="s">
         <v>30</v>
@@ -31044,16 +31457,22 @@
       <c r="DC48" s="78">
         <v>0</v>
       </c>
-      <c r="DD48" s="96"/>
+      <c r="DD48" s="78">
+        <v>0</v>
+      </c>
       <c r="DE48" s="78">
         <v>0</v>
       </c>
       <c r="DF48" s="96"/>
       <c r="DG48" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH48" s="96"/>
+      <c r="DI48" s="78">
         <v>419</v>
       </c>
     </row>
-    <row r="49" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A49" s="63"/>
       <c r="B49" s="97" t="s">
         <v>30</v>
@@ -31351,7 +31770,7 @@
         <v>0</v>
       </c>
       <c r="CW49" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CX49" s="78">
         <v>2</v>
@@ -31371,16 +31790,22 @@
       <c r="DC49" s="78">
         <v>0</v>
       </c>
-      <c r="DD49" s="96"/>
+      <c r="DD49" s="78">
+        <v>2</v>
+      </c>
       <c r="DE49" s="78">
         <v>0</v>
       </c>
       <c r="DF49" s="96"/>
       <c r="DG49" s="78">
-        <v>611</v>
+        <v>0</v>
+      </c>
+      <c r="DH49" s="96"/>
+      <c r="DI49" s="78">
+        <v>614</v>
       </c>
     </row>
-    <row r="50" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:127" x14ac:dyDescent="0.3">
       <c r="B50" s="97" t="s">
         <v>30</v>
       </c>
@@ -31697,16 +32122,22 @@
       <c r="DC50" s="78">
         <v>0</v>
       </c>
-      <c r="DD50" s="96"/>
+      <c r="DD50" s="78">
+        <v>0</v>
+      </c>
       <c r="DE50" s="78">
         <v>0</v>
       </c>
       <c r="DF50" s="96"/>
       <c r="DG50" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH50" s="96"/>
+      <c r="DI50" s="78">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A51" s="44"/>
       <c r="B51" s="99" t="s">
         <v>30</v>
@@ -32024,16 +32455,22 @@
       <c r="DC51" s="78">
         <v>0</v>
       </c>
-      <c r="DD51" s="96"/>
+      <c r="DD51" s="78">
+        <v>0</v>
+      </c>
       <c r="DE51" s="78">
         <v>0</v>
       </c>
       <c r="DF51" s="96"/>
       <c r="DG51" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH51" s="96"/>
+      <c r="DI51" s="78">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A52" s="44"/>
       <c r="B52" s="99" t="s">
         <v>30</v>
@@ -32351,16 +32788,22 @@
       <c r="DC52" s="78">
         <v>0</v>
       </c>
-      <c r="DD52" s="96"/>
+      <c r="DD52" s="78">
+        <v>1</v>
+      </c>
       <c r="DE52" s="78">
         <v>0</v>
       </c>
       <c r="DF52" s="96"/>
       <c r="DG52" s="78">
-        <v>305</v>
+        <v>0</v>
+      </c>
+      <c r="DH52" s="96"/>
+      <c r="DI52" s="78">
+        <v>306</v>
       </c>
     </row>
-    <row r="53" spans="1:125" s="73" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:127" s="73" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="44"/>
       <c r="B53" s="99" t="s">
         <v>30</v>
@@ -32678,16 +33121,22 @@
       <c r="DC53" s="78">
         <v>0</v>
       </c>
-      <c r="DD53" s="96"/>
+      <c r="DD53" s="78">
+        <v>0</v>
+      </c>
       <c r="DE53" s="78">
         <v>0</v>
       </c>
       <c r="DF53" s="96"/>
       <c r="DG53" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH53" s="96"/>
+      <c r="DI53" s="78">
         <v>301</v>
       </c>
     </row>
-    <row r="54" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:127" x14ac:dyDescent="0.3">
       <c r="B54" s="99" t="s">
         <v>30</v>
       </c>
@@ -33004,16 +33453,22 @@
       <c r="DC54" s="78">
         <v>0</v>
       </c>
-      <c r="DD54" s="96"/>
+      <c r="DD54" s="78">
+        <v>0</v>
+      </c>
       <c r="DE54" s="78">
         <v>0</v>
       </c>
       <c r="DF54" s="96"/>
       <c r="DG54" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH54" s="96"/>
+      <c r="DI54" s="78">
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:125" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:127" s="51" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="97" t="s">
         <v>30</v>
       </c>
@@ -33330,16 +33785,20 @@
       <c r="DC55" s="78">
         <v>0</v>
       </c>
-      <c r="DD55" s="96"/>
+      <c r="DD55" s="78">
+        <v>1</v>
+      </c>
       <c r="DE55" s="78">
         <v>0</v>
       </c>
       <c r="DF55" s="96"/>
       <c r="DG55" s="78">
-        <v>265</v>
-      </c>
-      <c r="DH55" s="76"/>
-      <c r="DI55" s="76"/>
+        <v>0</v>
+      </c>
+      <c r="DH55" s="96"/>
+      <c r="DI55" s="78">
+        <v>266</v>
+      </c>
       <c r="DJ55" s="76"/>
       <c r="DK55" s="76"/>
       <c r="DL55" s="76"/>
@@ -33352,8 +33811,10 @@
       <c r="DS55" s="76"/>
       <c r="DT55" s="76"/>
       <c r="DU55" s="76"/>
+      <c r="DV55" s="76"/>
+      <c r="DW55" s="76"/>
     </row>
-    <row r="56" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A56" s="63"/>
       <c r="B56" s="97" t="s">
         <v>30</v>
@@ -33671,16 +34132,22 @@
       <c r="DC56" s="78">
         <v>0</v>
       </c>
-      <c r="DD56" s="96"/>
+      <c r="DD56" s="78">
+        <v>0</v>
+      </c>
       <c r="DE56" s="78">
         <v>0</v>
       </c>
       <c r="DF56" s="96"/>
       <c r="DG56" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH56" s="96"/>
+      <c r="DI56" s="78">
         <v>228</v>
       </c>
     </row>
-    <row r="57" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A57" s="63"/>
       <c r="B57" s="97" t="s">
         <v>30</v>
@@ -33998,16 +34465,22 @@
       <c r="DC57" s="78">
         <v>0</v>
       </c>
-      <c r="DD57" s="96"/>
+      <c r="DD57" s="78">
+        <v>0</v>
+      </c>
       <c r="DE57" s="78">
         <v>0</v>
       </c>
       <c r="DF57" s="96"/>
       <c r="DG57" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH57" s="96"/>
+      <c r="DI57" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A58" s="63"/>
       <c r="B58" s="97" t="s">
         <v>30</v>
@@ -34325,16 +34798,22 @@
       <c r="DC58" s="78">
         <v>0</v>
       </c>
-      <c r="DD58" s="96"/>
+      <c r="DD58" s="78">
+        <v>0</v>
+      </c>
       <c r="DE58" s="78">
         <v>0</v>
       </c>
       <c r="DF58" s="96"/>
       <c r="DG58" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH58" s="96"/>
+      <c r="DI58" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A59" s="63"/>
       <c r="B59" s="97" t="s">
         <v>30</v>
@@ -34652,16 +35131,22 @@
       <c r="DC59" s="78">
         <v>0</v>
       </c>
-      <c r="DD59" s="96"/>
+      <c r="DD59" s="78">
+        <v>0</v>
+      </c>
       <c r="DE59" s="78">
         <v>0</v>
       </c>
       <c r="DF59" s="96"/>
       <c r="DG59" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH59" s="96"/>
+      <c r="DI59" s="78">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:127" x14ac:dyDescent="0.3">
       <c r="A60" s="63"/>
       <c r="B60" s="97" t="s">
         <v>30</v>
@@ -34979,16 +35464,22 @@
       <c r="DC60" s="78">
         <v>0</v>
       </c>
-      <c r="DD60" s="96"/>
+      <c r="DD60" s="78">
+        <v>0</v>
+      </c>
       <c r="DE60" s="78">
         <v>0</v>
       </c>
       <c r="DF60" s="96"/>
       <c r="DG60" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH60" s="96"/>
+      <c r="DI60" s="78">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:127" x14ac:dyDescent="0.3">
       <c r="B61" s="97" t="s">
         <v>30</v>
       </c>
@@ -35305,16 +35796,22 @@
       <c r="DC61" s="78">
         <v>0</v>
       </c>
-      <c r="DD61" s="96"/>
+      <c r="DD61" s="78">
+        <v>0</v>
+      </c>
       <c r="DE61" s="78">
         <v>0</v>
       </c>
       <c r="DF61" s="96"/>
       <c r="DG61" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH61" s="96"/>
+      <c r="DI61" s="78">
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:127" x14ac:dyDescent="0.3">
       <c r="B62" s="97" t="s">
         <v>30</v>
       </c>
@@ -35631,16 +36128,22 @@
       <c r="DC62" s="78">
         <v>0</v>
       </c>
-      <c r="DD62" s="96"/>
+      <c r="DD62" s="78">
+        <v>0</v>
+      </c>
       <c r="DE62" s="78">
         <v>0</v>
       </c>
       <c r="DF62" s="96"/>
       <c r="DG62" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH62" s="96"/>
+      <c r="DI62" s="78">
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:127" x14ac:dyDescent="0.3">
       <c r="B63" s="97" t="s">
         <v>30</v>
       </c>
@@ -35955,18 +36458,24 @@
         <v>0</v>
       </c>
       <c r="DC63" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD63" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="DD63" s="78">
+        <v>0</v>
+      </c>
       <c r="DE63" s="78">
         <v>0</v>
       </c>
       <c r="DF63" s="96"/>
       <c r="DG63" s="78">
-        <v>422</v>
+        <v>0</v>
+      </c>
+      <c r="DH63" s="96"/>
+      <c r="DI63" s="78">
+        <v>423</v>
       </c>
     </row>
-    <row r="64" spans="1:125" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:127" x14ac:dyDescent="0.3">
       <c r="B64" s="97" t="s">
         <v>30</v>
       </c>
@@ -36283,16 +36792,22 @@
       <c r="DC64" s="78">
         <v>0</v>
       </c>
-      <c r="DD64" s="96"/>
+      <c r="DD64" s="78">
+        <v>0</v>
+      </c>
       <c r="DE64" s="78">
         <v>0</v>
       </c>
       <c r="DF64" s="96"/>
       <c r="DG64" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH64" s="96"/>
+      <c r="DI64" s="78">
         <v>501</v>
       </c>
     </row>
-    <row r="65" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A65" s="63"/>
       <c r="B65" s="97" t="s">
         <v>30</v>
@@ -36610,16 +37125,22 @@
       <c r="DC65" s="78">
         <v>0</v>
       </c>
-      <c r="DD65" s="96"/>
+      <c r="DD65" s="78">
+        <v>0</v>
+      </c>
       <c r="DE65" s="78">
         <v>0</v>
       </c>
       <c r="DF65" s="96"/>
       <c r="DG65" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH65" s="96"/>
+      <c r="DI65" s="78">
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A66" s="63"/>
       <c r="B66" s="97" t="s">
         <v>30</v>
@@ -36935,18 +37456,24 @@
         <v>0</v>
       </c>
       <c r="DC66" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD66" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="DD66" s="78">
+        <v>0</v>
+      </c>
       <c r="DE66" s="78">
         <v>0</v>
       </c>
       <c r="DF66" s="96"/>
       <c r="DG66" s="78">
-        <v>407</v>
+        <v>0</v>
+      </c>
+      <c r="DH66" s="96"/>
+      <c r="DI66" s="78">
+        <v>408</v>
       </c>
     </row>
-    <row r="67" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A67" s="63"/>
       <c r="B67" s="97" t="s">
         <v>30</v>
@@ -37264,16 +37791,22 @@
       <c r="DC67" s="78">
         <v>0</v>
       </c>
-      <c r="DD67" s="96"/>
+      <c r="DD67" s="78">
+        <v>0</v>
+      </c>
       <c r="DE67" s="78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DF67" s="96"/>
       <c r="DG67" s="78">
-        <v>607</v>
+        <v>0</v>
+      </c>
+      <c r="DH67" s="96"/>
+      <c r="DI67" s="78">
+        <v>609</v>
       </c>
     </row>
-    <row r="68" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A68" s="63"/>
       <c r="B68" s="97" t="s">
         <v>30</v>
@@ -37591,16 +38124,22 @@
       <c r="DC68" s="78">
         <v>0</v>
       </c>
-      <c r="DD68" s="96"/>
+      <c r="DD68" s="78">
+        <v>0</v>
+      </c>
       <c r="DE68" s="78">
         <v>0</v>
       </c>
       <c r="DF68" s="96"/>
       <c r="DG68" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH68" s="96"/>
+      <c r="DI68" s="78">
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A69" s="63"/>
       <c r="B69" s="97" t="s">
         <v>30</v>
@@ -37918,16 +38457,22 @@
       <c r="DC69" s="78">
         <v>0</v>
       </c>
-      <c r="DD69" s="96"/>
+      <c r="DD69" s="78">
+        <v>0</v>
+      </c>
       <c r="DE69" s="78">
         <v>0</v>
       </c>
       <c r="DF69" s="96"/>
       <c r="DG69" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH69" s="96"/>
+      <c r="DI69" s="78">
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A70" s="63"/>
       <c r="B70" s="97" t="s">
         <v>30</v>
@@ -38245,16 +38790,22 @@
       <c r="DC70" s="78">
         <v>0</v>
       </c>
-      <c r="DD70" s="96"/>
+      <c r="DD70" s="78">
+        <v>0</v>
+      </c>
       <c r="DE70" s="78">
         <v>0</v>
       </c>
       <c r="DF70" s="96"/>
       <c r="DG70" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH70" s="96"/>
+      <c r="DI70" s="78">
         <v>265</v>
       </c>
     </row>
-    <row r="71" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A71" s="63"/>
       <c r="B71" s="97" t="s">
         <v>30</v>
@@ -38572,16 +39123,22 @@
       <c r="DC71" s="78">
         <v>0</v>
       </c>
-      <c r="DD71" s="96"/>
+      <c r="DD71" s="78">
+        <v>0</v>
+      </c>
       <c r="DE71" s="78">
         <v>0</v>
       </c>
       <c r="DF71" s="96"/>
       <c r="DG71" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH71" s="96"/>
+      <c r="DI71" s="78">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A72" s="63"/>
       <c r="B72" s="97" t="s">
         <v>30</v>
@@ -38899,16 +39456,22 @@
       <c r="DC72" s="78">
         <v>0</v>
       </c>
-      <c r="DD72" s="96"/>
+      <c r="DD72" s="78">
+        <v>1</v>
+      </c>
       <c r="DE72" s="78">
         <v>0</v>
       </c>
       <c r="DF72" s="96"/>
       <c r="DG72" s="78">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="DH72" s="96"/>
+      <c r="DI72" s="78">
+        <v>49</v>
       </c>
     </row>
-    <row r="73" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A73" s="63"/>
       <c r="B73" s="97" t="s">
         <v>30</v>
@@ -39226,16 +39789,22 @@
       <c r="DC73" s="78">
         <v>0</v>
       </c>
-      <c r="DD73" s="96"/>
+      <c r="DD73" s="78">
+        <v>0</v>
+      </c>
       <c r="DE73" s="78">
         <v>0</v>
       </c>
       <c r="DF73" s="96"/>
       <c r="DG73" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH73" s="96"/>
+      <c r="DI73" s="78">
         <v>485</v>
       </c>
     </row>
-    <row r="74" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A74" s="63"/>
       <c r="B74" s="97" t="s">
         <v>30</v>
@@ -39553,16 +40122,22 @@
       <c r="DC74" s="78">
         <v>0</v>
       </c>
-      <c r="DD74" s="96"/>
+      <c r="DD74" s="78">
+        <v>0</v>
+      </c>
       <c r="DE74" s="78">
         <v>0</v>
       </c>
       <c r="DF74" s="96"/>
       <c r="DG74" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH74" s="96"/>
+      <c r="DI74" s="78">
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A75" s="63"/>
       <c r="B75" s="97" t="s">
         <v>30</v>
@@ -39880,16 +40455,22 @@
       <c r="DC75" s="78">
         <v>0</v>
       </c>
-      <c r="DD75" s="96"/>
+      <c r="DD75" s="78">
+        <v>0</v>
+      </c>
       <c r="DE75" s="78">
         <v>0</v>
       </c>
       <c r="DF75" s="96"/>
       <c r="DG75" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH75" s="96"/>
+      <c r="DI75" s="78">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A76" s="63"/>
       <c r="B76" s="97" t="s">
         <v>30</v>
@@ -40207,16 +40788,22 @@
       <c r="DC76" s="78">
         <v>0</v>
       </c>
-      <c r="DD76" s="96"/>
+      <c r="DD76" s="78">
+        <v>0</v>
+      </c>
       <c r="DE76" s="78">
         <v>0</v>
       </c>
       <c r="DF76" s="96"/>
       <c r="DG76" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH76" s="96"/>
+      <c r="DI76" s="78">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A77" s="63"/>
       <c r="B77" s="97" t="s">
         <v>30</v>
@@ -40277,7 +40864,7 @@
         <v>0</v>
       </c>
       <c r="V77" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W77" s="78">
         <v>0</v>
@@ -40289,7 +40876,7 @@
         <v>0</v>
       </c>
       <c r="Z77" s="78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA77" s="78">
         <v>0</v>
@@ -40534,16 +41121,22 @@
       <c r="DC77" s="78">
         <v>0</v>
       </c>
-      <c r="DD77" s="96"/>
+      <c r="DD77" s="78">
+        <v>0</v>
+      </c>
       <c r="DE77" s="78">
         <v>0</v>
       </c>
       <c r="DF77" s="96"/>
       <c r="DG77" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH77" s="96"/>
+      <c r="DI77" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A78" s="63"/>
       <c r="B78" s="97" t="s">
         <v>30</v>
@@ -40856,21 +41449,27 @@
         <v>0</v>
       </c>
       <c r="DB78" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC78" s="78">
         <v>0</v>
       </c>
-      <c r="DD78" s="96"/>
+      <c r="DD78" s="78">
+        <v>0</v>
+      </c>
       <c r="DE78" s="78">
         <v>0</v>
       </c>
       <c r="DF78" s="96"/>
       <c r="DG78" s="78">
-        <v>292</v>
+        <v>0</v>
+      </c>
+      <c r="DH78" s="96"/>
+      <c r="DI78" s="78">
+        <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A79" s="63"/>
       <c r="B79" s="97" t="s">
         <v>30</v>
@@ -41188,16 +41787,22 @@
       <c r="DC79" s="78">
         <v>0</v>
       </c>
-      <c r="DD79" s="96"/>
+      <c r="DD79" s="78">
+        <v>0</v>
+      </c>
       <c r="DE79" s="78">
         <v>0</v>
       </c>
       <c r="DF79" s="96"/>
       <c r="DG79" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH79" s="96"/>
+      <c r="DI79" s="78">
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A80" s="63"/>
       <c r="B80" s="97" t="s">
         <v>30</v>
@@ -41515,16 +42120,22 @@
       <c r="DC80" s="78">
         <v>0</v>
       </c>
-      <c r="DD80" s="96"/>
+      <c r="DD80" s="78">
+        <v>0</v>
+      </c>
       <c r="DE80" s="78">
         <v>0</v>
       </c>
       <c r="DF80" s="96"/>
       <c r="DG80" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH80" s="96"/>
+      <c r="DI80" s="78">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A81" s="63"/>
       <c r="B81" s="97" t="s">
         <v>30</v>
@@ -41842,16 +42453,22 @@
       <c r="DC81" s="78">
         <v>0</v>
       </c>
-      <c r="DD81" s="96"/>
+      <c r="DD81" s="78">
+        <v>0</v>
+      </c>
       <c r="DE81" s="78">
         <v>0</v>
       </c>
       <c r="DF81" s="96"/>
       <c r="DG81" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH81" s="96"/>
+      <c r="DI81" s="78">
         <v>19</v>
       </c>
     </row>
-    <row r="82" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A82" s="63"/>
       <c r="B82" s="97" t="s">
         <v>30</v>
@@ -42169,16 +42786,22 @@
       <c r="DC82" s="78">
         <v>0</v>
       </c>
-      <c r="DD82" s="96"/>
+      <c r="DD82" s="78">
+        <v>0</v>
+      </c>
       <c r="DE82" s="78">
         <v>0</v>
       </c>
       <c r="DF82" s="96"/>
       <c r="DG82" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH82" s="96"/>
+      <c r="DI82" s="78">
         <v>174</v>
       </c>
     </row>
-    <row r="83" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A83" s="63"/>
       <c r="B83" s="97" t="s">
         <v>30</v>
@@ -42496,16 +43119,22 @@
       <c r="DC83" s="78">
         <v>0</v>
       </c>
-      <c r="DD83" s="96"/>
+      <c r="DD83" s="78">
+        <v>0</v>
+      </c>
       <c r="DE83" s="78">
         <v>0</v>
       </c>
       <c r="DF83" s="96"/>
       <c r="DG83" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH83" s="96"/>
+      <c r="DI83" s="78">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A84" s="63"/>
       <c r="B84" s="97" t="s">
         <v>30</v>
@@ -42823,16 +43452,22 @@
       <c r="DC84" s="78">
         <v>0</v>
       </c>
-      <c r="DD84" s="96"/>
+      <c r="DD84" s="78">
+        <v>0</v>
+      </c>
       <c r="DE84" s="78">
         <v>0</v>
       </c>
       <c r="DF84" s="96"/>
       <c r="DG84" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH84" s="96"/>
+      <c r="DI84" s="78">
         <v>111</v>
       </c>
     </row>
-    <row r="85" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A85" s="63"/>
       <c r="B85" s="97" t="s">
         <v>31</v>
@@ -43150,16 +43785,22 @@
       <c r="DC85" s="78">
         <v>0</v>
       </c>
-      <c r="DD85" s="96"/>
+      <c r="DD85" s="78">
+        <v>0</v>
+      </c>
       <c r="DE85" s="78">
         <v>0</v>
       </c>
       <c r="DF85" s="96"/>
       <c r="DG85" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH85" s="96"/>
+      <c r="DI85" s="78">
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A86" s="63"/>
       <c r="B86" s="97" t="s">
         <v>31</v>
@@ -43475,18 +44116,24 @@
         <v>0</v>
       </c>
       <c r="DC86" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD86" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="DD86" s="78">
+        <v>0</v>
+      </c>
       <c r="DE86" s="78">
         <v>0</v>
       </c>
       <c r="DF86" s="96"/>
       <c r="DG86" s="78">
-        <v>128</v>
+        <v>0</v>
+      </c>
+      <c r="DH86" s="96"/>
+      <c r="DI86" s="78">
+        <v>129</v>
       </c>
     </row>
-    <row r="87" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A87" s="63"/>
       <c r="B87" s="97" t="s">
         <v>31</v>
@@ -43804,16 +44451,22 @@
       <c r="DC87" s="78">
         <v>0</v>
       </c>
-      <c r="DD87" s="96"/>
+      <c r="DD87" s="78">
+        <v>0</v>
+      </c>
       <c r="DE87" s="78">
         <v>0</v>
       </c>
       <c r="DF87" s="96"/>
       <c r="DG87" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH87" s="96"/>
+      <c r="DI87" s="78">
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A88" s="63"/>
       <c r="B88" s="97" t="s">
         <v>31</v>
@@ -44131,16 +44784,22 @@
       <c r="DC88" s="78">
         <v>0</v>
       </c>
-      <c r="DD88" s="96"/>
+      <c r="DD88" s="78">
+        <v>0</v>
+      </c>
       <c r="DE88" s="78">
         <v>0</v>
       </c>
       <c r="DF88" s="96"/>
       <c r="DG88" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH88" s="96"/>
+      <c r="DI88" s="78">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A89" s="63"/>
       <c r="B89" s="97" t="s">
         <v>31</v>
@@ -44456,18 +45115,24 @@
         <v>0</v>
       </c>
       <c r="DC89" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD89" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="DD89" s="78">
+        <v>0</v>
+      </c>
       <c r="DE89" s="78">
         <v>0</v>
       </c>
       <c r="DF89" s="96"/>
       <c r="DG89" s="78">
-        <v>137</v>
+        <v>0</v>
+      </c>
+      <c r="DH89" s="96"/>
+      <c r="DI89" s="78">
+        <v>138</v>
       </c>
     </row>
-    <row r="90" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A90" s="63"/>
       <c r="B90" s="97" t="s">
         <v>31</v>
@@ -44777,24 +45442,30 @@
         <v>1</v>
       </c>
       <c r="DA90" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB90" s="78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DC90" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD90" s="96"/>
+        <v>2</v>
+      </c>
+      <c r="DD90" s="78">
+        <v>1</v>
+      </c>
       <c r="DE90" s="78">
         <v>0</v>
       </c>
       <c r="DF90" s="96"/>
       <c r="DG90" s="78">
-        <v>196</v>
+        <v>0</v>
+      </c>
+      <c r="DH90" s="96"/>
+      <c r="DI90" s="78">
+        <v>203</v>
       </c>
     </row>
-    <row r="91" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A91" s="63"/>
       <c r="B91" s="97" t="s">
         <v>31</v>
@@ -45112,16 +45783,22 @@
       <c r="DC91" s="78">
         <v>0</v>
       </c>
-      <c r="DD91" s="96"/>
+      <c r="DD91" s="78">
+        <v>0</v>
+      </c>
       <c r="DE91" s="78">
         <v>0</v>
       </c>
       <c r="DF91" s="96"/>
       <c r="DG91" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH91" s="96"/>
+      <c r="DI91" s="78">
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A92" s="63"/>
       <c r="B92" s="97" t="s">
         <v>31</v>
@@ -45439,16 +46116,22 @@
       <c r="DC92" s="78">
         <v>0</v>
       </c>
-      <c r="DD92" s="96"/>
+      <c r="DD92" s="78">
+        <v>0</v>
+      </c>
       <c r="DE92" s="78">
         <v>0</v>
       </c>
       <c r="DF92" s="96"/>
       <c r="DG92" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH92" s="96"/>
+      <c r="DI92" s="78">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A93" s="63"/>
       <c r="B93" s="97" t="s">
         <v>31</v>
@@ -45766,16 +46449,22 @@
       <c r="DC93" s="78">
         <v>0</v>
       </c>
-      <c r="DD93" s="96"/>
+      <c r="DD93" s="78">
+        <v>0</v>
+      </c>
       <c r="DE93" s="78">
         <v>0</v>
       </c>
       <c r="DF93" s="96"/>
       <c r="DG93" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH93" s="96"/>
+      <c r="DI93" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A94" s="63"/>
       <c r="B94" s="97" t="s">
         <v>31</v>
@@ -46093,16 +46782,22 @@
       <c r="DC94" s="78">
         <v>0</v>
       </c>
-      <c r="DD94" s="96"/>
+      <c r="DD94" s="78">
+        <v>0</v>
+      </c>
       <c r="DE94" s="78">
         <v>0</v>
       </c>
       <c r="DF94" s="96"/>
       <c r="DG94" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH94" s="96"/>
+      <c r="DI94" s="78">
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A95" s="63"/>
       <c r="B95" s="97" t="s">
         <v>31</v>
@@ -46420,16 +47115,22 @@
       <c r="DC95" s="78">
         <v>0</v>
       </c>
-      <c r="DD95" s="96"/>
+      <c r="DD95" s="78">
+        <v>0</v>
+      </c>
       <c r="DE95" s="78">
         <v>0</v>
       </c>
       <c r="DF95" s="96"/>
       <c r="DG95" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH95" s="96"/>
+      <c r="DI95" s="78">
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A96" s="63"/>
       <c r="B96" s="97" t="s">
         <v>31</v>
@@ -46742,21 +47443,27 @@
         <v>0</v>
       </c>
       <c r="DB96" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC96" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD96" s="96"/>
+        <v>5</v>
+      </c>
+      <c r="DD96" s="78">
+        <v>3</v>
+      </c>
       <c r="DE96" s="78">
         <v>0</v>
       </c>
       <c r="DF96" s="96"/>
       <c r="DG96" s="78">
-        <v>254</v>
+        <v>0</v>
+      </c>
+      <c r="DH96" s="96"/>
+      <c r="DI96" s="78">
+        <v>263</v>
       </c>
     </row>
-    <row r="97" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A97" s="63"/>
       <c r="B97" s="97" t="s">
         <v>31</v>
@@ -47074,16 +47781,22 @@
       <c r="DC97" s="78">
         <v>0</v>
       </c>
-      <c r="DD97" s="96"/>
+      <c r="DD97" s="78">
+        <v>0</v>
+      </c>
       <c r="DE97" s="78">
         <v>0</v>
       </c>
       <c r="DF97" s="96"/>
       <c r="DG97" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH97" s="96"/>
+      <c r="DI97" s="78">
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A98" s="63"/>
       <c r="B98" s="97" t="s">
         <v>31</v>
@@ -47401,16 +48114,22 @@
       <c r="DC98" s="78">
         <v>0</v>
       </c>
-      <c r="DD98" s="96"/>
+      <c r="DD98" s="78">
+        <v>1</v>
+      </c>
       <c r="DE98" s="78">
         <v>0</v>
       </c>
       <c r="DF98" s="96"/>
       <c r="DG98" s="78">
-        <v>257</v>
+        <v>0</v>
+      </c>
+      <c r="DH98" s="96"/>
+      <c r="DI98" s="78">
+        <v>258</v>
       </c>
     </row>
-    <row r="99" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A99" s="63"/>
       <c r="B99" s="97" t="s">
         <v>31</v>
@@ -47728,16 +48447,22 @@
       <c r="DC99" s="78">
         <v>0</v>
       </c>
-      <c r="DD99" s="96"/>
+      <c r="DD99" s="78">
+        <v>0</v>
+      </c>
       <c r="DE99" s="78">
         <v>0</v>
       </c>
       <c r="DF99" s="96"/>
       <c r="DG99" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH99" s="96"/>
+      <c r="DI99" s="78">
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A100" s="63"/>
       <c r="B100" s="97" t="s">
         <v>31</v>
@@ -48055,16 +48780,22 @@
       <c r="DC100" s="78">
         <v>0</v>
       </c>
-      <c r="DD100" s="96"/>
+      <c r="DD100" s="78">
+        <v>0</v>
+      </c>
       <c r="DE100" s="78">
         <v>0</v>
       </c>
       <c r="DF100" s="96"/>
       <c r="DG100" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH100" s="96"/>
+      <c r="DI100" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A101" s="63"/>
       <c r="B101" s="97" t="s">
         <v>31</v>
@@ -48377,21 +49108,27 @@
         <v>2</v>
       </c>
       <c r="DB101" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC101" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD101" s="96"/>
+        <v>2</v>
+      </c>
+      <c r="DD101" s="78">
+        <v>0</v>
+      </c>
       <c r="DE101" s="78">
         <v>0</v>
       </c>
       <c r="DF101" s="96"/>
       <c r="DG101" s="78">
-        <v>366</v>
+        <v>0</v>
+      </c>
+      <c r="DH101" s="96"/>
+      <c r="DI101" s="78">
+        <v>369</v>
       </c>
     </row>
-    <row r="102" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A102" s="63"/>
       <c r="B102" s="97" t="s">
         <v>31</v>
@@ -48709,16 +49446,22 @@
       <c r="DC102" s="78">
         <v>0</v>
       </c>
-      <c r="DD102" s="96"/>
+      <c r="DD102" s="78">
+        <v>0</v>
+      </c>
       <c r="DE102" s="78">
         <v>0</v>
       </c>
       <c r="DF102" s="96"/>
       <c r="DG102" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH102" s="96"/>
+      <c r="DI102" s="78">
         <v>121</v>
       </c>
     </row>
-    <row r="103" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A103" s="63"/>
       <c r="B103" s="97" t="s">
         <v>31</v>
@@ -49036,16 +49779,22 @@
       <c r="DC103" s="78">
         <v>0</v>
       </c>
-      <c r="DD103" s="96"/>
+      <c r="DD103" s="78">
+        <v>1</v>
+      </c>
       <c r="DE103" s="78">
         <v>0</v>
       </c>
       <c r="DF103" s="96"/>
       <c r="DG103" s="78">
-        <v>158</v>
+        <v>0</v>
+      </c>
+      <c r="DH103" s="96"/>
+      <c r="DI103" s="78">
+        <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A104" s="63"/>
       <c r="B104" s="97" t="s">
         <v>31</v>
@@ -49363,16 +50112,22 @@
       <c r="DC104" s="78">
         <v>0</v>
       </c>
-      <c r="DD104" s="96"/>
+      <c r="DD104" s="78">
+        <v>0</v>
+      </c>
       <c r="DE104" s="78">
         <v>0</v>
       </c>
       <c r="DF104" s="96"/>
       <c r="DG104" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH104" s="96"/>
+      <c r="DI104" s="78">
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A105" s="63"/>
       <c r="B105" s="97" t="s">
         <v>31</v>
@@ -49688,18 +50443,24 @@
         <v>0</v>
       </c>
       <c r="DC105" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD105" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="DD105" s="78">
+        <v>0</v>
+      </c>
       <c r="DE105" s="78">
         <v>0</v>
       </c>
       <c r="DF105" s="96"/>
       <c r="DG105" s="78">
-        <v>115</v>
+        <v>0</v>
+      </c>
+      <c r="DH105" s="96"/>
+      <c r="DI105" s="78">
+        <v>116</v>
       </c>
     </row>
-    <row r="106" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A106" s="63"/>
       <c r="B106" s="97" t="s">
         <v>31</v>
@@ -50015,18 +50776,24 @@
         <v>1</v>
       </c>
       <c r="DC106" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD106" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="DD106" s="78">
+        <v>0</v>
+      </c>
       <c r="DE106" s="78">
         <v>0</v>
       </c>
       <c r="DF106" s="96"/>
       <c r="DG106" s="78">
-        <v>256</v>
+        <v>0</v>
+      </c>
+      <c r="DH106" s="96"/>
+      <c r="DI106" s="78">
+        <v>257</v>
       </c>
     </row>
-    <row r="107" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A107" s="63"/>
       <c r="B107" s="97" t="s">
         <v>31</v>
@@ -50344,16 +51111,22 @@
       <c r="DC107" s="78">
         <v>0</v>
       </c>
-      <c r="DD107" s="96"/>
+      <c r="DD107" s="78">
+        <v>0</v>
+      </c>
       <c r="DE107" s="78">
         <v>0</v>
       </c>
       <c r="DF107" s="96"/>
       <c r="DG107" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH107" s="96"/>
+      <c r="DI107" s="78">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A108" s="63"/>
       <c r="B108" s="97" t="s">
         <v>31</v>
@@ -50671,16 +51444,22 @@
       <c r="DC108" s="78">
         <v>0</v>
       </c>
-      <c r="DD108" s="96"/>
+      <c r="DD108" s="78">
+        <v>0</v>
+      </c>
       <c r="DE108" s="78">
         <v>0</v>
       </c>
       <c r="DF108" s="96"/>
       <c r="DG108" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH108" s="96"/>
+      <c r="DI108" s="78">
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A109" s="63"/>
       <c r="B109" s="97" t="s">
         <v>31</v>
@@ -50998,16 +51777,22 @@
       <c r="DC109" s="78">
         <v>0</v>
       </c>
-      <c r="DD109" s="96"/>
+      <c r="DD109" s="78">
+        <v>2</v>
+      </c>
       <c r="DE109" s="78">
         <v>0</v>
       </c>
       <c r="DF109" s="96"/>
       <c r="DG109" s="78">
-        <v>280</v>
+        <v>0</v>
+      </c>
+      <c r="DH109" s="96"/>
+      <c r="DI109" s="78">
+        <v>282</v>
       </c>
     </row>
-    <row r="110" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A110" s="63"/>
       <c r="B110" s="97" t="s">
         <v>31</v>
@@ -51325,16 +52110,22 @@
       <c r="DC110" s="78">
         <v>0</v>
       </c>
-      <c r="DD110" s="96"/>
+      <c r="DD110" s="78">
+        <v>0</v>
+      </c>
       <c r="DE110" s="78">
         <v>0</v>
       </c>
       <c r="DF110" s="96"/>
       <c r="DG110" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH110" s="96"/>
+      <c r="DI110" s="78">
         <v>136</v>
       </c>
     </row>
-    <row r="111" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A111" s="63"/>
       <c r="B111" s="97" t="s">
         <v>31</v>
@@ -51650,18 +52441,24 @@
         <v>2</v>
       </c>
       <c r="DC111" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD111" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="DD111" s="78">
+        <v>2</v>
+      </c>
       <c r="DE111" s="78">
         <v>0</v>
       </c>
       <c r="DF111" s="96"/>
       <c r="DG111" s="78">
-        <v>935</v>
+        <v>0</v>
+      </c>
+      <c r="DH111" s="96"/>
+      <c r="DI111" s="78">
+        <v>938</v>
       </c>
     </row>
-    <row r="112" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A112" s="63"/>
       <c r="B112" s="97" t="s">
         <v>31</v>
@@ -51979,16 +52776,22 @@
       <c r="DC112" s="78">
         <v>0</v>
       </c>
-      <c r="DD112" s="96"/>
+      <c r="DD112" s="78">
+        <v>0</v>
+      </c>
       <c r="DE112" s="78">
         <v>0</v>
       </c>
       <c r="DF112" s="96"/>
       <c r="DG112" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH112" s="96"/>
+      <c r="DI112" s="78">
         <v>236</v>
       </c>
     </row>
-    <row r="113" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A113" s="63"/>
       <c r="B113" s="97" t="s">
         <v>31</v>
@@ -52306,16 +53109,22 @@
       <c r="DC113" s="78">
         <v>0</v>
       </c>
-      <c r="DD113" s="96"/>
+      <c r="DD113" s="78">
+        <v>1</v>
+      </c>
       <c r="DE113" s="78">
         <v>0</v>
       </c>
       <c r="DF113" s="96"/>
       <c r="DG113" s="78">
-        <v>489</v>
+        <v>0</v>
+      </c>
+      <c r="DH113" s="96"/>
+      <c r="DI113" s="78">
+        <v>490</v>
       </c>
     </row>
-    <row r="114" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A114" s="63"/>
       <c r="B114" s="97" t="s">
         <v>31</v>
@@ -52604,25 +53413,25 @@
         <v>1</v>
       </c>
       <c r="CT114" s="78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CU114" s="78">
         <v>2</v>
       </c>
       <c r="CV114" s="78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CW114" s="78">
         <v>2</v>
       </c>
       <c r="CX114" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CY114" s="78">
         <v>0</v>
       </c>
       <c r="CZ114" s="78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DA114" s="78">
         <v>1</v>
@@ -52631,18 +53440,24 @@
         <v>1</v>
       </c>
       <c r="DC114" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD114" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="DD114" s="78">
+        <v>0</v>
+      </c>
       <c r="DE114" s="78">
         <v>0</v>
       </c>
       <c r="DF114" s="96"/>
       <c r="DG114" s="78">
-        <v>372</v>
+        <v>0</v>
+      </c>
+      <c r="DH114" s="96"/>
+      <c r="DI114" s="78">
+        <v>377</v>
       </c>
     </row>
-    <row r="115" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A115" s="63"/>
       <c r="B115" s="97" t="s">
         <v>31</v>
@@ -52958,18 +53773,24 @@
         <v>1</v>
       </c>
       <c r="DC115" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD115" s="96"/>
+        <v>2</v>
+      </c>
+      <c r="DD115" s="78">
+        <v>1</v>
+      </c>
       <c r="DE115" s="78">
         <v>0</v>
       </c>
       <c r="DF115" s="96"/>
       <c r="DG115" s="78">
-        <v>319</v>
+        <v>0</v>
+      </c>
+      <c r="DH115" s="96"/>
+      <c r="DI115" s="78">
+        <v>322</v>
       </c>
     </row>
-    <row r="116" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A116" s="63"/>
       <c r="B116" s="97" t="s">
         <v>31</v>
@@ -53287,16 +54108,22 @@
       <c r="DC116" s="78">
         <v>0</v>
       </c>
-      <c r="DD116" s="96"/>
+      <c r="DD116" s="78">
+        <v>0</v>
+      </c>
       <c r="DE116" s="78">
         <v>0</v>
       </c>
       <c r="DF116" s="96"/>
       <c r="DG116" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH116" s="96"/>
+      <c r="DI116" s="78">
         <v>218</v>
       </c>
     </row>
-    <row r="117" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A117" s="63"/>
       <c r="B117" s="97" t="s">
         <v>31</v>
@@ -53614,16 +54441,22 @@
       <c r="DC117" s="78">
         <v>0</v>
       </c>
-      <c r="DD117" s="96"/>
+      <c r="DD117" s="78">
+        <v>0</v>
+      </c>
       <c r="DE117" s="78">
         <v>0</v>
       </c>
       <c r="DF117" s="96"/>
       <c r="DG117" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH117" s="96"/>
+      <c r="DI117" s="78">
         <v>266</v>
       </c>
     </row>
-    <row r="118" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A118" s="63"/>
       <c r="B118" s="97" t="s">
         <v>31</v>
@@ -53941,16 +54774,22 @@
       <c r="DC118" s="78">
         <v>0</v>
       </c>
-      <c r="DD118" s="96"/>
+      <c r="DD118" s="78">
+        <v>0</v>
+      </c>
       <c r="DE118" s="78">
         <v>0</v>
       </c>
       <c r="DF118" s="96"/>
       <c r="DG118" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH118" s="96"/>
+      <c r="DI118" s="78">
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A119" s="63"/>
       <c r="B119" s="97" t="s">
         <v>31</v>
@@ -54268,16 +55107,22 @@
       <c r="DC119" s="78">
         <v>0</v>
       </c>
-      <c r="DD119" s="96"/>
+      <c r="DD119" s="78">
+        <v>0</v>
+      </c>
       <c r="DE119" s="78">
         <v>0</v>
       </c>
       <c r="DF119" s="96"/>
       <c r="DG119" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH119" s="96"/>
+      <c r="DI119" s="78">
         <v>53</v>
       </c>
     </row>
-    <row r="120" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A120" s="63"/>
       <c r="B120" s="97" t="s">
         <v>36</v>
@@ -54595,16 +55440,22 @@
       <c r="DC120" s="78">
         <v>0</v>
       </c>
-      <c r="DD120" s="96"/>
+      <c r="DD120" s="78">
+        <v>0</v>
+      </c>
       <c r="DE120" s="78">
         <v>0</v>
       </c>
       <c r="DF120" s="96"/>
       <c r="DG120" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH120" s="96"/>
+      <c r="DI120" s="78">
         <v>108</v>
       </c>
     </row>
-    <row r="121" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A121" s="63"/>
       <c r="B121" s="97" t="s">
         <v>36</v>
@@ -54922,16 +55773,22 @@
       <c r="DC121" s="78">
         <v>0</v>
       </c>
-      <c r="DD121" s="96"/>
+      <c r="DD121" s="78">
+        <v>2</v>
+      </c>
       <c r="DE121" s="78">
         <v>0</v>
       </c>
       <c r="DF121" s="96"/>
       <c r="DG121" s="78">
-        <v>130</v>
+        <v>0</v>
+      </c>
+      <c r="DH121" s="96"/>
+      <c r="DI121" s="78">
+        <v>132</v>
       </c>
     </row>
-    <row r="122" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A122" s="63"/>
       <c r="B122" s="97" t="s">
         <v>36</v>
@@ -55249,16 +56106,22 @@
       <c r="DC122" s="78">
         <v>0</v>
       </c>
-      <c r="DD122" s="96"/>
+      <c r="DD122" s="78">
+        <v>0</v>
+      </c>
       <c r="DE122" s="78">
         <v>0</v>
       </c>
       <c r="DF122" s="96"/>
       <c r="DG122" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH122" s="96"/>
+      <c r="DI122" s="78">
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A123" s="63"/>
       <c r="B123" s="97" t="s">
         <v>36</v>
@@ -55576,16 +56439,22 @@
       <c r="DC123" s="78">
         <v>1</v>
       </c>
-      <c r="DD123" s="96"/>
+      <c r="DD123" s="78">
+        <v>2</v>
+      </c>
       <c r="DE123" s="78">
         <v>0</v>
       </c>
       <c r="DF123" s="96"/>
       <c r="DG123" s="78">
-        <v>208</v>
+        <v>0</v>
+      </c>
+      <c r="DH123" s="96"/>
+      <c r="DI123" s="78">
+        <v>210</v>
       </c>
     </row>
-    <row r="124" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A124" s="63"/>
       <c r="B124" s="97" t="s">
         <v>36</v>
@@ -55903,16 +56772,22 @@
       <c r="DC124" s="78">
         <v>0</v>
       </c>
-      <c r="DD124" s="96"/>
+      <c r="DD124" s="78">
+        <v>0</v>
+      </c>
       <c r="DE124" s="78">
         <v>0</v>
       </c>
       <c r="DF124" s="96"/>
       <c r="DG124" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH124" s="96"/>
+      <c r="DI124" s="78">
         <v>153</v>
       </c>
     </row>
-    <row r="125" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A125" s="63"/>
       <c r="B125" s="97" t="s">
         <v>36</v>
@@ -56180,7 +57055,7 @@
         <v>0</v>
       </c>
       <c r="CM125" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CN125" s="78">
         <v>0</v>
@@ -56216,13 +57091,13 @@
         <v>0</v>
       </c>
       <c r="CY125" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CZ125" s="78">
         <v>0</v>
       </c>
       <c r="DA125" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB125" s="78">
         <v>0</v>
@@ -56230,16 +57105,22 @@
       <c r="DC125" s="78">
         <v>0</v>
       </c>
-      <c r="DD125" s="96"/>
+      <c r="DD125" s="78">
+        <v>0</v>
+      </c>
       <c r="DE125" s="78">
         <v>0</v>
       </c>
       <c r="DF125" s="96"/>
       <c r="DG125" s="78">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="DH125" s="96"/>
+      <c r="DI125" s="78">
+        <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A126" s="63"/>
       <c r="B126" s="97" t="s">
         <v>36</v>
@@ -56557,16 +57438,22 @@
       <c r="DC126" s="78">
         <v>0</v>
       </c>
-      <c r="DD126" s="96"/>
+      <c r="DD126" s="78">
+        <v>1</v>
+      </c>
       <c r="DE126" s="78">
         <v>0</v>
       </c>
       <c r="DF126" s="96"/>
       <c r="DG126" s="78">
-        <v>244</v>
+        <v>0</v>
+      </c>
+      <c r="DH126" s="96"/>
+      <c r="DI126" s="78">
+        <v>245</v>
       </c>
     </row>
-    <row r="127" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A127" s="63"/>
       <c r="B127" s="97" t="s">
         <v>36</v>
@@ -56884,16 +57771,22 @@
       <c r="DC127" s="78">
         <v>0</v>
       </c>
-      <c r="DD127" s="96"/>
+      <c r="DD127" s="78">
+        <v>0</v>
+      </c>
       <c r="DE127" s="78">
         <v>0</v>
       </c>
       <c r="DF127" s="96"/>
       <c r="DG127" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH127" s="96"/>
+      <c r="DI127" s="78">
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A128" s="63"/>
       <c r="B128" s="97" t="s">
         <v>36</v>
@@ -57209,18 +58102,24 @@
         <v>1</v>
       </c>
       <c r="DC128" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD128" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="DD128" s="78">
+        <v>0</v>
+      </c>
       <c r="DE128" s="78">
         <v>0</v>
       </c>
       <c r="DF128" s="96"/>
       <c r="DG128" s="78">
-        <v>201</v>
+        <v>0</v>
+      </c>
+      <c r="DH128" s="96"/>
+      <c r="DI128" s="78">
+        <v>202</v>
       </c>
     </row>
-    <row r="129" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A129" s="63"/>
       <c r="B129" s="97" t="s">
         <v>36</v>
@@ -57538,16 +58437,22 @@
       <c r="DC129" s="78">
         <v>0</v>
       </c>
-      <c r="DD129" s="96"/>
+      <c r="DD129" s="78">
+        <v>0</v>
+      </c>
       <c r="DE129" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF129" s="96"/>
       <c r="DG129" s="78">
-        <v>131</v>
+        <v>0</v>
+      </c>
+      <c r="DH129" s="96"/>
+      <c r="DI129" s="78">
+        <v>132</v>
       </c>
     </row>
-    <row r="130" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A130" s="63"/>
       <c r="B130" s="97" t="s">
         <v>36</v>
@@ -57865,16 +58770,22 @@
       <c r="DC130" s="78">
         <v>1</v>
       </c>
-      <c r="DD130" s="96"/>
+      <c r="DD130" s="78">
+        <v>1</v>
+      </c>
       <c r="DE130" s="78">
         <v>0</v>
       </c>
       <c r="DF130" s="96"/>
       <c r="DG130" s="78">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="DH130" s="96"/>
+      <c r="DI130" s="78">
+        <v>73</v>
       </c>
     </row>
-    <row r="131" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A131" s="63"/>
       <c r="B131" s="97" t="s">
         <v>36</v>
@@ -58190,18 +59101,24 @@
         <v>2</v>
       </c>
       <c r="DC131" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD131" s="96"/>
+        <v>3</v>
+      </c>
+      <c r="DD131" s="78">
+        <v>2</v>
+      </c>
       <c r="DE131" s="78">
         <v>0</v>
       </c>
       <c r="DF131" s="96"/>
       <c r="DG131" s="78">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="DH131" s="96"/>
+      <c r="DI131" s="78">
+        <v>185</v>
       </c>
     </row>
-    <row r="132" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A132" s="63"/>
       <c r="B132" s="97" t="s">
         <v>36</v>
@@ -58519,16 +59436,22 @@
       <c r="DC132" s="78">
         <v>0</v>
       </c>
-      <c r="DD132" s="96"/>
+      <c r="DD132" s="78">
+        <v>0</v>
+      </c>
       <c r="DE132" s="78">
         <v>0</v>
       </c>
       <c r="DF132" s="96"/>
       <c r="DG132" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH132" s="96"/>
+      <c r="DI132" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A133" s="63"/>
       <c r="B133" s="97" t="s">
         <v>36</v>
@@ -58846,16 +59769,22 @@
       <c r="DC133" s="78">
         <v>0</v>
       </c>
-      <c r="DD133" s="96"/>
+      <c r="DD133" s="78">
+        <v>0</v>
+      </c>
       <c r="DE133" s="78">
         <v>0</v>
       </c>
       <c r="DF133" s="96"/>
       <c r="DG133" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH133" s="96"/>
+      <c r="DI133" s="78">
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A134" s="63"/>
       <c r="B134" s="97" t="s">
         <v>36</v>
@@ -59153,7 +60082,7 @@
         <v>2</v>
       </c>
       <c r="CW134" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CX134" s="78">
         <v>0</v>
@@ -59173,16 +60102,22 @@
       <c r="DC134" s="78">
         <v>0</v>
       </c>
-      <c r="DD134" s="96"/>
+      <c r="DD134" s="78">
+        <v>0</v>
+      </c>
       <c r="DE134" s="78">
         <v>0</v>
       </c>
       <c r="DF134" s="96"/>
       <c r="DG134" s="78">
-        <v>318</v>
+        <v>0</v>
+      </c>
+      <c r="DH134" s="96"/>
+      <c r="DI134" s="78">
+        <v>319</v>
       </c>
     </row>
-    <row r="135" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A135" s="63"/>
       <c r="B135" s="97" t="s">
         <v>36</v>
@@ -59500,16 +60435,22 @@
       <c r="DC135" s="78">
         <v>2</v>
       </c>
-      <c r="DD135" s="96"/>
+      <c r="DD135" s="78">
+        <v>0</v>
+      </c>
       <c r="DE135" s="78">
         <v>0</v>
       </c>
       <c r="DF135" s="96"/>
       <c r="DG135" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH135" s="96"/>
+      <c r="DI135" s="78">
         <v>315</v>
       </c>
     </row>
-    <row r="136" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A136" s="63"/>
       <c r="B136" s="97" t="s">
         <v>36</v>
@@ -59798,7 +60739,7 @@
         <v>0</v>
       </c>
       <c r="CT136" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU136" s="78">
         <v>0</v>
@@ -59827,16 +60768,22 @@
       <c r="DC136" s="78">
         <v>0</v>
       </c>
-      <c r="DD136" s="96"/>
+      <c r="DD136" s="78">
+        <v>0</v>
+      </c>
       <c r="DE136" s="78">
         <v>0</v>
       </c>
       <c r="DF136" s="96"/>
       <c r="DG136" s="78">
-        <v>149</v>
+        <v>0</v>
+      </c>
+      <c r="DH136" s="96"/>
+      <c r="DI136" s="78">
+        <v>150</v>
       </c>
     </row>
-    <row r="137" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A137" s="63"/>
       <c r="B137" s="97" t="s">
         <v>36</v>
@@ -60154,16 +61101,22 @@
       <c r="DC137" s="78">
         <v>0</v>
       </c>
-      <c r="DD137" s="96"/>
+      <c r="DD137" s="78">
+        <v>0</v>
+      </c>
       <c r="DE137" s="78">
         <v>0</v>
       </c>
       <c r="DF137" s="96"/>
       <c r="DG137" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH137" s="96"/>
+      <c r="DI137" s="78">
         <v>134</v>
       </c>
     </row>
-    <row r="138" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A138" s="63"/>
       <c r="B138" s="97" t="s">
         <v>36</v>
@@ -60481,16 +61434,22 @@
       <c r="DC138" s="78">
         <v>0</v>
       </c>
-      <c r="DD138" s="96"/>
+      <c r="DD138" s="78">
+        <v>0</v>
+      </c>
       <c r="DE138" s="78">
         <v>0</v>
       </c>
       <c r="DF138" s="96"/>
       <c r="DG138" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH138" s="96"/>
+      <c r="DI138" s="78">
         <v>115</v>
       </c>
     </row>
-    <row r="139" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A139" s="63"/>
       <c r="B139" s="97" t="s">
         <v>36</v>
@@ -60808,16 +61767,22 @@
       <c r="DC139" s="78">
         <v>1</v>
       </c>
-      <c r="DD139" s="96"/>
+      <c r="DD139" s="78">
+        <v>1</v>
+      </c>
       <c r="DE139" s="78">
         <v>0</v>
       </c>
       <c r="DF139" s="96"/>
       <c r="DG139" s="78">
-        <v>197</v>
+        <v>0</v>
+      </c>
+      <c r="DH139" s="96"/>
+      <c r="DI139" s="78">
+        <v>198</v>
       </c>
     </row>
-    <row r="140" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A140" s="63"/>
       <c r="B140" s="97" t="s">
         <v>36</v>
@@ -61135,16 +62100,22 @@
       <c r="DC140" s="78">
         <v>0</v>
       </c>
-      <c r="DD140" s="96"/>
+      <c r="DD140" s="78">
+        <v>0</v>
+      </c>
       <c r="DE140" s="78">
         <v>0</v>
       </c>
       <c r="DF140" s="96"/>
       <c r="DG140" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH140" s="96"/>
+      <c r="DI140" s="78">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A141" s="63"/>
       <c r="B141" s="97" t="s">
         <v>36</v>
@@ -61462,16 +62433,22 @@
       <c r="DC141" s="78">
         <v>0</v>
       </c>
-      <c r="DD141" s="96"/>
+      <c r="DD141" s="78">
+        <v>0</v>
+      </c>
       <c r="DE141" s="78">
         <v>0</v>
       </c>
       <c r="DF141" s="96"/>
       <c r="DG141" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH141" s="96"/>
+      <c r="DI141" s="78">
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A142" s="63"/>
       <c r="B142" s="97" t="s">
         <v>36</v>
@@ -61784,21 +62761,27 @@
         <v>0</v>
       </c>
       <c r="DB142" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DC142" s="78">
         <v>0</v>
       </c>
-      <c r="DD142" s="96"/>
+      <c r="DD142" s="78">
+        <v>1</v>
+      </c>
       <c r="DE142" s="78">
         <v>0</v>
       </c>
       <c r="DF142" s="96"/>
       <c r="DG142" s="78">
-        <v>276</v>
+        <v>0</v>
+      </c>
+      <c r="DH142" s="96"/>
+      <c r="DI142" s="78">
+        <v>278</v>
       </c>
     </row>
-    <row r="143" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A143" s="63"/>
       <c r="B143" s="97" t="s">
         <v>36</v>
@@ -62108,24 +63091,30 @@
         <v>0</v>
       </c>
       <c r="DA143" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB143" s="78">
         <v>1</v>
       </c>
       <c r="DC143" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD143" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="DD143" s="78">
+        <v>0</v>
+      </c>
       <c r="DE143" s="78">
         <v>0</v>
       </c>
       <c r="DF143" s="96"/>
       <c r="DG143" s="78">
-        <v>246</v>
+        <v>0</v>
+      </c>
+      <c r="DH143" s="96"/>
+      <c r="DI143" s="78">
+        <v>248</v>
       </c>
     </row>
-    <row r="144" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A144" s="63"/>
       <c r="B144" s="97" t="s">
         <v>36</v>
@@ -62443,16 +63432,22 @@
       <c r="DC144" s="78">
         <v>0</v>
       </c>
-      <c r="DD144" s="96"/>
+      <c r="DD144" s="78">
+        <v>0</v>
+      </c>
       <c r="DE144" s="78">
         <v>0</v>
       </c>
       <c r="DF144" s="96"/>
       <c r="DG144" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH144" s="96"/>
+      <c r="DI144" s="78">
         <v>323</v>
       </c>
     </row>
-    <row r="145" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A145" s="63"/>
       <c r="B145" s="97" t="s">
         <v>36</v>
@@ -62770,16 +63765,22 @@
       <c r="DC145" s="78">
         <v>0</v>
       </c>
-      <c r="DD145" s="96"/>
+      <c r="DD145" s="78">
+        <v>0</v>
+      </c>
       <c r="DE145" s="78">
         <v>0</v>
       </c>
       <c r="DF145" s="96"/>
       <c r="DG145" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH145" s="96"/>
+      <c r="DI145" s="78">
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A146" s="63"/>
       <c r="B146" s="97" t="s">
         <v>36</v>
@@ -63097,16 +64098,22 @@
       <c r="DC146" s="78">
         <v>0</v>
       </c>
-      <c r="DD146" s="96"/>
+      <c r="DD146" s="78">
+        <v>0</v>
+      </c>
       <c r="DE146" s="78">
         <v>0</v>
       </c>
       <c r="DF146" s="96"/>
       <c r="DG146" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH146" s="96"/>
+      <c r="DI146" s="78">
         <v>114</v>
       </c>
     </row>
-    <row r="147" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A147" s="63"/>
       <c r="B147" s="97" t="s">
         <v>36</v>
@@ -63422,18 +64429,24 @@
         <v>0</v>
       </c>
       <c r="DC147" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD147" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="DD147" s="78">
+        <v>1</v>
+      </c>
       <c r="DE147" s="78">
         <v>0</v>
       </c>
       <c r="DF147" s="96"/>
       <c r="DG147" s="78">
-        <v>178</v>
+        <v>0</v>
+      </c>
+      <c r="DH147" s="96"/>
+      <c r="DI147" s="78">
+        <v>180</v>
       </c>
     </row>
-    <row r="148" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A148" s="63"/>
       <c r="B148" s="97" t="s">
         <v>36</v>
@@ -63751,16 +64764,22 @@
       <c r="DC148" s="78">
         <v>0</v>
       </c>
-      <c r="DD148" s="96"/>
+      <c r="DD148" s="78">
+        <v>1</v>
+      </c>
       <c r="DE148" s="78">
         <v>0</v>
       </c>
       <c r="DF148" s="96"/>
       <c r="DG148" s="78">
-        <v>211</v>
+        <v>0</v>
+      </c>
+      <c r="DH148" s="96"/>
+      <c r="DI148" s="78">
+        <v>212</v>
       </c>
     </row>
-    <row r="149" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A149" s="63"/>
       <c r="B149" s="97" t="s">
         <v>33</v>
@@ -64078,16 +65097,22 @@
       <c r="DC149" s="78">
         <v>0</v>
       </c>
-      <c r="DD149" s="96"/>
+      <c r="DD149" s="78">
+        <v>0</v>
+      </c>
       <c r="DE149" s="78">
         <v>0</v>
       </c>
       <c r="DF149" s="96"/>
       <c r="DG149" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH149" s="96"/>
+      <c r="DI149" s="78">
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A150" s="63"/>
       <c r="B150" s="97" t="s">
         <v>33</v>
@@ -64322,7 +65347,7 @@
         <v>2</v>
       </c>
       <c r="CB150" s="78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC150" s="78">
         <v>2</v>
@@ -64405,16 +65430,22 @@
       <c r="DC150" s="78">
         <v>0</v>
       </c>
-      <c r="DD150" s="96"/>
+      <c r="DD150" s="78">
+        <v>0</v>
+      </c>
       <c r="DE150" s="78">
         <v>0</v>
       </c>
       <c r="DF150" s="96"/>
       <c r="DG150" s="78">
-        <v>210</v>
+        <v>0</v>
+      </c>
+      <c r="DH150" s="96"/>
+      <c r="DI150" s="78">
+        <v>211</v>
       </c>
     </row>
-    <row r="151" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A151" s="63"/>
       <c r="B151" s="97" t="s">
         <v>33</v>
@@ -64732,16 +65763,22 @@
       <c r="DC151" s="78">
         <v>0</v>
       </c>
-      <c r="DD151" s="96"/>
+      <c r="DD151" s="78">
+        <v>1</v>
+      </c>
       <c r="DE151" s="78">
         <v>0</v>
       </c>
       <c r="DF151" s="96"/>
       <c r="DG151" s="78">
-        <v>220</v>
+        <v>0</v>
+      </c>
+      <c r="DH151" s="96"/>
+      <c r="DI151" s="78">
+        <v>221</v>
       </c>
     </row>
-    <row r="152" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A152" s="63"/>
       <c r="B152" s="97" t="s">
         <v>33</v>
@@ -65059,16 +66096,22 @@
       <c r="DC152" s="78">
         <v>0</v>
       </c>
-      <c r="DD152" s="96"/>
+      <c r="DD152" s="78">
+        <v>0</v>
+      </c>
       <c r="DE152" s="78">
         <v>0</v>
       </c>
       <c r="DF152" s="96"/>
       <c r="DG152" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH152" s="96"/>
+      <c r="DI152" s="78">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A153" s="63"/>
       <c r="B153" s="97" t="s">
         <v>33</v>
@@ -65375,7 +66418,7 @@
         <v>2</v>
       </c>
       <c r="CZ153" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DA153" s="78">
         <v>1</v>
@@ -65386,16 +66429,22 @@
       <c r="DC153" s="78">
         <v>0</v>
       </c>
-      <c r="DD153" s="96"/>
+      <c r="DD153" s="78">
+        <v>0</v>
+      </c>
       <c r="DE153" s="78">
         <v>0</v>
       </c>
       <c r="DF153" s="96"/>
       <c r="DG153" s="78">
-        <v>188</v>
+        <v>0</v>
+      </c>
+      <c r="DH153" s="96"/>
+      <c r="DI153" s="78">
+        <v>189</v>
       </c>
     </row>
-    <row r="154" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A154" s="63"/>
       <c r="B154" s="97" t="s">
         <v>33</v>
@@ -65678,7 +66727,7 @@
         <v>0</v>
       </c>
       <c r="CR154" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CS154" s="78">
         <v>0</v>
@@ -65705,24 +66754,30 @@
         <v>0</v>
       </c>
       <c r="DA154" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB154" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC154" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD154" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="DD154" s="78">
+        <v>0</v>
+      </c>
       <c r="DE154" s="78">
         <v>0</v>
       </c>
       <c r="DF154" s="96"/>
       <c r="DG154" s="78">
-        <v>123</v>
+        <v>0</v>
+      </c>
+      <c r="DH154" s="96"/>
+      <c r="DI154" s="78">
+        <v>127</v>
       </c>
     </row>
-    <row r="155" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A155" s="63"/>
       <c r="B155" s="97" t="s">
         <v>33</v>
@@ -66032,7 +67087,7 @@
         <v>2</v>
       </c>
       <c r="DA155" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DB155" s="78">
         <v>0</v>
@@ -66040,16 +67095,22 @@
       <c r="DC155" s="78">
         <v>0</v>
       </c>
-      <c r="DD155" s="96"/>
+      <c r="DD155" s="78">
+        <v>0</v>
+      </c>
       <c r="DE155" s="78">
         <v>0</v>
       </c>
       <c r="DF155" s="96"/>
       <c r="DG155" s="78">
-        <v>193</v>
+        <v>0</v>
+      </c>
+      <c r="DH155" s="96"/>
+      <c r="DI155" s="78">
+        <v>194</v>
       </c>
     </row>
-    <row r="156" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A156" s="63"/>
       <c r="B156" s="97" t="s">
         <v>33</v>
@@ -66367,16 +67428,22 @@
       <c r="DC156" s="78">
         <v>0</v>
       </c>
-      <c r="DD156" s="96"/>
+      <c r="DD156" s="78">
+        <v>0</v>
+      </c>
       <c r="DE156" s="78">
         <v>0</v>
       </c>
       <c r="DF156" s="96"/>
       <c r="DG156" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH156" s="96"/>
+      <c r="DI156" s="78">
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A157" s="63"/>
       <c r="B157" s="97" t="s">
         <v>33</v>
@@ -66683,7 +67750,7 @@
         <v>0</v>
       </c>
       <c r="CZ157" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA157" s="78">
         <v>1</v>
@@ -66694,16 +67761,22 @@
       <c r="DC157" s="78">
         <v>0</v>
       </c>
-      <c r="DD157" s="96"/>
+      <c r="DD157" s="78">
+        <v>0</v>
+      </c>
       <c r="DE157" s="78">
         <v>0</v>
       </c>
       <c r="DF157" s="96"/>
       <c r="DG157" s="78">
-        <v>222</v>
+        <v>0</v>
+      </c>
+      <c r="DH157" s="96"/>
+      <c r="DI157" s="78">
+        <v>223</v>
       </c>
     </row>
-    <row r="158" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A158" s="63"/>
       <c r="B158" s="97" t="s">
         <v>33</v>
@@ -67021,16 +68094,22 @@
       <c r="DC158" s="78">
         <v>0</v>
       </c>
-      <c r="DD158" s="96"/>
+      <c r="DD158" s="78">
+        <v>0</v>
+      </c>
       <c r="DE158" s="78">
         <v>0</v>
       </c>
       <c r="DF158" s="96"/>
       <c r="DG158" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH158" s="96"/>
+      <c r="DI158" s="78">
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A159" s="63"/>
       <c r="B159" s="97" t="s">
         <v>33</v>
@@ -67348,16 +68427,22 @@
       <c r="DC159" s="78">
         <v>0</v>
       </c>
-      <c r="DD159" s="96"/>
+      <c r="DD159" s="78">
+        <v>0</v>
+      </c>
       <c r="DE159" s="78">
         <v>0</v>
       </c>
       <c r="DF159" s="96"/>
       <c r="DG159" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH159" s="96"/>
+      <c r="DI159" s="78">
         <v>451</v>
       </c>
     </row>
-    <row r="160" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A160" s="63"/>
       <c r="B160" s="97" t="s">
         <v>33</v>
@@ -67670,21 +68755,27 @@
         <v>1</v>
       </c>
       <c r="DB160" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DC160" s="78">
         <v>0</v>
       </c>
-      <c r="DD160" s="96"/>
+      <c r="DD160" s="78">
+        <v>0</v>
+      </c>
       <c r="DE160" s="78">
         <v>0</v>
       </c>
       <c r="DF160" s="96"/>
       <c r="DG160" s="78">
-        <v>405</v>
+        <v>0</v>
+      </c>
+      <c r="DH160" s="96"/>
+      <c r="DI160" s="78">
+        <v>406</v>
       </c>
     </row>
-    <row r="161" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A161" s="63"/>
       <c r="B161" s="97" t="s">
         <v>33</v>
@@ -68002,16 +69093,22 @@
       <c r="DC161" s="78">
         <v>0</v>
       </c>
-      <c r="DD161" s="96"/>
+      <c r="DD161" s="78">
+        <v>0</v>
+      </c>
       <c r="DE161" s="78">
         <v>0</v>
       </c>
       <c r="DF161" s="96"/>
       <c r="DG161" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH161" s="96"/>
+      <c r="DI161" s="78">
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A162" s="63"/>
       <c r="B162" s="97" t="s">
         <v>33</v>
@@ -68318,7 +69415,7 @@
         <v>1</v>
       </c>
       <c r="CZ162" s="78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DA162" s="78">
         <v>1</v>
@@ -68327,18 +69424,24 @@
         <v>1</v>
       </c>
       <c r="DC162" s="78">
-        <v>1</v>
-      </c>
-      <c r="DD162" s="96"/>
+        <v>2</v>
+      </c>
+      <c r="DD162" s="78">
+        <v>2</v>
+      </c>
       <c r="DE162" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF162" s="96"/>
       <c r="DG162" s="78">
-        <v>195</v>
+        <v>0</v>
+      </c>
+      <c r="DH162" s="96"/>
+      <c r="DI162" s="78">
+        <v>200</v>
       </c>
     </row>
-    <row r="163" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A163" s="63"/>
       <c r="B163" s="97" t="s">
         <v>33</v>
@@ -68656,16 +69759,22 @@
       <c r="DC163" s="78">
         <v>0</v>
       </c>
-      <c r="DD163" s="96"/>
+      <c r="DD163" s="78">
+        <v>1</v>
+      </c>
       <c r="DE163" s="78">
         <v>0</v>
       </c>
       <c r="DF163" s="96"/>
       <c r="DG163" s="78">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="DH163" s="96"/>
+      <c r="DI163" s="78">
+        <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A164" s="63"/>
       <c r="B164" s="97" t="s">
         <v>33</v>
@@ -68983,16 +70092,22 @@
       <c r="DC164" s="78">
         <v>0</v>
       </c>
-      <c r="DD164" s="96"/>
+      <c r="DD164" s="78">
+        <v>0</v>
+      </c>
       <c r="DE164" s="78">
         <v>0</v>
       </c>
       <c r="DF164" s="96"/>
       <c r="DG164" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH164" s="96"/>
+      <c r="DI164" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A165" s="63"/>
       <c r="B165" s="97" t="s">
         <v>33</v>
@@ -69287,7 +70402,7 @@
         <v>5</v>
       </c>
       <c r="CV165" s="78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CW165" s="78">
         <v>4</v>
@@ -69308,18 +70423,24 @@
         <v>5</v>
       </c>
       <c r="DC165" s="78">
-        <v>1</v>
-      </c>
-      <c r="DD165" s="96"/>
+        <v>2</v>
+      </c>
+      <c r="DD165" s="78">
+        <v>0</v>
+      </c>
       <c r="DE165" s="78">
         <v>0</v>
       </c>
       <c r="DF165" s="96"/>
       <c r="DG165" s="78">
-        <v>505</v>
+        <v>0</v>
+      </c>
+      <c r="DH165" s="96"/>
+      <c r="DI165" s="78">
+        <v>507</v>
       </c>
     </row>
-    <row r="166" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A166" s="63"/>
       <c r="B166" s="97" t="s">
         <v>33</v>
@@ -69637,16 +70758,22 @@
       <c r="DC166" s="78">
         <v>0</v>
       </c>
-      <c r="DD166" s="96"/>
+      <c r="DD166" s="78">
+        <v>0</v>
+      </c>
       <c r="DE166" s="78">
         <v>0</v>
       </c>
       <c r="DF166" s="96"/>
       <c r="DG166" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH166" s="96"/>
+      <c r="DI166" s="78">
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A167" s="63"/>
       <c r="B167" s="97" t="s">
         <v>33</v>
@@ -69947,7 +71074,7 @@
         <v>0</v>
       </c>
       <c r="CX167" s="78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CY167" s="78">
         <v>0</v>
@@ -69962,18 +71089,24 @@
         <v>2</v>
       </c>
       <c r="DC167" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD167" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="DD167" s="78">
+        <v>0</v>
+      </c>
       <c r="DE167" s="78">
         <v>0</v>
       </c>
       <c r="DF167" s="96"/>
       <c r="DG167" s="78">
-        <v>172</v>
+        <v>0</v>
+      </c>
+      <c r="DH167" s="96"/>
+      <c r="DI167" s="78">
+        <v>174</v>
       </c>
     </row>
-    <row r="168" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A168" s="63"/>
       <c r="B168" s="97" t="s">
         <v>33</v>
@@ -70291,16 +71424,22 @@
       <c r="DC168" s="78">
         <v>0</v>
       </c>
-      <c r="DD168" s="96"/>
+      <c r="DD168" s="78">
+        <v>0</v>
+      </c>
       <c r="DE168" s="78">
         <v>0</v>
       </c>
       <c r="DF168" s="96"/>
       <c r="DG168" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH168" s="96"/>
+      <c r="DI168" s="78">
         <v>143</v>
       </c>
     </row>
-    <row r="169" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A169" s="63"/>
       <c r="B169" s="97" t="s">
         <v>33</v>
@@ -70616,18 +71755,24 @@
         <v>0</v>
       </c>
       <c r="DC169" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD169" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="DD169" s="78">
+        <v>0</v>
+      </c>
       <c r="DE169" s="78">
         <v>0</v>
       </c>
       <c r="DF169" s="96"/>
       <c r="DG169" s="78">
-        <v>201</v>
+        <v>0</v>
+      </c>
+      <c r="DH169" s="96"/>
+      <c r="DI169" s="78">
+        <v>202</v>
       </c>
     </row>
-    <row r="170" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A170" s="63"/>
       <c r="B170" s="97" t="s">
         <v>33</v>
@@ -70945,16 +72090,22 @@
       <c r="DC170" s="78">
         <v>0</v>
       </c>
-      <c r="DD170" s="96"/>
+      <c r="DD170" s="78">
+        <v>0</v>
+      </c>
       <c r="DE170" s="78">
         <v>0</v>
       </c>
       <c r="DF170" s="96"/>
       <c r="DG170" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH170" s="96"/>
+      <c r="DI170" s="78">
         <v>199</v>
       </c>
     </row>
-    <row r="171" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A171" s="63"/>
       <c r="B171" s="97" t="s">
         <v>33</v>
@@ -71270,18 +72421,24 @@
         <v>0</v>
       </c>
       <c r="DC171" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD171" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="DD171" s="78">
+        <v>1</v>
+      </c>
       <c r="DE171" s="78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DF171" s="96"/>
       <c r="DG171" s="78">
-        <v>173</v>
+        <v>0</v>
+      </c>
+      <c r="DH171" s="96"/>
+      <c r="DI171" s="78">
+        <v>177</v>
       </c>
     </row>
-    <row r="172" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A172" s="63"/>
       <c r="B172" s="97" t="s">
         <v>33</v>
@@ -71599,16 +72756,22 @@
       <c r="DC172" s="78">
         <v>0</v>
       </c>
-      <c r="DD172" s="96"/>
+      <c r="DD172" s="78">
+        <v>0</v>
+      </c>
       <c r="DE172" s="78">
         <v>0</v>
       </c>
       <c r="DF172" s="96"/>
       <c r="DG172" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH172" s="96"/>
+      <c r="DI172" s="78">
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A173" s="63"/>
       <c r="B173" s="97" t="s">
         <v>33</v>
@@ -71926,16 +73089,22 @@
       <c r="DC173" s="78">
         <v>0</v>
       </c>
-      <c r="DD173" s="96"/>
+      <c r="DD173" s="78">
+        <v>0</v>
+      </c>
       <c r="DE173" s="78">
         <v>0</v>
       </c>
       <c r="DF173" s="96"/>
       <c r="DG173" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH173" s="96"/>
+      <c r="DI173" s="78">
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A174" s="63"/>
       <c r="B174" s="97" t="s">
         <v>33</v>
@@ -72251,18 +73420,24 @@
         <v>0</v>
       </c>
       <c r="DC174" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD174" s="96"/>
+        <v>1</v>
+      </c>
+      <c r="DD174" s="78">
+        <v>0</v>
+      </c>
       <c r="DE174" s="78">
         <v>0</v>
       </c>
       <c r="DF174" s="96"/>
       <c r="DG174" s="78">
-        <v>164</v>
+        <v>0</v>
+      </c>
+      <c r="DH174" s="96"/>
+      <c r="DI174" s="78">
+        <v>165</v>
       </c>
     </row>
-    <row r="175" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A175" s="63"/>
       <c r="B175" s="97" t="s">
         <v>33</v>
@@ -72580,16 +73755,22 @@
       <c r="DC175" s="78">
         <v>0</v>
       </c>
-      <c r="DD175" s="96"/>
+      <c r="DD175" s="78">
+        <v>1</v>
+      </c>
       <c r="DE175" s="78">
         <v>0</v>
       </c>
       <c r="DF175" s="96"/>
       <c r="DG175" s="78">
-        <v>125</v>
+        <v>0</v>
+      </c>
+      <c r="DH175" s="96"/>
+      <c r="DI175" s="78">
+        <v>126</v>
       </c>
     </row>
-    <row r="176" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A176" s="63"/>
       <c r="B176" s="97" t="s">
         <v>33</v>
@@ -72905,18 +74086,24 @@
         <v>1</v>
       </c>
       <c r="DC176" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD176" s="96"/>
+        <v>2</v>
+      </c>
+      <c r="DD176" s="78">
+        <v>0</v>
+      </c>
       <c r="DE176" s="78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DF176" s="96"/>
       <c r="DG176" s="78">
-        <v>226</v>
+        <v>0</v>
+      </c>
+      <c r="DH176" s="96"/>
+      <c r="DI176" s="78">
+        <v>231</v>
       </c>
     </row>
-    <row r="177" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A177" s="63"/>
       <c r="B177" s="97" t="s">
         <v>33</v>
@@ -73234,16 +74421,22 @@
       <c r="DC177" s="78">
         <v>0</v>
       </c>
-      <c r="DD177" s="96"/>
+      <c r="DD177" s="78">
+        <v>1</v>
+      </c>
       <c r="DE177" s="78">
         <v>0</v>
       </c>
       <c r="DF177" s="96"/>
       <c r="DG177" s="78">
-        <v>246</v>
+        <v>0</v>
+      </c>
+      <c r="DH177" s="96"/>
+      <c r="DI177" s="78">
+        <v>247</v>
       </c>
     </row>
-    <row r="178" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A178" s="63"/>
       <c r="B178" s="97" t="s">
         <v>34</v>
@@ -73561,16 +74754,22 @@
       <c r="DC178" s="78">
         <v>0</v>
       </c>
-      <c r="DD178" s="96"/>
+      <c r="DD178" s="78">
+        <v>0</v>
+      </c>
       <c r="DE178" s="78">
         <v>0</v>
       </c>
       <c r="DF178" s="96"/>
       <c r="DG178" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH178" s="96"/>
+      <c r="DI178" s="78">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A179" s="63"/>
       <c r="B179" s="97" t="s">
         <v>34</v>
@@ -73888,16 +75087,22 @@
       <c r="DC179" s="78">
         <v>0</v>
       </c>
-      <c r="DD179" s="96"/>
+      <c r="DD179" s="78">
+        <v>0</v>
+      </c>
       <c r="DE179" s="78">
         <v>0</v>
       </c>
       <c r="DF179" s="96"/>
       <c r="DG179" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH179" s="96"/>
+      <c r="DI179" s="78">
         <v>20</v>
       </c>
     </row>
-    <row r="180" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A180" s="63"/>
       <c r="B180" s="97" t="s">
         <v>34</v>
@@ -74215,16 +75420,22 @@
       <c r="DC180" s="78">
         <v>0</v>
       </c>
-      <c r="DD180" s="96"/>
+      <c r="DD180" s="78">
+        <v>0</v>
+      </c>
       <c r="DE180" s="78">
         <v>0</v>
       </c>
       <c r="DF180" s="96"/>
       <c r="DG180" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH180" s="96"/>
+      <c r="DI180" s="78">
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A181" s="63"/>
       <c r="B181" s="99" t="s">
         <v>34</v>
@@ -74525,16 +75736,16 @@
         <v>0</v>
       </c>
       <c r="CX181" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY181" s="78">
         <v>0</v>
       </c>
       <c r="CZ181" s="78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DA181" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB181" s="78">
         <v>0</v>
@@ -74542,16 +75753,22 @@
       <c r="DC181" s="78">
         <v>0</v>
       </c>
-      <c r="DD181" s="96"/>
+      <c r="DD181" s="78">
+        <v>0</v>
+      </c>
       <c r="DE181" s="78">
         <v>0</v>
       </c>
       <c r="DF181" s="96"/>
       <c r="DG181" s="78">
-        <v>137</v>
+        <v>0</v>
+      </c>
+      <c r="DH181" s="96"/>
+      <c r="DI181" s="78">
+        <v>141</v>
       </c>
     </row>
-    <row r="182" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A182" s="63"/>
       <c r="B182" s="97" t="s">
         <v>34</v>
@@ -74861,24 +76078,30 @@
         <v>1</v>
       </c>
       <c r="DA182" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB182" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DC182" s="78">
         <v>0</v>
       </c>
-      <c r="DD182" s="96"/>
+      <c r="DD182" s="78">
+        <v>0</v>
+      </c>
       <c r="DE182" s="78">
         <v>0</v>
       </c>
       <c r="DF182" s="96"/>
       <c r="DG182" s="78">
-        <v>121</v>
+        <v>0</v>
+      </c>
+      <c r="DH182" s="96"/>
+      <c r="DI182" s="78">
+        <v>123</v>
       </c>
     </row>
-    <row r="183" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A183" s="63"/>
       <c r="B183" s="97" t="s">
         <v>34</v>
@@ -75196,16 +76419,22 @@
       <c r="DC183" s="78">
         <v>0</v>
       </c>
-      <c r="DD183" s="96"/>
+      <c r="DD183" s="78">
+        <v>0</v>
+      </c>
       <c r="DE183" s="78">
         <v>0</v>
       </c>
       <c r="DF183" s="96"/>
       <c r="DG183" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH183" s="96"/>
+      <c r="DI183" s="78">
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A184" s="63"/>
       <c r="B184" s="97" t="s">
         <v>34</v>
@@ -75523,16 +76752,22 @@
       <c r="DC184" s="78">
         <v>0</v>
       </c>
-      <c r="DD184" s="96"/>
+      <c r="DD184" s="78">
+        <v>0</v>
+      </c>
       <c r="DE184" s="78">
         <v>0</v>
       </c>
       <c r="DF184" s="96"/>
       <c r="DG184" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH184" s="96"/>
+      <c r="DI184" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A185" s="63"/>
       <c r="B185" s="97" t="s">
         <v>34</v>
@@ -75827,13 +77062,13 @@
         <v>0</v>
       </c>
       <c r="CV185" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW185" s="78">
         <v>0</v>
       </c>
       <c r="CX185" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY185" s="78">
         <v>0</v>
@@ -75850,16 +77085,22 @@
       <c r="DC185" s="78">
         <v>0</v>
       </c>
-      <c r="DD185" s="96"/>
+      <c r="DD185" s="78">
+        <v>0</v>
+      </c>
       <c r="DE185" s="78">
         <v>0</v>
       </c>
       <c r="DF185" s="96"/>
       <c r="DG185" s="78">
-        <v>185</v>
+        <v>0</v>
+      </c>
+      <c r="DH185" s="96"/>
+      <c r="DI185" s="78">
+        <v>187</v>
       </c>
     </row>
-    <row r="186" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A186" s="63"/>
       <c r="B186" s="97" t="s">
         <v>34</v>
@@ -75968,7 +77209,7 @@
         <v>3</v>
       </c>
       <c r="AL186" s="78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM186" s="78">
         <v>5</v>
@@ -76175,18 +77416,24 @@
         <v>2</v>
       </c>
       <c r="DC186" s="78">
-        <v>0</v>
-      </c>
-      <c r="DD186" s="96"/>
+        <v>4</v>
+      </c>
+      <c r="DD186" s="78">
+        <v>5</v>
+      </c>
       <c r="DE186" s="78">
         <v>0</v>
       </c>
       <c r="DF186" s="96"/>
       <c r="DG186" s="78">
-        <v>329</v>
+        <v>0</v>
+      </c>
+      <c r="DH186" s="96"/>
+      <c r="DI186" s="78">
+        <v>339</v>
       </c>
     </row>
-    <row r="187" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A187" s="63"/>
       <c r="B187" s="97" t="s">
         <v>34</v>
@@ -76504,16 +77751,22 @@
       <c r="DC187" s="78">
         <v>0</v>
       </c>
-      <c r="DD187" s="96"/>
+      <c r="DD187" s="78">
+        <v>0</v>
+      </c>
       <c r="DE187" s="78">
         <v>0</v>
       </c>
       <c r="DF187" s="96"/>
       <c r="DG187" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH187" s="96"/>
+      <c r="DI187" s="78">
         <v>82</v>
       </c>
     </row>
-    <row r="188" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A188" s="63"/>
       <c r="B188" s="97" t="s">
         <v>34</v>
@@ -76823,7 +78076,7 @@
         <v>0</v>
       </c>
       <c r="DA188" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB188" s="78">
         <v>0</v>
@@ -76831,16 +78084,22 @@
       <c r="DC188" s="78">
         <v>1</v>
       </c>
-      <c r="DD188" s="96"/>
+      <c r="DD188" s="78">
+        <v>1</v>
+      </c>
       <c r="DE188" s="78">
         <v>0</v>
       </c>
       <c r="DF188" s="96"/>
       <c r="DG188" s="78">
-        <v>354</v>
+        <v>0</v>
+      </c>
+      <c r="DH188" s="96"/>
+      <c r="DI188" s="78">
+        <v>356</v>
       </c>
     </row>
-    <row r="189" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A189" s="63"/>
       <c r="B189" s="97" t="s">
         <v>34</v>
@@ -77158,16 +78417,22 @@
       <c r="DC189" s="78">
         <v>0</v>
       </c>
-      <c r="DD189" s="96"/>
+      <c r="DD189" s="78">
+        <v>0</v>
+      </c>
       <c r="DE189" s="78">
         <v>0</v>
       </c>
       <c r="DF189" s="96"/>
       <c r="DG189" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH189" s="96"/>
+      <c r="DI189" s="78">
         <v>157</v>
       </c>
     </row>
-    <row r="190" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A190" s="63"/>
       <c r="B190" s="97" t="s">
         <v>34</v>
@@ -77474,7 +78739,7 @@
         <v>0</v>
       </c>
       <c r="CZ190" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA190" s="78">
         <v>0</v>
@@ -77485,16 +78750,22 @@
       <c r="DC190" s="78">
         <v>0</v>
       </c>
-      <c r="DD190" s="96"/>
+      <c r="DD190" s="78">
+        <v>0</v>
+      </c>
       <c r="DE190" s="78">
         <v>0</v>
       </c>
       <c r="DF190" s="96"/>
       <c r="DG190" s="78">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="DH190" s="96"/>
+      <c r="DI190" s="78">
+        <v>39</v>
       </c>
     </row>
-    <row r="191" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A191" s="63"/>
       <c r="B191" s="97" t="s">
         <v>34</v>
@@ -77812,16 +79083,22 @@
       <c r="DC191" s="78">
         <v>0</v>
       </c>
-      <c r="DD191" s="96"/>
+      <c r="DD191" s="78">
+        <v>0</v>
+      </c>
       <c r="DE191" s="78">
         <v>0</v>
       </c>
       <c r="DF191" s="96"/>
       <c r="DG191" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH191" s="96"/>
+      <c r="DI191" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A192" s="63"/>
       <c r="B192" s="97" t="s">
         <v>34</v>
@@ -78139,16 +79416,22 @@
       <c r="DC192" s="78">
         <v>0</v>
       </c>
-      <c r="DD192" s="96"/>
+      <c r="DD192" s="78">
+        <v>0</v>
+      </c>
       <c r="DE192" s="78">
         <v>0</v>
       </c>
       <c r="DF192" s="96"/>
       <c r="DG192" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH192" s="96"/>
+      <c r="DI192" s="78">
         <v>41</v>
       </c>
     </row>
-    <row r="193" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A193" s="63"/>
       <c r="B193" s="97" t="s">
         <v>34</v>
@@ -78464,18 +79747,24 @@
         <v>1</v>
       </c>
       <c r="DC193" s="78">
-        <v>1</v>
-      </c>
-      <c r="DD193" s="96"/>
+        <v>4</v>
+      </c>
+      <c r="DD193" s="78">
+        <v>0</v>
+      </c>
       <c r="DE193" s="78">
         <v>0</v>
       </c>
       <c r="DF193" s="96"/>
       <c r="DG193" s="78">
-        <v>122</v>
+        <v>0</v>
+      </c>
+      <c r="DH193" s="96"/>
+      <c r="DI193" s="78">
+        <v>125</v>
       </c>
     </row>
-    <row r="194" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A194" s="63"/>
       <c r="B194" s="97" t="s">
         <v>34</v>
@@ -78793,16 +80082,22 @@
       <c r="DC194" s="78">
         <v>0</v>
       </c>
-      <c r="DD194" s="96"/>
+      <c r="DD194" s="78">
+        <v>0</v>
+      </c>
       <c r="DE194" s="78">
         <v>0</v>
       </c>
       <c r="DF194" s="96"/>
       <c r="DG194" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH194" s="96"/>
+      <c r="DI194" s="78">
         <v>172</v>
       </c>
     </row>
-    <row r="195" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A195" s="63"/>
       <c r="B195" s="97" t="s">
         <v>34</v>
@@ -79120,16 +80415,22 @@
       <c r="DC195" s="78">
         <v>0</v>
       </c>
-      <c r="DD195" s="96"/>
+      <c r="DD195" s="78">
+        <v>0</v>
+      </c>
       <c r="DE195" s="78">
         <v>0</v>
       </c>
       <c r="DF195" s="96"/>
       <c r="DG195" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH195" s="96"/>
+      <c r="DI195" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A196" s="63"/>
       <c r="B196" s="97" t="s">
         <v>34</v>
@@ -79447,16 +80748,22 @@
       <c r="DC196" s="78">
         <v>0</v>
       </c>
-      <c r="DD196" s="96"/>
+      <c r="DD196" s="78">
+        <v>0</v>
+      </c>
       <c r="DE196" s="78">
         <v>0</v>
       </c>
       <c r="DF196" s="96"/>
       <c r="DG196" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH196" s="96"/>
+      <c r="DI196" s="78">
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A197" s="63"/>
       <c r="B197" s="97" t="s">
         <v>34</v>
@@ -79774,16 +81081,22 @@
       <c r="DC197" s="78">
         <v>0</v>
       </c>
-      <c r="DD197" s="96"/>
+      <c r="DD197" s="78">
+        <v>0</v>
+      </c>
       <c r="DE197" s="78">
         <v>0</v>
       </c>
       <c r="DF197" s="96"/>
       <c r="DG197" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH197" s="96"/>
+      <c r="DI197" s="78">
         <v>177</v>
       </c>
     </row>
-    <row r="198" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A198" s="63"/>
       <c r="B198" s="97" t="s">
         <v>34</v>
@@ -80101,16 +81414,22 @@
       <c r="DC198" s="78">
         <v>0</v>
       </c>
-      <c r="DD198" s="96"/>
+      <c r="DD198" s="78">
+        <v>0</v>
+      </c>
       <c r="DE198" s="78">
         <v>0</v>
       </c>
       <c r="DF198" s="96"/>
       <c r="DG198" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH198" s="96"/>
+      <c r="DI198" s="78">
         <v>229</v>
       </c>
     </row>
-    <row r="199" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A199" s="63"/>
       <c r="B199" s="97" t="s">
         <v>34</v>
@@ -80428,16 +81747,22 @@
       <c r="DC199" s="78">
         <v>0</v>
       </c>
-      <c r="DD199" s="96"/>
+      <c r="DD199" s="78">
+        <v>1</v>
+      </c>
       <c r="DE199" s="78">
         <v>0</v>
       </c>
       <c r="DF199" s="96"/>
       <c r="DG199" s="78">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="DH199" s="96"/>
+      <c r="DI199" s="78">
+        <v>181</v>
       </c>
     </row>
-    <row r="200" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A200" s="63"/>
       <c r="B200" s="97" t="s">
         <v>34</v>
@@ -80755,16 +82080,22 @@
       <c r="DC200" s="78">
         <v>0</v>
       </c>
-      <c r="DD200" s="96"/>
+      <c r="DD200" s="78">
+        <v>0</v>
+      </c>
       <c r="DE200" s="78">
         <v>0</v>
       </c>
       <c r="DF200" s="96"/>
       <c r="DG200" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH200" s="96"/>
+      <c r="DI200" s="78">
         <v>96</v>
       </c>
     </row>
-    <row r="201" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A201" s="63"/>
       <c r="B201" s="97" t="s">
         <v>34</v>
@@ -81082,16 +82413,22 @@
       <c r="DC201" s="78">
         <v>0</v>
       </c>
-      <c r="DD201" s="96"/>
+      <c r="DD201" s="78">
+        <v>0</v>
+      </c>
       <c r="DE201" s="78">
         <v>0</v>
       </c>
       <c r="DF201" s="96"/>
       <c r="DG201" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH201" s="96"/>
+      <c r="DI201" s="78">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A202" s="63"/>
       <c r="B202" s="97" t="s">
         <v>34</v>
@@ -81409,16 +82746,22 @@
       <c r="DC202" s="78">
         <v>0</v>
       </c>
-      <c r="DD202" s="96"/>
+      <c r="DD202" s="78">
+        <v>0</v>
+      </c>
       <c r="DE202" s="78">
         <v>0</v>
       </c>
       <c r="DF202" s="96"/>
       <c r="DG202" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH202" s="96"/>
+      <c r="DI202" s="78">
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A203" s="63"/>
       <c r="B203" s="97" t="s">
         <v>34</v>
@@ -81728,7 +83071,7 @@
         <v>1</v>
       </c>
       <c r="DA203" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB203" s="78">
         <v>1</v>
@@ -81736,16 +83079,22 @@
       <c r="DC203" s="78">
         <v>0</v>
       </c>
-      <c r="DD203" s="96"/>
+      <c r="DD203" s="78">
+        <v>0</v>
+      </c>
       <c r="DE203" s="78">
         <v>0</v>
       </c>
       <c r="DF203" s="96"/>
       <c r="DG203" s="78">
-        <v>251</v>
+        <v>0</v>
+      </c>
+      <c r="DH203" s="96"/>
+      <c r="DI203" s="78">
+        <v>252</v>
       </c>
     </row>
-    <row r="204" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A204" s="63"/>
       <c r="B204" s="97" t="s">
         <v>34</v>
@@ -82063,16 +83412,22 @@
       <c r="DC204" s="78">
         <v>0</v>
       </c>
-      <c r="DD204" s="96"/>
+      <c r="DD204" s="78">
+        <v>0</v>
+      </c>
       <c r="DE204" s="78">
         <v>0</v>
       </c>
       <c r="DF204" s="96"/>
       <c r="DG204" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH204" s="96"/>
+      <c r="DI204" s="78">
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A205" s="63"/>
       <c r="B205" s="97" t="s">
         <v>34</v>
@@ -82390,16 +83745,22 @@
       <c r="DC205" s="78">
         <v>0</v>
       </c>
-      <c r="DD205" s="96"/>
+      <c r="DD205" s="78">
+        <v>1</v>
+      </c>
       <c r="DE205" s="78">
         <v>0</v>
       </c>
       <c r="DF205" s="96"/>
       <c r="DG205" s="78">
-        <v>190</v>
+        <v>0</v>
+      </c>
+      <c r="DH205" s="96"/>
+      <c r="DI205" s="78">
+        <v>191</v>
       </c>
     </row>
-    <row r="206" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A206" s="63"/>
       <c r="B206" s="97" t="s">
         <v>34</v>
@@ -82717,16 +84078,22 @@
       <c r="DC206" s="78">
         <v>0</v>
       </c>
-      <c r="DD206" s="96"/>
+      <c r="DD206" s="78">
+        <v>0</v>
+      </c>
       <c r="DE206" s="78">
         <v>0</v>
       </c>
       <c r="DF206" s="96"/>
       <c r="DG206" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH206" s="96"/>
+      <c r="DI206" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A207" s="63"/>
       <c r="B207" s="97" t="s">
         <v>34</v>
@@ -83044,16 +84411,22 @@
       <c r="DC207" s="78">
         <v>0</v>
       </c>
-      <c r="DD207" s="96"/>
+      <c r="DD207" s="78">
+        <v>0</v>
+      </c>
       <c r="DE207" s="78">
         <v>0</v>
       </c>
       <c r="DF207" s="96"/>
       <c r="DG207" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH207" s="96"/>
+      <c r="DI207" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A208" s="63"/>
       <c r="B208" s="97" t="s">
         <v>34</v>
@@ -83371,16 +84744,22 @@
       <c r="DC208" s="78">
         <v>0</v>
       </c>
-      <c r="DD208" s="96"/>
+      <c r="DD208" s="78">
+        <v>0</v>
+      </c>
       <c r="DE208" s="78">
         <v>0</v>
       </c>
       <c r="DF208" s="96"/>
       <c r="DG208" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH208" s="96"/>
+      <c r="DI208" s="78">
         <v>112</v>
       </c>
     </row>
-    <row r="209" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A209" s="63"/>
       <c r="B209" s="97" t="s">
         <v>35</v>
@@ -83698,16 +85077,22 @@
       <c r="DC209" s="78">
         <v>0</v>
       </c>
-      <c r="DD209" s="96"/>
+      <c r="DD209" s="78">
+        <v>0</v>
+      </c>
       <c r="DE209" s="78">
         <v>0</v>
       </c>
       <c r="DF209" s="96"/>
       <c r="DG209" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH209" s="96"/>
+      <c r="DI209" s="78">
         <v>26</v>
       </c>
     </row>
-    <row r="210" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A210" s="63"/>
       <c r="B210" s="97" t="s">
         <v>35</v>
@@ -84025,16 +85410,22 @@
       <c r="DC210" s="78">
         <v>0</v>
       </c>
-      <c r="DD210" s="96"/>
+      <c r="DD210" s="78">
+        <v>0</v>
+      </c>
       <c r="DE210" s="78">
         <v>0</v>
       </c>
       <c r="DF210" s="96"/>
       <c r="DG210" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH210" s="96"/>
+      <c r="DI210" s="78">
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A211" s="63"/>
       <c r="B211" s="97" t="s">
         <v>35</v>
@@ -84352,16 +85743,22 @@
       <c r="DC211" s="78">
         <v>0</v>
       </c>
-      <c r="DD211" s="96"/>
+      <c r="DD211" s="78">
+        <v>0</v>
+      </c>
       <c r="DE211" s="78">
         <v>0</v>
       </c>
       <c r="DF211" s="96"/>
       <c r="DG211" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH211" s="96"/>
+      <c r="DI211" s="78">
         <v>15</v>
       </c>
     </row>
-    <row r="212" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A212" s="63"/>
       <c r="B212" s="97" t="s">
         <v>35</v>
@@ -84679,16 +86076,22 @@
       <c r="DC212" s="78">
         <v>0</v>
       </c>
-      <c r="DD212" s="96"/>
+      <c r="DD212" s="78">
+        <v>0</v>
+      </c>
       <c r="DE212" s="78">
         <v>0</v>
       </c>
       <c r="DF212" s="96"/>
       <c r="DG212" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH212" s="96"/>
+      <c r="DI212" s="78">
         <v>34</v>
       </c>
     </row>
-    <row r="213" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A213" s="63"/>
       <c r="B213" s="97" t="s">
         <v>35</v>
@@ -85006,16 +86409,22 @@
       <c r="DC213" s="78">
         <v>0</v>
       </c>
-      <c r="DD213" s="96"/>
+      <c r="DD213" s="78">
+        <v>0</v>
+      </c>
       <c r="DE213" s="78">
         <v>0</v>
       </c>
       <c r="DF213" s="96"/>
       <c r="DG213" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH213" s="96"/>
+      <c r="DI213" s="78">
         <v>192</v>
       </c>
     </row>
-    <row r="214" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A214" s="63"/>
       <c r="B214" s="97" t="s">
         <v>35</v>
@@ -85333,16 +86742,22 @@
       <c r="DC214" s="78">
         <v>0</v>
       </c>
-      <c r="DD214" s="96"/>
+      <c r="DD214" s="78">
+        <v>0</v>
+      </c>
       <c r="DE214" s="78">
         <v>0</v>
       </c>
       <c r="DF214" s="96"/>
       <c r="DG214" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH214" s="96"/>
+      <c r="DI214" s="78">
         <v>121</v>
       </c>
     </row>
-    <row r="215" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A215" s="63"/>
       <c r="B215" s="97" t="s">
         <v>35</v>
@@ -85660,16 +87075,22 @@
       <c r="DC215" s="78">
         <v>0</v>
       </c>
-      <c r="DD215" s="96"/>
+      <c r="DD215" s="78">
+        <v>0</v>
+      </c>
       <c r="DE215" s="78">
         <v>0</v>
       </c>
       <c r="DF215" s="96"/>
       <c r="DG215" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH215" s="96"/>
+      <c r="DI215" s="78">
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A216" s="63"/>
       <c r="B216" s="97" t="s">
         <v>35</v>
@@ -85987,16 +87408,22 @@
       <c r="DC216" s="78">
         <v>0</v>
       </c>
-      <c r="DD216" s="96"/>
+      <c r="DD216" s="78">
+        <v>0</v>
+      </c>
       <c r="DE216" s="78">
         <v>0</v>
       </c>
       <c r="DF216" s="96"/>
       <c r="DG216" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH216" s="96"/>
+      <c r="DI216" s="78">
         <v>117</v>
       </c>
     </row>
-    <row r="217" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A217" s="63"/>
       <c r="B217" s="97" t="s">
         <v>35</v>
@@ -86314,16 +87741,22 @@
       <c r="DC217" s="78">
         <v>0</v>
       </c>
-      <c r="DD217" s="96"/>
+      <c r="DD217" s="78">
+        <v>0</v>
+      </c>
       <c r="DE217" s="78">
         <v>0</v>
       </c>
       <c r="DF217" s="96"/>
       <c r="DG217" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH217" s="96"/>
+      <c r="DI217" s="78">
         <v>21</v>
       </c>
     </row>
-    <row r="218" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A218" s="63"/>
       <c r="B218" s="97" t="s">
         <v>35</v>
@@ -86641,16 +88074,22 @@
       <c r="DC218" s="78">
         <v>0</v>
       </c>
-      <c r="DD218" s="96"/>
+      <c r="DD218" s="78">
+        <v>0</v>
+      </c>
       <c r="DE218" s="78">
         <v>0</v>
       </c>
       <c r="DF218" s="96"/>
       <c r="DG218" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH218" s="96"/>
+      <c r="DI218" s="78">
         <v>48</v>
       </c>
     </row>
-    <row r="219" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A219" s="63"/>
       <c r="B219" s="97" t="s">
         <v>35</v>
@@ -86968,16 +88407,22 @@
       <c r="DC219" s="78">
         <v>0</v>
       </c>
-      <c r="DD219" s="96"/>
+      <c r="DD219" s="78">
+        <v>0</v>
+      </c>
       <c r="DE219" s="78">
         <v>0</v>
       </c>
       <c r="DF219" s="96"/>
       <c r="DG219" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH219" s="96"/>
+      <c r="DI219" s="78">
         <v>64</v>
       </c>
     </row>
-    <row r="220" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A220" s="63"/>
       <c r="B220" s="97" t="s">
         <v>35</v>
@@ -87295,16 +88740,22 @@
       <c r="DC220" s="78">
         <v>0</v>
       </c>
-      <c r="DD220" s="96"/>
+      <c r="DD220" s="78">
+        <v>0</v>
+      </c>
       <c r="DE220" s="78">
         <v>0</v>
       </c>
       <c r="DF220" s="96"/>
       <c r="DG220" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH220" s="96"/>
+      <c r="DI220" s="78">
         <v>44</v>
       </c>
     </row>
-    <row r="221" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A221" s="63"/>
       <c r="B221" s="97" t="s">
         <v>35</v>
@@ -87622,16 +89073,22 @@
       <c r="DC221" s="78">
         <v>0</v>
       </c>
-      <c r="DD221" s="96"/>
+      <c r="DD221" s="78">
+        <v>0</v>
+      </c>
       <c r="DE221" s="78">
         <v>0</v>
       </c>
       <c r="DF221" s="96"/>
       <c r="DG221" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH221" s="96"/>
+      <c r="DI221" s="78">
         <v>66</v>
       </c>
     </row>
-    <row r="222" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A222" s="63"/>
       <c r="B222" s="97" t="s">
         <v>35</v>
@@ -87949,16 +89406,22 @@
       <c r="DC222" s="78">
         <v>0</v>
       </c>
-      <c r="DD222" s="96"/>
+      <c r="DD222" s="78">
+        <v>0</v>
+      </c>
       <c r="DE222" s="78">
         <v>0</v>
       </c>
       <c r="DF222" s="96"/>
       <c r="DG222" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH222" s="96"/>
+      <c r="DI222" s="78">
         <v>55</v>
       </c>
     </row>
-    <row r="223" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A223" s="63"/>
       <c r="B223" s="97" t="s">
         <v>35</v>
@@ -88276,16 +89739,22 @@
       <c r="DC223" s="78">
         <v>0</v>
       </c>
-      <c r="DD223" s="96"/>
+      <c r="DD223" s="78">
+        <v>0</v>
+      </c>
       <c r="DE223" s="78">
         <v>0</v>
       </c>
       <c r="DF223" s="96"/>
       <c r="DG223" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH223" s="96"/>
+      <c r="DI223" s="78">
         <v>43</v>
       </c>
     </row>
-    <row r="224" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A224" s="63"/>
       <c r="B224" s="97" t="s">
         <v>35</v>
@@ -88603,16 +90072,22 @@
       <c r="DC224" s="78">
         <v>0</v>
       </c>
-      <c r="DD224" s="96"/>
+      <c r="DD224" s="78">
+        <v>0</v>
+      </c>
       <c r="DE224" s="78">
         <v>0</v>
       </c>
       <c r="DF224" s="96"/>
       <c r="DG224" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH224" s="96"/>
+      <c r="DI224" s="78">
         <v>6</v>
       </c>
     </row>
-    <row r="225" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A225" s="63"/>
       <c r="B225" s="97" t="s">
         <v>35</v>
@@ -88930,16 +90405,22 @@
       <c r="DC225" s="78">
         <v>0</v>
       </c>
-      <c r="DD225" s="96"/>
+      <c r="DD225" s="78">
+        <v>0</v>
+      </c>
       <c r="DE225" s="78">
         <v>0</v>
       </c>
       <c r="DF225" s="96"/>
       <c r="DG225" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH225" s="96"/>
+      <c r="DI225" s="78">
         <v>65</v>
       </c>
     </row>
-    <row r="226" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A226" s="63"/>
       <c r="B226" s="97" t="s">
         <v>35</v>
@@ -89257,16 +90738,22 @@
       <c r="DC226" s="78">
         <v>0</v>
       </c>
-      <c r="DD226" s="96"/>
+      <c r="DD226" s="78">
+        <v>0</v>
+      </c>
       <c r="DE226" s="78">
         <v>0</v>
       </c>
       <c r="DF226" s="96"/>
       <c r="DG226" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH226" s="96"/>
+      <c r="DI226" s="78">
         <v>39</v>
       </c>
     </row>
-    <row r="227" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A227" s="63"/>
       <c r="B227" s="97" t="s">
         <v>35</v>
@@ -89567,7 +91054,7 @@
         <v>3</v>
       </c>
       <c r="CX227" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CY227" s="78">
         <v>0</v>
@@ -89576,24 +91063,30 @@
         <v>0</v>
       </c>
       <c r="DA227" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DB227" s="78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DC227" s="78">
         <v>0</v>
       </c>
-      <c r="DD227" s="96"/>
+      <c r="DD227" s="78">
+        <v>0</v>
+      </c>
       <c r="DE227" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DF227" s="96"/>
       <c r="DG227" s="78">
-        <v>135</v>
+        <v>0</v>
+      </c>
+      <c r="DH227" s="96"/>
+      <c r="DI227" s="78">
+        <v>139</v>
       </c>
     </row>
-    <row r="228" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A228" s="63"/>
       <c r="B228" s="97" t="s">
         <v>35</v>
@@ -89911,16 +91404,22 @@
       <c r="DC228" s="78">
         <v>0</v>
       </c>
-      <c r="DD228" s="96"/>
+      <c r="DD228" s="78">
+        <v>0</v>
+      </c>
       <c r="DE228" s="78">
         <v>0</v>
       </c>
       <c r="DF228" s="96"/>
       <c r="DG228" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH228" s="96"/>
+      <c r="DI228" s="78">
         <v>82</v>
       </c>
     </row>
-    <row r="229" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A229" s="63"/>
       <c r="B229" s="97" t="s">
         <v>35</v>
@@ -90238,16 +91737,22 @@
       <c r="DC229" s="78">
         <v>0</v>
       </c>
-      <c r="DD229" s="96"/>
+      <c r="DD229" s="78">
+        <v>0</v>
+      </c>
       <c r="DE229" s="78">
         <v>0</v>
       </c>
       <c r="DF229" s="96"/>
       <c r="DG229" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH229" s="96"/>
+      <c r="DI229" s="78">
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A230" s="63"/>
       <c r="B230" s="97" t="s">
         <v>35</v>
@@ -90565,16 +92070,22 @@
       <c r="DC230" s="78">
         <v>0</v>
       </c>
-      <c r="DD230" s="96"/>
+      <c r="DD230" s="78">
+        <v>0</v>
+      </c>
       <c r="DE230" s="78">
         <v>0</v>
       </c>
       <c r="DF230" s="96"/>
       <c r="DG230" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH230" s="96"/>
+      <c r="DI230" s="78">
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A231" s="63"/>
       <c r="B231" s="97" t="s">
         <v>35</v>
@@ -90892,16 +92403,22 @@
       <c r="DC231" s="78">
         <v>0</v>
       </c>
-      <c r="DD231" s="96"/>
+      <c r="DD231" s="78">
+        <v>0</v>
+      </c>
       <c r="DE231" s="78">
         <v>0</v>
       </c>
       <c r="DF231" s="96"/>
       <c r="DG231" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH231" s="96"/>
+      <c r="DI231" s="78">
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A232" s="63"/>
       <c r="B232" s="97" t="s">
         <v>35</v>
@@ -91219,16 +92736,22 @@
       <c r="DC232" s="78">
         <v>0</v>
       </c>
-      <c r="DD232" s="96"/>
+      <c r="DD232" s="78">
+        <v>0</v>
+      </c>
       <c r="DE232" s="78">
         <v>0</v>
       </c>
       <c r="DF232" s="96"/>
       <c r="DG232" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH232" s="96"/>
+      <c r="DI232" s="78">
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A233" s="63"/>
       <c r="B233" s="97" t="s">
         <v>35</v>
@@ -91546,16 +93069,22 @@
       <c r="DC233" s="78">
         <v>0</v>
       </c>
-      <c r="DD233" s="96"/>
+      <c r="DD233" s="78">
+        <v>0</v>
+      </c>
       <c r="DE233" s="78">
         <v>0</v>
       </c>
       <c r="DF233" s="96"/>
       <c r="DG233" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH233" s="96"/>
+      <c r="DI233" s="78">
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A234" s="63"/>
       <c r="B234" s="97" t="s">
         <v>35</v>
@@ -91873,16 +93402,22 @@
       <c r="DC234" s="78">
         <v>0</v>
       </c>
-      <c r="DD234" s="96"/>
+      <c r="DD234" s="78">
+        <v>0</v>
+      </c>
       <c r="DE234" s="78">
         <v>0</v>
       </c>
       <c r="DF234" s="96"/>
       <c r="DG234" s="78">
+        <v>0</v>
+      </c>
+      <c r="DH234" s="96"/>
+      <c r="DI234" s="78">
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A235" s="63"/>
       <c r="B235" s="101" t="s">
         <v>35</v>
@@ -92054,7 +93589,7 @@
         <v>1</v>
       </c>
       <c r="BG235" s="80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH235" s="80">
         <v>1</v>
@@ -92200,19 +93735,25 @@
       <c r="DC235" s="80">
         <v>0</v>
       </c>
-      <c r="DD235" s="96"/>
+      <c r="DD235" s="80">
+        <v>0</v>
+      </c>
       <c r="DE235" s="80">
         <v>0</v>
       </c>
       <c r="DF235" s="96"/>
       <c r="DG235" s="80">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="DH235" s="96"/>
+      <c r="DI235" s="80">
+        <v>26</v>
       </c>
     </row>
-    <row r="238" spans="1:111" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A238" s="63"/>
     </row>
-    <row r="240" spans="1:111" s="86" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:113" s="86" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A240" s="102"/>
     </row>
     <row r="245" spans="6:60" x14ac:dyDescent="0.3">
@@ -92278,7 +93819,7 @@
     <mergeCell ref="C3:J3"/>
     <mergeCell ref="B14:G14"/>
   </mergeCells>
-  <conditionalFormatting sqref="F16:CJ233 F235:CJ235 CK16:DC235">
+  <conditionalFormatting sqref="F16:CJ233 F235:CJ235 CK16:DE235">
     <cfRule type="expression" dxfId="4" priority="11">
       <formula>TODAY()-F$16&lt;6</formula>
     </cfRule>
